--- a/reports/data_dictionary.xlsx
+++ b/reports/data_dictionary.xlsx
@@ -2087,7 +2087,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Size of the party flying with the respondent (count includes the respondent)</t>
+          <t>Number of people flying with the respondent (count excludes the respondent)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Size of ground access travel party</t>
+          <t>Size of ground access travel party (count excludes the respondent)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -7021,7 +7021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C802"/>
+  <dimension ref="A1:C804"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12652,7 +12652,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>ABOVE_150K</t>
+          <t>BETWEEN_150_199K</t>
         </is>
       </c>
     </row>
@@ -12678,11 +12678,11 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>BETWEEN_200_299K</t>
         </is>
       </c>
     </row>
@@ -12693,41 +12693,41 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>REFUSED</t>
+          <t>MORE_THAN_300K</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>HouseholdIncome</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>98</v>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>OTHER</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>HouseholdWorkers</t>
+          <t>HouseholdIncome</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>NONE</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>HouseholdWorkers</t>
-        </is>
-      </c>
-      <c r="B392" t="n">
-        <v>1</v>
-      </c>
-      <c r="C392" t="inlineStr">
-        <is>
-          <t>ONE</t>
+          <t>REFUSED</t>
         </is>
       </c>
     </row>
@@ -12738,11 +12738,11 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>TWO</t>
+          <t>NONE</t>
         </is>
       </c>
     </row>
@@ -12753,11 +12753,11 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>THREE</t>
+          <t>ONE</t>
         </is>
       </c>
     </row>
@@ -12768,11 +12768,11 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>FOUR</t>
+          <t>TWO</t>
         </is>
       </c>
     </row>
@@ -12783,11 +12783,11 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>THREE</t>
         </is>
       </c>
     </row>
@@ -12798,11 +12798,11 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>SIX</t>
+          <t>FOUR</t>
         </is>
       </c>
     </row>
@@ -12813,11 +12813,11 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>SEVEN</t>
+          <t>FIVE</t>
         </is>
       </c>
     </row>
@@ -12828,11 +12828,11 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>EIGHT</t>
+          <t>SIX</t>
         </is>
       </c>
     </row>
@@ -12843,11 +12843,11 @@
         </is>
       </c>
       <c r="B400" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>NINE</t>
+          <t>SEVEN</t>
         </is>
       </c>
     </row>
@@ -12858,11 +12858,11 @@
         </is>
       </c>
       <c r="B401" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>TEN_OR_MORE</t>
+          <t>EIGHT</t>
         </is>
       </c>
     </row>
@@ -12873,11 +12873,11 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>NINE</t>
         </is>
       </c>
     </row>
@@ -12888,41 +12888,41 @@
         </is>
       </c>
       <c r="B403" t="n">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>REFUSED</t>
+          <t>TEN_OR_MORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>HouseholdWorkers</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>98</v>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>OTHER</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>YesNoType</t>
+          <t>HouseholdWorkers</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>YesNoType</t>
-        </is>
-      </c>
-      <c r="B406" t="n">
-        <v>2</v>
-      </c>
-      <c r="C406" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>REFUSED</t>
         </is>
       </c>
     </row>
@@ -12933,11 +12933,11 @@
         </is>
       </c>
       <c r="B407" t="n">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>YES</t>
         </is>
       </c>
     </row>
@@ -12948,45 +12948,41 @@
         </is>
       </c>
       <c r="B408" t="n">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>REFUSED</t>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>YesNoType</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>98</v>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>OTHER</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>SurveyLanguage</t>
-        </is>
-      </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>ENGLISH</t>
-        </is>
+          <t>YesNoType</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>99</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>ENGLISH</t>
-        </is>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>SurveyLanguage</t>
-        </is>
-      </c>
-      <c r="B411" t="inlineStr">
-        <is>
-          <t>SPANI</t>
-        </is>
-      </c>
-      <c r="C411" t="inlineStr">
-        <is>
-          <t>SPANISH</t>
+          <t>REFUSED</t>
         </is>
       </c>
     </row>
@@ -12996,12 +12992,14 @@
           <t>SurveyLanguage</t>
         </is>
       </c>
-      <c r="B412" t="n">
-        <v>98</v>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>ENGLISH</t>
+        </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>ENGLISH</t>
         </is>
       </c>
     </row>
@@ -13011,42 +13009,44 @@
           <t>SurveyLanguage</t>
         </is>
       </c>
-      <c r="B413" t="n">
-        <v>99</v>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>SPANI</t>
+        </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>REFUSED</t>
+          <t>SPANISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>SurveyLanguage</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>98</v>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>OTHER</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>PassengerType</t>
+          <t>SurveyLanguage</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>ARRIVING</t>
-        </is>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>PassengerType</t>
-        </is>
-      </c>
-      <c r="B416" t="n">
-        <v>2</v>
-      </c>
-      <c r="C416" t="inlineStr">
-        <is>
-          <t>DEPARTING</t>
+          <t>REFUSED</t>
         </is>
       </c>
     </row>
@@ -13057,41 +13057,41 @@
         </is>
       </c>
       <c r="B417" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>CONNECTING</t>
+          <t>ARRIVING</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>PassengerType</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>2</v>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>DEPARTING</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>PassengerType</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>AIR_CANADA</t>
-        </is>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>Airline</t>
-        </is>
-      </c>
-      <c r="B420" t="n">
-        <v>2</v>
-      </c>
-      <c r="C420" t="inlineStr">
-        <is>
-          <t>ALASKA_AIRLINES</t>
+          <t>CONNECTING</t>
         </is>
       </c>
     </row>
@@ -13102,11 +13102,11 @@
         </is>
       </c>
       <c r="B421" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>ALLEGIANT_AIR</t>
+          <t>AIR_CANADA</t>
         </is>
       </c>
     </row>
@@ -13117,11 +13117,11 @@
         </is>
       </c>
       <c r="B422" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>AMERICAN_AIRLINES</t>
+          <t>ALASKA_AIRLINES</t>
         </is>
       </c>
     </row>
@@ -13132,11 +13132,11 @@
         </is>
       </c>
       <c r="B423" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>BREEZE</t>
+          <t>ALLEGIANT_AIR</t>
         </is>
       </c>
     </row>
@@ -13147,11 +13147,11 @@
         </is>
       </c>
       <c r="B424" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>BRITISH_AIRWAYS</t>
+          <t>AMERICAN_AIRLINES</t>
         </is>
       </c>
     </row>
@@ -13162,11 +13162,11 @@
         </is>
       </c>
       <c r="B425" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>DELTA_AIRLINES</t>
+          <t>BREEZE</t>
         </is>
       </c>
     </row>
@@ -13177,11 +13177,11 @@
         </is>
       </c>
       <c r="B426" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>HAWAIIAN_AIRLINES</t>
+          <t>BRITISH_AIRWAYS</t>
         </is>
       </c>
     </row>
@@ -13192,11 +13192,11 @@
         </is>
       </c>
       <c r="B427" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>JAPAN_AIRLINES</t>
+          <t>DELTA_AIRLINES</t>
         </is>
       </c>
     </row>
@@ -13207,11 +13207,11 @@
         </is>
       </c>
       <c r="B428" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>JETBLUE</t>
+          <t>HAWAIIAN_AIRLINES</t>
         </is>
       </c>
     </row>
@@ -13222,11 +13222,11 @@
         </is>
       </c>
       <c r="B429" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>LUFTHANSHA</t>
+          <t>JAPAN_AIRLINES</t>
         </is>
       </c>
     </row>
@@ -13237,11 +13237,11 @@
         </is>
       </c>
       <c r="B430" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>UNITED_AIRLINES</t>
+          <t>JETBLUE</t>
         </is>
       </c>
     </row>
@@ -13252,11 +13252,11 @@
         </is>
       </c>
       <c r="B431" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>WESTJET</t>
+          <t>LUFTHANSHA</t>
         </is>
       </c>
     </row>
@@ -13267,11 +13267,11 @@
         </is>
       </c>
       <c r="B432" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>FRONTIER_AIRLINES</t>
+          <t>UNITED_AIRLINES</t>
         </is>
       </c>
     </row>
@@ -13282,11 +13282,11 @@
         </is>
       </c>
       <c r="B433" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>SOUTHWEST_AIRLINES</t>
+          <t>WESTJET</t>
         </is>
       </c>
     </row>
@@ -13297,11 +13297,11 @@
         </is>
       </c>
       <c r="B434" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>SPIRIT</t>
+          <t>FRONTIER_AIRLINES</t>
         </is>
       </c>
     </row>
@@ -13312,11 +13312,11 @@
         </is>
       </c>
       <c r="B435" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>SUNCOUNTY_AIRLINES</t>
+          <t>SOUTHWEST_AIRLINES</t>
         </is>
       </c>
     </row>
@@ -13327,41 +13327,41 @@
         </is>
       </c>
       <c r="B436" t="n">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>OTHER_SPECIFY</t>
+          <t>SPIRIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Airline</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>17</v>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>SUNCOUNTY_AIRLINES</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>DepartTime</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>FIVE_TO_FIVE_THIRTY</t>
-        </is>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>DepartTime</t>
-        </is>
-      </c>
-      <c r="B439" t="n">
-        <v>2</v>
-      </c>
-      <c r="C439" t="inlineStr">
-        <is>
-          <t>FIVE_THIRTY_TO_SIX</t>
+          <t>OTHER_SPECIFY</t>
         </is>
       </c>
     </row>
@@ -13372,11 +13372,11 @@
         </is>
       </c>
       <c r="B440" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>SIX_TO_SIX_THIRTY</t>
+          <t>FIVE_TO_FIVE_THIRTY</t>
         </is>
       </c>
     </row>
@@ -13387,11 +13387,11 @@
         </is>
       </c>
       <c r="B441" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>SIX_THIRTY_TO_SEVEN</t>
+          <t>FIVE_THIRTY_TO_SIX</t>
         </is>
       </c>
     </row>
@@ -13402,11 +13402,11 @@
         </is>
       </c>
       <c r="B442" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>SEVEN_TO_SEVEN_THIRTY</t>
+          <t>SIX_TO_SIX_THIRTY</t>
         </is>
       </c>
     </row>
@@ -13417,11 +13417,11 @@
         </is>
       </c>
       <c r="B443" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>SEVEN_THIRTY_TO_EIGHT</t>
+          <t>SIX_THIRTY_TO_SEVEN</t>
         </is>
       </c>
     </row>
@@ -13432,11 +13432,11 @@
         </is>
       </c>
       <c r="B444" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>EIGHT_TO_EIGHT_THIRTY</t>
+          <t>SEVEN_TO_SEVEN_THIRTY</t>
         </is>
       </c>
     </row>
@@ -13447,11 +13447,11 @@
         </is>
       </c>
       <c r="B445" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>EIGHT_THIRTY_TO_NINE</t>
+          <t>SEVEN_THIRTY_TO_EIGHT</t>
         </is>
       </c>
     </row>
@@ -13462,11 +13462,11 @@
         </is>
       </c>
       <c r="B446" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>NINE_TO_NINE_THIRTY</t>
+          <t>EIGHT_TO_EIGHT_THIRTY</t>
         </is>
       </c>
     </row>
@@ -13477,11 +13477,11 @@
         </is>
       </c>
       <c r="B447" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>NINE_THIRTY_TO_TEN</t>
+          <t>EIGHT_THIRTY_TO_NINE</t>
         </is>
       </c>
     </row>
@@ -13492,11 +13492,11 @@
         </is>
       </c>
       <c r="B448" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>TEN_TO_TEN_THIRTY</t>
+          <t>NINE_TO_NINE_THIRTY</t>
         </is>
       </c>
     </row>
@@ -13507,11 +13507,11 @@
         </is>
       </c>
       <c r="B449" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>TEN_THIRTY_TO_ELEVEN</t>
+          <t>NINE_THIRTY_TO_TEN</t>
         </is>
       </c>
     </row>
@@ -13522,11 +13522,11 @@
         </is>
       </c>
       <c r="B450" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>ELEVEN_TO_ELEVEN_THIRTY</t>
+          <t>TEN_TO_TEN_THIRTY</t>
         </is>
       </c>
     </row>
@@ -13537,11 +13537,11 @@
         </is>
       </c>
       <c r="B451" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>ELEVEN_THIRTY_TO_NOON</t>
+          <t>TEN_THIRTY_TO_ELEVEN</t>
         </is>
       </c>
     </row>
@@ -13552,11 +13552,11 @@
         </is>
       </c>
       <c r="B452" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>NOON_TO_TWELVE_THIRTY</t>
+          <t>ELEVEN_TO_ELEVEN_THIRTY</t>
         </is>
       </c>
     </row>
@@ -13567,11 +13567,11 @@
         </is>
       </c>
       <c r="B453" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>TWELVE_THIRTY_TO_THIRTEEN</t>
+          <t>ELEVEN_THIRTY_TO_NOON</t>
         </is>
       </c>
     </row>
@@ -13582,11 +13582,11 @@
         </is>
       </c>
       <c r="B454" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>THIRTEEN_TO_THIRTEEN_THIRTY</t>
+          <t>NOON_TO_TWELVE_THIRTY</t>
         </is>
       </c>
     </row>
@@ -13597,11 +13597,11 @@
         </is>
       </c>
       <c r="B455" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>THIRTEEN_THIRTY_TO_FOURTEEN</t>
+          <t>TWELVE_THIRTY_TO_THIRTEEN</t>
         </is>
       </c>
     </row>
@@ -13612,11 +13612,11 @@
         </is>
       </c>
       <c r="B456" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>FOURTEEN_TO_FOURTEEN_THIRTY</t>
+          <t>THIRTEEN_TO_THIRTEEN_THIRTY</t>
         </is>
       </c>
     </row>
@@ -13627,11 +13627,11 @@
         </is>
       </c>
       <c r="B457" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>FOURTEEN_THIRTY_TO_FIFTEEN</t>
+          <t>THIRTEEN_THIRTY_TO_FOURTEEN</t>
         </is>
       </c>
     </row>
@@ -13642,11 +13642,11 @@
         </is>
       </c>
       <c r="B458" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>FIFTEEN_TO_FIFTEEN_THIRTY</t>
+          <t>FOURTEEN_TO_FOURTEEN_THIRTY</t>
         </is>
       </c>
     </row>
@@ -13657,11 +13657,11 @@
         </is>
       </c>
       <c r="B459" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>FIFTEEN_THIRTY_TO_SIXTEEN</t>
+          <t>FOURTEEN_THIRTY_TO_FIFTEEN</t>
         </is>
       </c>
     </row>
@@ -13672,11 +13672,11 @@
         </is>
       </c>
       <c r="B460" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>SIXTEEN_TO_SIXTEEN_THIRTY</t>
+          <t>FIFTEEN_TO_FIFTEEN_THIRTY</t>
         </is>
       </c>
     </row>
@@ -13687,11 +13687,11 @@
         </is>
       </c>
       <c r="B461" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>SIXTEEN_THIRTY_TO_SEVENTEEN</t>
+          <t>FIFTEEN_THIRTY_TO_SIXTEEN</t>
         </is>
       </c>
     </row>
@@ -13702,11 +13702,11 @@
         </is>
       </c>
       <c r="B462" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>SEVENTEEN_TO_SEVENTEEN_THIRTY</t>
+          <t>SIXTEEN_TO_SIXTEEN_THIRTY</t>
         </is>
       </c>
     </row>
@@ -13717,11 +13717,11 @@
         </is>
       </c>
       <c r="B463" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>SEVENTEEN_THIRTY_TO_EIGHTEEN</t>
+          <t>SIXTEEN_THIRTY_TO_SEVENTEEN</t>
         </is>
       </c>
     </row>
@@ -13732,11 +13732,11 @@
         </is>
       </c>
       <c r="B464" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>EIGHTEEN_TO_EIGHTEEN_THIRTY</t>
+          <t>SEVENTEEN_TO_SEVENTEEN_THIRTY</t>
         </is>
       </c>
     </row>
@@ -13747,11 +13747,11 @@
         </is>
       </c>
       <c r="B465" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>EIGHTEEN_THIRTY_TO_NINETEEN</t>
+          <t>SEVENTEEN_THIRTY_TO_EIGHTEEN</t>
         </is>
       </c>
     </row>
@@ -13762,11 +13762,11 @@
         </is>
       </c>
       <c r="B466" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>NINETEEN_TO_NINETEEN_THIRTY</t>
+          <t>EIGHTEEN_TO_EIGHTEEN_THIRTY</t>
         </is>
       </c>
     </row>
@@ -13777,11 +13777,11 @@
         </is>
       </c>
       <c r="B467" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>NINETEEN_THIRTY_TO_TWENTY</t>
+          <t>EIGHTEEN_THIRTY_TO_NINETEEN</t>
         </is>
       </c>
     </row>
@@ -13792,11 +13792,11 @@
         </is>
       </c>
       <c r="B468" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>TWENTY_TO_TWENTY_THIRTY</t>
+          <t>NINETEEN_TO_NINETEEN_THIRTY</t>
         </is>
       </c>
     </row>
@@ -13807,11 +13807,11 @@
         </is>
       </c>
       <c r="B469" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>TWENTY_THIRTY_TO_TWENTY_ONE</t>
+          <t>NINETEEN_THIRTY_TO_TWENTY</t>
         </is>
       </c>
     </row>
@@ -13822,11 +13822,11 @@
         </is>
       </c>
       <c r="B470" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>TWENTY_ONE_TO_TWENTY_ONE_THIRTY</t>
+          <t>TWENTY_TO_TWENTY_THIRTY</t>
         </is>
       </c>
     </row>
@@ -13837,11 +13837,11 @@
         </is>
       </c>
       <c r="B471" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>TWENTY_ONE_THIRTY_TO_TWENTY_TWO</t>
+          <t>TWENTY_THIRTY_TO_TWENTY_ONE</t>
         </is>
       </c>
     </row>
@@ -13852,11 +13852,11 @@
         </is>
       </c>
       <c r="B472" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>TWENTY_TWO_TO_TWENTY_TWO_THIRTY</t>
+          <t>TWENTY_ONE_TO_TWENTY_ONE_THIRTY</t>
         </is>
       </c>
     </row>
@@ -13867,11 +13867,11 @@
         </is>
       </c>
       <c r="B473" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>TWENTY_TWO_THIRTY_TO_TWENTY_THREE</t>
+          <t>TWENTY_ONE_THIRTY_TO_TWENTY_TWO</t>
         </is>
       </c>
     </row>
@@ -13882,11 +13882,11 @@
         </is>
       </c>
       <c r="B474" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>TWENTY_THREE_TO_TWENTY_THREE_THIRTY</t>
+          <t>TWENTY_TWO_TO_TWENTY_TWO_THIRTY</t>
         </is>
       </c>
     </row>
@@ -13897,11 +13897,11 @@
         </is>
       </c>
       <c r="B475" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>TWENTY_THREE_THIRTY_TO_MIDNIGHT</t>
+          <t>TWENTY_TWO_THIRTY_TO_TWENTY_THREE</t>
         </is>
       </c>
     </row>
@@ -13912,11 +13912,11 @@
         </is>
       </c>
       <c r="B476" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>MIDNIGHT_TO_ZERO_THIRTY</t>
+          <t>TWENTY_THREE_TO_TWENTY_THREE_THIRTY</t>
         </is>
       </c>
     </row>
@@ -13927,11 +13927,11 @@
         </is>
       </c>
       <c r="B477" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>ZERO_THIRTY_TO_ONE</t>
+          <t>TWENTY_THREE_THIRTY_TO_MIDNIGHT</t>
         </is>
       </c>
     </row>
@@ -13942,11 +13942,11 @@
         </is>
       </c>
       <c r="B478" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>ONE_TO_ONE_THIRTY</t>
+          <t>MIDNIGHT_TO_ZERO_THIRTY</t>
         </is>
       </c>
     </row>
@@ -13957,11 +13957,11 @@
         </is>
       </c>
       <c r="B479" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>ONE_THIRTY_TO_TWO</t>
+          <t>ZERO_THIRTY_TO_ONE</t>
         </is>
       </c>
     </row>
@@ -13972,11 +13972,11 @@
         </is>
       </c>
       <c r="B480" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>TWO_TO_TWO_THIRTY</t>
+          <t>ONE_TO_ONE_THIRTY</t>
         </is>
       </c>
     </row>
@@ -13987,11 +13987,11 @@
         </is>
       </c>
       <c r="B481" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>TWO_THIRTY_TO_THREE</t>
+          <t>ONE_THIRTY_TO_TWO</t>
         </is>
       </c>
     </row>
@@ -14002,11 +14002,11 @@
         </is>
       </c>
       <c r="B482" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>THREE_TO_THREE_THIRTY</t>
+          <t>TWO_TO_TWO_THIRTY</t>
         </is>
       </c>
     </row>
@@ -14017,11 +14017,11 @@
         </is>
       </c>
       <c r="B483" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>THREE_THIRTY_TO_FOUR</t>
+          <t>TWO_THIRTY_TO_THREE</t>
         </is>
       </c>
     </row>
@@ -14032,11 +14032,11 @@
         </is>
       </c>
       <c r="B484" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>FOUR_TO_FOUR_THIRTY</t>
+          <t>THREE_TO_THREE_THIRTY</t>
         </is>
       </c>
     </row>
@@ -14047,41 +14047,41 @@
         </is>
       </c>
       <c r="B485" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>FOUR_THIRTY_TO_FIVE</t>
+          <t>THREE_THIRTY_TO_FOUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>DepartTime</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>47</v>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>FOUR_TO_FOUR_THIRTY</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>FlightPurpose</t>
+          <t>DepartTime</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>BUSINESS_WORK</t>
-        </is>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>FlightPurpose</t>
-        </is>
-      </c>
-      <c r="B488" t="n">
-        <v>2</v>
-      </c>
-      <c r="C488" t="inlineStr">
-        <is>
-          <t>LEISURE_FAMILY</t>
+          <t>FOUR_THIRTY_TO_FIVE</t>
         </is>
       </c>
     </row>
@@ -14092,11 +14092,11 @@
         </is>
       </c>
       <c r="B489" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>COMBINATION_BUSINESS_LEISURE</t>
+          <t>BUSINESS_WORK</t>
         </is>
       </c>
     </row>
@@ -14107,11 +14107,11 @@
         </is>
       </c>
       <c r="B490" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>PERSONAL</t>
+          <t>LEISURE_FAMILY</t>
         </is>
       </c>
     </row>
@@ -14122,11 +14122,11 @@
         </is>
       </c>
       <c r="B491" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>SCHOOL</t>
+          <t>COMBINATION_BUSINESS_LEISURE</t>
         </is>
       </c>
     </row>
@@ -14137,11 +14137,11 @@
         </is>
       </c>
       <c r="B492" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>COMMUTE</t>
+          <t>PERSONAL</t>
         </is>
       </c>
     </row>
@@ -14152,41 +14152,41 @@
         </is>
       </c>
       <c r="B493" t="n">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>OTHER_SPECIFY</t>
+          <t>SCHOOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>FlightPurpose</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>6</v>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>COMMUTE</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>ConventionCenterActivity</t>
+          <t>FlightPurpose</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>ATTENDEE</t>
-        </is>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="inlineStr">
-        <is>
-          <t>ConventionCenterActivity</t>
-        </is>
-      </c>
-      <c r="B496" t="n">
-        <v>2</v>
-      </c>
-      <c r="C496" t="inlineStr">
-        <is>
-          <t>EXHIBITOR</t>
+          <t>OTHER_SPECIFY</t>
         </is>
       </c>
     </row>
@@ -14197,11 +14197,11 @@
         </is>
       </c>
       <c r="B497" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>MEETING_PLANNER</t>
+          <t>ATTENDEE</t>
         </is>
       </c>
     </row>
@@ -14212,11 +14212,11 @@
         </is>
       </c>
       <c r="B498" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>CONTRACTOR</t>
+          <t>EXHIBITOR</t>
         </is>
       </c>
     </row>
@@ -14227,11 +14227,11 @@
         </is>
       </c>
       <c r="B499" t="n">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>OTHER_SPECIFY</t>
+          <t>MEETING_PLANNER</t>
         </is>
       </c>
     </row>
@@ -14242,41 +14242,41 @@
         </is>
       </c>
       <c r="B500" t="n">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>NOT_APPLICABLE</t>
+          <t>CONTRACTOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>ConventionCenterActivity</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>98</v>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>OTHER_SPECIFY</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>CheckedBags</t>
+          <t>ConventionCenterActivity</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>NONE</t>
-        </is>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" t="inlineStr">
-        <is>
-          <t>CheckedBags</t>
-        </is>
-      </c>
-      <c r="B503" t="n">
-        <v>1</v>
-      </c>
-      <c r="C503" t="inlineStr">
-        <is>
-          <t>ONE</t>
+          <t>NOT_APPLICABLE</t>
         </is>
       </c>
     </row>
@@ -14287,11 +14287,11 @@
         </is>
       </c>
       <c r="B504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>TWO</t>
+          <t>NONE</t>
         </is>
       </c>
     </row>
@@ -14302,11 +14302,11 @@
         </is>
       </c>
       <c r="B505" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>THREE</t>
+          <t>ONE</t>
         </is>
       </c>
     </row>
@@ -14317,11 +14317,11 @@
         </is>
       </c>
       <c r="B506" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>FOUR</t>
+          <t>TWO</t>
         </is>
       </c>
     </row>
@@ -14332,11 +14332,11 @@
         </is>
       </c>
       <c r="B507" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>THREE</t>
         </is>
       </c>
     </row>
@@ -14347,11 +14347,11 @@
         </is>
       </c>
       <c r="B508" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>SIX</t>
+          <t>FOUR</t>
         </is>
       </c>
     </row>
@@ -14362,11 +14362,11 @@
         </is>
       </c>
       <c r="B509" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>SEVEN</t>
+          <t>FIVE</t>
         </is>
       </c>
     </row>
@@ -14377,41 +14377,41 @@
         </is>
       </c>
       <c r="B510" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>EIGHT_OR_MORE</t>
+          <t>SIX</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>CheckedBags</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>7</v>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>SEVEN</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>CarryOns</t>
+          <t>CheckedBags</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>NONE</t>
-        </is>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>CarryOns</t>
-        </is>
-      </c>
-      <c r="B513" t="n">
-        <v>1</v>
-      </c>
-      <c r="C513" t="inlineStr">
-        <is>
-          <t>ONE</t>
+          <t>EIGHT_OR_MORE</t>
         </is>
       </c>
     </row>
@@ -14422,11 +14422,11 @@
         </is>
       </c>
       <c r="B514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>TWO</t>
+          <t>NONE</t>
         </is>
       </c>
     </row>
@@ -14437,11 +14437,11 @@
         </is>
       </c>
       <c r="B515" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>THREE</t>
+          <t>ONE</t>
         </is>
       </c>
     </row>
@@ -14452,11 +14452,11 @@
         </is>
       </c>
       <c r="B516" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>FOUR</t>
+          <t>TWO</t>
         </is>
       </c>
     </row>
@@ -14467,11 +14467,11 @@
         </is>
       </c>
       <c r="B517" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>THREE</t>
         </is>
       </c>
     </row>
@@ -14482,11 +14482,11 @@
         </is>
       </c>
       <c r="B518" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>SIX</t>
+          <t>FOUR</t>
         </is>
       </c>
     </row>
@@ -14497,11 +14497,11 @@
         </is>
       </c>
       <c r="B519" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>SEVEN</t>
+          <t>FIVE</t>
         </is>
       </c>
     </row>
@@ -14512,41 +14512,41 @@
         </is>
       </c>
       <c r="B520" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>EIGHT_OR_MORE</t>
+          <t>SIX</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>CarryOns</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>7</v>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>SEVEN</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>TravelDuration</t>
+          <t>CarryOns</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>NONE</t>
-        </is>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>TravelDuration</t>
-        </is>
-      </c>
-      <c r="B523" t="n">
-        <v>1</v>
-      </c>
-      <c r="C523" t="inlineStr">
-        <is>
-          <t>ONE</t>
+          <t>EIGHT_OR_MORE</t>
         </is>
       </c>
     </row>
@@ -14557,11 +14557,11 @@
         </is>
       </c>
       <c r="B524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>TWO</t>
+          <t>NONE</t>
         </is>
       </c>
     </row>
@@ -14572,11 +14572,11 @@
         </is>
       </c>
       <c r="B525" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>THREE</t>
+          <t>ONE</t>
         </is>
       </c>
     </row>
@@ -14587,11 +14587,11 @@
         </is>
       </c>
       <c r="B526" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>FOUR</t>
+          <t>TWO</t>
         </is>
       </c>
     </row>
@@ -14602,11 +14602,11 @@
         </is>
       </c>
       <c r="B527" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>THREE</t>
         </is>
       </c>
     </row>
@@ -14617,11 +14617,11 @@
         </is>
       </c>
       <c r="B528" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>SIX</t>
+          <t>FOUR</t>
         </is>
       </c>
     </row>
@@ -14632,11 +14632,11 @@
         </is>
       </c>
       <c r="B529" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>SEVEN</t>
+          <t>FIVE</t>
         </is>
       </c>
     </row>
@@ -14647,11 +14647,11 @@
         </is>
       </c>
       <c r="B530" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>EIGHT_TO_TEN</t>
+          <t>SIX</t>
         </is>
       </c>
     </row>
@@ -14662,11 +14662,11 @@
         </is>
       </c>
       <c r="B531" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>ELEVEN_TO_FOURTEEN</t>
+          <t>SEVEN</t>
         </is>
       </c>
     </row>
@@ -14677,41 +14677,41 @@
         </is>
       </c>
       <c r="B532" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>MORE_THAN_FOURTEEN</t>
+          <t>EIGHT_TO_TEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>TravelDuration</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>9</v>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>ELEVEN_TO_FOURTEEN</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>PartySize</t>
+          <t>TravelDuration</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>NONE</t>
-        </is>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>PartySize</t>
-        </is>
-      </c>
-      <c r="B535" t="n">
-        <v>1</v>
-      </c>
-      <c r="C535" t="inlineStr">
-        <is>
-          <t>ONE</t>
+          <t>MORE_THAN_FOURTEEN</t>
         </is>
       </c>
     </row>
@@ -14722,11 +14722,11 @@
         </is>
       </c>
       <c r="B536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>TWO</t>
+          <t>NONE</t>
         </is>
       </c>
     </row>
@@ -14737,11 +14737,11 @@
         </is>
       </c>
       <c r="B537" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>THREE</t>
+          <t>ONE</t>
         </is>
       </c>
     </row>
@@ -14752,11 +14752,11 @@
         </is>
       </c>
       <c r="B538" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>FOUR</t>
+          <t>TWO</t>
         </is>
       </c>
     </row>
@@ -14767,11 +14767,11 @@
         </is>
       </c>
       <c r="B539" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>THREE</t>
         </is>
       </c>
     </row>
@@ -14782,11 +14782,11 @@
         </is>
       </c>
       <c r="B540" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>SIX</t>
+          <t>FOUR</t>
         </is>
       </c>
     </row>
@@ -14797,11 +14797,11 @@
         </is>
       </c>
       <c r="B541" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>SEVEN_OR_MORE</t>
+          <t>FIVE</t>
         </is>
       </c>
     </row>
@@ -14812,11 +14812,11 @@
         </is>
       </c>
       <c r="B542" t="n">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>SIX</t>
         </is>
       </c>
     </row>
@@ -14827,41 +14827,41 @@
         </is>
       </c>
       <c r="B543" t="n">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>REFUSED</t>
+          <t>SEVEN_OR_MORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>PartySize</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>98</v>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>OTHER</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>SanFlightFrequency</t>
+          <t>PartySize</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>ONCE_OR_TWICE_PER_YEAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" t="inlineStr">
-        <is>
-          <t>SanFlightFrequency</t>
-        </is>
-      </c>
-      <c r="B546" t="n">
-        <v>2</v>
-      </c>
-      <c r="C546" t="inlineStr">
-        <is>
-          <t>THREE_TO_FIVE_PER_YEAR</t>
+          <t>REFUSED</t>
         </is>
       </c>
     </row>
@@ -14872,11 +14872,11 @@
         </is>
       </c>
       <c r="B547" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>SIX_TO_TEN_PER_YEAR</t>
+          <t>ONCE_OR_TWICE_PER_YEAR</t>
         </is>
       </c>
     </row>
@@ -14887,11 +14887,11 @@
         </is>
       </c>
       <c r="B548" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>ELEVEN_TO_TWENTY_PER_YEAR</t>
+          <t>THREE_TO_FIVE_PER_YEAR</t>
         </is>
       </c>
     </row>
@@ -14902,11 +14902,11 @@
         </is>
       </c>
       <c r="B549" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>TWENTY_ONE_OR_MORE_PER_YEAR</t>
+          <t>SIX_TO_TEN_PER_YEAR</t>
         </is>
       </c>
     </row>
@@ -14917,11 +14917,11 @@
         </is>
       </c>
       <c r="B550" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>NEVER</t>
+          <t>ELEVEN_TO_TWENTY_PER_YEAR</t>
         </is>
       </c>
     </row>
@@ -14932,41 +14932,41 @@
         </is>
       </c>
       <c r="B551" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>ALWAYS</t>
+          <t>TWENTY_ONE_OR_MORE_PER_YEAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>SanFlightFrequency</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>6</v>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>NEVER</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>ModeDecision</t>
+          <t>SanFlightFrequency</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>LOWEST_COST</t>
-        </is>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" t="inlineStr">
-        <is>
-          <t>ModeDecision</t>
-        </is>
-      </c>
-      <c r="B554" t="n">
-        <v>2</v>
-      </c>
-      <c r="C554" t="inlineStr">
-        <is>
-          <t>SHORTEST_DOOR_TO_DOOR_TRAVEL_TIME</t>
+          <t>ALWAYS</t>
         </is>
       </c>
     </row>
@@ -14977,11 +14977,11 @@
         </is>
       </c>
       <c r="B555" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>SMALLEST_CHANCE_FOR_DELAYS</t>
+          <t>LOWEST_COST</t>
         </is>
       </c>
     </row>
@@ -14992,11 +14992,11 @@
         </is>
       </c>
       <c r="B556" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>MOST_COMFORTABLE</t>
+          <t>SHORTEST_DOOR_TO_DOOR_TRAVEL_TIME</t>
         </is>
       </c>
     </row>
@@ -15007,11 +15007,11 @@
         </is>
       </c>
       <c r="B557" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>LEAST_WALKING</t>
+          <t>SMALLEST_CHANCE_FOR_DELAYS</t>
         </is>
       </c>
     </row>
@@ -15022,11 +15022,11 @@
         </is>
       </c>
       <c r="B558" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>DEPENDS_ON_TIME_OF_DAY</t>
+          <t>MOST_COMFORTABLE</t>
         </is>
       </c>
     </row>
@@ -15037,11 +15037,11 @@
         </is>
       </c>
       <c r="B559" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>DEPENDS_ON_TRAVEL_PARTY</t>
+          <t>LEAST_WALKING</t>
         </is>
       </c>
     </row>
@@ -15052,11 +15052,11 @@
         </is>
       </c>
       <c r="B560" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>DEPENDS_ON_WHO_PAYS</t>
+          <t>DEPENDS_ON_TIME_OF_DAY</t>
         </is>
       </c>
     </row>
@@ -15067,41 +15067,41 @@
         </is>
       </c>
       <c r="B561" t="n">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>OTHER_SPECIFY</t>
+          <t>DEPENDS_ON_TRAVEL_PARTY</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>ModeDecision</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>8</v>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>DEPENDS_ON_WHO_PAYS</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>TravelMode</t>
+          <t>ModeDecision</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>WALK</t>
-        </is>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>TravelMode</t>
-        </is>
-      </c>
-      <c r="B564" t="n">
-        <v>2</v>
-      </c>
-      <c r="C564" t="inlineStr">
-        <is>
-          <t>WHEELCHAIR_OR_MOBILITY_DEVICE</t>
+          <t>OTHER_SPECIFY</t>
         </is>
       </c>
     </row>
@@ -15112,11 +15112,11 @@
         </is>
       </c>
       <c r="B565" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>BICYCLE_ELECTRIC_BIKESHARE</t>
+          <t>WALK</t>
         </is>
       </c>
     </row>
@@ -15127,11 +15127,11 @@
         </is>
       </c>
       <c r="B566" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>BICYCLE_NON_ELECTRIC_BIKESHARE</t>
+          <t>WHEELCHAIR_OR_MOBILITY_DEVICE</t>
         </is>
       </c>
     </row>
@@ -15142,11 +15142,11 @@
         </is>
       </c>
       <c r="B567" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>E_SCOOTER_SHARED</t>
+          <t>BICYCLE_ELECTRIC_BIKESHARE</t>
         </is>
       </c>
     </row>
@@ -15157,11 +15157,11 @@
         </is>
       </c>
       <c r="B568" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>BICYCLE_PERSONAL_ELECTRIC</t>
+          <t>BICYCLE_NON_ELECTRIC_BIKESHARE</t>
         </is>
       </c>
     </row>
@@ -15172,11 +15172,11 @@
         </is>
       </c>
       <c r="B569" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>BICYCLE_PERSONAL_NON_ELECTRIC</t>
+          <t>E_SCOOTER_SHARED</t>
         </is>
       </c>
     </row>
@@ -15187,11 +15187,11 @@
         </is>
       </c>
       <c r="B570" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>E_SCOOTER_PERSONAL</t>
+          <t>BICYCLE_PERSONAL_ELECTRIC</t>
         </is>
       </c>
     </row>
@@ -15202,11 +15202,11 @@
         </is>
       </c>
       <c r="B571" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>TAXI</t>
+          <t>BICYCLE_PERSONAL_NON_ELECTRIC</t>
         </is>
       </c>
     </row>
@@ -15217,11 +15217,11 @@
         </is>
       </c>
       <c r="B572" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>UBER_LYFT</t>
+          <t>E_SCOOTER_PERSONAL</t>
         </is>
       </c>
     </row>
@@ -15232,11 +15232,11 @@
         </is>
       </c>
       <c r="B573" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>CAR_SERVICE_BLACK_LIMO</t>
+          <t>TAXI</t>
         </is>
       </c>
     </row>
@@ -15247,11 +15247,11 @@
         </is>
       </c>
       <c r="B574" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>DROPPED_OFF_BY_FAMILY_FRIEND</t>
+          <t>UBER_LYFT</t>
         </is>
       </c>
     </row>
@@ -15262,11 +15262,11 @@
         </is>
       </c>
       <c r="B575" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>DROVE_ALONE_AND_PARKED</t>
+          <t>CAR_SERVICE_BLACK_LIMO</t>
         </is>
       </c>
     </row>
@@ -15277,11 +15277,11 @@
         </is>
       </c>
       <c r="B576" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>DROVE_WITH_OTHERS_AND_PARKED</t>
+          <t>DROPPED_OFF_BY_FAMILY_FRIEND</t>
         </is>
       </c>
     </row>
@@ -15292,11 +15292,11 @@
         </is>
       </c>
       <c r="B577" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>MTS_ROUTE_992</t>
+          <t>DROVE_ALONE_AND_PARKED</t>
         </is>
       </c>
     </row>
@@ -15307,11 +15307,11 @@
         </is>
       </c>
       <c r="B578" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>AIRPORT_FLYER_SHUTTLE</t>
+          <t>DROVE_WITH_OTHERS_AND_PARKED</t>
         </is>
       </c>
     </row>
@@ -15322,11 +15322,11 @@
         </is>
       </c>
       <c r="B579" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>CHARTERED_TOUR_BUS</t>
+          <t>MTS_ROUTE_992</t>
         </is>
       </c>
     </row>
@@ -15337,11 +15337,11 @@
         </is>
       </c>
       <c r="B580" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>EMPLOYEE_SHUTTLE</t>
+          <t>AIRPORT_FLYER_SHUTTLE</t>
         </is>
       </c>
     </row>
@@ -15352,11 +15352,11 @@
         </is>
       </c>
       <c r="B581" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>RENTAL_CAR_DROPPED_OFF</t>
+          <t>CHARTERED_TOUR_BUS</t>
         </is>
       </c>
     </row>
@@ -15367,11 +15367,11 @@
         </is>
       </c>
       <c r="B582" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>RENTAL_CAR_PARKED</t>
+          <t>EMPLOYEE_SHUTTLE</t>
         </is>
       </c>
     </row>
@@ -15382,11 +15382,11 @@
         </is>
       </c>
       <c r="B583" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>HOTEL_SHUTTLE_VAN</t>
+          <t>RENTAL_CAR_DROPPED_OFF</t>
         </is>
       </c>
     </row>
@@ -15397,11 +15397,11 @@
         </is>
       </c>
       <c r="B584" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>OTHER_SHARED_VAN</t>
+          <t>RENTAL_CAR_PARKED</t>
         </is>
       </c>
     </row>
@@ -15412,11 +15412,11 @@
         </is>
       </c>
       <c r="B585" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>PICKED_UP_BY_FAMILY_FRIEND</t>
+          <t>HOTEL_SHUTTLE_VAN</t>
         </is>
       </c>
     </row>
@@ -15427,11 +15427,11 @@
         </is>
       </c>
       <c r="B586" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>GET_IN_PARKED_VEHICLE_AND_DRIVE_ALONE</t>
+          <t>OTHER_SHARED_VAN</t>
         </is>
       </c>
     </row>
@@ -15442,11 +15442,11 @@
         </is>
       </c>
       <c r="B587" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>GET_IN_PARKED_VEHICLE_AND_DRIVE_WITH_OTHERS</t>
+          <t>PICKED_UP_BY_FAMILY_FRIEND</t>
         </is>
       </c>
     </row>
@@ -15457,11 +15457,11 @@
         </is>
       </c>
       <c r="B588" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>GET_IN_PARKED_VEHICLE_AND_RIDE_WITH_OTHER_TRAVELERS</t>
+          <t>GET_IN_PARKED_VEHICLE_AND_DRIVE_ALONE</t>
         </is>
       </c>
     </row>
@@ -15472,11 +15472,11 @@
         </is>
       </c>
       <c r="B589" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>RENTAL_CAR_PICKED_UP</t>
+          <t>GET_IN_PARKED_VEHICLE_AND_DRIVE_WITH_OTHERS</t>
         </is>
       </c>
     </row>
@@ -15487,11 +15487,11 @@
         </is>
       </c>
       <c r="B590" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>RENTAL_CAR_GET_IN_PARKED</t>
+          <t>GET_IN_PARKED_VEHICLE_AND_RIDE_WITH_OTHER_TRAVELERS</t>
         </is>
       </c>
     </row>
@@ -15502,11 +15502,11 @@
         </is>
       </c>
       <c r="B591" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>RODE_WITH_OTHER_TRAVELERS_AND_PARKED</t>
+          <t>RENTAL_CAR_PICKED_UP</t>
         </is>
       </c>
     </row>
@@ -15517,11 +15517,11 @@
         </is>
       </c>
       <c r="B592" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>OTHER_PUBLIC_TRANSIT</t>
+          <t>RENTAL_CAR_GET_IN_PARKED</t>
         </is>
       </c>
     </row>
@@ -15532,11 +15532,11 @@
         </is>
       </c>
       <c r="B593" t="n">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>RODE_WITH_OTHER_TRAVELERS_AND_PARKED</t>
         </is>
       </c>
     </row>
@@ -15547,41 +15547,41 @@
         </is>
       </c>
       <c r="B594" t="n">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>REFUSED_NO_ANSWER</t>
+          <t>OTHER_PUBLIC_TRANSIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>TravelMode</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>98</v>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>OTHER</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>TransitUseFrequency</t>
+          <t>TravelMode</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>NONE</t>
-        </is>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="inlineStr">
-        <is>
-          <t>TransitUseFrequency</t>
-        </is>
-      </c>
-      <c r="B597" t="n">
-        <v>1</v>
-      </c>
-      <c r="C597" t="inlineStr">
-        <is>
-          <t>ONE_DAY</t>
+          <t>REFUSED_NO_ANSWER</t>
         </is>
       </c>
     </row>
@@ -15592,11 +15592,11 @@
         </is>
       </c>
       <c r="B598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>TWO_DAYS</t>
+          <t>NONE</t>
         </is>
       </c>
     </row>
@@ -15607,11 +15607,11 @@
         </is>
       </c>
       <c r="B599" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>THREE_DAYS</t>
+          <t>ONE_DAY</t>
         </is>
       </c>
     </row>
@@ -15622,11 +15622,11 @@
         </is>
       </c>
       <c r="B600" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>FOUR_DAYS</t>
+          <t>TWO_DAYS</t>
         </is>
       </c>
     </row>
@@ -15637,11 +15637,11 @@
         </is>
       </c>
       <c r="B601" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>FIVE_DAYS</t>
+          <t>THREE_DAYS</t>
         </is>
       </c>
     </row>
@@ -15652,11 +15652,11 @@
         </is>
       </c>
       <c r="B602" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>SIX_DAYS</t>
+          <t>FOUR_DAYS</t>
         </is>
       </c>
     </row>
@@ -15667,41 +15667,41 @@
         </is>
       </c>
       <c r="B603" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>SEVEN_DAYS</t>
+          <t>FIVE_DAYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>TransitUseFrequency</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>6</v>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>SIX_DAYS</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>OtherFlightAndTransitUseFrequency</t>
+          <t>TransitUseFrequency</t>
         </is>
       </c>
       <c r="B605" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>NONE</t>
-        </is>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" t="inlineStr">
-        <is>
-          <t>OtherFlightAndTransitUseFrequency</t>
-        </is>
-      </c>
-      <c r="B606" t="n">
-        <v>1</v>
-      </c>
-      <c r="C606" t="inlineStr">
-        <is>
-          <t>ONE_TIME</t>
+          <t>SEVEN_DAYS</t>
         </is>
       </c>
     </row>
@@ -15712,11 +15712,11 @@
         </is>
       </c>
       <c r="B607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>TWO_TIMES</t>
+          <t>NONE</t>
         </is>
       </c>
     </row>
@@ -15727,11 +15727,11 @@
         </is>
       </c>
       <c r="B608" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>THREE_TIMES</t>
+          <t>ONE_TIME</t>
         </is>
       </c>
     </row>
@@ -15742,11 +15742,11 @@
         </is>
       </c>
       <c r="B609" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>FOUR_TIMES</t>
+          <t>TWO_TIMES</t>
         </is>
       </c>
     </row>
@@ -15757,11 +15757,11 @@
         </is>
       </c>
       <c r="B610" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>MORE_THAN_FIVE_TIMES</t>
+          <t>THREE_TIMES</t>
         </is>
       </c>
     </row>
@@ -15772,11 +15772,11 @@
         </is>
       </c>
       <c r="B611" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>NEVER</t>
+          <t>FOUR_TIMES</t>
         </is>
       </c>
     </row>
@@ -15787,11 +15787,11 @@
         </is>
       </c>
       <c r="B612" t="n">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>MORE_THAN_FIVE_TIMES</t>
         </is>
       </c>
     </row>
@@ -15802,41 +15802,41 @@
         </is>
       </c>
       <c r="B613" t="n">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>REFUSED</t>
+          <t>NEVER</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>OtherFlightAndTransitUseFrequency</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>98</v>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>OTHER</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>SanBuildings</t>
+          <t>OtherFlightAndTransitUseFrequency</t>
         </is>
       </c>
       <c r="B615" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>TERMINAL_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" t="inlineStr">
-        <is>
-          <t>SanBuildings</t>
-        </is>
-      </c>
-      <c r="B616" t="n">
-        <v>2</v>
-      </c>
-      <c r="C616" t="inlineStr">
-        <is>
-          <t>TERMINAL_2</t>
+          <t>REFUSED</t>
         </is>
       </c>
     </row>
@@ -15847,11 +15847,11 @@
         </is>
       </c>
       <c r="B617" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>SDCRAA_ADMIN_BLDG</t>
+          <t>TERMINAL_1</t>
         </is>
       </c>
     </row>
@@ -15862,11 +15862,11 @@
         </is>
       </c>
       <c r="B618" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>QHP_LIBERTY_STATION</t>
+          <t>TERMINAL_2</t>
         </is>
       </c>
     </row>
@@ -15877,11 +15877,11 @@
         </is>
       </c>
       <c r="B619" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>SDCRAA_ADC_TRAILERS</t>
+          <t>SDCRAA_ADMIN_BLDG</t>
         </is>
       </c>
     </row>
@@ -15892,11 +15892,11 @@
         </is>
       </c>
       <c r="B620" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>AIRLINE_SUPPORT_BLDG_HARBOR_DRIVE</t>
+          <t>QHP_LIBERTY_STATION</t>
         </is>
       </c>
     </row>
@@ -15907,11 +15907,11 @@
         </is>
       </c>
       <c r="B621" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>AIR_CARGO_NORTH</t>
+          <t>SDCRAA_ADC_TRAILERS</t>
         </is>
       </c>
     </row>
@@ -15922,11 +15922,11 @@
         </is>
       </c>
       <c r="B622" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>RENTAL_CAR_CENTER</t>
+          <t>AIRLINE_SUPPORT_BLDG_HARBOR_DRIVE</t>
         </is>
       </c>
     </row>
@@ -15937,11 +15937,11 @@
         </is>
       </c>
       <c r="B623" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>RECEIVING_DISTRIBUTION_CENTER</t>
+          <t>AIR_CARGO_NORTH</t>
         </is>
       </c>
     </row>
@@ -15952,11 +15952,11 @@
         </is>
       </c>
       <c r="B624" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>SIGNATURE_FLIGHT_SUPPORT</t>
+          <t>RENTAL_CAR_CENTER</t>
         </is>
       </c>
     </row>
@@ -15967,11 +15967,11 @@
         </is>
       </c>
       <c r="B625" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>FACILITIES_MAINTENANCE</t>
+          <t>RECEIVING_DISTRIBUTION_CENTER</t>
         </is>
       </c>
     </row>
@@ -15982,11 +15982,11 @@
         </is>
       </c>
       <c r="B626" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>FBO</t>
+          <t>SIGNATURE_FLIGHT_SUPPORT</t>
         </is>
       </c>
     </row>
@@ -15997,11 +15997,11 @@
         </is>
       </c>
       <c r="B627" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>MENZIES</t>
+          <t>FACILITIES_MAINTENANCE</t>
         </is>
       </c>
     </row>
@@ -16012,11 +16012,11 @@
         </is>
       </c>
       <c r="B628" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>FAA</t>
+          <t>FBO</t>
         </is>
       </c>
     </row>
@@ -16027,11 +16027,11 @@
         </is>
       </c>
       <c r="B629" t="n">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>OTHER_SPECIFY</t>
+          <t>MENZIES</t>
         </is>
       </c>
     </row>
@@ -16042,41 +16042,41 @@
         </is>
       </c>
       <c r="B630" t="n">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>REFUSED</t>
+          <t>FAA</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>SanBuildings</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>98</v>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>OTHER_SPECIFY</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>Employers</t>
+          <t>SanBuildings</t>
         </is>
       </c>
       <c r="B632" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>AIR_CANADA</t>
-        </is>
-      </c>
-    </row>
-    <row r="633">
-      <c r="A633" t="inlineStr">
-        <is>
-          <t>Employers</t>
-        </is>
-      </c>
-      <c r="B633" t="n">
-        <v>2</v>
-      </c>
-      <c r="C633" t="inlineStr">
-        <is>
-          <t>ALASKA_AIRLINES</t>
+          <t>REFUSED</t>
         </is>
       </c>
     </row>
@@ -16087,11 +16087,11 @@
         </is>
       </c>
       <c r="B634" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>ALLEGIANT_AIR</t>
+          <t>AIR_CANADA</t>
         </is>
       </c>
     </row>
@@ -16102,11 +16102,11 @@
         </is>
       </c>
       <c r="B635" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>AMERICAN_AIRLINES</t>
+          <t>ALASKA_AIRLINES</t>
         </is>
       </c>
     </row>
@@ -16117,11 +16117,11 @@
         </is>
       </c>
       <c r="B636" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>ARTISAN_MARKET</t>
+          <t>ALLEGIANT_AIR</t>
         </is>
       </c>
     </row>
@@ -16132,11 +16132,11 @@
         </is>
       </c>
       <c r="B637" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>ASIAN_KITCHEN</t>
+          <t>AMERICAN_AIRLINES</t>
         </is>
       </c>
     </row>
@@ -16147,11 +16147,11 @@
         </is>
       </c>
       <c r="B638" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>ASPIRE_LOUNGE</t>
+          <t>ARTISAN_MARKET</t>
         </is>
       </c>
     </row>
@@ -16162,11 +16162,11 @@
         </is>
       </c>
       <c r="B639" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>BANKERS_HILL_BAR_AND_MARKET</t>
+          <t>ASIAN_KITCHEN</t>
         </is>
       </c>
     </row>
@@ -16177,11 +16177,11 @@
         </is>
       </c>
       <c r="B640" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>BAY_BOOKS_OF_CORONADO</t>
+          <t>ASPIRE_LOUNGE</t>
         </is>
       </c>
     </row>
@@ -16192,11 +16192,11 @@
         </is>
       </c>
       <c r="B641" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>BE_RELAX_SPA</t>
+          <t>BANKERS_HILL_BAR_AND_MARKET</t>
         </is>
       </c>
     </row>
@@ -16207,11 +16207,11 @@
         </is>
       </c>
       <c r="B642" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>BEAUDEVIN_VINE_AND_TAPAS_BAR</t>
+          <t>BAY_BOOKS_OF_CORONADO</t>
         </is>
       </c>
     </row>
@@ -16222,11 +16222,11 @@
         </is>
       </c>
       <c r="B643" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>BRITISH_AIRWAYS</t>
+          <t>BE_RELAX_SPA</t>
         </is>
       </c>
     </row>
@@ -16237,11 +16237,11 @@
         </is>
       </c>
       <c r="B644" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>BROOKSTONE</t>
+          <t>BEAUDEVIN_VINE_AND_TAPAS_BAR</t>
         </is>
       </c>
     </row>
@@ -16252,11 +16252,11 @@
         </is>
       </c>
       <c r="B645" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>BUBBLES_SEAFOOD_AND_WINE_BAR</t>
+          <t>BRITISH_AIRWAYS</t>
         </is>
       </c>
     </row>
@@ -16267,11 +16267,11 @@
         </is>
       </c>
       <c r="B646" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>CALIFORNIA_PIZZA_KITCHEN</t>
+          <t>BROOKSTONE</t>
         </is>
       </c>
     </row>
@@ -16282,11 +16282,11 @@
         </is>
       </c>
       <c r="B647" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>CAMDEN_FOOD_CO</t>
+          <t>BUBBLES_SEAFOOD_AND_WINE_BAR</t>
         </is>
       </c>
     </row>
@@ -16297,11 +16297,11 @@
         </is>
       </c>
       <c r="B648" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>CIAO_GOURMET_MARKET</t>
+          <t>CALIFORNIA_PIZZA_KITCHEN</t>
         </is>
       </c>
     </row>
@@ -16312,11 +16312,11 @@
         </is>
       </c>
       <c r="B649" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>CNBC_EXPRESS</t>
+          <t>CAMDEN_FOOD_CO</t>
         </is>
       </c>
     </row>
@@ -16327,11 +16327,11 @@
         </is>
       </c>
       <c r="B650" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>CNBC_NEWS_SAN_DIEGO</t>
+          <t>CIAO_GOURMET_MARKET</t>
         </is>
       </c>
     </row>
@@ -16342,11 +16342,11 @@
         </is>
       </c>
       <c r="B651" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>DARK_HORSE_COFFEE_ROASTERS</t>
+          <t>CNBC_EXPRESS</t>
         </is>
       </c>
     </row>
@@ -16357,11 +16357,11 @@
         </is>
       </c>
       <c r="B652" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>DELTA_AIRLINES</t>
+          <t>CNBC_NEWS_SAN_DIEGO</t>
         </is>
       </c>
     </row>
@@ -16372,11 +16372,11 @@
         </is>
       </c>
       <c r="B653" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>DELTA_SKY_CLUB</t>
+          <t>DARK_HORSE_COFFEE_ROASTERS</t>
         </is>
       </c>
     </row>
@@ -16387,11 +16387,11 @@
         </is>
       </c>
       <c r="B654" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>DISCOVER_SAN_DIEGO</t>
+          <t>DELTA_AIRLINES</t>
         </is>
       </c>
     </row>
@@ -16402,11 +16402,11 @@
         </is>
       </c>
       <c r="B655" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>EINSTEIN_BROS_BAGELS</t>
+          <t>DELTA_SKY_CLUB</t>
         </is>
       </c>
     </row>
@@ -16417,11 +16417,11 @@
         </is>
       </c>
       <c r="B656" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>ELEGANT_DESSERTS</t>
+          <t>DISCOVER_SAN_DIEGO</t>
         </is>
       </c>
     </row>
@@ -16432,11 +16432,11 @@
         </is>
       </c>
       <c r="B657" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>FRONTIER_AIRLINES</t>
+          <t>EINSTEIN_BROS_BAGELS</t>
         </is>
       </c>
     </row>
@@ -16447,11 +16447,11 @@
         </is>
       </c>
       <c r="B658" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>GASLAMP_MARKETPLACE</t>
+          <t>ELEGANT_DESSERTS</t>
         </is>
       </c>
     </row>
@@ -16462,11 +16462,11 @@
         </is>
       </c>
       <c r="B659" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>HAWAIIAN_AIRLINES</t>
+          <t>FRONTIER_AIRLINES</t>
         </is>
       </c>
     </row>
@@ -16477,11 +16477,11 @@
         </is>
       </c>
       <c r="B660" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>HUDSON_NEWS</t>
+          <t>GASLAMP_MARKETPLACE</t>
         </is>
       </c>
     </row>
@@ -16492,11 +16492,11 @@
         </is>
       </c>
       <c r="B661" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>INMOTION_ENTERTAINMENT</t>
+          <t>HAWAIIAN_AIRLINES</t>
         </is>
       </c>
     </row>
@@ -16507,11 +16507,11 @@
         </is>
       </c>
       <c r="B662" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>JACK_IN_THE_BOX</t>
+          <t>HUDSON_NEWS</t>
         </is>
       </c>
     </row>
@@ -16522,11 +16522,11 @@
         </is>
       </c>
       <c r="B663" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>JAPAN_AIRLINES</t>
+          <t>INMOTION_ENTERTAINMENT</t>
         </is>
       </c>
     </row>
@@ -16537,11 +16537,11 @@
         </is>
       </c>
       <c r="B664" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>JETBLUE</t>
+          <t>JACK_IN_THE_BOX</t>
         </is>
       </c>
     </row>
@@ -16552,11 +16552,11 @@
         </is>
       </c>
       <c r="B665" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>JETBOX</t>
+          <t>JAPAN_AIRLINES</t>
         </is>
       </c>
     </row>
@@ -16567,11 +16567,11 @@
         </is>
       </c>
       <c r="B666" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>JETBOX_MARKET</t>
+          <t>JETBLUE</t>
         </is>
       </c>
     </row>
@@ -16582,11 +16582,11 @@
         </is>
       </c>
       <c r="B667" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>KUSI_NEWS</t>
+          <t>JETBOX</t>
         </is>
       </c>
     </row>
@@ -16597,11 +16597,11 @@
         </is>
       </c>
       <c r="B668" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>LINDBERGH_FIELD_NEWS</t>
+          <t>JETBOX_MARKET</t>
         </is>
       </c>
     </row>
@@ -16612,11 +16612,11 @@
         </is>
       </c>
       <c r="B669" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>LUFTHANSA</t>
+          <t>KUSI_NEWS</t>
         </is>
       </c>
     </row>
@@ -16627,11 +16627,11 @@
         </is>
       </c>
       <c r="B670" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>OLD_TOWN_NEWS_AND_MARKET</t>
+          <t>LINDBERGH_FIELD_NEWS</t>
         </is>
       </c>
     </row>
@@ -16642,11 +16642,11 @@
         </is>
       </c>
       <c r="B671" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>PACIFICA_BREEZE_CAFE</t>
+          <t>LUFTHANSA</t>
         </is>
       </c>
     </row>
@@ -16657,11 +16657,11 @@
         </is>
       </c>
       <c r="B672" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>PANDA_EXPRESS</t>
+          <t>OLD_TOWN_NEWS_AND_MARKET</t>
         </is>
       </c>
     </row>
@@ -16672,11 +16672,11 @@
         </is>
       </c>
       <c r="B673" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>PANNIKIN_COFFEE_AND_TEA</t>
+          <t>PACIFICA_BREEZE_CAFE</t>
         </is>
       </c>
     </row>
@@ -16687,11 +16687,11 @@
         </is>
       </c>
       <c r="B674" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>PEETS_COFFEE_AND_TEA</t>
+          <t>PANDA_EXPRESS</t>
         </is>
       </c>
     </row>
@@ -16702,11 +16702,11 @@
         </is>
       </c>
       <c r="B675" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>PGA_TOUR_GRILL</t>
+          <t>PANNIKIN_COFFEE_AND_TEA</t>
         </is>
       </c>
     </row>
@@ -16717,11 +16717,11 @@
         </is>
       </c>
       <c r="B676" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>PGA_TOUR_SHOP</t>
+          <t>PEETS_COFFEE_AND_TEA</t>
         </is>
       </c>
     </row>
@@ -16732,11 +16732,11 @@
         </is>
       </c>
       <c r="B677" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>PHILS_BBQ</t>
+          <t>PGA_TOUR_GRILL</t>
         </is>
       </c>
     </row>
@@ -16747,11 +16747,11 @@
         </is>
       </c>
       <c r="B678" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>PRADO_AT_THE_AIRPORT</t>
+          <t>PGA_TOUR_SHOP</t>
         </is>
       </c>
     </row>
@@ -16762,11 +16762,11 @@
         </is>
       </c>
       <c r="B679" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>QDOBA_MEXICAN_GRILL</t>
+          <t>PHILS_BBQ</t>
         </is>
       </c>
     </row>
@@ -16777,11 +16777,11 @@
         </is>
       </c>
       <c r="B680" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>RED_MANGO</t>
+          <t>PRADO_AT_THE_AIRPORT</t>
         </is>
       </c>
     </row>
@@ -16792,11 +16792,11 @@
         </is>
       </c>
       <c r="B681" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>RIP_CURL</t>
+          <t>QDOBA_MEXICAN_GRILL</t>
         </is>
       </c>
     </row>
@@ -16807,11 +16807,11 @@
         </is>
       </c>
       <c r="B682" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>SAN_LIFE_MARKET</t>
+          <t>RED_MANGO</t>
         </is>
       </c>
     </row>
@@ -16822,11 +16822,11 @@
         </is>
       </c>
       <c r="B683" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>SAND_NEWS</t>
+          <t>RIP_CURL</t>
         </is>
       </c>
     </row>
@@ -16837,11 +16837,11 @@
         </is>
       </c>
       <c r="B684" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>SKY_FREE_SHOP</t>
+          <t>SAN_LIFE_MARKET</t>
         </is>
       </c>
     </row>
@@ -16852,11 +16852,11 @@
         </is>
       </c>
       <c r="B685" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>SOUNDBALANCE</t>
+          <t>SAND_NEWS</t>
         </is>
       </c>
     </row>
@@ -16867,11 +16867,11 @@
         </is>
       </c>
       <c r="B686" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>SOUTHWEST_AIRLINES</t>
+          <t>SKY_FREE_SHOP</t>
         </is>
       </c>
     </row>
@@ -16882,11 +16882,11 @@
         </is>
       </c>
       <c r="B687" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>SPIRIT</t>
+          <t>SOUNDBALANCE</t>
         </is>
       </c>
     </row>
@@ -16897,11 +16897,11 @@
         </is>
       </c>
       <c r="B688" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>STARBUCKS</t>
+          <t>SOUTHWEST_AIRLINES</t>
         </is>
       </c>
     </row>
@@ -16912,11 +16912,11 @@
         </is>
       </c>
       <c r="B689" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>STELLAR_NEWS_EXPRESS</t>
+          <t>SPIRIT</t>
         </is>
       </c>
     </row>
@@ -16927,11 +16927,11 @@
         </is>
       </c>
       <c r="B690" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>STONE_BREWING_COMPANY</t>
+          <t>STARBUCKS</t>
         </is>
       </c>
     </row>
@@ -16942,11 +16942,11 @@
         </is>
       </c>
       <c r="B691" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>SUNCOUNTY_AIRLINES</t>
+          <t>STELLAR_NEWS_EXPRESS</t>
         </is>
       </c>
     </row>
@@ -16957,11 +16957,11 @@
         </is>
       </c>
       <c r="B692" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>SUNGLASS_HUT</t>
+          <t>STONE_BREWING_COMPANY</t>
         </is>
       </c>
     </row>
@@ -16972,11 +16972,11 @@
         </is>
       </c>
       <c r="B693" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>SWAROVSKI</t>
+          <t>SUNCOUNTY_AIRLINES</t>
         </is>
       </c>
     </row>
@@ -16987,11 +16987,11 @@
         </is>
       </c>
       <c r="B694" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>TECH_ON_THE_GO</t>
+          <t>SUNGLASS_HUT</t>
         </is>
       </c>
     </row>
@@ -17002,11 +17002,11 @@
         </is>
       </c>
       <c r="B695" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>THE_BEACH_HOUSE</t>
+          <t>SWAROVSKI</t>
         </is>
       </c>
     </row>
@@ -17017,11 +17017,11 @@
         </is>
       </c>
       <c r="B696" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>THE_COUNTER_CUSTOM_BUILT_BURGERS</t>
+          <t>TECH_ON_THE_GO</t>
         </is>
       </c>
     </row>
@@ -17032,11 +17032,11 @@
         </is>
       </c>
       <c r="B697" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>TOMMY_VS_PIZZERIA</t>
+          <t>THE_BEACH_HOUSE</t>
         </is>
       </c>
     </row>
@@ -17047,11 +17047,11 @@
         </is>
       </c>
       <c r="B698" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>TRANSPORTATION_SECURITY_ADMINISTRATION_TSA</t>
+          <t>THE_COUNTER_CUSTOM_BUILT_BURGERS</t>
         </is>
       </c>
     </row>
@@ -17062,11 +17062,11 @@
         </is>
       </c>
       <c r="B699" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>UNITED_AIRLINES</t>
+          <t>TOMMY_VS_PIZZERIA</t>
         </is>
       </c>
     </row>
@@ -17077,11 +17077,11 @@
         </is>
       </c>
       <c r="B700" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>UNITED_CLUB</t>
+          <t>TRANSPORTATION_SECURITY_ADMINISTRATION_TSA</t>
         </is>
       </c>
     </row>
@@ -17092,11 +17092,11 @@
         </is>
       </c>
       <c r="B701" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>UNITED_SERVICE_ORGANIZATIONS</t>
+          <t>UNITED_AIRLINES</t>
         </is>
       </c>
     </row>
@@ -17107,11 +17107,11 @@
         </is>
       </c>
       <c r="B702" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>URBAN_CRAVE</t>
+          <t>UNITED_CLUB</t>
         </is>
       </c>
     </row>
@@ -17122,11 +17122,11 @@
         </is>
       </c>
       <c r="B703" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>US_CUSTOMS_AND_BORDER_PROTECTION</t>
+          <t>UNITED_SERVICE_ORGANIZATIONS</t>
         </is>
       </c>
     </row>
@@ -17137,11 +17137,11 @@
         </is>
       </c>
       <c r="B704" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>US_NEWS_AND_WORLD_REPORT</t>
+          <t>URBAN_CRAVE</t>
         </is>
       </c>
     </row>
@@ -17152,11 +17152,11 @@
         </is>
       </c>
       <c r="B705" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>WARWICKS_OF_LA_JOLLA</t>
+          <t>US_CUSTOMS_AND_BORDER_PROTECTION</t>
         </is>
       </c>
     </row>
@@ -17167,11 +17167,11 @@
         </is>
       </c>
       <c r="B706" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>WESTJET</t>
+          <t>US_NEWS_AND_WORLD_REPORT</t>
         </is>
       </c>
     </row>
@@ -17182,41 +17182,41 @@
         </is>
       </c>
       <c r="B707" t="n">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>OTHER_SEPCIFY</t>
+          <t>WARWICKS_OF_LA_JOLLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>Employers</t>
+        </is>
+      </c>
+      <c r="B708" t="n">
+        <v>75</v>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>WESTJET</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Occupations</t>
+          <t>Employers</t>
         </is>
       </c>
       <c r="B709" t="n">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>AIRCRAFT_MECHANIC</t>
-        </is>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" t="inlineStr">
-        <is>
-          <t>Occupations</t>
-        </is>
-      </c>
-      <c r="B710" t="n">
-        <v>2</v>
-      </c>
-      <c r="C710" t="inlineStr">
-        <is>
-          <t>PILOT</t>
+          <t>OTHER_SEPCIFY</t>
         </is>
       </c>
     </row>
@@ -17227,11 +17227,11 @@
         </is>
       </c>
       <c r="B711" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>AIRCRAFT_SVC_ATTENDANT</t>
+          <t>AIRCRAFT_MECHANIC</t>
         </is>
       </c>
     </row>
@@ -17242,11 +17242,11 @@
         </is>
       </c>
       <c r="B712" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>AIR_TRAFFIC_CONTROLLER</t>
+          <t>PILOT</t>
         </is>
       </c>
     </row>
@@ -17257,11 +17257,11 @@
         </is>
       </c>
       <c r="B713" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>FLIGHT_ATTENDANT</t>
+          <t>AIRCRAFT_SVC_ATTENDANT</t>
         </is>
       </c>
     </row>
@@ -17272,11 +17272,11 @@
         </is>
       </c>
       <c r="B714" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>TICKET_AGENT</t>
+          <t>AIR_TRAFFIC_CONTROLLER</t>
         </is>
       </c>
     </row>
@@ -17287,11 +17287,11 @@
         </is>
       </c>
       <c r="B715" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>CARGO_AGENT</t>
+          <t>FLIGHT_ATTENDANT</t>
         </is>
       </c>
     </row>
@@ -17302,11 +17302,11 @@
         </is>
       </c>
       <c r="B716" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>CARGO_HANDLER</t>
+          <t>TICKET_AGENT</t>
         </is>
       </c>
     </row>
@@ -17317,11 +17317,11 @@
         </is>
       </c>
       <c r="B717" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>BLDG_MAINTENANCE_CLEANING</t>
+          <t>CARGO_AGENT</t>
         </is>
       </c>
     </row>
@@ -17332,11 +17332,11 @@
         </is>
       </c>
       <c r="B718" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>PARKING_ATTENDANT</t>
+          <t>CARGO_HANDLER</t>
         </is>
       </c>
     </row>
@@ -17347,11 +17347,11 @@
         </is>
       </c>
       <c r="B719" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>DRIVER</t>
+          <t>BLDG_MAINTENANCE_CLEANING</t>
         </is>
       </c>
     </row>
@@ -17362,11 +17362,11 @@
         </is>
       </c>
       <c r="B720" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>TSA</t>
+          <t>PARKING_ATTENDANT</t>
         </is>
       </c>
     </row>
@@ -17377,11 +17377,11 @@
         </is>
       </c>
       <c r="B721" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>LAW_ENFORCEMENT</t>
+          <t>DRIVER</t>
         </is>
       </c>
     </row>
@@ -17392,11 +17392,11 @@
         </is>
       </c>
       <c r="B722" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>GENERAL_AND_OPERATIONS_MANAGERS</t>
+          <t>TSA</t>
         </is>
       </c>
     </row>
@@ -17407,11 +17407,11 @@
         </is>
       </c>
       <c r="B723" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>PROGRAM_AND_PROJECT_MANAGERS</t>
+          <t>LAW_ENFORCEMENT</t>
         </is>
       </c>
     </row>
@@ -17422,11 +17422,11 @@
         </is>
       </c>
       <c r="B724" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>RETAIL_RESTAURANT</t>
+          <t>GENERAL_AND_OPERATIONS_MANAGERS</t>
         </is>
       </c>
     </row>
@@ -17437,11 +17437,11 @@
         </is>
       </c>
       <c r="B725" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>CONSTRUCTION</t>
+          <t>PROGRAM_AND_PROJECT_MANAGERS</t>
         </is>
       </c>
     </row>
@@ -17452,11 +17452,11 @@
         </is>
       </c>
       <c r="B726" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>OTHER_LABORERS</t>
+          <t>RETAIL_RESTAURANT</t>
         </is>
       </c>
     </row>
@@ -17467,11 +17467,11 @@
         </is>
       </c>
       <c r="B727" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>OTHER_CUSTOMER_SUPPORT</t>
+          <t>CONSTRUCTION</t>
         </is>
       </c>
     </row>
@@ -17482,11 +17482,11 @@
         </is>
       </c>
       <c r="B728" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>OTHER_ADMIN_SUPPORT</t>
+          <t>OTHER_LABORERS</t>
         </is>
       </c>
     </row>
@@ -17497,11 +17497,11 @@
         </is>
       </c>
       <c r="B729" t="n">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>OTHER_SPECIFY</t>
+          <t>OTHER_CUSTOMER_SUPPORT</t>
         </is>
       </c>
     </row>
@@ -17512,41 +17512,41 @@
         </is>
       </c>
       <c r="B730" t="n">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>REFUSED</t>
+          <t>OTHER_ADMIN_SUPPORT</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>Occupations</t>
+        </is>
+      </c>
+      <c r="B731" t="n">
+        <v>98</v>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>OTHER_SPECIFY</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>HoursWorked</t>
+          <t>Occupations</t>
         </is>
       </c>
       <c r="B732" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>ZERO</t>
-        </is>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" t="inlineStr">
-        <is>
-          <t>HoursWorked</t>
-        </is>
-      </c>
-      <c r="B733" t="n">
-        <v>2</v>
-      </c>
-      <c r="C733" t="inlineStr">
-        <is>
-          <t>ONE_TO_TEN</t>
+          <t>REFUSED</t>
         </is>
       </c>
     </row>
@@ -17557,11 +17557,11 @@
         </is>
       </c>
       <c r="B734" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>ELEVEN_TO_TWENTY</t>
+          <t>ZERO</t>
         </is>
       </c>
     </row>
@@ -17572,11 +17572,11 @@
         </is>
       </c>
       <c r="B735" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>TWENTY_ONE_TO_THIRTY</t>
+          <t>ONE_TO_TEN</t>
         </is>
       </c>
     </row>
@@ -17587,11 +17587,11 @@
         </is>
       </c>
       <c r="B736" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>THIRTY_ONE_TO_FORTY</t>
+          <t>ELEVEN_TO_TWENTY</t>
         </is>
       </c>
     </row>
@@ -17602,11 +17602,11 @@
         </is>
       </c>
       <c r="B737" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>FORTY_ONE_TO_FIFTY</t>
+          <t>TWENTY_ONE_TO_THIRTY</t>
         </is>
       </c>
     </row>
@@ -17617,11 +17617,11 @@
         </is>
       </c>
       <c r="B738" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>FIFTY_ONE_TO_SIXTY</t>
+          <t>THIRTY_ONE_TO_FORTY</t>
         </is>
       </c>
     </row>
@@ -17632,11 +17632,11 @@
         </is>
       </c>
       <c r="B739" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>SIXTY_ONE_TO_SEVENTY</t>
+          <t>FORTY_ONE_TO_FIFTY</t>
         </is>
       </c>
     </row>
@@ -17647,11 +17647,11 @@
         </is>
       </c>
       <c r="B740" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>SEVENTY_ONE_TO_EIGHTY</t>
+          <t>FIFTY_ONE_TO_SIXTY</t>
         </is>
       </c>
     </row>
@@ -17662,11 +17662,11 @@
         </is>
       </c>
       <c r="B741" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>MORE_THAN_EIGHTY</t>
+          <t>SIXTY_ONE_TO_SEVENTY</t>
         </is>
       </c>
     </row>
@@ -17677,11 +17677,11 @@
         </is>
       </c>
       <c r="B742" t="n">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>SEVENTY_ONE_TO_EIGHTY</t>
         </is>
       </c>
     </row>
@@ -17692,41 +17692,41 @@
         </is>
       </c>
       <c r="B743" t="n">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>REFUSED</t>
+          <t>MORE_THAN_EIGHTY</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>HoursWorked</t>
+        </is>
+      </c>
+      <c r="B744" t="n">
+        <v>98</v>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>OTHER</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>CommuteDays</t>
+          <t>HoursWorked</t>
         </is>
       </c>
       <c r="B745" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>ONE</t>
-        </is>
-      </c>
-    </row>
-    <row r="746">
-      <c r="A746" t="inlineStr">
-        <is>
-          <t>CommuteDays</t>
-        </is>
-      </c>
-      <c r="B746" t="n">
-        <v>2</v>
-      </c>
-      <c r="C746" t="inlineStr">
-        <is>
-          <t>TWO</t>
+          <t>REFUSED</t>
         </is>
       </c>
     </row>
@@ -17737,11 +17737,11 @@
         </is>
       </c>
       <c r="B747" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>THREE</t>
+          <t>ONE</t>
         </is>
       </c>
     </row>
@@ -17752,11 +17752,11 @@
         </is>
       </c>
       <c r="B748" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>FOUR</t>
+          <t>TWO</t>
         </is>
       </c>
     </row>
@@ -17767,11 +17767,11 @@
         </is>
       </c>
       <c r="B749" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>THREE</t>
         </is>
       </c>
     </row>
@@ -17782,11 +17782,11 @@
         </is>
       </c>
       <c r="B750" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>SIX</t>
+          <t>FOUR</t>
         </is>
       </c>
     </row>
@@ -17797,11 +17797,11 @@
         </is>
       </c>
       <c r="B751" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>SEVEN</t>
+          <t>FIVE</t>
         </is>
       </c>
     </row>
@@ -17812,11 +17812,11 @@
         </is>
       </c>
       <c r="B752" t="n">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>SIX</t>
         </is>
       </c>
     </row>
@@ -17827,71 +17827,71 @@
         </is>
       </c>
       <c r="B753" t="n">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>REFUSED</t>
+          <t>SEVEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>CommuteDays</t>
+        </is>
+      </c>
+      <c r="B754" t="n">
+        <v>98</v>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>OTHER</t>
         </is>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
+          <t>CommuteDays</t>
+        </is>
+      </c>
+      <c r="B755" t="n">
+        <v>99</v>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>REFUSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
           <t>InboundOutbound</t>
         </is>
       </c>
-      <c r="B755" t="n">
+      <c r="B757" t="n">
         <v>1</v>
       </c>
-      <c r="C755" t="inlineStr">
+      <c r="C757" t="inlineStr">
         <is>
           <t>INBOUND_TO_AIRPORT</t>
-        </is>
-      </c>
-    </row>
-    <row r="756">
-      <c r="A756" t="inlineStr">
-        <is>
-          <t>InboundOutbound</t>
-        </is>
-      </c>
-      <c r="B756" t="n">
-        <v>2</v>
-      </c>
-      <c r="C756" t="inlineStr">
-        <is>
-          <t>OUTBOUND_FROM_AIRPORT</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>ActivityType</t>
+          <t>InboundOutbound</t>
         </is>
       </c>
       <c r="B758" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>USUAL_WORKPLACE</t>
-        </is>
-      </c>
-    </row>
-    <row r="759">
-      <c r="A759" t="inlineStr">
-        <is>
-          <t>ActivityType</t>
-        </is>
-      </c>
-      <c r="B759" t="n">
-        <v>2</v>
-      </c>
-      <c r="C759" t="inlineStr">
-        <is>
-          <t>HOME</t>
+          <t>OUTBOUND_FROM_AIRPORT</t>
         </is>
       </c>
     </row>
@@ -17902,11 +17902,11 @@
         </is>
       </c>
       <c r="B760" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>HOTEL</t>
+          <t>USUAL_WORKPLACE</t>
         </is>
       </c>
     </row>
@@ -17917,11 +17917,11 @@
         </is>
       </c>
       <c r="B761" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>CONVENTION_CENTER</t>
+          <t>HOME</t>
         </is>
       </c>
     </row>
@@ -17932,11 +17932,11 @@
         </is>
       </c>
       <c r="B762" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>OTHER_BUSINESS</t>
+          <t>HOTEL</t>
         </is>
       </c>
     </row>
@@ -17947,11 +17947,11 @@
         </is>
       </c>
       <c r="B763" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>OTHER_RESIDENCE</t>
+          <t>CONVENTION_CENTER</t>
         </is>
       </c>
     </row>
@@ -17962,11 +17962,11 @@
         </is>
       </c>
       <c r="B764" t="n">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>OTHER_BUSINESS</t>
         </is>
       </c>
     </row>
@@ -17977,41 +17977,41 @@
         </is>
       </c>
       <c r="B765" t="n">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>REFUSED</t>
+          <t>OTHER_RESIDENCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>ActivityType</t>
+        </is>
+      </c>
+      <c r="B766" t="n">
+        <v>98</v>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>OTHER</t>
         </is>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>NumTransfers</t>
+          <t>ActivityType</t>
         </is>
       </c>
       <c r="B767" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>NONE</t>
-        </is>
-      </c>
-    </row>
-    <row r="768">
-      <c r="A768" t="inlineStr">
-        <is>
-          <t>NumTransfers</t>
-        </is>
-      </c>
-      <c r="B768" t="n">
-        <v>1</v>
-      </c>
-      <c r="C768" t="inlineStr">
-        <is>
-          <t>ONE</t>
+          <t>REFUSED</t>
         </is>
       </c>
     </row>
@@ -18022,11 +18022,11 @@
         </is>
       </c>
       <c r="B769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>TWO</t>
+          <t>NONE</t>
         </is>
       </c>
     </row>
@@ -18037,11 +18037,11 @@
         </is>
       </c>
       <c r="B770" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>THREE</t>
+          <t>ONE</t>
         </is>
       </c>
     </row>
@@ -18052,11 +18052,11 @@
         </is>
       </c>
       <c r="B771" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>FOUR_OR_MORE</t>
+          <t>TWO</t>
         </is>
       </c>
     </row>
@@ -18067,11 +18067,11 @@
         </is>
       </c>
       <c r="B772" t="n">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>THREE</t>
         </is>
       </c>
     </row>
@@ -18082,41 +18082,41 @@
         </is>
       </c>
       <c r="B773" t="n">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>REFUSED</t>
+          <t>FOUR_OR_MORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>NumTransfers</t>
+        </is>
+      </c>
+      <c r="B774" t="n">
+        <v>98</v>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>OTHER</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>ParkingLocation</t>
+          <t>NumTransfers</t>
         </is>
       </c>
       <c r="B775" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C775" t="inlineStr">
         <is>
-          <t>TERM1_PARKING_PLAZA</t>
-        </is>
-      </c>
-    </row>
-    <row r="776">
-      <c r="A776" t="inlineStr">
-        <is>
-          <t>ParkingLocation</t>
-        </is>
-      </c>
-      <c r="B776" t="n">
-        <v>2</v>
-      </c>
-      <c r="C776" t="inlineStr">
-        <is>
-          <t>TERM2_PARKING_PLAZA</t>
+          <t>REFUSED</t>
         </is>
       </c>
     </row>
@@ -18127,11 +18127,11 @@
         </is>
       </c>
       <c r="B777" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>TERM1_CURBSIDE_VALET</t>
+          <t>TERM1_PARKING_PLAZA</t>
         </is>
       </c>
     </row>
@@ -18142,11 +18142,11 @@
         </is>
       </c>
       <c r="B778" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C778" t="inlineStr">
         <is>
-          <t>TERM2_CURBSIDE_VALET</t>
+          <t>TERM2_PARKING_PLAZA</t>
         </is>
       </c>
     </row>
@@ -18157,11 +18157,11 @@
         </is>
       </c>
       <c r="B779" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C779" t="inlineStr">
         <is>
-          <t>OFF_AIRPORT_PARKING</t>
+          <t>TERM1_CURBSIDE_VALET</t>
         </is>
       </c>
     </row>
@@ -18172,11 +18172,11 @@
         </is>
       </c>
       <c r="B780" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C780" t="inlineStr">
         <is>
-          <t>EMPLOYEE_LOT_3665_ADMIRAL_BOLAND_WAY</t>
+          <t>TERM2_CURBSIDE_VALET</t>
         </is>
       </c>
     </row>
@@ -18187,11 +18187,11 @@
         </is>
       </c>
       <c r="B781" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C781" t="inlineStr">
         <is>
-          <t>ADMIN_BUILDING_LOT_2417_MCCAIN_ROAD</t>
+          <t>OFF_AIRPORT_PARKING</t>
         </is>
       </c>
     </row>
@@ -18202,11 +18202,11 @@
         </is>
       </c>
       <c r="B782" t="n">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="C782" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>EMPLOYEE_LOT_3665_ADMIRAL_BOLAND_WAY</t>
         </is>
       </c>
     </row>
@@ -18217,41 +18217,41 @@
         </is>
       </c>
       <c r="B783" t="n">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>REFUSED</t>
+          <t>ADMIN_BUILDING_LOT_2417_MCCAIN_ROAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>ParkingLocation</t>
+        </is>
+      </c>
+      <c r="B784" t="n">
+        <v>98</v>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>OTHER</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>ParkingCostFrequency</t>
+          <t>ParkingLocation</t>
         </is>
       </c>
       <c r="B785" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="786">
-      <c r="A786" t="inlineStr">
-        <is>
-          <t>ParkingCostFrequency</t>
-        </is>
-      </c>
-      <c r="B786" t="n">
-        <v>2</v>
-      </c>
-      <c r="C786" t="inlineStr">
-        <is>
-          <t>MONTHLY</t>
+          <t>REFUSED</t>
         </is>
       </c>
     </row>
@@ -18262,11 +18262,11 @@
         </is>
       </c>
       <c r="B787" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>DAILY</t>
+          <t>TOTAL</t>
         </is>
       </c>
     </row>
@@ -18277,11 +18277,11 @@
         </is>
       </c>
       <c r="B788" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C788" t="inlineStr">
         <is>
-          <t>HOURLY</t>
+          <t>MONTHLY</t>
         </is>
       </c>
     </row>
@@ -18292,11 +18292,11 @@
         </is>
       </c>
       <c r="B789" t="n">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>OTHER_SEPCIFY</t>
+          <t>DAILY</t>
         </is>
       </c>
     </row>
@@ -18307,41 +18307,41 @@
         </is>
       </c>
       <c r="B790" t="n">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C790" t="inlineStr">
         <is>
-          <t>REFUSED</t>
+          <t>HOURLY</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>ParkingCostFrequency</t>
+        </is>
+      </c>
+      <c r="B791" t="n">
+        <v>98</v>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>OTHER_SEPCIFY</t>
         </is>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>ParkingReimbursement</t>
+          <t>ParkingCostFrequency</t>
         </is>
       </c>
       <c r="B792" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C792" t="inlineStr">
         <is>
-          <t>REIMBURSED_EMPLOYER_CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="793">
-      <c r="A793" t="inlineStr">
-        <is>
-          <t>ParkingReimbursement</t>
-        </is>
-      </c>
-      <c r="B793" t="n">
-        <v>2</v>
-      </c>
-      <c r="C793" t="inlineStr">
-        <is>
-          <t>REIMBURSED_OTHER_THIRD_PARTY</t>
+          <t>REFUSED</t>
         </is>
       </c>
     </row>
@@ -18352,11 +18352,11 @@
         </is>
       </c>
       <c r="B794" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t>NOT_REIMBURSED</t>
+          <t>REIMBURSED_EMPLOYER_CLIENT</t>
         </is>
       </c>
     </row>
@@ -18367,41 +18367,41 @@
         </is>
       </c>
       <c r="B795" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C795" t="inlineStr">
         <is>
-          <t>DONT_KNOW</t>
+          <t>REIMBURSED_OTHER_THIRD_PARTY</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>ParkingReimbursement</t>
+        </is>
+      </c>
+      <c r="B796" t="n">
+        <v>3</v>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>NOT_REIMBURSED</t>
         </is>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>CarAvailability</t>
+          <t>ParkingReimbursement</t>
         </is>
       </c>
       <c r="B797" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C797" t="inlineStr">
         <is>
-          <t>CAR_AVAILABLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="798">
-      <c r="A798" t="inlineStr">
-        <is>
-          <t>CarAvailability</t>
-        </is>
-      </c>
-      <c r="B798" t="n">
-        <v>2</v>
-      </c>
-      <c r="C798" t="inlineStr">
-        <is>
-          <t>DONT_HAVE_CAR</t>
+          <t>DONT_KNOW</t>
         </is>
       </c>
     </row>
@@ -18412,11 +18412,11 @@
         </is>
       </c>
       <c r="B799" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>CAR_UNAVAILABLE</t>
+          <t>CAR_AVAILABLE</t>
         </is>
       </c>
     </row>
@@ -18427,11 +18427,11 @@
         </is>
       </c>
       <c r="B800" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>DONT_DRIVE</t>
+          <t>DONT_HAVE_CAR</t>
         </is>
       </c>
     </row>
@@ -18442,11 +18442,11 @@
         </is>
       </c>
       <c r="B801" t="n">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="C801" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>CAR_UNAVAILABLE</t>
         </is>
       </c>
     </row>
@@ -18457,9 +18457,39 @@
         </is>
       </c>
       <c r="B802" t="n">
+        <v>4</v>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>DONT_DRIVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>CarAvailability</t>
+        </is>
+      </c>
+      <c r="B803" t="n">
+        <v>98</v>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>CarAvailability</t>
+        </is>
+      </c>
+      <c r="B804" t="n">
         <v>99</v>
       </c>
-      <c r="C802" t="inlineStr">
+      <c r="C804" t="inlineStr">
         <is>
           <t>REFUSED</t>
         </is>

--- a/reports/data_dictionary.xlsx
+++ b/reports/data_dictionary.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E244"/>
+  <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,22 +506,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>interview_location</t>
+          <t>submit</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>InterviewLocation</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Location where respondent was intercepted</t>
+          <t>True if the record is to be used for submittal</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -533,22 +533,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>interview_location_other</t>
+          <t>interview_location</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>InterviewLocation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Other Location where respondent was intercepted</t>
+          <t>Location where respondent was intercepted</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -560,22 +560,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>marketsegment</t>
+          <t>interview_location_other</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Type of respondent, either passenger, employee, or other</t>
+          <t>Other Location where respondent was intercepted</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,22 +587,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>is_qualified_age</t>
+          <t>marketsegment</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Whether the respondent is of a qualified age to participate in the survey</t>
+          <t>Type of respondent, either passenger, employee, or other</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -614,22 +614,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>resident_visitor_general</t>
+          <t>is_qualified_age</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ResidentVisitorGeneral</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Whether a resident or a visitor of the San deigo airport service area</t>
+          <t>Whether the respondent is of a qualified age to participate in the survey</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -641,7 +641,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>resident_visitor_followup</t>
+          <t>resident_visitor_general</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -651,12 +651,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ResidentVisitorFollowup</t>
+          <t>ResidentVisitorGeneral</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>If neither a resident or a visitor, whether the respondent is visiting San Diego</t>
+          <t>Whether a resident or a visitor of the San deigo airport service area</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -668,7 +668,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>resident_visitor</t>
+          <t>resident_visitor_followup</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -678,12 +678,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ResidentVisitor</t>
+          <t>ResidentVisitorFollowup</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Where the respondent resides in the airport service area most of the year</t>
+          <t>If neither a resident or a visitor, whether the respondent is visiting San Diego</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -695,22 +695,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>country_of_residence</t>
+          <t>resident_visitor_arriving</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Country</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Country of residence for international vistors</t>
+          <t>True if respondent lives outside San Diego Region and is going home by ground transportation</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -722,7 +722,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>state_of_residence</t>
+          <t>resident_visitor</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -732,12 +732,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>State</t>
+          <t>ResidentVisitor</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>State of residence for US and Mexico residents</t>
+          <t>Where the respondent resides in the airport service area most of the year</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -749,22 +749,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>home_location_city</t>
+          <t>country_of_residence</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>Country</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>City of the home location of the respondent</t>
+          <t>Country of residence for international vistors</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -776,22 +776,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>home_location_state</t>
+          <t>state_of_residence</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>State</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>State of the home location of the respondent</t>
+          <t>State of residence for US and Mexico residents</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -803,7 +803,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>home_location_zip</t>
+          <t>home_location_city</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ZIP of the home location of the respondent</t>
+          <t>City of the home location of the respondent</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -830,12 +830,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>home_location_latitude</t>
+          <t>home_location_state</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Latitude of the home location of the respondent</t>
+          <t>State of the home location of the respondent</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -857,12 +857,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>home_location_longitude</t>
+          <t>home_location_zip</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Longitude of the home location of the respondent</t>
+          <t>ZIP of the home location of the respondent</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -884,22 +884,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>home_location_latitude</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Age category of the respondent</t>
+          <t>Latitude of the home location of the respondent</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -911,22 +911,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>home_location_longitude</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Gender of the respondent</t>
+          <t>Longitude of the home location of the respondent</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -938,22 +938,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>gender_other</t>
+          <t>age</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Gender of the respondent (not listed)</t>
+          <t>Age category of the respondent</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -965,22 +965,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>race_aian</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Does the respondent identify as American Indian or Alaska Native?</t>
+          <t>Gender of the respondent</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -992,12 +992,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>race_asian</t>
+          <t>gender_other</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Does the respondent identify as Asian?</t>
+          <t>Gender of the respondent (not listed)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1019,7 +1019,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>race_black</t>
+          <t>race_aian</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Does the respondent identify as Black or African American?</t>
+          <t>Does the respondent identify as American Indian or Alaska Native?</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1046,7 +1046,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>race_hispanic</t>
+          <t>race_asian</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Does the respondent identify as Hispanic or Latino?</t>
+          <t>Does the respondent identify as Asian?</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1073,7 +1073,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>race_middle_eastern</t>
+          <t>race_black</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Does the respondent identify as Middle Eastern?</t>
+          <t>Does the respondent identify as Black or African American?</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1100,7 +1100,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>race_hp</t>
+          <t>race_hispanic</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Does the respondent identify as Native Hawaiian or Other Pacific Islander?</t>
+          <t>Does the respondent identify as Hispanic or Latino?</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1127,7 +1127,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>race_white</t>
+          <t>race_middle_eastern</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Does the respondent identify as White?</t>
+          <t>Does the respondent identify as Middle Eastern?</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1154,7 +1154,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>race_unknown</t>
+          <t>race_hp</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Does the respondent identify as an unknown</t>
+          <t>Does the respondent identify as Native Hawaiian or Other Pacific Islander?</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1181,12 +1181,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>race_other</t>
+          <t>race_white</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>If the respondent enters a race/ethnicicy not listed above, this field will be populated</t>
+          <t>Does the respondent identify as White?</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1208,22 +1208,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>number_persons_in_household</t>
+          <t>race_unknown</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>HouseholdSize</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Number of persons in the respondent's household</t>
+          <t>Does the respondent identify as an unknown</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1235,22 +1235,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>number_vehicles</t>
+          <t>race_other</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>HouseholdVehicles</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Number of vehicles in the respondent's household</t>
+          <t>If the respondent enters a race/ethnicicy not listed above, this field will be populated</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1262,7 +1262,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>household_income</t>
+          <t>number_persons_in_household</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1272,12 +1272,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>HouseholdIncome</t>
+          <t>HouseholdSize</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Income range of the respondent's household</t>
+          <t>Number of persons in the respondent's household</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1289,22 +1289,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>is_income_below_poverty</t>
+          <t>number_vehicles</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>HouseholdVehicles</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Is the respondent's household income below poverty?</t>
+          <t>Number of vehicles in the respondent's household</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1316,7 +1316,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>number_workers</t>
+          <t>household_income</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>HouseholdWorkers</t>
+          <t>HouseholdIncome</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Number of workers in the respondent's household</t>
+          <t>Income range of the respondent's household</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1343,7 +1343,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>sp_invitation</t>
+          <t>is_income_below_poverty</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Whether the respondent chose to participate in the SP Survey</t>
+          <t>Is the respondent's household income below poverty?</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1370,22 +1370,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>stay_informed</t>
+          <t>number_workers</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>HouseholdWorkers</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Whether the respondent chose to Stay Informed about the project</t>
+          <t>Number of workers in the respondent's household</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1397,7 +1397,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>survey_language</t>
+          <t>sp_invitation</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1407,12 +1407,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SurveyLanguage</t>
+          <t>YesNoType</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Language of the Survey</t>
+          <t>Whether the respondent chose to participate in the SP Survey</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1424,22 +1424,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>survey_language_other</t>
+          <t>stay_informed</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>YesNoType</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Other (not listed) language of the survey</t>
+          <t>Whether the respondent chose to Stay Informed about the project</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1451,22 +1451,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>trip</t>
+          <t>survey_language</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>SurveyLanguage</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Details of the trip taken by the respondent</t>
+          <t>Language of the Survey</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1478,12 +1478,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>valid_record</t>
+          <t>survey_language_other</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Indicates if the record is valid</t>
+          <t>Other (not listed) language of the survey</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1505,12 +1505,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>validation_error</t>
+          <t>trip</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>Trip</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Holds validation error messages</t>
+          <t>Details of the trip taken by the respondent</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1532,12 +1532,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>validation_severity</t>
+          <t>valid_record</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Holds the severity of the validation error</t>
+          <t>Indicates if the record is valid</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1559,34 +1559,34 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>passenger_type</t>
+          <t>validation_error</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PassengerType</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Type of Passenger: Arriving, Departing or Connecting</t>
+          <t>Holds validation error messages</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>AirPassenger</t>
+          <t>All Respondents</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>previous_or_next_airport</t>
+          <t>validation_severity</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1601,19 +1601,19 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Where is the respondent flying from/flying to</t>
+          <t>Holds the severity of the validation error</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>AirPassenger</t>
+          <t>All Respondents</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>airline</t>
+          <t>passenger_type</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1623,12 +1623,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>PassengerType</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Airline of the respondent's flight</t>
+          <t>Type of Passenger: Arriving, Departing or Connecting</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1640,7 +1640,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>airline_other</t>
+          <t>previous_or_next_airport</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Other (not listed) airline of the respondent's flight</t>
+          <t>Where is the respondent flying from/flying to</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1667,22 +1667,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>flight_number</t>
+          <t>airline</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Flight number of the respondent's flight</t>
+          <t>Airline of the respondent's flight</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1694,12 +1694,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>not_using_connecting</t>
+          <t>airline_other</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>True if the passenger did not use/is not using any connecting flights in their journey</t>
+          <t>Other (not listed) airline of the respondent's flight</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1721,7 +1721,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>final_flight_destination</t>
+          <t>flight_number</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Final destination of the flight for departing passengers</t>
+          <t>Flight number of the respondent's flight</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1748,22 +1748,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>flight_departure_time</t>
+          <t>not_using_connecting</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DepartTime</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Time of flight departure</t>
+          <t>True if the passenger did not use/is not using any connecting flights in their journey</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1775,22 +1775,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>flight_arrival_time</t>
+          <t>final_flight_destination</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DepartTime</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Time of flight arrival</t>
+          <t>Final destination of the flight for departing passengers</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1802,22 +1802,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>original_flight_origin</t>
+          <t>flight_departure_time</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>DepartTime</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Original origin for arriving passengers</t>
+          <t>Time of flight departure</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1829,7 +1829,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>flight_purpose</t>
+          <t>flight_arrival_time</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1839,12 +1839,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>FlightPurpose</t>
+          <t>DepartTime</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Purpose of the respondent's flight</t>
+          <t>Time of flight arrival</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1856,7 +1856,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>flight_purpose_other</t>
+          <t>original_flight_origin</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Other (not listed) purpose of the respondent's flight</t>
+          <t>Original origin for arriving passengers</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1883,22 +1883,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>convention_center</t>
+          <t>flight_purpose</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>FlightPurpose</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Whether the visitor went/going to convention center</t>
+          <t>Purpose of the respondent's flight</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1910,22 +1910,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>convention_center_activity</t>
+          <t>flight_purpose_other</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ConventionCenterActivity</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Type of activity that the respondent conducted at the convention center</t>
+          <t>Other (not listed) purpose of the respondent's flight</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1937,22 +1937,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>convention_center_activity_other</t>
+          <t>convention_center</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>YesNoType</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Type of activity (not listed) that the respondent conducted at the convention center</t>
+          <t>Whether the visitor went/going to convention center</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1964,7 +1964,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>checked_bags</t>
+          <t>convention_center_activity</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1974,12 +1974,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CheckedBags</t>
+          <t>ConventionCenterActivity</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Number of checked bags</t>
+          <t>Type of activity that the respondent conducted at the convention center</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1991,22 +1991,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>carryon_bags</t>
+          <t>convention_center_activity_other</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CarryOns</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Number of carry-on bags</t>
+          <t>Type of activity (not listed) that the respondent conducted at the convention center</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2018,7 +2018,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>nights_away</t>
+          <t>checked_bags</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2028,12 +2028,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>TravelDuration</t>
+          <t>CheckedBags</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Number of nights the departing air passengers will be away</t>
+          <t>Number of checked bags</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2045,7 +2045,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>nights_visited</t>
+          <t>carryon_bags</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2055,12 +2055,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>TravelDuration</t>
+          <t>CarryOns</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Number of nights the arriving air passengers will be in the San Diego Region</t>
+          <t>Number of carry-on bags</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2072,7 +2072,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>party_size_flight</t>
+          <t>nights_away</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2082,12 +2082,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>PartySize</t>
+          <t>TravelDuration</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Number of people flying with the respondent (count excludes the respondent)</t>
+          <t>Number of nights the departing air passengers will be away</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2099,22 +2099,22 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>party_size_ground_access_same</t>
+          <t>nights_visited</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>TravelDuration</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Whether flying party all traveled to airport together</t>
+          <t>Number of nights the arriving air passengers will be in the San Diego Region</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2126,7 +2126,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>party_size_ground_access</t>
+          <t>party_size_flight</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Size of ground access travel party (count excludes the respondent)</t>
+          <t>Number of people flying with the respondent (count excludes the respondent)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2153,7 +2153,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>party_includes_child_aged00to05</t>
+          <t>party_size_ground_access_same</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>True if the traveling party includes a child aged zero to two</t>
+          <t>Whether flying party all traveled to airport together</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2180,22 +2180,22 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>party_includes_child_aged06to17</t>
+          <t>party_size_ground_access</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>PartySize</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>True if the traveling party includes a child aged three to nine</t>
+          <t>Size of ground access travel party (count excludes the respondent)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2207,7 +2207,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>party_includes_coworker</t>
+          <t>party_includes_child_aged00to05</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>True if the traveling party includes a coworker</t>
+          <t>True if the traveling party includes a child aged zero to two</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2234,7 +2234,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>party_includes_friend_relative</t>
+          <t>party_includes_child_aged06to17</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2249,7 +2249,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>True if the traveling party includes a friend or relative</t>
+          <t>True if the traveling party includes a child aged three to nine</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2261,7 +2261,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>party_includes_mobility_impaired</t>
+          <t>party_includes_coworker</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>True if the traveling party includes a mobility impaired person</t>
+          <t>True if the traveling party includes a coworker</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2288,22 +2288,22 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>sdia_flight_frequency</t>
+          <t>party_includes_friend_relative</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SanFlightFrequency</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Respondent's number of flights from SDIA in the past 12 months</t>
+          <t>True if the traveling party includes a friend or relative</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2315,22 +2315,22 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>sdia_previous_accessmode</t>
+          <t>party_includes_mobility_impaired</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SanFlightFrequency</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Number of times respondent used revealed access modes for other SDIA airport access trips in the past 12 months</t>
+          <t>True if the traveling party includes a mobility impaired person</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2342,22 +2342,22 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_taxi</t>
+          <t>sdia_flight_frequency</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>SanFlightFrequency</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>True if the respondent used taxi as a mode for his trip to SDIA in the last 12 months</t>
+          <t>Respondent's number of flights from SDIA in the past 12 months</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2369,22 +2369,22 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_uber_lyft</t>
+          <t>sdia_previous_accessmode</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>SanFlightFrequency</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>True if the respondent used Uber or Lyft as a mode for their trip to SDIA in the last 12 months</t>
+          <t>Number of times respondent used revealed access modes for other SDIA airport access trips in the past 12 months</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2396,7 +2396,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_car_black</t>
+          <t>sdia_accessmode_split_taxi</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>True if the respondent used a black car or luxury service for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used taxi as a mode for his trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2423,7 +2423,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_dropped_off_by_family_friend</t>
+          <t>sdia_accessmode_split_uber_lyft</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>True if the respondent was dropped off by a family member or friend for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used Uber or Lyft as a mode for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2450,7 +2450,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_drove_alone_and_parked</t>
+          <t>sdia_accessmode_split_car_black</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>True if the respondent drove alone and parked at SDIA in the last 12 months</t>
+          <t>True if the respondent used a black car or luxury service for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2477,7 +2477,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_drove_with_others_and_parked</t>
+          <t>sdia_accessmode_split_dropped_off_by_family_friend</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>True if the respondent drove with others and parked at SDIA in the last 12 months</t>
+          <t>True if the respondent was dropped off by a family member or friend for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2504,7 +2504,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_rode_with_other_travelers_and_parked</t>
+          <t>sdia_accessmode_split_drove_alone_and_parked</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>True if the respondent rode with other travelers and parked at SDIA in the last 12 months</t>
+          <t>True if the respondent drove alone and parked at SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2531,7 +2531,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_mts992</t>
+          <t>sdia_accessmode_split_drove_with_others_and_parked</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>True if the respondent used MTS992 for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent drove with others and parked at SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2558,7 +2558,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_flyer_shuttle</t>
+          <t>sdia_accessmode_split_rode_with_other_travelers_and_parked</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>True if the respondent used the Flyer Shuttle for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent rode with other travelers and parked at SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2585,7 +2585,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_other_public_transit</t>
+          <t>sdia_accessmode_split_mts992</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>True if the respondent used another form of public transit for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used MTS992 for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2612,7 +2612,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_rental_car_dropped_off</t>
+          <t>sdia_accessmode_split_flyer_shuttle</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>True if the respondent used a rental car and was dropped off at SDIA in the last 12 months</t>
+          <t>True if the respondent used the Flyer Shuttle for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2639,7 +2639,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_rental_car_parked</t>
+          <t>sdia_accessmode_split_other_public_transit</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>True if the respondent parked a rental car at SDIA in the last 12 months</t>
+          <t>True if the respondent used another form of public transit for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2666,7 +2666,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_chartered_tour_bus</t>
+          <t>sdia_accessmode_split_rental_car_dropped_off</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>True if the respondent used a chartered tour bus for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used a rental car and was dropped off at SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2693,7 +2693,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_hotel_shuttle_van</t>
+          <t>sdia_accessmode_split_rental_car_parked</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>True if the respondent used a hotel shuttle van for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent parked a rental car at SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2720,7 +2720,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_employee_shuttle</t>
+          <t>sdia_accessmode_split_chartered_tour_bus</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>True if the respondent used an employee shuttle for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used a chartered tour bus for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2747,7 +2747,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_other_shared_van</t>
+          <t>sdia_accessmode_split_hotel_shuttle_van</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>True if the respondent used another type of shared van service for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used a hotel shuttle van for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2774,7 +2774,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_walk</t>
+          <t>sdia_accessmode_split_employee_shuttle</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>True if the respondent walked to SDIA in the last 12 months</t>
+          <t>True if the respondent used an employee shuttle for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2801,7 +2801,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_wheelchair</t>
+          <t>sdia_accessmode_split_other_shared_van</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2816,7 +2816,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>True if the respondent used a wheelchair for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used another type of shared van service for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2828,7 +2828,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_bicycle_electric_bikeshare</t>
+          <t>sdia_accessmode_split_walk</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>True if the respondent used an electric bikeshare for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent walked to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2855,7 +2855,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_bicycle_non_electric_bikeshare</t>
+          <t>sdia_accessmode_split_wheelchair</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2870,7 +2870,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>True if the respondent used a non-electric bikeshare for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used a wheelchair for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2882,7 +2882,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_bicycle_personal_electric_bicycle</t>
+          <t>sdia_accessmode_split_bicycle_electric_bikeshare</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>True if the respondent used a personal electric bicycle for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used an electric bikeshare for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2909,7 +2909,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_bicycle_personal_non_electric_bicycle</t>
+          <t>sdia_accessmode_split_bicycle_non_electric_bikeshare</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>True if the respondent used a personal non-electric bicycle for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used a non-electric bikeshare for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2936,7 +2936,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_e_scooter_shared</t>
+          <t>sdia_accessmode_split_bicycle_personal_electric_bicycle</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2951,7 +2951,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>True if the respondent used a shared electric scooter for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used a personal electric bicycle for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2963,7 +2963,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_e_scooter_personal</t>
+          <t>sdia_accessmode_split_bicycle_personal_non_electric_bicycle</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>True if the respondent used a personal electric scooter for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used a personal non-electric bicycle for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2990,22 +2990,22 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>sdia_accessmode_decision</t>
+          <t>sdia_accessmode_split_e_scooter_shared</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>ModeDecision</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Factor which affects mode choice, for respondents who do not always used the same mode</t>
+          <t>True if the respondent used a shared electric scooter for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3017,22 +3017,22 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>reverse_mode</t>
+          <t>sdia_accessmode_split_e_scooter_personal</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>TravelMode</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Mode that was used in the reverse direction</t>
+          <t>True if the respondent used a personal electric scooter for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3044,7 +3044,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>reverse_mode_predicted</t>
+          <t>sdia_accessmode_decision</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3054,12 +3054,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>TravelMode</t>
+          <t>ModeDecision</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Mode that will be used in the reverse direction</t>
+          <t>Factor which affects mode choice, for respondents who do not always used the same mode</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3071,22 +3071,22 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>reverse_mode_predicted_other</t>
+          <t>reverse_mode</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>TravelMode</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Mode (not listed) which will be used in the reverse direction</t>
+          <t>Mode that was used in the reverse direction</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3098,7 +3098,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>sdia_transit_awareness</t>
+          <t>reverse_mode_predicted</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3108,12 +3108,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>YesNoType</t>
+          <t>TravelMode</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Whether respondent is aware that buses are serving SDIA</t>
+          <t>Mode that will be used in the reverse direction</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3125,12 +3125,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>reasons_no_transit_not_convenient</t>
+          <t>reverse_mode_predicted_other</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3140,7 +3140,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it is not convenient</t>
+          <t>Mode (not listed) which will be used in the reverse direction</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3152,22 +3152,22 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>reasons_no_transit_too_complicated</t>
+          <t>sdia_transit_awareness</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>YesNoType</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it too complicated</t>
+          <t>Whether respondent is aware that buses are serving SDIA</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3179,7 +3179,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>reasons_no_transit_dont_know_how</t>
+          <t>reasons_no_transit_not_convenient</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because they don't know how</t>
+          <t>True if the respondent did not use transit because it is not convenient</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3206,7 +3206,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>reasons_no_transit_no_good_options</t>
+          <t>reasons_no_transit_too_complicated</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because there are no good options</t>
+          <t>True if the respondent did not use transit because it too complicated</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3233,7 +3233,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>reasons_no_transit_not_flexible</t>
+          <t>reasons_no_transit_dont_know_how</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it is not flexible</t>
+          <t>True if the respondent did not use transit because they don't know how</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3260,7 +3260,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>reasons_no_transit_not_reliable</t>
+          <t>reasons_no_transit_no_good_options</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it is not reliable</t>
+          <t>True if the respondent did not use transit because there are no good options</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3287,7 +3287,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>reasons_no_transit_not_safe</t>
+          <t>reasons_no_transit_not_flexible</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it is not safe</t>
+          <t>True if the respondent did not use transit because it is not flexible</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3314,7 +3314,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>reasons_no_transit_ride_too_long</t>
+          <t>reasons_no_transit_not_reliable</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3329,7 +3329,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it takes too long</t>
+          <t>True if the respondent did not use transit because it is not reliable</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3341,7 +3341,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>reasons_no_transit_wait_too_long</t>
+          <t>reasons_no_transit_not_safe</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3356,7 +3356,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because the wait time is too long</t>
+          <t>True if the respondent did not use transit because it is not safe</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3368,7 +3368,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>reasons_no_transit_does_not_run_when_needed</t>
+          <t>reasons_no_transit_ride_too_long</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because of it's schedule</t>
+          <t>True if the respondent did not use transit because it takes too long</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3395,7 +3395,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>reasons_no_transit_too_many_transfers</t>
+          <t>reasons_no_transit_wait_too_long</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3410,7 +3410,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it requries too many transfers</t>
+          <t>True if the respondent did not use transit because the wait time is too long</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3422,7 +3422,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>reasons_no_transit_stop_too_far</t>
+          <t>reasons_no_transit_does_not_run_when_needed</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because the stop is too far</t>
+          <t>True if the respondent did not use transit because of it's schedule</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3449,7 +3449,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>reasons_no_transit_not_economical</t>
+          <t>reasons_no_transit_too_many_transfers</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3464,7 +3464,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it is not economical</t>
+          <t>True if the respondent did not use transit because it requries too many transfers</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3476,7 +3476,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>reasons_no_transit_dislike_crowded_trains_buses</t>
+          <t>reasons_no_transit_stop_too_far</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because they don't like crowded trains and buses</t>
+          <t>True if the respondent did not use transit because the stop is too far</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3503,7 +3503,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>reasons_no_transit_too_much_walking_stairs</t>
+          <t>reasons_no_transit_not_economical</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it involves too much walking and/or stairs</t>
+          <t>True if the respondent did not use transit because it is not economical</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3530,7 +3530,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>reasons_no_transit_dislike_public_transport</t>
+          <t>reasons_no_transit_dislike_crowded_trains_buses</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because they don't like public transport</t>
+          <t>True if the respondent did not use transit because they don't like crowded trains and buses</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3557,7 +3557,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>reasons_no_transit_dislike_public_transport_with_luggage</t>
+          <t>reasons_no_transit_too_much_walking_stairs</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3572,7 +3572,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because they don't like public transport with luggage</t>
+          <t>True if the respondent did not use transit because it involves too much walking and/or stairs</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3584,7 +3584,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>reasons_no_transit_prefer_other_mode</t>
+          <t>reasons_no_transit_dislike_public_transport</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because they prefer other modes(s)</t>
+          <t>True if the respondent did not use transit because they don't like public transport</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -3611,22 +3611,22 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>general_use_transit_resident</t>
+          <t>reasons_no_transit_dislike_public_transport_with_luggage</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>TransitUseFrequency</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>General transit use frequency by residents of San Diego region in San Diego region</t>
+          <t>True if the respondent did not use transit because they don't like public transport with luggage</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3638,22 +3638,22 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>general_use_transit_visitor_home</t>
+          <t>reasons_no_transit_prefer_other_mode</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>TransitUseFrequency</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>General transit use frequency by visitors of San Diego region when home</t>
+          <t>True if the respondent did not use transit because they prefer other modes(s)</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -3665,22 +3665,22 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_taxi</t>
+          <t>general_use_transit_resident</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>TransitUseFrequency</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>True if the visitor used Taxi as a mode during their visit to the San Diego Region</t>
+          <t>General transit use frequency by residents of San Diego region in San Diego region</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -3692,22 +3692,22 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_uber_lyft</t>
+          <t>general_use_transit_visitor_home</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>TransitUseFrequency</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>True if the visitor used Uber or Lyft as a mode during their visit to the San Diego Region</t>
+          <t>General transit use frequency by visitors of San Diego region when home</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -3719,7 +3719,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_car_black</t>
+          <t>general_modes_used_visitor_taxi</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>True if the visitor used a black car service as a mode during their visit to the San Diego Region</t>
+          <t>True if the visitor used Taxi as a mode during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -3746,7 +3746,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_dropped_off_by_family_friend</t>
+          <t>general_modes_used_visitor_uber_lyft</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3761,7 +3761,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>True if the visitor was dropped off by a family member or friend during their visit to the San Diego Region</t>
+          <t>True if the visitor used Uber or Lyft as a mode during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -3773,7 +3773,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_drove_alone_and_parked</t>
+          <t>general_modes_used_visitor_car_black</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>True if the visitor drove alone and parked during their visit to the San Diego Region</t>
+          <t>True if the visitor used a black car service as a mode during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -3800,7 +3800,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_drove_with_others_and_parked</t>
+          <t>general_modes_used_visitor_dropped_off_by_family_friend</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3815,7 +3815,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>True if the visitor drove with others and parked during their visit to the San Diego Region</t>
+          <t>True if the visitor was dropped off by a family member or friend during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -3827,7 +3827,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_rode_with_other_travelers_and_parked</t>
+          <t>general_modes_used_visitor_drove_alone_and_parked</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3842,7 +3842,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>True if the visitor rode with other travelers and parked during their visit to the San Diego Region</t>
+          <t>True if the visitor drove alone and parked during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -3854,7 +3854,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_coaster</t>
+          <t>general_modes_used_visitor_drove_with_others_and_parked</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3869,7 +3869,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>True if the visitor used the Coaster train during their visit to the San Diego Region</t>
+          <t>True if the visitor drove with others and parked during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -3881,7 +3881,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_mts_red_trolley</t>
+          <t>general_modes_used_visitor_rode_with_other_travelers_and_parked</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>True if the visitor used the MTS Red Trolley during their visit to the San Diego Region</t>
+          <t>True if the visitor rode with other travelers and parked during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -3908,7 +3908,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_other_public_bus</t>
+          <t>general_modes_used_visitor_coaster</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3923,7 +3923,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>True if the visitor used other public bus services during their visit to the San Diego Region</t>
+          <t>True if the visitor used the Coaster train during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -3935,7 +3935,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_other_public_transit</t>
+          <t>general_modes_used_visitor_mts_red_trolley</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>True if the visitor used other public transit services during their visit to the San Diego Region</t>
+          <t>True if the visitor used the MTS Red Trolley during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -3962,7 +3962,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_rental_car_dropped_off</t>
+          <t>general_modes_used_visitor_other_public_bus</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>True if the visitor used a rental car and was dropped off during their visit to the San Diego Region</t>
+          <t>True if the visitor used other public bus services during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -3989,7 +3989,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_rental_car_parked</t>
+          <t>general_modes_used_visitor_other_public_transit</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>True if the visitor used a rental car and parked during their visit to the San Diego Region</t>
+          <t>True if the visitor used other public transit services during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -4016,7 +4016,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_chartered_tour_bus</t>
+          <t>general_modes_used_visitor_rental_car_dropped_off</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>True if the visitor used a chartered tour bus during their visit to the San Diego Region</t>
+          <t>True if the visitor used a rental car and was dropped off during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -4043,7 +4043,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_hotel_shuttle_van</t>
+          <t>general_modes_used_visitor_rental_car_parked</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>True if the visitor used a hotel shuttle or van during their visit to the San Diego Region</t>
+          <t>True if the visitor used a rental car and parked during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4070,7 +4070,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_employee_shuttle</t>
+          <t>general_modes_used_visitor_chartered_tour_bus</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4085,7 +4085,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>True if the visitor used an employee shuttle during their visit to the San Diego Region</t>
+          <t>True if the visitor used a chartered tour bus during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -4097,7 +4097,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_other_shared_van</t>
+          <t>general_modes_used_visitor_hotel_shuttle_van</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4112,7 +4112,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>True if the visitor used another type of shared van service during their visit to the San Diego Region</t>
+          <t>True if the visitor used a hotel shuttle or van during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -4124,7 +4124,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_walk</t>
+          <t>general_modes_used_visitor_employee_shuttle</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4139,7 +4139,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>True if the visitor walked as a mode during their visit to the San Diego Region</t>
+          <t>True if the visitor used an employee shuttle during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4151,7 +4151,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_wheelchair</t>
+          <t>general_modes_used_visitor_other_shared_van</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>True if the visitor used a wheelchair during their visit to the San Diego Region</t>
+          <t>True if the visitor used another type of shared van service during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -4178,7 +4178,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_bicycle_electric_bikeshare</t>
+          <t>general_modes_used_visitor_walk</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>True if the visitor used an electric bicycle through a bikeshare service during their visit to the San Diego Region</t>
+          <t>True if the visitor walked as a mode during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -4205,7 +4205,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_bicycle_non_electric_bikeshare</t>
+          <t>general_modes_used_visitor_wheelchair</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4220,7 +4220,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>True if the visitor used a non-electric bicycle through a bikeshare service during their visit to the San Diego Region</t>
+          <t>True if the visitor used a wheelchair during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4232,7 +4232,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_bicycle_personal_electric_bicycle</t>
+          <t>general_modes_used_visitor_bicycle_electric_bikeshare</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4247,7 +4247,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>True if the visitor used their personal electric bicycle during their visit to the San Diego Region</t>
+          <t>True if the visitor used an electric bicycle through a bikeshare service during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4259,7 +4259,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_bicycle_personal_non_electric_bicycle</t>
+          <t>general_modes_used_visitor_bicycle_non_electric_bikeshare</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4274,7 +4274,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>True if the visitor used their personal non-electric bicycle during their visit to the San Diego Region</t>
+          <t>True if the visitor used a non-electric bicycle through a bikeshare service during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4286,7 +4286,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_e_scooter_shared</t>
+          <t>general_modes_used_visitor_bicycle_personal_electric_bicycle</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>True if the visitor used a shared e-scooter during their visit to the San Diego Region</t>
+          <t>True if the visitor used their personal electric bicycle during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4313,7 +4313,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_e_scooter_personal</t>
+          <t>general_modes_used_visitor_bicycle_personal_non_electric_bicycle</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>True if the visitor used their personal e-scooter during their visit to the San Diego Region</t>
+          <t>True if the visitor used their personal non-electric bicycle during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4340,22 +4340,22 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>non_sdia_flight_frequency</t>
+          <t>general_modes_used_visitor_e_scooter_shared</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>OtherFlightAndTransitUseFrequency</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Respondent's number of flights from airport other than SDIA in the past 12 months</t>
+          <t>True if the visitor used a shared e-scooter during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -4367,22 +4367,22 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>other_airport_accessmode</t>
+          <t>general_modes_used_visitor_e_scooter_personal</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>TravelMode</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Travel mode used to access other airports</t>
+          <t>True if the visitor used their personal e-scooter during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -4394,7 +4394,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>airport_access_transit_use_elsewhere</t>
+          <t>non_sdia_flight_frequency</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4409,7 +4409,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Frequency of Transit use by respondent to access other airports</t>
+          <t>Respondent's number of flights from airport other than SDIA in the past 12 months</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -4421,22 +4421,22 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>airportaccesstransitname</t>
+          <t>other_airport_accessmode</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>TravelMode</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Names of airports accessed by transit</t>
+          <t>Travel mode used to access other airports</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -4448,7 +4448,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>shift_start_airport_building</t>
+          <t>airport_access_transit_use_elsewhere</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -4458,24 +4458,24 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>SanBuildings</t>
+          <t>OtherFlightAndTransitUseFrequency</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Name of building where employee starts their shift</t>
+          <t>Frequency of Transit use by respondent to access other airports</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Employee</t>
+          <t>AirPassenger</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>shift_start_airport_building_other</t>
+          <t>airportaccesstransitname</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -4490,154 +4490,164 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Name of building (not listed) where employee starts their shift</t>
+          <t>Names of airports accessed by transit</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Employee</t>
+          <t>AirPassenger</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>employer</t>
+          <t>airport_terminal</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>Computed</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Employers</t>
+          <t>Computed Value</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Name of respondent's employer</t>
+          <t xml:space="preserve">
+        Airport Terminal for Air Passenger
+        </t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Employee</t>
+          <t>AirPassenger</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>employer_other</t>
+          <t>is_final_destination</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>Computed</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>Computed Value</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Name (not listed) of respondent's employer</t>
+          <t xml:space="preserve">
+        True if the next flight destination is final and not a layover
+        </t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Employee</t>
+          <t>AirPassenger</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>occupation</t>
+          <t>is_original_origin</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>Computed</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Occupations</t>
+          <t>Computed Value</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Occupation of the employee</t>
+          <t xml:space="preserve">
+        True if the previous flight origin was original and not a layover
+        </t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Employee</t>
+          <t>AirPassenger</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>occupation_other</t>
+          <t>next_flight_destination</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>Computed</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>Computed Value</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Occupation (other, not listed) of the employee</t>
+          <t xml:space="preserve">
+        Next Flight Destination for a departing passenger
+        </t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Employee</t>
+          <t>AirPassenger</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>number_hours_worked</t>
+          <t>previous_flight_origin</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>Computed</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>HoursWorked</t>
+          <t>Computed Value</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Number of hours respondent worked in the past 7 days</t>
+          <t xml:space="preserve">
+        Previous flight origin for an arriving passenger
+        </t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Employee</t>
+          <t>AirPassenger</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>number_commute_days</t>
+          <t>shift_start_airport_building</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -4647,12 +4657,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>CommuteDays</t>
+          <t>SanBuildings</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Number of days respondent commuted to the airport in the past 7 days</t>
+          <t>Name of building where employee starts their shift</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -4664,22 +4674,22 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>shift_start_time</t>
+          <t>shift_start_airport_building_other</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>DepartTime</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Time when the employee's shift starts</t>
+          <t>Name of building (not listed) where employee starts their shift</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -4691,7 +4701,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>shift_end_time</t>
+          <t>employer</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -4701,12 +4711,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>DepartTime</t>
+          <t>Employers</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Time when the employee's shift ends</t>
+          <t>Name of respondent's employer</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -4718,22 +4728,22 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>reverse_commute_mode</t>
+          <t>employer_other</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>TravelMode</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Reverse commute mode for the employee</t>
+          <t>Name (not listed) of respondent's employer</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -4745,22 +4755,22 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>reverse_commute_mode_other</t>
+          <t>occupation</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>Occupations</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Reverse commute mode for the employee (other, not listed)</t>
+          <t>Occupation of the employee</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -4772,22 +4782,22 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>same_commute_mode</t>
+          <t>occupation_other</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>YesNoType</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>True if the employee always used the same travel mode to commute in the last 30 days</t>
+          <t>Occupation (other, not listed) of the employee</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -4799,22 +4809,22 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>same_commute_mode_other</t>
+          <t>number_hours_worked</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>HoursWorked</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Other Response to employee's travel mode to commute in the last 30 days</t>
+          <t>Number of hours respondent worked in the past 7 days</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -4826,22 +4836,22 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>alt_commute_mode_taxi</t>
+          <t>number_commute_days</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>CommuteDays</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>True if the employee used Taxi as a mode to commute to the airport in the past 30 days</t>
+          <t>Number of days respondent commuted to the airport in the past 7 days</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -4853,22 +4863,22 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>alt_commute_mode_uber_lyft</t>
+          <t>shift_start_time</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>DepartTime</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>True if the employee used Uber or Lyft as a mode to commute to the airport in the past 30 days</t>
+          <t>Time when the employee's shift starts</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -4880,22 +4890,22 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>alt_commute_mode_car_black</t>
+          <t>shift_end_time</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>DepartTime</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>True if the employee used a black car service as a mode to commute to the airport in the past 30 days</t>
+          <t>Time when the employee's shift ends</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -4907,22 +4917,22 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>alt_commute_mode_picked_by_family_friend</t>
+          <t>reverse_commute_mode</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>TravelMode</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>True if the employee was picked up by a family member or friend to commute to the airport in the past 30 days</t>
+          <t>Reverse commute mode for the employee</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -4934,12 +4944,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>alt_commute_mode_parked_vehicle_and_drive_alone</t>
+          <t>reverse_commute_mode_other</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4949,7 +4959,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>True if the employee drove alone and parked their vehicle while commuting to the airport in the past 30 days</t>
+          <t>Reverse commute mode for the employee (other, not listed)</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -4961,22 +4971,22 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>alt_commute_mode_parked_vehicle_and_drive_with_others</t>
+          <t>same_commute_mode</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>YesNoType</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>True if the employee drove with others and parked their vehicle while commuting to the airport in the past 30 days</t>
+          <t>True if the employee always used the same travel mode to commute in the last 30 days</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -4988,12 +4998,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>alt_commute_mode_parked_vehicle_and_ride_with_other_travelers</t>
+          <t>same_commute_mode_other</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -5003,7 +5013,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>True if the employee rode with other travelers and parked their vehicle while commuting to the airport in the past 30 days</t>
+          <t>Other Response to employee's travel mode to commute in the last 30 days</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5015,7 +5025,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>alt_commute_mode_mts_route_992</t>
+          <t>alt_commute_mode_taxi</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -5030,7 +5040,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>True if the employee used MTS Route 992 to commute to the airport in the past 30 days</t>
+          <t>True if the employee used Taxi as a mode to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -5042,7 +5052,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>alt_commute_mode_airport_flyer_shuttle</t>
+          <t>alt_commute_mode_uber_lyft</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5057,7 +5067,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>True if the employee used the Airport Flyer Shuttle to commute to the airport in the past 30 days</t>
+          <t>True if the employee used Uber or Lyft as a mode to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -5069,7 +5079,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>alt_commute_mode_other_public_transit</t>
+          <t>alt_commute_mode_car_black</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5084,7 +5094,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>True if the employee used other public transit services to commute to the airport in the past 30 days</t>
+          <t>True if the employee used a black car service as a mode to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -5096,7 +5106,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>alt_commute_mode_other_shared_van</t>
+          <t>alt_commute_mode_picked_by_family_friend</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5111,7 +5121,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>True if the employee used another type of shared van service to commute to the airport in the past 30 days</t>
+          <t>True if the employee was picked up by a family member or friend to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -5123,7 +5133,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>alt_commute_mode_walk</t>
+          <t>alt_commute_mode_parked_vehicle_and_drive_alone</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5138,7 +5148,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>True if the employee walked as a mode to commute to the airport in the past 30 days</t>
+          <t>True if the employee drove alone and parked their vehicle while commuting to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -5150,7 +5160,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>alt_commute_mode_wheelchair</t>
+          <t>alt_commute_mode_parked_vehicle_and_drive_with_others</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5165,7 +5175,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>True if the employee used a wheelchair to commute to the airport in the past 30 days</t>
+          <t>True if the employee drove with others and parked their vehicle while commuting to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -5177,7 +5187,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>alt_commute_mode_bicycle_electric_bikeshare</t>
+          <t>alt_commute_mode_parked_vehicle_and_ride_with_other_travelers</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -5192,7 +5202,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>True if the employee used an electric bicycle through a bikeshare service to commute to the airport in the past 30 days</t>
+          <t>True if the employee rode with other travelers and parked their vehicle while commuting to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -5204,7 +5214,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>alt_commute_mode_bicycle_non_electric_bikeshare</t>
+          <t>alt_commute_mode_mts_route_992</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -5219,7 +5229,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>True if the employee used a non-electric bicycle through a bikeshare service to commute to the airport in the past 30 days</t>
+          <t>True if the employee used MTS Route 992 to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -5231,7 +5241,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>alt_commute_mode_bicycle_personal_electric_bicycle</t>
+          <t>alt_commute_mode_airport_flyer_shuttle</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -5246,7 +5256,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>True if the employee used their personal electric bicycle to commute to the airport in the past 30 days</t>
+          <t>True if the employee used the Airport Flyer Shuttle to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -5258,7 +5268,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>alt_commute_mode_bicycle_personal_non_electric_bicycle</t>
+          <t>alt_commute_mode_other_public_transit</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -5273,7 +5283,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>True if the employee used their personal non-electric bicycle to commute to the airport in the past 30 days</t>
+          <t>True if the employee used other public transit services to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -5285,7 +5295,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>alt_commute_mode_e_scooter_shared</t>
+          <t>alt_commute_mode_other_shared_van</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -5300,7 +5310,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>True if the employee used a shared e-scooter to commute to the airport in the past 30 days</t>
+          <t>True if the employee used another type of shared van service to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -5312,7 +5322,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>alt_commute_mode_e_scooter_personal</t>
+          <t>alt_commute_mode_walk</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -5327,7 +5337,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>True if the employee used their personal e-scooter to commute to the airport in the past 30 days</t>
+          <t>True if the employee walked as a mode to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -5339,7 +5349,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>employee_parking</t>
+          <t>alt_commute_mode_wheelchair</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -5354,7 +5364,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Whether the respondent has access to employee parking</t>
+          <t>True if the employee used a wheelchair to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -5366,66 +5376,66 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>inbound_or_outbound</t>
+          <t>alt_commute_mode_bicycle_electric_bikeshare</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>InboundOutbound</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Whether the trip is inbound to the airport or outbound from the airport</t>
+          <t>True if the employee used an electric bicycle through a bikeshare service to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Employee</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>origin_activity_type</t>
+          <t>alt_commute_mode_bicycle_non_electric_bikeshare</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>ActivityType</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Activity type at the origin of the trip to the airport</t>
+          <t>True if the employee used a non-electric bicycle through a bikeshare service to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Employee</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>origin_activity_type_other</t>
+          <t>alt_commute_mode_bicycle_personal_electric_bicycle</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -5435,24 +5445,24 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Activity type at the origin of the trip to the airport</t>
+          <t>True if the employee used their personal electric bicycle to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Employee</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>origin_name</t>
+          <t>alt_commute_mode_bicycle_personal_non_electric_bicycle</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -5462,24 +5472,24 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Place name of the origin of the trip to the airport</t>
+          <t>True if the employee used their personal non-electric bicycle to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Employee</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>origin_city</t>
+          <t>alt_commute_mode_e_scooter_shared</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -5489,24 +5499,24 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>City of the origin address for the trip to the airport</t>
+          <t>True if the employee used a shared e-scooter to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Employee</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>origin_state</t>
+          <t>alt_commute_mode_e_scooter_personal</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -5516,51 +5526,51 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>State of the origin address for the trip to the airport</t>
+          <t>True if the employee used their personal e-scooter to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Employee</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>origin_zip</t>
+          <t>commute_mode_decision</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>ModeDecision</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>ZIP code of the origin address for the trip to the airport</t>
+          <t>Factor affecting the Mode choice of the employee</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Employee</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>origin_latitude</t>
+          <t>commute_mode_decision_other</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -5570,24 +5580,24 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Latitude coordinate of the origin address for the trip to the airport</t>
+          <t>(Other) Factor affecting the Mode choice of the employee</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Employee</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>origin_longitude</t>
+          <t>employee_parking</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -5597,19 +5607,19 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Longitude coordinate of the origin address for the trip to the airport</t>
+          <t>Whether the respondent has access to employee parking</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Employee</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>destination_activity_type</t>
+          <t>inbound_or_outbound</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -5619,12 +5629,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>ActivityType</t>
+          <t>InboundOutbound</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Activity type at the destination of the trip from the airport</t>
+          <t>Whether the trip is inbound to the airport or outbound from the airport</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -5636,22 +5646,22 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>destination_activity_type_other</t>
+          <t>origin_activity_type</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>ActivityType</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Activity type (other) at the destination of the trip from the airport</t>
+          <t>Activity type at the origin of the trip to the airport</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -5663,7 +5673,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>destination_name</t>
+          <t>origin_activity_type_other</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -5678,7 +5688,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Place name of the destination from the airport</t>
+          <t>Activity type at the origin of the trip to the airport</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -5690,7 +5700,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>destination_city</t>
+          <t>origin_name</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -5705,7 +5715,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>City of the destination address from the airport</t>
+          <t>Place name of the origin of the trip to the airport</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -5717,7 +5727,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>destination_state</t>
+          <t>origin_city</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -5732,7 +5742,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>State of the destination address from the airport</t>
+          <t>City of the origin address for the trip to the airport</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -5744,7 +5754,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>destination_zip</t>
+          <t>origin_state</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -5759,7 +5769,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>ZIP code of the destination address from the airport</t>
+          <t>State of the origin address for the trip to the airport</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -5771,12 +5781,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>destination_latitude</t>
+          <t>origin_zip</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -5786,7 +5796,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Latitude coordinate of the destination address from the airport</t>
+          <t>ZIP code of the origin address for the trip to the airport</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -5798,12 +5808,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>destination_longitude</t>
+          <t>origin_latitude</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -5813,7 +5823,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Longitude coordinate of the destination address from the airport</t>
+          <t>Latitude coordinate of the origin address for the trip to the airport</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -5825,22 +5835,22 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>main_transit_mode</t>
+          <t>origin_longitude</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>TravelMode</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Main Transit mode to/from airport</t>
+          <t>Longitude coordinate of the origin address for the trip to the airport</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -5852,7 +5862,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>main_mode</t>
+          <t>destination_activity_type</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -5862,12 +5872,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>TravelMode</t>
+          <t>ActivityType</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Main Mode to/from airport</t>
+          <t>Activity type at the destination of the trip from the airport</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -5879,7 +5889,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>main_mode_other</t>
+          <t>destination_activity_type_other</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -5894,7 +5904,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Name of the other Main Mode to/from airport</t>
+          <t>Activity type (other) at the destination of the trip from the airport</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -5906,7 +5916,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>shared_van_other</t>
+          <t>destination_name</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -5921,7 +5931,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Name of the other shared van service used by respondent</t>
+          <t>Place name of the destination from the airport</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -5933,22 +5943,22 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>trip_start_time</t>
+          <t>destination_city</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>DepartTime</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Start time of the trip</t>
+          <t>City of the destination address from the airport</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -5960,22 +5970,22 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>trip_arrival_time</t>
+          <t>destination_state</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>DepartTime</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Arrival time of the trip</t>
+          <t>State of the destination address from the airport</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -5987,22 +5997,22 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>number_transit_vehicles_to_airport</t>
+          <t>destination_zip</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>NumTransfers</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Number of transit transfers for the inbound trip to the airport</t>
+          <t>ZIP code of the destination address from the airport</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -6014,12 +6024,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>to_airport_transit_route_1</t>
+          <t>destination_latitude</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -6029,7 +6039,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Name of the First Transit Route to the airport</t>
+          <t>Latitude coordinate of the destination address from the airport</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -6041,12 +6051,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>to_airport_transit_route_1_other</t>
+          <t>destination_longitude</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -6056,7 +6066,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Other First Transit Route to the airport</t>
+          <t>Longitude coordinate of the destination address from the airport</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -6068,22 +6078,22 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>to_airport_transit_route_2</t>
+          <t>main_transit_mode</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>TravelMode</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Name of the Second Transit Route to the airport</t>
+          <t>Main Transit mode to/from airport</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -6095,22 +6105,22 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>to_airport_transit_route_2_other</t>
+          <t>main_mode</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>TravelMode</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Other Second Transit Route to the airport</t>
+          <t>Main Mode to/from airport</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -6122,7 +6132,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>to_airport_transit_route_3</t>
+          <t>main_mode_other</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -6137,7 +6147,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Name of the Third Transit Route to the airport</t>
+          <t>Name of the other Main Mode to/from airport</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -6149,7 +6159,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>to_airport_transit_route_3_other</t>
+          <t>shared_van_other</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -6164,7 +6174,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Other Third Transit Route to the airport</t>
+          <t>Name of the other shared van service used by respondent</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -6176,22 +6186,22 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>to_airport_transit_route_4</t>
+          <t>trip_start_time</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>DepartTime</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Name of the Fourth Transit Route to the airport</t>
+          <t>Start time of the trip</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -6203,22 +6213,22 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>to_airport_transit_route_4_other</t>
+          <t>trip_arrival_time</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>DepartTime</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Other Fourth Transit Route to the airport</t>
+          <t>Arrival time of the trip</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -6230,7 +6240,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>access_mode</t>
+          <t>number_transit_vehicles_to_airport</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -6240,12 +6250,12 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>TravelMode</t>
+          <t>NumTransfers</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Access mode to first transit vehicle for inbound trip to the airport</t>
+          <t>Number of transit transfers for the inbound trip to the airport</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -6257,7 +6267,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>access_mode_other</t>
+          <t>to_airport_transit_route_1</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -6272,7 +6282,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Other Access mode to first transit vehicle for inbound trip to the airport</t>
+          <t>Name of the First Transit Route to the airport</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -6284,7 +6294,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>taxi_fhv_fare</t>
+          <t>to_airport_transit_route_1_other</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -6299,7 +6309,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Taxi or for-hire vehicle fare</t>
+          <t>Other First Transit Route to the airport</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -6311,7 +6321,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>taxi_fhv_wait</t>
+          <t>to_airport_transit_route_2</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -6326,7 +6336,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Wait time for taxi or for-hire vehicle</t>
+          <t>Name of the Second Transit Route to the airport</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -6338,22 +6348,22 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>parking_location</t>
+          <t>to_airport_transit_route_2_other</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>ParkingLocation</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t xml:space="preserve">Name of respondent's parking location. </t>
+          <t>Other Second Transit Route to the airport</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -6365,7 +6375,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>parking_location_other</t>
+          <t>to_airport_transit_route_3</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -6380,7 +6390,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t xml:space="preserve">Name of respondent's (other) parking location. </t>
+          <t>Name of the Third Transit Route to the airport</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -6392,7 +6402,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>parking_cost</t>
+          <t>to_airport_transit_route_3_other</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -6407,7 +6417,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Amount respondent paid to park</t>
+          <t>Other Third Transit Route to the airport</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -6419,22 +6429,22 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>parking_cost_frequency</t>
+          <t>to_airport_transit_route_4</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>ParkingCostFrequency</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Frequency of reported parking cost (e.g., one-time, per hour, per day, per month)</t>
+          <t>Name of the Fourth Transit Route to the airport</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -6446,7 +6456,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>parking_cost_frequency_other</t>
+          <t>to_airport_transit_route_4_other</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -6461,7 +6471,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Other frequency of reported parking cost</t>
+          <t>Other Fourth Transit Route to the airport</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -6473,7 +6483,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>reimbursement</t>
+          <t>access_mode</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -6483,12 +6493,12 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>ParkingReimbursement</t>
+          <t>TravelMode</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Whether or not ground access cost will be reimbursed by employer or other non-household member</t>
+          <t>Access mode to first transit vehicle for inbound trip to the airport</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -6500,22 +6510,22 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>number_transit_vehicles_from_airport</t>
+          <t>access_mode_other</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>NumTransfers</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Number of transit transfers for the inbound trip</t>
+          <t>Other Access mode to first transit vehicle for inbound trip to the airport</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -6527,7 +6537,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>from_airport_transit_route_1</t>
+          <t>taxi_fhv_fare</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -6542,7 +6552,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Name of the First Transit Route from the airport</t>
+          <t>Taxi or for-hire vehicle fare</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -6554,7 +6564,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>from_airport_transit_route_1_other</t>
+          <t>taxi_fhv_wait</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -6569,7 +6579,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Other First Transit Route from the airport</t>
+          <t>Wait time for taxi or for-hire vehicle</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -6581,22 +6591,22 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>from_airport_transit_route_2</t>
+          <t>parking_location</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>ParkingLocation</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Name of the Second Transit Route from the airport</t>
+          <t xml:space="preserve">Name of respondent's parking location. </t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -6608,7 +6618,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>from_airport_transit_route_2_other</t>
+          <t>parking_location_other</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -6623,7 +6633,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Other Second Transit Route from the airport</t>
+          <t xml:space="preserve">Name of respondent's (other) parking location. </t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -6635,7 +6645,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>from_airport_transit_route_3</t>
+          <t>parking_cost</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -6650,7 +6660,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Name of the Third Transit Route from the airport</t>
+          <t>Amount respondent paid to park</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -6662,22 +6672,22 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>from_airport_transit_route_3_other</t>
+          <t>parking_cost_frequency</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>ParkingCostFrequency</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Other Third Transit Route from the airport</t>
+          <t>Frequency of reported parking cost (e.g., one-time, per hour, per day, per month)</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -6689,7 +6699,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>from_airport_transit_route_4</t>
+          <t>parking_cost_frequency_other</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -6704,7 +6714,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Name of the Fourth Transit Route from the airport</t>
+          <t>Other frequency of reported parking cost</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -6716,22 +6726,22 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>from_airport_transit_route_4_other</t>
+          <t>reimbursement</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>ParkingReimbursement</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Other Fourth Transit Route from the airport</t>
+          <t>Whether or not ground access cost will be reimbursed by employer or other non-household member</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -6743,7 +6753,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>egress_mode</t>
+          <t>number_transit_vehicles_from_airport</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -6753,12 +6763,12 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>TravelMode</t>
+          <t>NumTransfers</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Egress mode from last transit vehicle for outbound trip</t>
+          <t>Number of transit transfers for the inbound trip</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -6770,7 +6780,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>egress_mode_other</t>
+          <t>from_airport_transit_route_1</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -6785,7 +6795,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Other Egress mode from last transit vehicle for outbound trip</t>
+          <t>Name of the First Transit Route from the airport</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -6797,7 +6807,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>transit_boarding_stop_name</t>
+          <t>from_airport_transit_route_1_other</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -6812,7 +6822,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Name of the stop where respondent boarded the main transit mode</t>
+          <t>Other First Transit Route from the airport</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -6824,12 +6834,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>transit_boarding_latitude</t>
+          <t>from_airport_transit_route_2</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -6839,7 +6849,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Latitude of the stop where respondent boarded the main transit mode</t>
+          <t>Name of the Second Transit Route from the airport</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -6851,12 +6861,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>transit_boarding_longitude</t>
+          <t>from_airport_transit_route_2_other</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -6866,7 +6876,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Longitude of the stop where respondent boarded the main transit mode</t>
+          <t>Other Second Transit Route from the airport</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -6878,7 +6888,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>transit_alighting_stop_name</t>
+          <t>from_airport_transit_route_3</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -6893,7 +6903,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Name of the stop where respondent got off the main transit mode</t>
+          <t>Name of the Third Transit Route from the airport</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -6905,12 +6915,12 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>transit_alighting_latitude</t>
+          <t>from_airport_transit_route_3_other</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -6920,7 +6930,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Latitude of the stop where respondent got off the main transit mode</t>
+          <t>Other Third Transit Route from the airport</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -6932,12 +6942,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>transit_alighting_longitude</t>
+          <t>from_airport_transit_route_4</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -6947,7 +6957,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Longitude of the stop where respondent got off the main transit mode</t>
+          <t>Name of the Fourth Transit Route from the airport</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -6959,22 +6969,22 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>car_available</t>
+          <t>from_airport_transit_route_4_other</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>CarAvailability</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Status of car availability for the trip to the airport</t>
+          <t>Other Fourth Transit Route from the airport</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -6986,25 +6996,384 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
+          <t>egress_mode</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>TravelMode</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Egress mode from last transit vehicle for outbound trip</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>egress_mode_other</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Actual Value</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Other Egress mode from last transit vehicle for outbound trip</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>transit_boarding_stop_name</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Actual Value</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Name of the stop where respondent boarded the main transit mode</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>transit_boarding_latitude</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Latitude</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Actual Value</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Latitude of the stop where respondent boarded the main transit mode</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>transit_boarding_longitude</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Longitude</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Actual Value</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Longitude of the stop where respondent boarded the main transit mode</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>transit_alighting_stop_name</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Actual Value</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Name of the stop where respondent got off the main transit mode</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>transit_alighting_latitude</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Latitude</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Actual Value</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Latitude of the stop where respondent got off the main transit mode</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>transit_alighting_longitude</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Longitude</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Actual Value</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Longitude of the stop where respondent got off the main transit mode</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>car_available</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>CarAvailability</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Status of car availability for the trip to the airport</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
           <t>car_available_other</t>
         </is>
       </c>
-      <c r="B244" t="inlineStr">
+      <c r="B253" t="inlineStr">
         <is>
           <t>str</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr">
+      <c r="C253" t="inlineStr">
         <is>
           <t>Actual Value</t>
         </is>
       </c>
-      <c r="D244" t="inlineStr">
+      <c r="D253" t="inlineStr">
         <is>
           <t>Status of car availability (other than listed) for the trip to the airport</t>
         </is>
       </c>
-      <c r="E244" t="inlineStr">
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>non_airport_activity_type</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Computed</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Computed Value</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        Activity type prior to traveling to the airport (for inbound) or activity traveling to do next (for outbound).
+        </t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>parking_cost_numeric</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Computed</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Computed Value</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        Numeric Value of parking cost
+        </t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>taxi_fhv_fare_numeric</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Computed</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Computed Value</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        Numeric Value of Taxi Fare
+        </t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>taxi_fhv_wait_numeric</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Computed</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Computed Value</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        Numeric Value of Taxi Wait Time
+        </t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
         <is>
           <t>Trip</t>
         </is>
@@ -7021,7 +7390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C804"/>
+  <dimension ref="A1:C808"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12734,75 +13103,60 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>HouseholdWorkers</t>
+          <t>YesNoType</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>YES</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>HouseholdWorkers</t>
+          <t>YesNoType</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>ONE</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>HouseholdWorkers</t>
+          <t>YesNoType</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>TWO</t>
+          <t>OTHER</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>HouseholdWorkers</t>
+          <t>YesNoType</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>THREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>HouseholdWorkers</t>
-        </is>
-      </c>
-      <c r="B397" t="n">
-        <v>4</v>
-      </c>
-      <c r="C397" t="inlineStr">
-        <is>
-          <t>FOUR</t>
+          <t>REFUSED</t>
         </is>
       </c>
     </row>
@@ -12813,11 +13167,11 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>NONE</t>
         </is>
       </c>
     </row>
@@ -12828,11 +13182,11 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>SIX</t>
+          <t>ONE</t>
         </is>
       </c>
     </row>
@@ -12843,11 +13197,11 @@
         </is>
       </c>
       <c r="B400" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>SEVEN</t>
+          <t>TWO</t>
         </is>
       </c>
     </row>
@@ -12858,11 +13212,11 @@
         </is>
       </c>
       <c r="B401" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>EIGHT</t>
+          <t>THREE</t>
         </is>
       </c>
     </row>
@@ -12873,11 +13227,11 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>NINE</t>
+          <t>FOUR</t>
         </is>
       </c>
     </row>
@@ -12888,11 +13242,11 @@
         </is>
       </c>
       <c r="B403" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>TEN_OR_MORE</t>
+          <t>FIVE</t>
         </is>
       </c>
     </row>
@@ -12903,11 +13257,11 @@
         </is>
       </c>
       <c r="B404" t="n">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>SIX</t>
         </is>
       </c>
     </row>
@@ -12918,48 +13272,63 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>REFUSED</t>
+          <t>SEVEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>HouseholdWorkers</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>8</v>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>EIGHT</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>YesNoType</t>
+          <t>HouseholdWorkers</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NINE</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>YesNoType</t>
+          <t>HouseholdWorkers</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>TEN_OR_MORE</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>YesNoType</t>
+          <t>HouseholdWorkers</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -12974,7 +13343,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>YesNoType</t>
+          <t>HouseholdWorkers</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -15105,18 +15474,18 @@
         </is>
       </c>
     </row>
-    <row r="565">
-      <c r="A565" t="inlineStr">
-        <is>
-          <t>TravelMode</t>
-        </is>
-      </c>
-      <c r="B565" t="n">
-        <v>1</v>
-      </c>
-      <c r="C565" t="inlineStr">
-        <is>
-          <t>WALK</t>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>ModeDecision</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>99</v>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>REFUSED</t>
         </is>
       </c>
     </row>
@@ -15127,11 +15496,11 @@
         </is>
       </c>
       <c r="B566" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>WHEELCHAIR_OR_MOBILITY_DEVICE</t>
+          <t>WALK</t>
         </is>
       </c>
     </row>
@@ -15142,11 +15511,11 @@
         </is>
       </c>
       <c r="B567" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>BICYCLE_ELECTRIC_BIKESHARE</t>
+          <t>WHEELCHAIR_OR_MOBILITY_DEVICE</t>
         </is>
       </c>
     </row>
@@ -15157,11 +15526,11 @@
         </is>
       </c>
       <c r="B568" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>BICYCLE_NON_ELECTRIC_BIKESHARE</t>
+          <t>BICYCLE_ELECTRIC_BIKESHARE</t>
         </is>
       </c>
     </row>
@@ -15172,11 +15541,11 @@
         </is>
       </c>
       <c r="B569" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>E_SCOOTER_SHARED</t>
+          <t>BICYCLE_NON_ELECTRIC_BIKESHARE</t>
         </is>
       </c>
     </row>
@@ -15187,11 +15556,11 @@
         </is>
       </c>
       <c r="B570" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>BICYCLE_PERSONAL_ELECTRIC</t>
+          <t>E_SCOOTER_SHARED</t>
         </is>
       </c>
     </row>
@@ -15202,11 +15571,11 @@
         </is>
       </c>
       <c r="B571" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>BICYCLE_PERSONAL_NON_ELECTRIC</t>
+          <t>BICYCLE_PERSONAL_ELECTRIC</t>
         </is>
       </c>
     </row>
@@ -15217,11 +15586,11 @@
         </is>
       </c>
       <c r="B572" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>E_SCOOTER_PERSONAL</t>
+          <t>BICYCLE_PERSONAL_NON_ELECTRIC</t>
         </is>
       </c>
     </row>
@@ -15232,11 +15601,11 @@
         </is>
       </c>
       <c r="B573" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>TAXI</t>
+          <t>E_SCOOTER_PERSONAL</t>
         </is>
       </c>
     </row>
@@ -15247,11 +15616,11 @@
         </is>
       </c>
       <c r="B574" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>UBER_LYFT</t>
+          <t>TAXI</t>
         </is>
       </c>
     </row>
@@ -15262,11 +15631,11 @@
         </is>
       </c>
       <c r="B575" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>CAR_SERVICE_BLACK_LIMO</t>
+          <t>UBER_LYFT</t>
         </is>
       </c>
     </row>
@@ -15277,11 +15646,11 @@
         </is>
       </c>
       <c r="B576" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>DROPPED_OFF_BY_FAMILY_FRIEND</t>
+          <t>CAR_SERVICE_BLACK_LIMO</t>
         </is>
       </c>
     </row>
@@ -15292,11 +15661,11 @@
         </is>
       </c>
       <c r="B577" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>DROVE_ALONE_AND_PARKED</t>
+          <t>DROPPED_OFF_BY_FAMILY_FRIEND</t>
         </is>
       </c>
     </row>
@@ -15307,11 +15676,11 @@
         </is>
       </c>
       <c r="B578" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>DROVE_WITH_OTHERS_AND_PARKED</t>
+          <t>DROVE_ALONE_AND_PARKED</t>
         </is>
       </c>
     </row>
@@ -15322,11 +15691,11 @@
         </is>
       </c>
       <c r="B579" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>MTS_ROUTE_992</t>
+          <t>DROVE_WITH_OTHERS_AND_PARKED</t>
         </is>
       </c>
     </row>
@@ -15337,11 +15706,11 @@
         </is>
       </c>
       <c r="B580" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>AIRPORT_FLYER_SHUTTLE</t>
+          <t>MTS_ROUTE_992</t>
         </is>
       </c>
     </row>
@@ -15352,11 +15721,11 @@
         </is>
       </c>
       <c r="B581" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>CHARTERED_TOUR_BUS</t>
+          <t>AIRPORT_FLYER_SHUTTLE</t>
         </is>
       </c>
     </row>
@@ -15367,11 +15736,11 @@
         </is>
       </c>
       <c r="B582" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>EMPLOYEE_SHUTTLE</t>
+          <t>CHARTERED_TOUR_BUS</t>
         </is>
       </c>
     </row>
@@ -15382,11 +15751,11 @@
         </is>
       </c>
       <c r="B583" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>RENTAL_CAR_DROPPED_OFF</t>
+          <t>EMPLOYEE_SHUTTLE</t>
         </is>
       </c>
     </row>
@@ -15397,11 +15766,11 @@
         </is>
       </c>
       <c r="B584" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>RENTAL_CAR_PARKED</t>
+          <t>RENTAL_CAR_DROPPED_OFF</t>
         </is>
       </c>
     </row>
@@ -15412,11 +15781,11 @@
         </is>
       </c>
       <c r="B585" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>HOTEL_SHUTTLE_VAN</t>
+          <t>RENTAL_CAR_PARKED</t>
         </is>
       </c>
     </row>
@@ -15427,11 +15796,11 @@
         </is>
       </c>
       <c r="B586" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>OTHER_SHARED_VAN</t>
+          <t>HOTEL_SHUTTLE_VAN</t>
         </is>
       </c>
     </row>
@@ -15442,11 +15811,11 @@
         </is>
       </c>
       <c r="B587" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>PICKED_UP_BY_FAMILY_FRIEND</t>
+          <t>OTHER_SHARED_VAN</t>
         </is>
       </c>
     </row>
@@ -15457,11 +15826,11 @@
         </is>
       </c>
       <c r="B588" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>GET_IN_PARKED_VEHICLE_AND_DRIVE_ALONE</t>
+          <t>PICKED_UP_BY_FAMILY_FRIEND</t>
         </is>
       </c>
     </row>
@@ -15472,11 +15841,11 @@
         </is>
       </c>
       <c r="B589" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>GET_IN_PARKED_VEHICLE_AND_DRIVE_WITH_OTHERS</t>
+          <t>GET_IN_PARKED_VEHICLE_AND_DRIVE_ALONE</t>
         </is>
       </c>
     </row>
@@ -15487,11 +15856,11 @@
         </is>
       </c>
       <c r="B590" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>GET_IN_PARKED_VEHICLE_AND_RIDE_WITH_OTHER_TRAVELERS</t>
+          <t>GET_IN_PARKED_VEHICLE_AND_DRIVE_WITH_OTHERS</t>
         </is>
       </c>
     </row>
@@ -15502,11 +15871,11 @@
         </is>
       </c>
       <c r="B591" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>RENTAL_CAR_PICKED_UP</t>
+          <t>GET_IN_PARKED_VEHICLE_AND_RIDE_WITH_OTHER_TRAVELERS</t>
         </is>
       </c>
     </row>
@@ -15517,11 +15886,11 @@
         </is>
       </c>
       <c r="B592" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>RENTAL_CAR_GET_IN_PARKED</t>
+          <t>RENTAL_CAR_PICKED_UP</t>
         </is>
       </c>
     </row>
@@ -15532,11 +15901,11 @@
         </is>
       </c>
       <c r="B593" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>RODE_WITH_OTHER_TRAVELERS_AND_PARKED</t>
+          <t>RENTAL_CAR_GET_IN_PARKED</t>
         </is>
       </c>
     </row>
@@ -15547,11 +15916,11 @@
         </is>
       </c>
       <c r="B594" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>OTHER_PUBLIC_TRANSIT</t>
+          <t>RODE_WITH_OTHER_TRAVELERS_AND_PARKED</t>
         </is>
       </c>
     </row>
@@ -15562,11 +15931,11 @@
         </is>
       </c>
       <c r="B595" t="n">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>OTHER_PUBLIC_TRANSIT</t>
         </is>
       </c>
     </row>
@@ -15577,26 +15946,26 @@
         </is>
       </c>
       <c r="B596" t="n">
+        <v>98</v>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>TravelMode</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
         <v>99</v>
       </c>
-      <c r="C596" t="inlineStr">
+      <c r="C597" t="inlineStr">
         <is>
           <t>REFUSED_NO_ANSWER</t>
-        </is>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="inlineStr">
-        <is>
-          <t>TransitUseFrequency</t>
-        </is>
-      </c>
-      <c r="B598" t="n">
-        <v>0</v>
-      </c>
-      <c r="C598" t="inlineStr">
-        <is>
-          <t>NONE</t>
         </is>
       </c>
     </row>
@@ -15607,11 +15976,11 @@
         </is>
       </c>
       <c r="B599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>ONE_DAY</t>
+          <t>NONE</t>
         </is>
       </c>
     </row>
@@ -15622,11 +15991,11 @@
         </is>
       </c>
       <c r="B600" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>TWO_DAYS</t>
+          <t>ONE_DAY</t>
         </is>
       </c>
     </row>
@@ -15637,11 +16006,11 @@
         </is>
       </c>
       <c r="B601" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>THREE_DAYS</t>
+          <t>TWO_DAYS</t>
         </is>
       </c>
     </row>
@@ -15652,11 +16021,11 @@
         </is>
       </c>
       <c r="B602" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>FOUR_DAYS</t>
+          <t>THREE_DAYS</t>
         </is>
       </c>
     </row>
@@ -15667,11 +16036,11 @@
         </is>
       </c>
       <c r="B603" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>FIVE_DAYS</t>
+          <t>FOUR_DAYS</t>
         </is>
       </c>
     </row>
@@ -15682,11 +16051,11 @@
         </is>
       </c>
       <c r="B604" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>SIX_DAYS</t>
+          <t>FIVE_DAYS</t>
         </is>
       </c>
     </row>
@@ -15697,9 +16066,24 @@
         </is>
       </c>
       <c r="B605" t="n">
+        <v>6</v>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>SIX_DAYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>TransitUseFrequency</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
         <v>7</v>
       </c>
-      <c r="C605" t="inlineStr">
+      <c r="C606" t="inlineStr">
         <is>
           <t>SEVEN_DAYS</t>
         </is>
@@ -15708,30 +16092,15 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>OtherFlightAndTransitUseFrequency</t>
+          <t>TransitUseFrequency</t>
         </is>
       </c>
       <c r="B607" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>NONE</t>
-        </is>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" t="inlineStr">
-        <is>
-          <t>OtherFlightAndTransitUseFrequency</t>
-        </is>
-      </c>
-      <c r="B608" t="n">
-        <v>1</v>
-      </c>
-      <c r="C608" t="inlineStr">
-        <is>
-          <t>ONE_TIME</t>
+          <t>REFUSED</t>
         </is>
       </c>
     </row>
@@ -15742,11 +16111,11 @@
         </is>
       </c>
       <c r="B609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>TWO_TIMES</t>
+          <t>NONE</t>
         </is>
       </c>
     </row>
@@ -15757,11 +16126,11 @@
         </is>
       </c>
       <c r="B610" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>THREE_TIMES</t>
+          <t>ONE_TIME</t>
         </is>
       </c>
     </row>
@@ -15772,11 +16141,11 @@
         </is>
       </c>
       <c r="B611" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>FOUR_TIMES</t>
+          <t>TWO_TIMES</t>
         </is>
       </c>
     </row>
@@ -15787,11 +16156,11 @@
         </is>
       </c>
       <c r="B612" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>MORE_THAN_FIVE_TIMES</t>
+          <t>THREE_TIMES</t>
         </is>
       </c>
     </row>
@@ -15802,11 +16171,11 @@
         </is>
       </c>
       <c r="B613" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>NEVER</t>
+          <t>FOUR_TIMES</t>
         </is>
       </c>
     </row>
@@ -15817,11 +16186,11 @@
         </is>
       </c>
       <c r="B614" t="n">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>MORE_THAN_FIVE_TIMES</t>
         </is>
       </c>
     </row>
@@ -15832,41 +16201,41 @@
         </is>
       </c>
       <c r="B615" t="n">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>REFUSED</t>
+          <t>NEVER</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>OtherFlightAndTransitUseFrequency</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>98</v>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>OTHER</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>SanBuildings</t>
+          <t>OtherFlightAndTransitUseFrequency</t>
         </is>
       </c>
       <c r="B617" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>TERMINAL_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" t="inlineStr">
-        <is>
-          <t>SanBuildings</t>
-        </is>
-      </c>
-      <c r="B618" t="n">
-        <v>2</v>
-      </c>
-      <c r="C618" t="inlineStr">
-        <is>
-          <t>TERMINAL_2</t>
+          <t>REFUSED</t>
         </is>
       </c>
     </row>
@@ -15877,11 +16246,11 @@
         </is>
       </c>
       <c r="B619" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>SDCRAA_ADMIN_BLDG</t>
+          <t>TERMINAL_1</t>
         </is>
       </c>
     </row>
@@ -15892,11 +16261,11 @@
         </is>
       </c>
       <c r="B620" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>QHP_LIBERTY_STATION</t>
+          <t>TERMINAL_2</t>
         </is>
       </c>
     </row>
@@ -15907,11 +16276,11 @@
         </is>
       </c>
       <c r="B621" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>SDCRAA_ADC_TRAILERS</t>
+          <t>SDCRAA_ADMIN_BLDG</t>
         </is>
       </c>
     </row>
@@ -15922,11 +16291,11 @@
         </is>
       </c>
       <c r="B622" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>AIRLINE_SUPPORT_BLDG_HARBOR_DRIVE</t>
+          <t>QHP_LIBERTY_STATION</t>
         </is>
       </c>
     </row>
@@ -15937,11 +16306,11 @@
         </is>
       </c>
       <c r="B623" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>AIR_CARGO_NORTH</t>
+          <t>SDCRAA_ADC_TRAILERS</t>
         </is>
       </c>
     </row>
@@ -15952,11 +16321,11 @@
         </is>
       </c>
       <c r="B624" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>RENTAL_CAR_CENTER</t>
+          <t>AIRLINE_SUPPORT_BLDG_HARBOR_DRIVE</t>
         </is>
       </c>
     </row>
@@ -15967,11 +16336,11 @@
         </is>
       </c>
       <c r="B625" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>RECEIVING_DISTRIBUTION_CENTER</t>
+          <t>AIR_CARGO_NORTH</t>
         </is>
       </c>
     </row>
@@ -15982,11 +16351,11 @@
         </is>
       </c>
       <c r="B626" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>SIGNATURE_FLIGHT_SUPPORT</t>
+          <t>RENTAL_CAR_CENTER</t>
         </is>
       </c>
     </row>
@@ -15997,11 +16366,11 @@
         </is>
       </c>
       <c r="B627" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>FACILITIES_MAINTENANCE</t>
+          <t>RECEIVING_DISTRIBUTION_CENTER</t>
         </is>
       </c>
     </row>
@@ -16012,11 +16381,11 @@
         </is>
       </c>
       <c r="B628" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>FBO</t>
+          <t>SIGNATURE_FLIGHT_SUPPORT</t>
         </is>
       </c>
     </row>
@@ -16027,11 +16396,11 @@
         </is>
       </c>
       <c r="B629" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>MENZIES</t>
+          <t>FACILITIES_MAINTENANCE</t>
         </is>
       </c>
     </row>
@@ -16042,11 +16411,11 @@
         </is>
       </c>
       <c r="B630" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>FAA</t>
+          <t>FBO</t>
         </is>
       </c>
     </row>
@@ -16057,11 +16426,11 @@
         </is>
       </c>
       <c r="B631" t="n">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>OTHER_SPECIFY</t>
+          <t>MENZIES</t>
         </is>
       </c>
     </row>
@@ -16072,41 +16441,41 @@
         </is>
       </c>
       <c r="B632" t="n">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>REFUSED</t>
+          <t>FAA</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>SanBuildings</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>98</v>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>OTHER_SPECIFY</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Employers</t>
+          <t>SanBuildings</t>
         </is>
       </c>
       <c r="B634" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>AIR_CANADA</t>
-        </is>
-      </c>
-    </row>
-    <row r="635">
-      <c r="A635" t="inlineStr">
-        <is>
-          <t>Employers</t>
-        </is>
-      </c>
-      <c r="B635" t="n">
-        <v>2</v>
-      </c>
-      <c r="C635" t="inlineStr">
-        <is>
-          <t>ALASKA_AIRLINES</t>
+          <t>REFUSED</t>
         </is>
       </c>
     </row>
@@ -16117,11 +16486,11 @@
         </is>
       </c>
       <c r="B636" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>ALLEGIANT_AIR</t>
+          <t>AIR_CANADA</t>
         </is>
       </c>
     </row>
@@ -16132,11 +16501,11 @@
         </is>
       </c>
       <c r="B637" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>AMERICAN_AIRLINES</t>
+          <t>ALASKA_AIRLINES</t>
         </is>
       </c>
     </row>
@@ -16147,11 +16516,11 @@
         </is>
       </c>
       <c r="B638" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>ARTISAN_MARKET</t>
+          <t>ALLEGIANT_AIR</t>
         </is>
       </c>
     </row>
@@ -16162,11 +16531,11 @@
         </is>
       </c>
       <c r="B639" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>ASIAN_KITCHEN</t>
+          <t>AMERICAN_AIRLINES</t>
         </is>
       </c>
     </row>
@@ -16177,11 +16546,11 @@
         </is>
       </c>
       <c r="B640" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>ASPIRE_LOUNGE</t>
+          <t>ARTISAN_MARKET</t>
         </is>
       </c>
     </row>
@@ -16192,11 +16561,11 @@
         </is>
       </c>
       <c r="B641" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>BANKERS_HILL_BAR_AND_MARKET</t>
+          <t>ASIAN_KITCHEN</t>
         </is>
       </c>
     </row>
@@ -16207,11 +16576,11 @@
         </is>
       </c>
       <c r="B642" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>BAY_BOOKS_OF_CORONADO</t>
+          <t>ASPIRE_LOUNGE</t>
         </is>
       </c>
     </row>
@@ -16222,11 +16591,11 @@
         </is>
       </c>
       <c r="B643" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>BE_RELAX_SPA</t>
+          <t>BANKERS_HILL_BAR_AND_MARKET</t>
         </is>
       </c>
     </row>
@@ -16237,11 +16606,11 @@
         </is>
       </c>
       <c r="B644" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>BEAUDEVIN_VINE_AND_TAPAS_BAR</t>
+          <t>BAY_BOOKS_OF_CORONADO</t>
         </is>
       </c>
     </row>
@@ -16252,11 +16621,11 @@
         </is>
       </c>
       <c r="B645" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>BRITISH_AIRWAYS</t>
+          <t>BE_RELAX_SPA</t>
         </is>
       </c>
     </row>
@@ -16267,11 +16636,11 @@
         </is>
       </c>
       <c r="B646" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>BROOKSTONE</t>
+          <t>BEAUDEVIN_VINE_AND_TAPAS_BAR</t>
         </is>
       </c>
     </row>
@@ -16282,11 +16651,11 @@
         </is>
       </c>
       <c r="B647" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>BUBBLES_SEAFOOD_AND_WINE_BAR</t>
+          <t>BRITISH_AIRWAYS</t>
         </is>
       </c>
     </row>
@@ -16297,11 +16666,11 @@
         </is>
       </c>
       <c r="B648" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>CALIFORNIA_PIZZA_KITCHEN</t>
+          <t>BROOKSTONE</t>
         </is>
       </c>
     </row>
@@ -16312,11 +16681,11 @@
         </is>
       </c>
       <c r="B649" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>CAMDEN_FOOD_CO</t>
+          <t>BUBBLES_SEAFOOD_AND_WINE_BAR</t>
         </is>
       </c>
     </row>
@@ -16327,11 +16696,11 @@
         </is>
       </c>
       <c r="B650" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>CIAO_GOURMET_MARKET</t>
+          <t>CALIFORNIA_PIZZA_KITCHEN</t>
         </is>
       </c>
     </row>
@@ -16342,11 +16711,11 @@
         </is>
       </c>
       <c r="B651" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>CNBC_EXPRESS</t>
+          <t>CAMDEN_FOOD_CO</t>
         </is>
       </c>
     </row>
@@ -16357,11 +16726,11 @@
         </is>
       </c>
       <c r="B652" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>CNBC_NEWS_SAN_DIEGO</t>
+          <t>CIAO_GOURMET_MARKET</t>
         </is>
       </c>
     </row>
@@ -16372,11 +16741,11 @@
         </is>
       </c>
       <c r="B653" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>DARK_HORSE_COFFEE_ROASTERS</t>
+          <t>CNBC_EXPRESS</t>
         </is>
       </c>
     </row>
@@ -16387,11 +16756,11 @@
         </is>
       </c>
       <c r="B654" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>DELTA_AIRLINES</t>
+          <t>CNBC_NEWS_SAN_DIEGO</t>
         </is>
       </c>
     </row>
@@ -16402,11 +16771,11 @@
         </is>
       </c>
       <c r="B655" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>DELTA_SKY_CLUB</t>
+          <t>DARK_HORSE_COFFEE_ROASTERS</t>
         </is>
       </c>
     </row>
@@ -16417,11 +16786,11 @@
         </is>
       </c>
       <c r="B656" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>DISCOVER_SAN_DIEGO</t>
+          <t>DELTA_AIRLINES</t>
         </is>
       </c>
     </row>
@@ -16432,11 +16801,11 @@
         </is>
       </c>
       <c r="B657" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>EINSTEIN_BROS_BAGELS</t>
+          <t>DELTA_SKY_CLUB</t>
         </is>
       </c>
     </row>
@@ -16447,11 +16816,11 @@
         </is>
       </c>
       <c r="B658" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>ELEGANT_DESSERTS</t>
+          <t>DISCOVER_SAN_DIEGO</t>
         </is>
       </c>
     </row>
@@ -16462,11 +16831,11 @@
         </is>
       </c>
       <c r="B659" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>FRONTIER_AIRLINES</t>
+          <t>EINSTEIN_BROS_BAGELS</t>
         </is>
       </c>
     </row>
@@ -16477,11 +16846,11 @@
         </is>
       </c>
       <c r="B660" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>GASLAMP_MARKETPLACE</t>
+          <t>ELEGANT_DESSERTS</t>
         </is>
       </c>
     </row>
@@ -16492,11 +16861,11 @@
         </is>
       </c>
       <c r="B661" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>HAWAIIAN_AIRLINES</t>
+          <t>FRONTIER_AIRLINES</t>
         </is>
       </c>
     </row>
@@ -16507,11 +16876,11 @@
         </is>
       </c>
       <c r="B662" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>HUDSON_NEWS</t>
+          <t>GASLAMP_MARKETPLACE</t>
         </is>
       </c>
     </row>
@@ -16522,11 +16891,11 @@
         </is>
       </c>
       <c r="B663" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>INMOTION_ENTERTAINMENT</t>
+          <t>HAWAIIAN_AIRLINES</t>
         </is>
       </c>
     </row>
@@ -16537,11 +16906,11 @@
         </is>
       </c>
       <c r="B664" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>JACK_IN_THE_BOX</t>
+          <t>HUDSON_NEWS</t>
         </is>
       </c>
     </row>
@@ -16552,11 +16921,11 @@
         </is>
       </c>
       <c r="B665" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>JAPAN_AIRLINES</t>
+          <t>INMOTION_ENTERTAINMENT</t>
         </is>
       </c>
     </row>
@@ -16567,11 +16936,11 @@
         </is>
       </c>
       <c r="B666" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>JETBLUE</t>
+          <t>JACK_IN_THE_BOX</t>
         </is>
       </c>
     </row>
@@ -16582,11 +16951,11 @@
         </is>
       </c>
       <c r="B667" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>JETBOX</t>
+          <t>JAPAN_AIRLINES</t>
         </is>
       </c>
     </row>
@@ -16597,11 +16966,11 @@
         </is>
       </c>
       <c r="B668" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>JETBOX_MARKET</t>
+          <t>JETBLUE</t>
         </is>
       </c>
     </row>
@@ -16612,11 +16981,11 @@
         </is>
       </c>
       <c r="B669" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>KUSI_NEWS</t>
+          <t>JETBOX</t>
         </is>
       </c>
     </row>
@@ -16627,11 +16996,11 @@
         </is>
       </c>
       <c r="B670" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>LINDBERGH_FIELD_NEWS</t>
+          <t>JETBOX_MARKET</t>
         </is>
       </c>
     </row>
@@ -16642,11 +17011,11 @@
         </is>
       </c>
       <c r="B671" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>LUFTHANSA</t>
+          <t>KUSI_NEWS</t>
         </is>
       </c>
     </row>
@@ -16657,11 +17026,11 @@
         </is>
       </c>
       <c r="B672" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>OLD_TOWN_NEWS_AND_MARKET</t>
+          <t>LINDBERGH_FIELD_NEWS</t>
         </is>
       </c>
     </row>
@@ -16672,11 +17041,11 @@
         </is>
       </c>
       <c r="B673" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>PACIFICA_BREEZE_CAFE</t>
+          <t>LUFTHANSA</t>
         </is>
       </c>
     </row>
@@ -16687,11 +17056,11 @@
         </is>
       </c>
       <c r="B674" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>PANDA_EXPRESS</t>
+          <t>OLD_TOWN_NEWS_AND_MARKET</t>
         </is>
       </c>
     </row>
@@ -16702,11 +17071,11 @@
         </is>
       </c>
       <c r="B675" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>PANNIKIN_COFFEE_AND_TEA</t>
+          <t>PACIFICA_BREEZE_CAFE</t>
         </is>
       </c>
     </row>
@@ -16717,11 +17086,11 @@
         </is>
       </c>
       <c r="B676" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>PEETS_COFFEE_AND_TEA</t>
+          <t>PANDA_EXPRESS</t>
         </is>
       </c>
     </row>
@@ -16732,11 +17101,11 @@
         </is>
       </c>
       <c r="B677" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>PGA_TOUR_GRILL</t>
+          <t>PANNIKIN_COFFEE_AND_TEA</t>
         </is>
       </c>
     </row>
@@ -16747,11 +17116,11 @@
         </is>
       </c>
       <c r="B678" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>PGA_TOUR_SHOP</t>
+          <t>PEETS_COFFEE_AND_TEA</t>
         </is>
       </c>
     </row>
@@ -16762,11 +17131,11 @@
         </is>
       </c>
       <c r="B679" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>PHILS_BBQ</t>
+          <t>PGA_TOUR_GRILL</t>
         </is>
       </c>
     </row>
@@ -16777,11 +17146,11 @@
         </is>
       </c>
       <c r="B680" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>PRADO_AT_THE_AIRPORT</t>
+          <t>PGA_TOUR_SHOP</t>
         </is>
       </c>
     </row>
@@ -16792,11 +17161,11 @@
         </is>
       </c>
       <c r="B681" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>QDOBA_MEXICAN_GRILL</t>
+          <t>PHILS_BBQ</t>
         </is>
       </c>
     </row>
@@ -16807,11 +17176,11 @@
         </is>
       </c>
       <c r="B682" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>RED_MANGO</t>
+          <t>PRADO_AT_THE_AIRPORT</t>
         </is>
       </c>
     </row>
@@ -16822,11 +17191,11 @@
         </is>
       </c>
       <c r="B683" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>RIP_CURL</t>
+          <t>QDOBA_MEXICAN_GRILL</t>
         </is>
       </c>
     </row>
@@ -16837,11 +17206,11 @@
         </is>
       </c>
       <c r="B684" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>SAN_LIFE_MARKET</t>
+          <t>RED_MANGO</t>
         </is>
       </c>
     </row>
@@ -16852,11 +17221,11 @@
         </is>
       </c>
       <c r="B685" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>SAND_NEWS</t>
+          <t>RIP_CURL</t>
         </is>
       </c>
     </row>
@@ -16867,11 +17236,11 @@
         </is>
       </c>
       <c r="B686" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>SKY_FREE_SHOP</t>
+          <t>SAN_LIFE_MARKET</t>
         </is>
       </c>
     </row>
@@ -16882,11 +17251,11 @@
         </is>
       </c>
       <c r="B687" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>SOUNDBALANCE</t>
+          <t>SAND_NEWS</t>
         </is>
       </c>
     </row>
@@ -16897,11 +17266,11 @@
         </is>
       </c>
       <c r="B688" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>SOUTHWEST_AIRLINES</t>
+          <t>SKY_FREE_SHOP</t>
         </is>
       </c>
     </row>
@@ -16912,11 +17281,11 @@
         </is>
       </c>
       <c r="B689" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>SPIRIT</t>
+          <t>SOUNDBALANCE</t>
         </is>
       </c>
     </row>
@@ -16927,11 +17296,11 @@
         </is>
       </c>
       <c r="B690" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>STARBUCKS</t>
+          <t>SOUTHWEST_AIRLINES</t>
         </is>
       </c>
     </row>
@@ -16942,11 +17311,11 @@
         </is>
       </c>
       <c r="B691" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>STELLAR_NEWS_EXPRESS</t>
+          <t>SPIRIT</t>
         </is>
       </c>
     </row>
@@ -16957,11 +17326,11 @@
         </is>
       </c>
       <c r="B692" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>STONE_BREWING_COMPANY</t>
+          <t>STARBUCKS</t>
         </is>
       </c>
     </row>
@@ -16972,11 +17341,11 @@
         </is>
       </c>
       <c r="B693" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>SUNCOUNTY_AIRLINES</t>
+          <t>STELLAR_NEWS_EXPRESS</t>
         </is>
       </c>
     </row>
@@ -16987,11 +17356,11 @@
         </is>
       </c>
       <c r="B694" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>SUNGLASS_HUT</t>
+          <t>STONE_BREWING_COMPANY</t>
         </is>
       </c>
     </row>
@@ -17002,11 +17371,11 @@
         </is>
       </c>
       <c r="B695" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>SWAROVSKI</t>
+          <t>SUNCOUNTY_AIRLINES</t>
         </is>
       </c>
     </row>
@@ -17017,11 +17386,11 @@
         </is>
       </c>
       <c r="B696" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>TECH_ON_THE_GO</t>
+          <t>SUNGLASS_HUT</t>
         </is>
       </c>
     </row>
@@ -17032,11 +17401,11 @@
         </is>
       </c>
       <c r="B697" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>THE_BEACH_HOUSE</t>
+          <t>SWAROVSKI</t>
         </is>
       </c>
     </row>
@@ -17047,11 +17416,11 @@
         </is>
       </c>
       <c r="B698" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>THE_COUNTER_CUSTOM_BUILT_BURGERS</t>
+          <t>TECH_ON_THE_GO</t>
         </is>
       </c>
     </row>
@@ -17062,11 +17431,11 @@
         </is>
       </c>
       <c r="B699" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>TOMMY_VS_PIZZERIA</t>
+          <t>THE_BEACH_HOUSE</t>
         </is>
       </c>
     </row>
@@ -17077,11 +17446,11 @@
         </is>
       </c>
       <c r="B700" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>TRANSPORTATION_SECURITY_ADMINISTRATION_TSA</t>
+          <t>THE_COUNTER_CUSTOM_BUILT_BURGERS</t>
         </is>
       </c>
     </row>
@@ -17092,11 +17461,11 @@
         </is>
       </c>
       <c r="B701" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>UNITED_AIRLINES</t>
+          <t>TOMMY_VS_PIZZERIA</t>
         </is>
       </c>
     </row>
@@ -17107,11 +17476,11 @@
         </is>
       </c>
       <c r="B702" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>UNITED_CLUB</t>
+          <t>TRANSPORTATION_SECURITY_ADMINISTRATION_TSA</t>
         </is>
       </c>
     </row>
@@ -17122,11 +17491,11 @@
         </is>
       </c>
       <c r="B703" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>UNITED_SERVICE_ORGANIZATIONS</t>
+          <t>UNITED_AIRLINES</t>
         </is>
       </c>
     </row>
@@ -17137,11 +17506,11 @@
         </is>
       </c>
       <c r="B704" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>URBAN_CRAVE</t>
+          <t>UNITED_CLUB</t>
         </is>
       </c>
     </row>
@@ -17152,11 +17521,11 @@
         </is>
       </c>
       <c r="B705" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>US_CUSTOMS_AND_BORDER_PROTECTION</t>
+          <t>UNITED_SERVICE_ORGANIZATIONS</t>
         </is>
       </c>
     </row>
@@ -17167,11 +17536,11 @@
         </is>
       </c>
       <c r="B706" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>US_NEWS_AND_WORLD_REPORT</t>
+          <t>URBAN_CRAVE</t>
         </is>
       </c>
     </row>
@@ -17182,11 +17551,11 @@
         </is>
       </c>
       <c r="B707" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>WARWICKS_OF_LA_JOLLA</t>
+          <t>US_CUSTOMS_AND_BORDER_PROTECTION</t>
         </is>
       </c>
     </row>
@@ -17197,11 +17566,11 @@
         </is>
       </c>
       <c r="B708" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>WESTJET</t>
+          <t>US_NEWS_AND_WORLD_REPORT</t>
         </is>
       </c>
     </row>
@@ -17212,71 +17581,71 @@
         </is>
       </c>
       <c r="B709" t="n">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>OTHER_SEPCIFY</t>
+          <t>WARWICKS_OF_LA_JOLLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>Employers</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>75</v>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>WESTJET</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>Occupations</t>
+          <t>Employers</t>
         </is>
       </c>
       <c r="B711" t="n">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>AIRCRAFT_MECHANIC</t>
+          <t>SDCRAA_SDIA</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>Occupations</t>
+          <t>Employers</t>
         </is>
       </c>
       <c r="B712" t="n">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>PILOT</t>
+          <t>FLAGSHIP</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>Occupations</t>
+          <t>Employers</t>
         </is>
       </c>
       <c r="B713" t="n">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>AIRCRAFT_SVC_ATTENDANT</t>
-        </is>
-      </c>
-    </row>
-    <row r="714">
-      <c r="A714" t="inlineStr">
-        <is>
-          <t>Occupations</t>
-        </is>
-      </c>
-      <c r="B714" t="n">
-        <v>4</v>
-      </c>
-      <c r="C714" t="inlineStr">
-        <is>
-          <t>AIR_TRAFFIC_CONTROLLER</t>
+          <t>OTHER_SEPCIFY</t>
         </is>
       </c>
     </row>
@@ -17287,11 +17656,11 @@
         </is>
       </c>
       <c r="B715" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>FLIGHT_ATTENDANT</t>
+          <t>AIRCRAFT_MECHANIC</t>
         </is>
       </c>
     </row>
@@ -17302,11 +17671,11 @@
         </is>
       </c>
       <c r="B716" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>TICKET_AGENT</t>
+          <t>PILOT</t>
         </is>
       </c>
     </row>
@@ -17317,11 +17686,11 @@
         </is>
       </c>
       <c r="B717" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>CARGO_AGENT</t>
+          <t>AIRCRAFT_SVC_ATTENDANT</t>
         </is>
       </c>
     </row>
@@ -17332,11 +17701,11 @@
         </is>
       </c>
       <c r="B718" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>CARGO_HANDLER</t>
+          <t>AIR_TRAFFIC_CONTROLLER</t>
         </is>
       </c>
     </row>
@@ -17347,11 +17716,11 @@
         </is>
       </c>
       <c r="B719" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>BLDG_MAINTENANCE_CLEANING</t>
+          <t>FLIGHT_ATTENDANT</t>
         </is>
       </c>
     </row>
@@ -17362,11 +17731,11 @@
         </is>
       </c>
       <c r="B720" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>PARKING_ATTENDANT</t>
+          <t>TICKET_AGENT</t>
         </is>
       </c>
     </row>
@@ -17377,11 +17746,11 @@
         </is>
       </c>
       <c r="B721" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>DRIVER</t>
+          <t>CARGO_AGENT</t>
         </is>
       </c>
     </row>
@@ -17392,11 +17761,11 @@
         </is>
       </c>
       <c r="B722" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>TSA</t>
+          <t>CARGO_HANDLER</t>
         </is>
       </c>
     </row>
@@ -17407,11 +17776,11 @@
         </is>
       </c>
       <c r="B723" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>LAW_ENFORCEMENT</t>
+          <t>BLDG_MAINTENANCE_CLEANING</t>
         </is>
       </c>
     </row>
@@ -17422,11 +17791,11 @@
         </is>
       </c>
       <c r="B724" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>GENERAL_AND_OPERATIONS_MANAGERS</t>
+          <t>PARKING_ATTENDANT</t>
         </is>
       </c>
     </row>
@@ -17437,11 +17806,11 @@
         </is>
       </c>
       <c r="B725" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>PROGRAM_AND_PROJECT_MANAGERS</t>
+          <t>DRIVER</t>
         </is>
       </c>
     </row>
@@ -17452,11 +17821,11 @@
         </is>
       </c>
       <c r="B726" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>RETAIL_RESTAURANT</t>
+          <t>TSA</t>
         </is>
       </c>
     </row>
@@ -17467,11 +17836,11 @@
         </is>
       </c>
       <c r="B727" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>CONSTRUCTION</t>
+          <t>LAW_ENFORCEMENT</t>
         </is>
       </c>
     </row>
@@ -17482,11 +17851,11 @@
         </is>
       </c>
       <c r="B728" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>OTHER_LABORERS</t>
+          <t>GENERAL_AND_OPERATIONS_MANAGERS</t>
         </is>
       </c>
     </row>
@@ -17497,11 +17866,11 @@
         </is>
       </c>
       <c r="B729" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>OTHER_CUSTOMER_SUPPORT</t>
+          <t>PROGRAM_AND_PROJECT_MANAGERS</t>
         </is>
       </c>
     </row>
@@ -17512,11 +17881,11 @@
         </is>
       </c>
       <c r="B730" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>OTHER_ADMIN_SUPPORT</t>
+          <t>RETAIL_RESTAURANT</t>
         </is>
       </c>
     </row>
@@ -17527,11 +17896,11 @@
         </is>
       </c>
       <c r="B731" t="n">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>OTHER_SPECIFY</t>
+          <t>CONSTRUCTION</t>
         </is>
       </c>
     </row>
@@ -17542,71 +17911,71 @@
         </is>
       </c>
       <c r="B732" t="n">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>REFUSED</t>
+          <t>OTHER_LABORERS</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>Occupations</t>
+        </is>
+      </c>
+      <c r="B733" t="n">
+        <v>19</v>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>OTHER_CUSTOMER_SUPPORT</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>HoursWorked</t>
+          <t>Occupations</t>
         </is>
       </c>
       <c r="B734" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>ZERO</t>
+          <t>OTHER_ADMIN_SUPPORT</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>HoursWorked</t>
+          <t>Occupations</t>
         </is>
       </c>
       <c r="B735" t="n">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>ONE_TO_TEN</t>
+          <t>OTHER_SPECIFY</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>HoursWorked</t>
+          <t>Occupations</t>
         </is>
       </c>
       <c r="B736" t="n">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>ELEVEN_TO_TWENTY</t>
-        </is>
-      </c>
-    </row>
-    <row r="737">
-      <c r="A737" t="inlineStr">
-        <is>
-          <t>HoursWorked</t>
-        </is>
-      </c>
-      <c r="B737" t="n">
-        <v>4</v>
-      </c>
-      <c r="C737" t="inlineStr">
-        <is>
-          <t>TWENTY_ONE_TO_THIRTY</t>
+          <t>REFUSED</t>
         </is>
       </c>
     </row>
@@ -17617,11 +17986,11 @@
         </is>
       </c>
       <c r="B738" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>THIRTY_ONE_TO_FORTY</t>
+          <t>ZERO</t>
         </is>
       </c>
     </row>
@@ -17632,11 +18001,11 @@
         </is>
       </c>
       <c r="B739" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>FORTY_ONE_TO_FIFTY</t>
+          <t>ONE_TO_TEN</t>
         </is>
       </c>
     </row>
@@ -17647,11 +18016,11 @@
         </is>
       </c>
       <c r="B740" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>FIFTY_ONE_TO_SIXTY</t>
+          <t>ELEVEN_TO_TWENTY</t>
         </is>
       </c>
     </row>
@@ -17662,11 +18031,11 @@
         </is>
       </c>
       <c r="B741" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>SIXTY_ONE_TO_SEVENTY</t>
+          <t>TWENTY_ONE_TO_THIRTY</t>
         </is>
       </c>
     </row>
@@ -17677,11 +18046,11 @@
         </is>
       </c>
       <c r="B742" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>SEVENTY_ONE_TO_EIGHTY</t>
+          <t>THIRTY_ONE_TO_FORTY</t>
         </is>
       </c>
     </row>
@@ -17692,11 +18061,11 @@
         </is>
       </c>
       <c r="B743" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>MORE_THAN_EIGHTY</t>
+          <t>FORTY_ONE_TO_FIFTY</t>
         </is>
       </c>
     </row>
@@ -17707,11 +18076,11 @@
         </is>
       </c>
       <c r="B744" t="n">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>FIFTY_ONE_TO_SIXTY</t>
         </is>
       </c>
     </row>
@@ -17722,71 +18091,71 @@
         </is>
       </c>
       <c r="B745" t="n">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>REFUSED</t>
+          <t>SIXTY_ONE_TO_SEVENTY</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>HoursWorked</t>
+        </is>
+      </c>
+      <c r="B746" t="n">
+        <v>9</v>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>SEVENTY_ONE_TO_EIGHTY</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>CommuteDays</t>
+          <t>HoursWorked</t>
         </is>
       </c>
       <c r="B747" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>ONE</t>
+          <t>MORE_THAN_EIGHTY</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>CommuteDays</t>
+          <t>HoursWorked</t>
         </is>
       </c>
       <c r="B748" t="n">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>TWO</t>
+          <t>OTHER</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>CommuteDays</t>
+          <t>HoursWorked</t>
         </is>
       </c>
       <c r="B749" t="n">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>THREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="750">
-      <c r="A750" t="inlineStr">
-        <is>
-          <t>CommuteDays</t>
-        </is>
-      </c>
-      <c r="B750" t="n">
-        <v>4</v>
-      </c>
-      <c r="C750" t="inlineStr">
-        <is>
-          <t>FOUR</t>
+          <t>REFUSED</t>
         </is>
       </c>
     </row>
@@ -17797,11 +18166,11 @@
         </is>
       </c>
       <c r="B751" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>ONE</t>
         </is>
       </c>
     </row>
@@ -17812,11 +18181,11 @@
         </is>
       </c>
       <c r="B752" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>SIX</t>
+          <t>TWO</t>
         </is>
       </c>
     </row>
@@ -17827,11 +18196,11 @@
         </is>
       </c>
       <c r="B753" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>SEVEN</t>
+          <t>THREE</t>
         </is>
       </c>
     </row>
@@ -17842,11 +18211,11 @@
         </is>
       </c>
       <c r="B754" t="n">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>FOUR</t>
         </is>
       </c>
     </row>
@@ -17857,101 +18226,101 @@
         </is>
       </c>
       <c r="B755" t="n">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t>REFUSED</t>
+          <t>FIVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>CommuteDays</t>
+        </is>
+      </c>
+      <c r="B756" t="n">
+        <v>6</v>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>SIX</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>InboundOutbound</t>
+          <t>CommuteDays</t>
         </is>
       </c>
       <c r="B757" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>INBOUND_TO_AIRPORT</t>
+          <t>SEVEN</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>InboundOutbound</t>
+          <t>CommuteDays</t>
         </is>
       </c>
       <c r="B758" t="n">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>OUTBOUND_FROM_AIRPORT</t>
-        </is>
-      </c>
-    </row>
-    <row r="760">
-      <c r="A760" t="inlineStr">
-        <is>
-          <t>ActivityType</t>
-        </is>
-      </c>
-      <c r="B760" t="n">
-        <v>1</v>
-      </c>
-      <c r="C760" t="inlineStr">
-        <is>
-          <t>USUAL_WORKPLACE</t>
+          <t>OTHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>CommuteDays</t>
+        </is>
+      </c>
+      <c r="B759" t="n">
+        <v>99</v>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>REFUSED</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>ActivityType</t>
+          <t>InboundOutbound</t>
         </is>
       </c>
       <c r="B761" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>HOME</t>
+          <t>INBOUND_TO_AIRPORT</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>ActivityType</t>
+          <t>InboundOutbound</t>
         </is>
       </c>
       <c r="B762" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>HOTEL</t>
-        </is>
-      </c>
-    </row>
-    <row r="763">
-      <c r="A763" t="inlineStr">
-        <is>
-          <t>ActivityType</t>
-        </is>
-      </c>
-      <c r="B763" t="n">
-        <v>4</v>
-      </c>
-      <c r="C763" t="inlineStr">
-        <is>
-          <t>CONVENTION_CENTER</t>
+          <t>OUTBOUND_FROM_AIRPORT</t>
         </is>
       </c>
     </row>
@@ -17962,11 +18331,11 @@
         </is>
       </c>
       <c r="B764" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>OTHER_BUSINESS</t>
+          <t>USUAL_WORKPLACE</t>
         </is>
       </c>
     </row>
@@ -17977,11 +18346,11 @@
         </is>
       </c>
       <c r="B765" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>OTHER_RESIDENCE</t>
+          <t>HOME</t>
         </is>
       </c>
     </row>
@@ -17992,11 +18361,11 @@
         </is>
       </c>
       <c r="B766" t="n">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>HOTEL</t>
         </is>
       </c>
     </row>
@@ -18007,71 +18376,71 @@
         </is>
       </c>
       <c r="B767" t="n">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>REFUSED</t>
+          <t>CONVENTION_CENTER</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>ActivityType</t>
+        </is>
+      </c>
+      <c r="B768" t="n">
+        <v>5</v>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>OTHER_BUSINESS</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>NumTransfers</t>
+          <t>ActivityType</t>
         </is>
       </c>
       <c r="B769" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>OTHER_RESIDENCE</t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>NumTransfers</t>
+          <t>ActivityType</t>
         </is>
       </c>
       <c r="B770" t="n">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>ONE</t>
+          <t>OTHER</t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>NumTransfers</t>
+          <t>ActivityType</t>
         </is>
       </c>
       <c r="B771" t="n">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>TWO</t>
-        </is>
-      </c>
-    </row>
-    <row r="772">
-      <c r="A772" t="inlineStr">
-        <is>
-          <t>NumTransfers</t>
-        </is>
-      </c>
-      <c r="B772" t="n">
-        <v>3</v>
-      </c>
-      <c r="C772" t="inlineStr">
-        <is>
-          <t>THREE</t>
+          <t>REFUSED</t>
         </is>
       </c>
     </row>
@@ -18082,11 +18451,11 @@
         </is>
       </c>
       <c r="B773" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>FOUR_OR_MORE</t>
+          <t>NONE</t>
         </is>
       </c>
     </row>
@@ -18097,11 +18466,11 @@
         </is>
       </c>
       <c r="B774" t="n">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>ONE</t>
         </is>
       </c>
     </row>
@@ -18112,71 +18481,71 @@
         </is>
       </c>
       <c r="B775" t="n">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="C775" t="inlineStr">
         <is>
-          <t>REFUSED</t>
+          <t>TWO</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>NumTransfers</t>
+        </is>
+      </c>
+      <c r="B776" t="n">
+        <v>3</v>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>THREE</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>ParkingLocation</t>
+          <t>NumTransfers</t>
         </is>
       </c>
       <c r="B777" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>TERM1_PARKING_PLAZA</t>
+          <t>FOUR_OR_MORE</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>ParkingLocation</t>
+          <t>NumTransfers</t>
         </is>
       </c>
       <c r="B778" t="n">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="C778" t="inlineStr">
         <is>
-          <t>TERM2_PARKING_PLAZA</t>
+          <t>OTHER</t>
         </is>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>ParkingLocation</t>
+          <t>NumTransfers</t>
         </is>
       </c>
       <c r="B779" t="n">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="C779" t="inlineStr">
         <is>
-          <t>TERM1_CURBSIDE_VALET</t>
-        </is>
-      </c>
-    </row>
-    <row r="780">
-      <c r="A780" t="inlineStr">
-        <is>
-          <t>ParkingLocation</t>
-        </is>
-      </c>
-      <c r="B780" t="n">
-        <v>4</v>
-      </c>
-      <c r="C780" t="inlineStr">
-        <is>
-          <t>TERM2_CURBSIDE_VALET</t>
+          <t>REFUSED</t>
         </is>
       </c>
     </row>
@@ -18187,11 +18556,11 @@
         </is>
       </c>
       <c r="B781" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C781" t="inlineStr">
         <is>
-          <t>OFF_AIRPORT_PARKING</t>
+          <t>TERM1_PARKING_PLAZA</t>
         </is>
       </c>
     </row>
@@ -18202,11 +18571,11 @@
         </is>
       </c>
       <c r="B782" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C782" t="inlineStr">
         <is>
-          <t>EMPLOYEE_LOT_3665_ADMIRAL_BOLAND_WAY</t>
+          <t>TERM2_PARKING_PLAZA</t>
         </is>
       </c>
     </row>
@@ -18217,11 +18586,11 @@
         </is>
       </c>
       <c r="B783" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>ADMIN_BUILDING_LOT_2417_MCCAIN_ROAD</t>
+          <t>TERM1_CURBSIDE_VALET</t>
         </is>
       </c>
     </row>
@@ -18232,11 +18601,11 @@
         </is>
       </c>
       <c r="B784" t="n">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>TERM2_CURBSIDE_VALET</t>
         </is>
       </c>
     </row>
@@ -18247,71 +18616,71 @@
         </is>
       </c>
       <c r="B785" t="n">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t>REFUSED</t>
+          <t>OFF_AIRPORT_PARKING</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>ParkingLocation</t>
+        </is>
+      </c>
+      <c r="B786" t="n">
+        <v>6</v>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>EMPLOYEE_LOT_3665_ADMIRAL_BOLAND_WAY</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>ParkingCostFrequency</t>
+          <t>ParkingLocation</t>
         </is>
       </c>
       <c r="B787" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>ADMIN_BUILDING_LOT_2417_MCCAIN_ROAD</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>ParkingCostFrequency</t>
+          <t>ParkingLocation</t>
         </is>
       </c>
       <c r="B788" t="n">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="C788" t="inlineStr">
         <is>
-          <t>MONTHLY</t>
+          <t>OTHER</t>
         </is>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>ParkingCostFrequency</t>
+          <t>ParkingLocation</t>
         </is>
       </c>
       <c r="B789" t="n">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>DAILY</t>
-        </is>
-      </c>
-    </row>
-    <row r="790">
-      <c r="A790" t="inlineStr">
-        <is>
-          <t>ParkingCostFrequency</t>
-        </is>
-      </c>
-      <c r="B790" t="n">
-        <v>4</v>
-      </c>
-      <c r="C790" t="inlineStr">
-        <is>
-          <t>HOURLY</t>
+          <t>REFUSED</t>
         </is>
       </c>
     </row>
@@ -18322,11 +18691,11 @@
         </is>
       </c>
       <c r="B791" t="n">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="C791" t="inlineStr">
         <is>
-          <t>OTHER_SEPCIFY</t>
+          <t>TOTAL</t>
         </is>
       </c>
     </row>
@@ -18337,131 +18706,131 @@
         </is>
       </c>
       <c r="B792" t="n">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="C792" t="inlineStr">
         <is>
-          <t>REFUSED</t>
+          <t>MONTHLY</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>ParkingCostFrequency</t>
+        </is>
+      </c>
+      <c r="B793" t="n">
+        <v>3</v>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>DAILY</t>
         </is>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>ParkingReimbursement</t>
+          <t>ParkingCostFrequency</t>
         </is>
       </c>
       <c r="B794" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t>REIMBURSED_EMPLOYER_CLIENT</t>
+          <t>HOURLY</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>ParkingReimbursement</t>
+          <t>ParkingCostFrequency</t>
         </is>
       </c>
       <c r="B795" t="n">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="C795" t="inlineStr">
         <is>
-          <t>REIMBURSED_OTHER_THIRD_PARTY</t>
+          <t>OTHER_SEPCIFY</t>
         </is>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
+          <t>ParkingCostFrequency</t>
+        </is>
+      </c>
+      <c r="B796" t="n">
+        <v>99</v>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>REFUSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
           <t>ParkingReimbursement</t>
         </is>
       </c>
-      <c r="B796" t="n">
-        <v>3</v>
-      </c>
-      <c r="C796" t="inlineStr">
-        <is>
-          <t>NOT_REIMBURSED</t>
-        </is>
-      </c>
-    </row>
-    <row r="797">
-      <c r="A797" t="inlineStr">
-        <is>
-          <t>ParkingReimbursement</t>
-        </is>
-      </c>
-      <c r="B797" t="n">
-        <v>4</v>
-      </c>
-      <c r="C797" t="inlineStr">
-        <is>
-          <t>DONT_KNOW</t>
+      <c r="B798" t="n">
+        <v>1</v>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>REIMBURSED_EMPLOYER_CLIENT</t>
         </is>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>CarAvailability</t>
+          <t>ParkingReimbursement</t>
         </is>
       </c>
       <c r="B799" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>CAR_AVAILABLE</t>
+          <t>REIMBURSED_OTHER_THIRD_PARTY</t>
         </is>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>CarAvailability</t>
+          <t>ParkingReimbursement</t>
         </is>
       </c>
       <c r="B800" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>DONT_HAVE_CAR</t>
+          <t>NOT_REIMBURSED</t>
         </is>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>CarAvailability</t>
+          <t>ParkingReimbursement</t>
         </is>
       </c>
       <c r="B801" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C801" t="inlineStr">
         <is>
-          <t>CAR_UNAVAILABLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="802">
-      <c r="A802" t="inlineStr">
-        <is>
-          <t>CarAvailability</t>
-        </is>
-      </c>
-      <c r="B802" t="n">
-        <v>4</v>
-      </c>
-      <c r="C802" t="inlineStr">
-        <is>
-          <t>DONT_DRIVE</t>
+          <t>DONT_KNOW</t>
         </is>
       </c>
     </row>
@@ -18472,11 +18841,11 @@
         </is>
       </c>
       <c r="B803" t="n">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="C803" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>CAR_AVAILABLE</t>
         </is>
       </c>
     </row>
@@ -18487,9 +18856,69 @@
         </is>
       </c>
       <c r="B804" t="n">
+        <v>2</v>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>DONT_HAVE_CAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>CarAvailability</t>
+        </is>
+      </c>
+      <c r="B805" t="n">
+        <v>3</v>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>CAR_UNAVAILABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>CarAvailability</t>
+        </is>
+      </c>
+      <c r="B806" t="n">
+        <v>4</v>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>DONT_DRIVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>CarAvailability</t>
+        </is>
+      </c>
+      <c r="B807" t="n">
+        <v>98</v>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>CarAvailability</t>
+        </is>
+      </c>
+      <c r="B808" t="n">
         <v>99</v>
       </c>
-      <c r="C804" t="inlineStr">
+      <c r="C808" t="inlineStr">
         <is>
           <t>REFUSED</t>
         </is>

--- a/reports/data_dictionary.xlsx
+++ b/reports/data_dictionary.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E257"/>
+  <dimension ref="A1:E259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,12 +479,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>date_completed</t>
+          <t>record_type_synthetic</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -494,7 +494,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Date and time when respondent completed the survey</t>
+          <t>True if the record is synthetically generated</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -506,7 +506,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>submit</t>
+          <t>is_completed</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>True if the record is to be used for submittal</t>
+          <t>True if the record is complete</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -533,22 +533,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>interview_location</t>
+          <t>date_completed</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>InterviewLocation</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Location where respondent was intercepted</t>
+          <t>Date and time when respondent completed the survey</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -560,12 +560,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>interview_location_other</t>
+          <t>submit</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Other Location where respondent was intercepted</t>
+          <t>True if the record is to be used for submittal</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,7 +587,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>marketsegment</t>
+          <t>interview_location</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,12 +597,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>InterviewLocation</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Type of respondent, either passenger, employee, or other</t>
+          <t>Location where respondent was intercepted</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -614,12 +614,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>is_qualified_age</t>
+          <t>interview_location_other</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Whether the respondent is of a qualified age to participate in the survey</t>
+          <t>Other Location where respondent was intercepted</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -641,7 +641,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>resident_visitor_general</t>
+          <t>marketsegment</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -651,12 +651,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ResidentVisitorGeneral</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Whether a resident or a visitor of the San deigo airport service area</t>
+          <t>Type of respondent, either passenger, employee, or other</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -668,22 +668,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>resident_visitor_followup</t>
+          <t>is_qualified_age</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ResidentVisitorFollowup</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>If neither a resident or a visitor, whether the respondent is visiting San Diego</t>
+          <t>Whether the respondent is of a qualified age to participate in the survey</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -695,22 +695,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>resident_visitor_arriving</t>
+          <t>resident_visitor_general</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>ResidentVisitorGeneral</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>True if respondent lives outside San Diego Region and is going home by ground transportation</t>
+          <t>Whether a resident or a visitor of the San deigo airport service area</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -722,7 +722,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>resident_visitor</t>
+          <t>resident_visitor_followup</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -732,12 +732,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ResidentVisitor</t>
+          <t>ResidentVisitorFollowup</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Where the respondent resides in the airport service area most of the year</t>
+          <t>If neither a resident or a visitor, whether the respondent is visiting San Diego</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -749,22 +749,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>country_of_residence</t>
+          <t>resident_visitor_arriving</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Country</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Country of residence for international vistors</t>
+          <t>True if respondent lives outside San Diego Region and is going home by ground transportation</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -776,7 +776,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>state_of_residence</t>
+          <t>resident_visitor</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -786,12 +786,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>State</t>
+          <t>ResidentVisitor</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>State of residence for US and Mexico residents</t>
+          <t>Where the respondent resides in the airport service area most of the year</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -803,22 +803,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>home_location_city</t>
+          <t>country_of_residence</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>Country</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>City of the home location of the respondent</t>
+          <t>Country of residence for international vistors</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -830,22 +830,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>home_location_state</t>
+          <t>state_of_residence</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>State</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>State of the home location of the respondent</t>
+          <t>State of residence for US and Mexico residents</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -857,7 +857,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>home_location_zip</t>
+          <t>home_location_city</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ZIP of the home location of the respondent</t>
+          <t>City of the home location of the respondent</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -884,12 +884,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>home_location_latitude</t>
+          <t>home_location_state</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Latitude of the home location of the respondent</t>
+          <t>State of the home location of the respondent</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -911,12 +911,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>home_location_longitude</t>
+          <t>home_location_zip</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Longitude of the home location of the respondent</t>
+          <t>ZIP of the home location of the respondent</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -938,22 +938,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>home_location_latitude</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Age category of the respondent</t>
+          <t>Latitude of the home location of the respondent</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -965,22 +965,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>home_location_longitude</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Gender of the respondent</t>
+          <t>Longitude of the home location of the respondent</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -992,22 +992,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>gender_other</t>
+          <t>age</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Gender of the respondent (not listed)</t>
+          <t>Age category of the respondent</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1019,22 +1019,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>race_aian</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Does the respondent identify as American Indian or Alaska Native?</t>
+          <t>Gender of the respondent</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1046,12 +1046,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>race_asian</t>
+          <t>gender_other</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Does the respondent identify as Asian?</t>
+          <t>Gender of the respondent (not listed)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1073,7 +1073,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>race_black</t>
+          <t>race_aian</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Does the respondent identify as Black or African American?</t>
+          <t>Does the respondent identify as American Indian or Alaska Native?</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1100,7 +1100,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>race_hispanic</t>
+          <t>race_asian</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Does the respondent identify as Hispanic or Latino?</t>
+          <t>Does the respondent identify as Asian?</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1127,7 +1127,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>race_middle_eastern</t>
+          <t>race_black</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Does the respondent identify as Middle Eastern?</t>
+          <t>Does the respondent identify as Black or African American?</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1154,7 +1154,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>race_hp</t>
+          <t>race_hispanic</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Does the respondent identify as Native Hawaiian or Other Pacific Islander?</t>
+          <t>Does the respondent identify as Hispanic or Latino?</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1181,7 +1181,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>race_white</t>
+          <t>race_middle_eastern</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Does the respondent identify as White?</t>
+          <t>Does the respondent identify as Middle Eastern?</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1208,7 +1208,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>race_unknown</t>
+          <t>race_hp</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Does the respondent identify as an unknown</t>
+          <t>Does the respondent identify as Native Hawaiian or Other Pacific Islander?</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1235,12 +1235,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>race_other</t>
+          <t>race_white</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>If the respondent enters a race/ethnicicy not listed above, this field will be populated</t>
+          <t>Does the respondent identify as White?</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1262,22 +1262,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>number_persons_in_household</t>
+          <t>race_unknown</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>HouseholdSize</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Number of persons in the respondent's household</t>
+          <t>Does the respondent identify as an unknown</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1289,22 +1289,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>number_vehicles</t>
+          <t>race_other</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>HouseholdVehicles</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Number of vehicles in the respondent's household</t>
+          <t>If the respondent enters a race/ethnicicy not listed above, this field will be populated</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1316,7 +1316,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>household_income</t>
+          <t>number_persons_in_household</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>HouseholdIncome</t>
+          <t>HouseholdSize</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Income range of the respondent's household</t>
+          <t>Number of persons in the respondent's household</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1343,7 +1343,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>is_income_below_poverty</t>
+          <t>number_vehicles</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>YesNoType</t>
+          <t>HouseholdVehicles</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Is the respondent's household income below poverty?</t>
+          <t>Number of vehicles in the respondent's household</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1370,7 +1370,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>number_workers</t>
+          <t>household_income</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1380,12 +1380,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HouseholdWorkers</t>
+          <t>HouseholdIncome</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Number of workers in the respondent's household</t>
+          <t>Income range of the respondent's household</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1397,7 +1397,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>sp_invitation</t>
+          <t>is_income_below_poverty</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Whether the respondent chose to participate in the SP Survey</t>
+          <t>Is the respondent's household income below poverty?</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1424,7 +1424,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>stay_informed</t>
+          <t>number_workers</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1434,12 +1434,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>YesNoType</t>
+          <t>HouseholdWorkers</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Whether the respondent chose to Stay Informed about the project</t>
+          <t>Number of workers in the respondent's household</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1451,7 +1451,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>survey_language</t>
+          <t>sp_invitation</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1461,12 +1461,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SurveyLanguage</t>
+          <t>YesNoType</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Language of the Survey</t>
+          <t>Whether the respondent chose to participate in the SP Survey</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1478,22 +1478,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>survey_language_other</t>
+          <t>stay_informed</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>YesNoType</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Other (not listed) language of the survey</t>
+          <t>Whether the respondent chose to Stay Informed about the project</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1505,22 +1505,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>trip</t>
+          <t>survey_language</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>SurveyLanguage</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Details of the trip taken by the respondent</t>
+          <t>Language of the Survey</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1532,12 +1532,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>valid_record</t>
+          <t>survey_language_other</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Indicates if the record is valid</t>
+          <t>Other (not listed) language of the survey</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1559,12 +1559,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>validation_error</t>
+          <t>trip</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>Trip</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Holds validation error messages</t>
+          <t>Details of the trip taken by the respondent</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1586,12 +1586,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>validation_severity</t>
+          <t>valid_record</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Holds the severity of the validation error</t>
+          <t>Indicates if the record is valid</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1613,34 +1613,34 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>passenger_type</t>
+          <t>validation_error</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PassengerType</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Type of Passenger: Arriving, Departing or Connecting</t>
+          <t>Holds validation error messages</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>AirPassenger</t>
+          <t>All Respondents</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>previous_or_next_airport</t>
+          <t>validation_severity</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1655,19 +1655,19 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Where is the respondent flying from/flying to</t>
+          <t>Holds the severity of the validation error</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>AirPassenger</t>
+          <t>All Respondents</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>airline</t>
+          <t>passenger_type</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1677,12 +1677,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>PassengerType</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Airline of the respondent's flight</t>
+          <t>Type of Passenger: Arriving, Departing or Connecting</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1694,7 +1694,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>airline_other</t>
+          <t>previous_or_next_airport</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Other (not listed) airline of the respondent's flight</t>
+          <t>Where is the respondent flying from/flying to</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1721,22 +1721,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>flight_number</t>
+          <t>airline</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Flight number of the respondent's flight</t>
+          <t>Airline of the respondent's flight</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1748,12 +1748,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>not_using_connecting</t>
+          <t>airline_other</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>True if the passenger did not use/is not using any connecting flights in their journey</t>
+          <t>Other (not listed) airline of the respondent's flight</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1775,7 +1775,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>final_flight_destination</t>
+          <t>flight_number</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Final destination of the flight for departing passengers</t>
+          <t>Flight number of the respondent's flight</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1802,22 +1802,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>flight_departure_time</t>
+          <t>not_using_connecting</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DepartTime</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Time of flight departure</t>
+          <t>True if the passenger did not use/is not using any connecting flights in their journey</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1829,22 +1829,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>flight_arrival_time</t>
+          <t>final_flight_destination</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>DepartTime</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Time of flight arrival</t>
+          <t>Final destination of the flight for departing passengers</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1856,22 +1856,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>original_flight_origin</t>
+          <t>flight_departure_time</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>DepartTime</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Original origin for arriving passengers</t>
+          <t>Time of flight departure</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1883,7 +1883,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>flight_purpose</t>
+          <t>flight_arrival_time</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1893,12 +1893,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>FlightPurpose</t>
+          <t>DepartTime</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Purpose of the respondent's flight</t>
+          <t>Time of flight arrival</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1910,7 +1910,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>flight_purpose_other</t>
+          <t>original_flight_origin</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Other (not listed) purpose of the respondent's flight</t>
+          <t>Original origin for arriving passengers</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1937,7 +1937,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>convention_center</t>
+          <t>flight_purpose</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1947,12 +1947,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>YesNoType</t>
+          <t>FlightPurpose</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Whether the visitor went/going to convention center</t>
+          <t>Purpose of the respondent's flight</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1964,22 +1964,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>convention_center_activity</t>
+          <t>flight_purpose_other</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ConventionCenterActivity</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Type of activity that the respondent conducted at the convention center</t>
+          <t>Other (not listed) purpose of the respondent's flight</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1991,22 +1991,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>convention_center_activity_other</t>
+          <t>convention_center</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>YesNoType</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Type of activity (not listed) that the respondent conducted at the convention center</t>
+          <t>Whether the visitor went/going to convention center</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2018,7 +2018,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>checked_bags</t>
+          <t>convention_center_activity</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2028,12 +2028,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CheckedBags</t>
+          <t>ConventionCenterActivity</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Number of checked bags</t>
+          <t>Type of activity that the respondent conducted at the convention center</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2045,22 +2045,22 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>carryon_bags</t>
+          <t>convention_center_activity_other</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CarryOns</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Number of carry-on bags</t>
+          <t>Type of activity (not listed) that the respondent conducted at the convention center</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2072,7 +2072,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>nights_away</t>
+          <t>checked_bags</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2082,12 +2082,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>TravelDuration</t>
+          <t>CheckedBags</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Number of nights the departing air passengers will be away</t>
+          <t>Number of checked bags</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2099,7 +2099,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>nights_visited</t>
+          <t>carryon_bags</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2109,12 +2109,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>TravelDuration</t>
+          <t>CarryOns</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Number of nights the arriving air passengers will be in the San Diego Region</t>
+          <t>Number of carry-on bags</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2126,7 +2126,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>party_size_flight</t>
+          <t>nights_away</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2136,12 +2136,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>PartySize</t>
+          <t>TravelDuration</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Number of people flying with the respondent (count excludes the respondent)</t>
+          <t>Number of nights the departing air passengers will be away</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2153,22 +2153,22 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>party_size_ground_access_same</t>
+          <t>nights_visited</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>TravelDuration</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Whether flying party all traveled to airport together</t>
+          <t>Number of nights the arriving air passengers will be in the San Diego Region</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>party_size_ground_access</t>
+          <t>party_size_flight</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Size of ground access travel party (count excludes the respondent)</t>
+          <t>Number of people flying with the respondent (count excludes the respondent)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2207,7 +2207,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>party_includes_child_aged00to05</t>
+          <t>party_size_ground_access_same</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>True if the traveling party includes a child aged zero to two</t>
+          <t>Whether flying party all traveled to airport together</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2234,22 +2234,22 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>party_includes_child_aged06to17</t>
+          <t>party_size_ground_access</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>PartySize</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>True if the traveling party includes a child aged three to nine</t>
+          <t>Size of ground access travel party (count excludes the respondent)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2261,7 +2261,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>party_includes_coworker</t>
+          <t>party_includes_child_aged00to05</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>True if the traveling party includes a coworker</t>
+          <t>True if the traveling party includes a child aged zero to two</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2288,7 +2288,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>party_includes_friend_relative</t>
+          <t>party_includes_child_aged06to17</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>True if the traveling party includes a friend or relative</t>
+          <t>True if the traveling party includes a child aged three to nine</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2315,7 +2315,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>party_includes_mobility_impaired</t>
+          <t>party_includes_coworker</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2330,7 +2330,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>True if the traveling party includes a mobility impaired person</t>
+          <t>True if the traveling party includes a coworker</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2342,22 +2342,22 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>sdia_flight_frequency</t>
+          <t>party_includes_friend_relative</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SanFlightFrequency</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Respondent's number of flights from SDIA in the past 12 months</t>
+          <t>True if the traveling party includes a friend or relative</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2369,22 +2369,22 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>sdia_previous_accessmode</t>
+          <t>party_includes_mobility_impaired</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SanFlightFrequency</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Number of times respondent used revealed access modes for other SDIA airport access trips in the past 12 months</t>
+          <t>True if the traveling party includes a mobility impaired person</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2396,22 +2396,22 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_taxi</t>
+          <t>sdia_flight_frequency</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>SanFlightFrequency</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>True if the respondent used taxi as a mode for his trip to SDIA in the last 12 months</t>
+          <t>Respondent's number of flights from SDIA in the past 12 months</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2423,22 +2423,22 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_uber_lyft</t>
+          <t>sdia_previous_accessmode</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>SanFlightFrequency</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>True if the respondent used Uber or Lyft as a mode for their trip to SDIA in the last 12 months</t>
+          <t>Number of times respondent used revealed access modes for other SDIA airport access trips in the past 12 months</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2450,7 +2450,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_car_black</t>
+          <t>sdia_accessmode_split_taxi</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>True if the respondent used a black car or luxury service for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used taxi as a mode for his trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2477,7 +2477,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_dropped_off_by_family_friend</t>
+          <t>sdia_accessmode_split_uber_lyft</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>True if the respondent was dropped off by a family member or friend for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used Uber or Lyft as a mode for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2504,7 +2504,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_drove_alone_and_parked</t>
+          <t>sdia_accessmode_split_car_black</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>True if the respondent drove alone and parked at SDIA in the last 12 months</t>
+          <t>True if the respondent used a black car or luxury service for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2531,7 +2531,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_drove_with_others_and_parked</t>
+          <t>sdia_accessmode_split_dropped_off_by_family_friend</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>True if the respondent drove with others and parked at SDIA in the last 12 months</t>
+          <t>True if the respondent was dropped off by a family member or friend for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2558,7 +2558,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_rode_with_other_travelers_and_parked</t>
+          <t>sdia_accessmode_split_drove_alone_and_parked</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>True if the respondent rode with other travelers and parked at SDIA in the last 12 months</t>
+          <t>True if the respondent drove alone and parked at SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2585,7 +2585,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_mts992</t>
+          <t>sdia_accessmode_split_drove_with_others_and_parked</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>True if the respondent used MTS992 for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent drove with others and parked at SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2612,7 +2612,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_flyer_shuttle</t>
+          <t>sdia_accessmode_split_rode_with_other_travelers_and_parked</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>True if the respondent used the Flyer Shuttle for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent rode with other travelers and parked at SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2639,7 +2639,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_other_public_transit</t>
+          <t>sdia_accessmode_split_mts992</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>True if the respondent used another form of public transit for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used MTS992 for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2666,7 +2666,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_rental_car_dropped_off</t>
+          <t>sdia_accessmode_split_flyer_shuttle</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>True if the respondent used a rental car and was dropped off at SDIA in the last 12 months</t>
+          <t>True if the respondent used the Flyer Shuttle for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2693,7 +2693,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_rental_car_parked</t>
+          <t>sdia_accessmode_split_other_public_transit</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>True if the respondent parked a rental car at SDIA in the last 12 months</t>
+          <t>True if the respondent used another form of public transit for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2720,7 +2720,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_chartered_tour_bus</t>
+          <t>sdia_accessmode_split_rental_car_dropped_off</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>True if the respondent used a chartered tour bus for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used a rental car and was dropped off at SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2747,7 +2747,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_hotel_shuttle_van</t>
+          <t>sdia_accessmode_split_rental_car_parked</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>True if the respondent used a hotel shuttle van for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent parked a rental car at SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2774,7 +2774,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_employee_shuttle</t>
+          <t>sdia_accessmode_split_chartered_tour_bus</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>True if the respondent used an employee shuttle for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used a chartered tour bus for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2801,7 +2801,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_other_shared_van</t>
+          <t>sdia_accessmode_split_hotel_shuttle_van</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2816,7 +2816,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>True if the respondent used another type of shared van service for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used a hotel shuttle van for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2828,7 +2828,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_walk</t>
+          <t>sdia_accessmode_split_employee_shuttle</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>True if the respondent walked to SDIA in the last 12 months</t>
+          <t>True if the respondent used an employee shuttle for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2855,7 +2855,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_wheelchair</t>
+          <t>sdia_accessmode_split_other_shared_van</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2870,7 +2870,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>True if the respondent used a wheelchair for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used another type of shared van service for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2882,7 +2882,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_bicycle_electric_bikeshare</t>
+          <t>sdia_accessmode_split_walk</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>True if the respondent used an electric bikeshare for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent walked to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2909,7 +2909,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_bicycle_non_electric_bikeshare</t>
+          <t>sdia_accessmode_split_wheelchair</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>True if the respondent used a non-electric bikeshare for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used a wheelchair for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2936,7 +2936,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_bicycle_personal_electric_bicycle</t>
+          <t>sdia_accessmode_split_bicycle_electric_bikeshare</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2951,7 +2951,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>True if the respondent used a personal electric bicycle for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used an electric bikeshare for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2963,7 +2963,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_bicycle_personal_non_electric_bicycle</t>
+          <t>sdia_accessmode_split_bicycle_non_electric_bikeshare</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>True if the respondent used a personal non-electric bicycle for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used a non-electric bikeshare for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2990,7 +2990,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_e_scooter_shared</t>
+          <t>sdia_accessmode_split_bicycle_personal_electric_bicycle</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3005,7 +3005,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>True if the respondent used a shared electric scooter for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used a personal electric bicycle for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3017,7 +3017,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_e_scooter_personal</t>
+          <t>sdia_accessmode_split_bicycle_personal_non_electric_bicycle</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3032,7 +3032,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>True if the respondent used a personal electric scooter for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used a personal non-electric bicycle for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3044,22 +3044,22 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>sdia_accessmode_decision</t>
+          <t>sdia_accessmode_split_e_scooter_shared</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>ModeDecision</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Factor which affects mode choice, for respondents who do not always used the same mode</t>
+          <t>True if the respondent used a shared electric scooter for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3071,22 +3071,22 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>reverse_mode</t>
+          <t>sdia_accessmode_split_e_scooter_personal</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>TravelMode</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Mode that was used in the reverse direction</t>
+          <t>True if the respondent used a personal electric scooter for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3098,7 +3098,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>reverse_mode_predicted</t>
+          <t>sdia_accessmode_decision</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3108,12 +3108,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>TravelMode</t>
+          <t>ModeDecision</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Mode that will be used in the reverse direction</t>
+          <t>Factor which affects mode choice, for respondents who do not always used the same mode</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3125,22 +3125,22 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>reverse_mode_predicted_other</t>
+          <t>reverse_mode</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>TravelMode</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Mode (not listed) which will be used in the reverse direction</t>
+          <t>Mode that was used in the reverse direction</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3152,7 +3152,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>sdia_transit_awareness</t>
+          <t>reverse_mode_predicted</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3162,12 +3162,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>YesNoType</t>
+          <t>TravelMode</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Whether respondent is aware that buses are serving SDIA</t>
+          <t>Mode that will be used in the reverse direction</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3179,12 +3179,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>reasons_no_transit_not_convenient</t>
+          <t>reverse_mode_predicted_other</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it is not convenient</t>
+          <t>Mode (not listed) which will be used in the reverse direction</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3206,22 +3206,22 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>reasons_no_transit_too_complicated</t>
+          <t>sdia_transit_awareness</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>YesNoType</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it too complicated</t>
+          <t>Whether respondent is aware that buses are serving SDIA</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3233,7 +3233,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>reasons_no_transit_dont_know_how</t>
+          <t>reasons_no_transit_not_convenient</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because they don't know how</t>
+          <t>True if the respondent did not use transit because it is not convenient</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3260,7 +3260,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>reasons_no_transit_no_good_options</t>
+          <t>reasons_no_transit_too_complicated</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because there are no good options</t>
+          <t>True if the respondent did not use transit because it too complicated</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3287,7 +3287,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>reasons_no_transit_not_flexible</t>
+          <t>reasons_no_transit_dont_know_how</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it is not flexible</t>
+          <t>True if the respondent did not use transit because they don't know how</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3314,7 +3314,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>reasons_no_transit_not_reliable</t>
+          <t>reasons_no_transit_no_good_options</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3329,7 +3329,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it is not reliable</t>
+          <t>True if the respondent did not use transit because there are no good options</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3341,7 +3341,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>reasons_no_transit_not_safe</t>
+          <t>reasons_no_transit_not_flexible</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3356,7 +3356,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it is not safe</t>
+          <t>True if the respondent did not use transit because it is not flexible</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3368,7 +3368,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>reasons_no_transit_ride_too_long</t>
+          <t>reasons_no_transit_not_reliable</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it takes too long</t>
+          <t>True if the respondent did not use transit because it is not reliable</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3395,7 +3395,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>reasons_no_transit_wait_too_long</t>
+          <t>reasons_no_transit_not_safe</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3410,7 +3410,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because the wait time is too long</t>
+          <t>True if the respondent did not use transit because it is not safe</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3422,7 +3422,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>reasons_no_transit_does_not_run_when_needed</t>
+          <t>reasons_no_transit_ride_too_long</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because of it's schedule</t>
+          <t>True if the respondent did not use transit because it takes too long</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3449,7 +3449,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>reasons_no_transit_too_many_transfers</t>
+          <t>reasons_no_transit_wait_too_long</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3464,7 +3464,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it requries too many transfers</t>
+          <t>True if the respondent did not use transit because the wait time is too long</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3476,7 +3476,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>reasons_no_transit_stop_too_far</t>
+          <t>reasons_no_transit_does_not_run_when_needed</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because the stop is too far</t>
+          <t>True if the respondent did not use transit because of it's schedule</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3503,7 +3503,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>reasons_no_transit_not_economical</t>
+          <t>reasons_no_transit_too_many_transfers</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it is not economical</t>
+          <t>True if the respondent did not use transit because it requries too many transfers</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3530,7 +3530,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>reasons_no_transit_dislike_crowded_trains_buses</t>
+          <t>reasons_no_transit_stop_too_far</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because they don't like crowded trains and buses</t>
+          <t>True if the respondent did not use transit because the stop is too far</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3557,7 +3557,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>reasons_no_transit_too_much_walking_stairs</t>
+          <t>reasons_no_transit_not_economical</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3572,7 +3572,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it involves too much walking and/or stairs</t>
+          <t>True if the respondent did not use transit because it is not economical</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3584,7 +3584,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>reasons_no_transit_dislike_public_transport</t>
+          <t>reasons_no_transit_dislike_crowded_trains_buses</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because they don't like public transport</t>
+          <t>True if the respondent did not use transit because they don't like crowded trains and buses</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -3611,7 +3611,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>reasons_no_transit_dislike_public_transport_with_luggage</t>
+          <t>reasons_no_transit_too_much_walking_stairs</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3626,7 +3626,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because they don't like public transport with luggage</t>
+          <t>True if the respondent did not use transit because it involves too much walking and/or stairs</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3638,7 +3638,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>reasons_no_transit_prefer_other_mode</t>
+          <t>reasons_no_transit_dislike_public_transport</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because they prefer other modes(s)</t>
+          <t>True if the respondent did not use transit because they don't like public transport</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -3665,22 +3665,22 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>general_use_transit_resident</t>
+          <t>reasons_no_transit_dislike_public_transport_with_luggage</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>TransitUseFrequency</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>General transit use frequency by residents of San Diego region in San Diego region</t>
+          <t>True if the respondent did not use transit because they don't like public transport with luggage</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -3692,22 +3692,22 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>general_use_transit_visitor_home</t>
+          <t>reasons_no_transit_prefer_other_mode</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>TransitUseFrequency</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>General transit use frequency by visitors of San Diego region when home</t>
+          <t>True if the respondent did not use transit because they prefer other modes(s)</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -3719,22 +3719,22 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_taxi</t>
+          <t>general_use_transit_resident</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>TransitUseFrequency</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>True if the visitor used Taxi as a mode during their visit to the San Diego Region</t>
+          <t>General transit use frequency by residents of San Diego region in San Diego region</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -3746,22 +3746,22 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_uber_lyft</t>
+          <t>general_use_transit_visitor_home</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>TransitUseFrequency</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>True if the visitor used Uber or Lyft as a mode during their visit to the San Diego Region</t>
+          <t>General transit use frequency by visitors of San Diego region when home</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -3773,7 +3773,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_car_black</t>
+          <t>general_modes_used_visitor_taxi</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>True if the visitor used a black car service as a mode during their visit to the San Diego Region</t>
+          <t>True if the visitor used Taxi as a mode during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -3800,7 +3800,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_dropped_off_by_family_friend</t>
+          <t>general_modes_used_visitor_uber_lyft</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3815,7 +3815,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>True if the visitor was dropped off by a family member or friend during their visit to the San Diego Region</t>
+          <t>True if the visitor used Uber or Lyft as a mode during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -3827,7 +3827,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_drove_alone_and_parked</t>
+          <t>general_modes_used_visitor_car_black</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3842,7 +3842,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>True if the visitor drove alone and parked during their visit to the San Diego Region</t>
+          <t>True if the visitor used a black car service as a mode during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -3854,7 +3854,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_drove_with_others_and_parked</t>
+          <t>general_modes_used_visitor_dropped_off_by_family_friend</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3869,7 +3869,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>True if the visitor drove with others and parked during their visit to the San Diego Region</t>
+          <t>True if the visitor was dropped off by a family member or friend during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -3881,7 +3881,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_rode_with_other_travelers_and_parked</t>
+          <t>general_modes_used_visitor_drove_alone_and_parked</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>True if the visitor rode with other travelers and parked during their visit to the San Diego Region</t>
+          <t>True if the visitor drove alone and parked during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -3908,7 +3908,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_coaster</t>
+          <t>general_modes_used_visitor_drove_with_others_and_parked</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3923,7 +3923,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>True if the visitor used the Coaster train during their visit to the San Diego Region</t>
+          <t>True if the visitor drove with others and parked during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -3935,7 +3935,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_mts_red_trolley</t>
+          <t>general_modes_used_visitor_rode_with_other_travelers_and_parked</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>True if the visitor used the MTS Red Trolley during their visit to the San Diego Region</t>
+          <t>True if the visitor rode with other travelers and parked during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -3962,7 +3962,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_other_public_bus</t>
+          <t>general_modes_used_visitor_coaster</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>True if the visitor used other public bus services during their visit to the San Diego Region</t>
+          <t>True if the visitor used the Coaster train during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -3989,7 +3989,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_other_public_transit</t>
+          <t>general_modes_used_visitor_mts_red_trolley</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>True if the visitor used other public transit services during their visit to the San Diego Region</t>
+          <t>True if the visitor used the MTS Red Trolley during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -4016,7 +4016,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_rental_car_dropped_off</t>
+          <t>general_modes_used_visitor_other_public_bus</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>True if the visitor used a rental car and was dropped off during their visit to the San Diego Region</t>
+          <t>True if the visitor used other public bus services during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -4043,7 +4043,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_rental_car_parked</t>
+          <t>general_modes_used_visitor_other_public_transit</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>True if the visitor used a rental car and parked during their visit to the San Diego Region</t>
+          <t>True if the visitor used other public transit services during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4070,7 +4070,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_chartered_tour_bus</t>
+          <t>general_modes_used_visitor_rental_car_dropped_off</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4085,7 +4085,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>True if the visitor used a chartered tour bus during their visit to the San Diego Region</t>
+          <t>True if the visitor used a rental car and was dropped off during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -4097,7 +4097,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_hotel_shuttle_van</t>
+          <t>general_modes_used_visitor_rental_car_parked</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4112,7 +4112,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>True if the visitor used a hotel shuttle or van during their visit to the San Diego Region</t>
+          <t>True if the visitor used a rental car and parked during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -4124,7 +4124,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_employee_shuttle</t>
+          <t>general_modes_used_visitor_chartered_tour_bus</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4139,7 +4139,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>True if the visitor used an employee shuttle during their visit to the San Diego Region</t>
+          <t>True if the visitor used a chartered tour bus during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4151,7 +4151,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_other_shared_van</t>
+          <t>general_modes_used_visitor_hotel_shuttle_van</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>True if the visitor used another type of shared van service during their visit to the San Diego Region</t>
+          <t>True if the visitor used a hotel shuttle or van during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -4178,7 +4178,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_walk</t>
+          <t>general_modes_used_visitor_employee_shuttle</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>True if the visitor walked as a mode during their visit to the San Diego Region</t>
+          <t>True if the visitor used an employee shuttle during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -4205,7 +4205,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_wheelchair</t>
+          <t>general_modes_used_visitor_other_shared_van</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4220,7 +4220,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>True if the visitor used a wheelchair during their visit to the San Diego Region</t>
+          <t>True if the visitor used another type of shared van service during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4232,7 +4232,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_bicycle_electric_bikeshare</t>
+          <t>general_modes_used_visitor_walk</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4247,7 +4247,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>True if the visitor used an electric bicycle through a bikeshare service during their visit to the San Diego Region</t>
+          <t>True if the visitor walked as a mode during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4259,7 +4259,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_bicycle_non_electric_bikeshare</t>
+          <t>general_modes_used_visitor_wheelchair</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4274,7 +4274,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>True if the visitor used a non-electric bicycle through a bikeshare service during their visit to the San Diego Region</t>
+          <t>True if the visitor used a wheelchair during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4286,7 +4286,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_bicycle_personal_electric_bicycle</t>
+          <t>general_modes_used_visitor_bicycle_electric_bikeshare</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>True if the visitor used their personal electric bicycle during their visit to the San Diego Region</t>
+          <t>True if the visitor used an electric bicycle through a bikeshare service during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4313,7 +4313,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_bicycle_personal_non_electric_bicycle</t>
+          <t>general_modes_used_visitor_bicycle_non_electric_bikeshare</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>True if the visitor used their personal non-electric bicycle during their visit to the San Diego Region</t>
+          <t>True if the visitor used a non-electric bicycle through a bikeshare service during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4340,7 +4340,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_e_scooter_shared</t>
+          <t>general_modes_used_visitor_bicycle_personal_electric_bicycle</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4355,7 +4355,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>True if the visitor used a shared e-scooter during their visit to the San Diego Region</t>
+          <t>True if the visitor used their personal electric bicycle during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -4367,7 +4367,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_e_scooter_personal</t>
+          <t>general_modes_used_visitor_bicycle_personal_non_electric_bicycle</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4382,7 +4382,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>True if the visitor used their personal e-scooter during their visit to the San Diego Region</t>
+          <t>True if the visitor used their personal non-electric bicycle during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -4394,22 +4394,22 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>non_sdia_flight_frequency</t>
+          <t>general_modes_used_visitor_e_scooter_shared</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>OtherFlightAndTransitUseFrequency</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Respondent's number of flights from airport other than SDIA in the past 12 months</t>
+          <t>True if the visitor used a shared e-scooter during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -4421,22 +4421,22 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>other_airport_accessmode</t>
+          <t>general_modes_used_visitor_e_scooter_personal</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>TravelMode</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Travel mode used to access other airports</t>
+          <t>True if the visitor used their personal e-scooter during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -4448,7 +4448,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>airport_access_transit_use_elsewhere</t>
+          <t>non_sdia_flight_frequency</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -4463,7 +4463,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Frequency of Transit use by respondent to access other airports</t>
+          <t>Respondent's number of flights from airport other than SDIA in the past 12 months</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -4475,22 +4475,22 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>airportaccesstransitname</t>
+          <t>other_airport_accessmode</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>TravelMode</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Names of airports accessed by transit</t>
+          <t>Travel mode used to access other airports</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -4502,206 +4502,206 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
+          <t>airport_access_transit_use_elsewhere</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>OtherFlightAndTransitUseFrequency</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Frequency of Transit use by respondent to access other airports</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>AirPassenger</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>airportaccesstransitname</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Actual Value</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Names of airports accessed by transit</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>AirPassenger</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
           <t>airport_terminal</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="B154" t="inlineStr">
         <is>
           <t>Computed</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>Computed Value</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="D154" t="inlineStr">
         <is>
           <t xml:space="preserve">
         Airport Terminal for Air Passenger
         </t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>AirPassenger</t>
         </is>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
+    <row r="155">
+      <c r="A155" t="inlineStr">
         <is>
           <t>is_final_destination</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>Computed</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>Computed Value</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t xml:space="preserve">
         True if the next flight destination is final and not a layover
         </t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>AirPassenger</t>
         </is>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
+    <row r="156">
+      <c r="A156" t="inlineStr">
         <is>
           <t>is_original_origin</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B156" t="inlineStr">
         <is>
           <t>Computed</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C156" t="inlineStr">
         <is>
           <t>Computed Value</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="D156" t="inlineStr">
         <is>
           <t xml:space="preserve">
         True if the previous flight origin was original and not a layover
         </t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>AirPassenger</t>
         </is>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
+    <row r="157">
+      <c r="A157" t="inlineStr">
         <is>
           <t>next_flight_destination</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="B157" t="inlineStr">
         <is>
           <t>Computed</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="C157" t="inlineStr">
         <is>
           <t>Computed Value</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="D157" t="inlineStr">
         <is>
           <t xml:space="preserve">
         Next Flight Destination for a departing passenger
         </t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>AirPassenger</t>
         </is>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
+    <row r="158">
+      <c r="A158" t="inlineStr">
         <is>
           <t>previous_flight_origin</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>Computed</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>Computed Value</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="D158" t="inlineStr">
         <is>
           <t xml:space="preserve">
         Previous flight origin for an arriving passenger
         </t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>AirPassenger</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>shift_start_airport_building</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>SanBuildings</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Name of building where employee starts their shift</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>Employee</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>shift_start_airport_building_other</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Actual Value</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Name of building (not listed) where employee starts their shift</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>Employee</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>employer</t>
+          <t>shift_start_airport_building</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -4711,12 +4711,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Employers</t>
+          <t>SanBuildings</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Name of respondent's employer</t>
+          <t>Name of building where employee starts their shift</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -4728,7 +4728,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>employer_other</t>
+          <t>shift_start_airport_building_other</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Name (not listed) of respondent's employer</t>
+          <t>Name of building (not listed) where employee starts their shift</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -4755,7 +4755,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>occupation</t>
+          <t>employer</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -4765,12 +4765,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Occupations</t>
+          <t>Employers</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Occupation of the employee</t>
+          <t>Name of respondent's employer</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -4782,7 +4782,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>occupation_other</t>
+          <t>employer_other</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4797,7 +4797,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Occupation (other, not listed) of the employee</t>
+          <t>Name (not listed) of respondent's employer</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -4809,7 +4809,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>number_hours_worked</t>
+          <t>occupation</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -4819,12 +4819,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>HoursWorked</t>
+          <t>Occupations</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Number of hours respondent worked in the past 7 days</t>
+          <t>Occupation of the employee</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -4836,22 +4836,22 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>number_commute_days</t>
+          <t>occupation_other</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>CommuteDays</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Number of days respondent commuted to the airport in the past 7 days</t>
+          <t>Occupation (other, not listed) of the employee</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -4863,7 +4863,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>shift_start_time</t>
+          <t>number_hours_worked</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -4873,12 +4873,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>DepartTime</t>
+          <t>HoursWorked</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Time when the employee's shift starts</t>
+          <t>Number of hours respondent worked in the past 7 days</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -4890,7 +4890,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>shift_end_time</t>
+          <t>number_commute_days</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -4900,12 +4900,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>DepartTime</t>
+          <t>CommuteDays</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Time when the employee's shift ends</t>
+          <t>Number of days respondent commuted to the airport in the past 7 days</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -4917,7 +4917,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>reverse_commute_mode</t>
+          <t>shift_start_time</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4927,12 +4927,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>TravelMode</t>
+          <t>DepartTime</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Reverse commute mode for the employee</t>
+          <t>Time when the employee's shift starts</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -4944,22 +4944,22 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>reverse_commute_mode_other</t>
+          <t>shift_end_time</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>DepartTime</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Reverse commute mode for the employee (other, not listed)</t>
+          <t>Time when the employee's shift ends</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -4971,7 +4971,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>same_commute_mode</t>
+          <t>reverse_commute_mode</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4981,12 +4981,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>YesNoType</t>
+          <t>TravelMode</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>True if the employee always used the same travel mode to commute in the last 30 days</t>
+          <t>Reverse commute mode for the employee</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -4998,7 +4998,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>same_commute_mode_other</t>
+          <t>reverse_commute_mode_other</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5013,7 +5013,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Other Response to employee's travel mode to commute in the last 30 days</t>
+          <t>Reverse commute mode for the employee (other, not listed)</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5025,22 +5025,22 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>alt_commute_mode_taxi</t>
+          <t>same_commute_mode</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>YesNoType</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>True if the employee used Taxi as a mode to commute to the airport in the past 30 days</t>
+          <t>True if the employee always used the same travel mode to commute in the last 30 days</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -5052,12 +5052,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>alt_commute_mode_uber_lyft</t>
+          <t>same_commute_mode_other</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5067,7 +5067,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>True if the employee used Uber or Lyft as a mode to commute to the airport in the past 30 days</t>
+          <t>Other Response to employee's travel mode to commute in the last 30 days</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -5079,7 +5079,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>alt_commute_mode_car_black</t>
+          <t>alt_commute_mode_taxi</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5094,7 +5094,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>True if the employee used a black car service as a mode to commute to the airport in the past 30 days</t>
+          <t>True if the employee used Taxi as a mode to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -5106,7 +5106,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>alt_commute_mode_picked_by_family_friend</t>
+          <t>alt_commute_mode_uber_lyft</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5121,7 +5121,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>True if the employee was picked up by a family member or friend to commute to the airport in the past 30 days</t>
+          <t>True if the employee used Uber or Lyft as a mode to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -5133,7 +5133,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>alt_commute_mode_parked_vehicle_and_drive_alone</t>
+          <t>alt_commute_mode_car_black</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5148,7 +5148,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>True if the employee drove alone and parked their vehicle while commuting to the airport in the past 30 days</t>
+          <t>True if the employee used a black car service as a mode to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -5160,7 +5160,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>alt_commute_mode_parked_vehicle_and_drive_with_others</t>
+          <t>alt_commute_mode_picked_by_family_friend</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>True if the employee drove with others and parked their vehicle while commuting to the airport in the past 30 days</t>
+          <t>True if the employee was picked up by a family member or friend to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -5187,7 +5187,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>alt_commute_mode_parked_vehicle_and_ride_with_other_travelers</t>
+          <t>alt_commute_mode_parked_vehicle_and_drive_alone</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>True if the employee rode with other travelers and parked their vehicle while commuting to the airport in the past 30 days</t>
+          <t>True if the employee drove alone and parked their vehicle while commuting to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -5214,7 +5214,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>alt_commute_mode_mts_route_992</t>
+          <t>alt_commute_mode_parked_vehicle_and_drive_with_others</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>True if the employee used MTS Route 992 to commute to the airport in the past 30 days</t>
+          <t>True if the employee drove with others and parked their vehicle while commuting to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -5241,7 +5241,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>alt_commute_mode_airport_flyer_shuttle</t>
+          <t>alt_commute_mode_parked_vehicle_and_ride_with_other_travelers</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>True if the employee used the Airport Flyer Shuttle to commute to the airport in the past 30 days</t>
+          <t>True if the employee rode with other travelers and parked their vehicle while commuting to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -5268,7 +5268,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>alt_commute_mode_other_public_transit</t>
+          <t>alt_commute_mode_mts_route_992</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -5283,7 +5283,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>True if the employee used other public transit services to commute to the airport in the past 30 days</t>
+          <t>True if the employee used MTS Route 992 to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -5295,7 +5295,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>alt_commute_mode_other_shared_van</t>
+          <t>alt_commute_mode_airport_flyer_shuttle</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -5310,7 +5310,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>True if the employee used another type of shared van service to commute to the airport in the past 30 days</t>
+          <t>True if the employee used the Airport Flyer Shuttle to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -5322,7 +5322,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>alt_commute_mode_walk</t>
+          <t>alt_commute_mode_other_public_transit</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>True if the employee walked as a mode to commute to the airport in the past 30 days</t>
+          <t>True if the employee used other public transit services to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -5349,7 +5349,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>alt_commute_mode_wheelchair</t>
+          <t>alt_commute_mode_other_shared_van</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>True if the employee used a wheelchair to commute to the airport in the past 30 days</t>
+          <t>True if the employee used another type of shared van service to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -5376,7 +5376,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>alt_commute_mode_bicycle_electric_bikeshare</t>
+          <t>alt_commute_mode_walk</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -5391,7 +5391,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>True if the employee used an electric bicycle through a bikeshare service to commute to the airport in the past 30 days</t>
+          <t>True if the employee walked as a mode to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -5403,7 +5403,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>alt_commute_mode_bicycle_non_electric_bikeshare</t>
+          <t>alt_commute_mode_wheelchair</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>True if the employee used a non-electric bicycle through a bikeshare service to commute to the airport in the past 30 days</t>
+          <t>True if the employee used a wheelchair to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -5430,7 +5430,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>alt_commute_mode_bicycle_personal_electric_bicycle</t>
+          <t>alt_commute_mode_bicycle_electric_bikeshare</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>True if the employee used their personal electric bicycle to commute to the airport in the past 30 days</t>
+          <t>True if the employee used an electric bicycle through a bikeshare service to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -5457,7 +5457,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>alt_commute_mode_bicycle_personal_non_electric_bicycle</t>
+          <t>alt_commute_mode_bicycle_non_electric_bikeshare</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -5472,7 +5472,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>True if the employee used their personal non-electric bicycle to commute to the airport in the past 30 days</t>
+          <t>True if the employee used a non-electric bicycle through a bikeshare service to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -5484,7 +5484,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>alt_commute_mode_e_scooter_shared</t>
+          <t>alt_commute_mode_bicycle_personal_electric_bicycle</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -5499,7 +5499,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>True if the employee used a shared e-scooter to commute to the airport in the past 30 days</t>
+          <t>True if the employee used their personal electric bicycle to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -5511,7 +5511,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>alt_commute_mode_e_scooter_personal</t>
+          <t>alt_commute_mode_bicycle_personal_non_electric_bicycle</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -5526,7 +5526,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>True if the employee used their personal e-scooter to commute to the airport in the past 30 days</t>
+          <t>True if the employee used their personal non-electric bicycle to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -5538,22 +5538,22 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>commute_mode_decision</t>
+          <t>alt_commute_mode_e_scooter_shared</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ModeDecision</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Factor affecting the Mode choice of the employee</t>
+          <t>True if the employee used a shared e-scooter to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -5565,12 +5565,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>commute_mode_decision_other</t>
+          <t>alt_commute_mode_e_scooter_personal</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -5580,7 +5580,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>(Other) Factor affecting the Mode choice of the employee</t>
+          <t>True if the employee used their personal e-scooter to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -5592,22 +5592,22 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>employee_parking</t>
+          <t>commute_mode_decision</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>ModeDecision</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Whether the respondent has access to employee parking</t>
+          <t>Factor affecting the Mode choice of the employee</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -5619,76 +5619,76 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>inbound_or_outbound</t>
+          <t>commute_mode_decision_other</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>InboundOutbound</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Whether the trip is inbound to the airport or outbound from the airport</t>
+          <t>(Other) Factor affecting the Mode choice of the employee</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Employee</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>origin_activity_type</t>
+          <t>employee_parking</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>ActivityType</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Activity type at the origin of the trip to the airport</t>
+          <t>Whether the respondent has access to employee parking</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Employee</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>origin_activity_type_other</t>
+          <t>inbound_or_outbound</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>InboundOutbound</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Activity type at the origin of the trip to the airport</t>
+          <t>Whether the trip is inbound to the airport or outbound from the airport</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -5700,22 +5700,22 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>origin_name</t>
+          <t>origin_activity_type</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>ActivityType</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Place name of the origin of the trip to the airport</t>
+          <t>Activity type at the origin of the trip to the airport</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -5727,7 +5727,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>origin_city</t>
+          <t>origin_activity_type_other</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>City of the origin address for the trip to the airport</t>
+          <t>Activity type at the origin of the trip to the airport</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -5754,7 +5754,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>origin_state</t>
+          <t>origin_name</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -5769,7 +5769,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>State of the origin address for the trip to the airport</t>
+          <t>Place name of the origin of the trip to the airport</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -5781,7 +5781,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>origin_zip</t>
+          <t>origin_city</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>ZIP code of the origin address for the trip to the airport</t>
+          <t>City of the origin address for the trip to the airport</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -5808,12 +5808,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>origin_latitude</t>
+          <t>origin_state</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Latitude coordinate of the origin address for the trip to the airport</t>
+          <t>State of the origin address for the trip to the airport</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -5835,12 +5835,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>origin_longitude</t>
+          <t>origin_zip</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -5850,7 +5850,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Longitude coordinate of the origin address for the trip to the airport</t>
+          <t>ZIP code of the origin address for the trip to the airport</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -5862,22 +5862,22 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>destination_activity_type</t>
+          <t>origin_latitude</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>ActivityType</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Activity type at the destination of the trip from the airport</t>
+          <t>Latitude coordinate of the origin address for the trip to the airport</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -5889,12 +5889,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>destination_activity_type_other</t>
+          <t>origin_longitude</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -5904,7 +5904,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Activity type (other) at the destination of the trip from the airport</t>
+          <t>Longitude coordinate of the origin address for the trip to the airport</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -5916,22 +5916,22 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>destination_name</t>
+          <t>destination_activity_type</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>ActivityType</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Place name of the destination from the airport</t>
+          <t>Activity type at the destination of the trip from the airport</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -5943,7 +5943,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>destination_city</t>
+          <t>destination_activity_type_other</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -5958,7 +5958,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>City of the destination address from the airport</t>
+          <t>Activity type (other) at the destination of the trip from the airport</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -5970,7 +5970,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>destination_state</t>
+          <t>destination_name</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -5985,7 +5985,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>State of the destination address from the airport</t>
+          <t>Place name of the destination from the airport</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -5997,7 +5997,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>destination_zip</t>
+          <t>destination_city</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -6012,7 +6012,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>ZIP code of the destination address from the airport</t>
+          <t>City of the destination address from the airport</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -6024,12 +6024,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>destination_latitude</t>
+          <t>destination_state</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -6039,7 +6039,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Latitude coordinate of the destination address from the airport</t>
+          <t>State of the destination address from the airport</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -6051,12 +6051,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>destination_longitude</t>
+          <t>destination_zip</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -6066,7 +6066,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Longitude coordinate of the destination address from the airport</t>
+          <t>ZIP code of the destination address from the airport</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -6078,22 +6078,22 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>main_transit_mode</t>
+          <t>destination_latitude</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>TravelMode</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Main Transit mode to/from airport</t>
+          <t>Latitude coordinate of the destination address from the airport</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -6105,22 +6105,22 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>main_mode</t>
+          <t>destination_longitude</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>TravelMode</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Main Mode to/from airport</t>
+          <t>Longitude coordinate of the destination address from the airport</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -6132,22 +6132,22 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>main_mode_other</t>
+          <t>main_transit_mode</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>TravelMode</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Name of the other Main Mode to/from airport</t>
+          <t>Main Transit mode to/from airport</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -6159,22 +6159,22 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>shared_van_other</t>
+          <t>main_mode</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>TravelMode</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Name of the other shared van service used by respondent</t>
+          <t>Main Mode to/from airport</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -6186,22 +6186,22 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>trip_start_time</t>
+          <t>main_mode_other</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>DepartTime</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Start time of the trip</t>
+          <t>Name of the other Main Mode to/from airport</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -6213,22 +6213,22 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>trip_arrival_time</t>
+          <t>shared_van_other</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>DepartTime</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Arrival time of the trip</t>
+          <t>Name of the other shared van service used by respondent</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -6240,7 +6240,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>number_transit_vehicles_to_airport</t>
+          <t>trip_start_time</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -6250,12 +6250,12 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>NumTransfers</t>
+          <t>DepartTime</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Number of transit transfers for the inbound trip to the airport</t>
+          <t>Start time of the trip</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -6267,22 +6267,22 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>to_airport_transit_route_1</t>
+          <t>trip_arrival_time</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>DepartTime</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Name of the First Transit Route to the airport</t>
+          <t>Arrival time of the trip</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -6294,22 +6294,22 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>to_airport_transit_route_1_other</t>
+          <t>number_transit_vehicles_to_airport</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>NumTransfers</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Other First Transit Route to the airport</t>
+          <t>Number of transit transfers for the inbound trip to the airport</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -6321,7 +6321,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>to_airport_transit_route_2</t>
+          <t>to_airport_transit_route_1</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -6336,7 +6336,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Name of the Second Transit Route to the airport</t>
+          <t>Name of the First Transit Route to the airport</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -6348,7 +6348,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>to_airport_transit_route_2_other</t>
+          <t>to_airport_transit_route_1_other</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -6363,7 +6363,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Other Second Transit Route to the airport</t>
+          <t>Other First Transit Route to the airport</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -6375,7 +6375,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>to_airport_transit_route_3</t>
+          <t>to_airport_transit_route_2</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Name of the Third Transit Route to the airport</t>
+          <t>Name of the Second Transit Route to the airport</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -6402,7 +6402,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>to_airport_transit_route_3_other</t>
+          <t>to_airport_transit_route_2_other</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -6417,7 +6417,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Other Third Transit Route to the airport</t>
+          <t>Other Second Transit Route to the airport</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -6429,7 +6429,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>to_airport_transit_route_4</t>
+          <t>to_airport_transit_route_3</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -6444,7 +6444,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Name of the Fourth Transit Route to the airport</t>
+          <t>Name of the Third Transit Route to the airport</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -6456,7 +6456,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>to_airport_transit_route_4_other</t>
+          <t>to_airport_transit_route_3_other</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -6471,7 +6471,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Other Fourth Transit Route to the airport</t>
+          <t>Other Third Transit Route to the airport</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -6483,22 +6483,22 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>access_mode</t>
+          <t>to_airport_transit_route_4</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>TravelMode</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Access mode to first transit vehicle for inbound trip to the airport</t>
+          <t>Name of the Fourth Transit Route to the airport</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -6510,7 +6510,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>access_mode_other</t>
+          <t>to_airport_transit_route_4_other</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -6525,7 +6525,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Other Access mode to first transit vehicle for inbound trip to the airport</t>
+          <t>Other Fourth Transit Route to the airport</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -6537,22 +6537,22 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>taxi_fhv_fare</t>
+          <t>access_mode</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>TravelMode</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Taxi or for-hire vehicle fare</t>
+          <t>Access mode to first transit vehicle for inbound trip to the airport</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -6564,7 +6564,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>taxi_fhv_wait</t>
+          <t>access_mode_other</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -6579,7 +6579,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Wait time for taxi or for-hire vehicle</t>
+          <t>Other Access mode to first transit vehicle for inbound trip to the airport</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -6591,22 +6591,22 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>parking_location</t>
+          <t>taxi_fhv_fare</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>ParkingLocation</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t xml:space="preserve">Name of respondent's parking location. </t>
+          <t>Taxi or for-hire vehicle fare</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -6618,7 +6618,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>parking_location_other</t>
+          <t>taxi_fhv_wait</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t xml:space="preserve">Name of respondent's (other) parking location. </t>
+          <t>Wait time for taxi or for-hire vehicle</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -6645,22 +6645,22 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>parking_cost</t>
+          <t>parking_location</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>ParkingLocation</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Amount respondent paid to park</t>
+          <t xml:space="preserve">Name of respondent's parking location. </t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -6672,22 +6672,22 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>parking_cost_frequency</t>
+          <t>parking_location_other</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>ParkingCostFrequency</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Frequency of reported parking cost (e.g., one-time, per hour, per day, per month)</t>
+          <t xml:space="preserve">Name of respondent's (other) parking location. </t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -6699,7 +6699,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>parking_cost_frequency_other</t>
+          <t>parking_cost</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -6714,7 +6714,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Other frequency of reported parking cost</t>
+          <t>Amount respondent paid to park</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -6726,7 +6726,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>reimbursement</t>
+          <t>parking_cost_frequency</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -6736,12 +6736,12 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>ParkingReimbursement</t>
+          <t>ParkingCostFrequency</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Whether or not ground access cost will be reimbursed by employer or other non-household member</t>
+          <t>Frequency of reported parking cost (e.g., one-time, per hour, per day, per month)</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -6753,22 +6753,22 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>number_transit_vehicles_from_airport</t>
+          <t>parking_cost_frequency_other</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>NumTransfers</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Number of transit transfers for the inbound trip</t>
+          <t>Other frequency of reported parking cost</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -6780,22 +6780,22 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>from_airport_transit_route_1</t>
+          <t>reimbursement</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>ParkingReimbursement</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Name of the First Transit Route from the airport</t>
+          <t>Whether or not ground access cost will be reimbursed by employer or other non-household member</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -6807,22 +6807,22 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>from_airport_transit_route_1_other</t>
+          <t>number_transit_vehicles_from_airport</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>NumTransfers</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Other First Transit Route from the airport</t>
+          <t>Number of transit transfers for the inbound trip</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -6834,7 +6834,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>from_airport_transit_route_2</t>
+          <t>from_airport_transit_route_1</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -6849,7 +6849,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Name of the Second Transit Route from the airport</t>
+          <t>Name of the First Transit Route from the airport</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -6861,7 +6861,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>from_airport_transit_route_2_other</t>
+          <t>from_airport_transit_route_1_other</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -6876,7 +6876,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Other Second Transit Route from the airport</t>
+          <t>Other First Transit Route from the airport</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -6888,7 +6888,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>from_airport_transit_route_3</t>
+          <t>from_airport_transit_route_2</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -6903,7 +6903,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Name of the Third Transit Route from the airport</t>
+          <t>Name of the Second Transit Route from the airport</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -6915,7 +6915,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>from_airport_transit_route_3_other</t>
+          <t>from_airport_transit_route_2_other</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -6930,7 +6930,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Other Third Transit Route from the airport</t>
+          <t>Other Second Transit Route from the airport</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -6942,7 +6942,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>from_airport_transit_route_4</t>
+          <t>from_airport_transit_route_3</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Name of the Fourth Transit Route from the airport</t>
+          <t>Name of the Third Transit Route from the airport</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -6969,7 +6969,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>from_airport_transit_route_4_other</t>
+          <t>from_airport_transit_route_3_other</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Other Fourth Transit Route from the airport</t>
+          <t>Other Third Transit Route from the airport</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -6996,22 +6996,22 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>egress_mode</t>
+          <t>from_airport_transit_route_4</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>TravelMode</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Egress mode from last transit vehicle for outbound trip</t>
+          <t>Name of the Fourth Transit Route from the airport</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -7023,7 +7023,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>egress_mode_other</t>
+          <t>from_airport_transit_route_4_other</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Other Egress mode from last transit vehicle for outbound trip</t>
+          <t>Other Fourth Transit Route from the airport</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -7050,22 +7050,22 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>transit_boarding_stop_name</t>
+          <t>egress_mode</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>TravelMode</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Name of the stop where respondent boarded the main transit mode</t>
+          <t>Egress mode from last transit vehicle for outbound trip</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -7077,12 +7077,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>transit_boarding_latitude</t>
+          <t>egress_mode_other</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Latitude of the stop where respondent boarded the main transit mode</t>
+          <t>Other Egress mode from last transit vehicle for outbound trip</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -7104,12 +7104,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>transit_boarding_longitude</t>
+          <t>transit_boarding_stop_name</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -7119,7 +7119,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Longitude of the stop where respondent boarded the main transit mode</t>
+          <t>Name of the stop where respondent boarded the main transit mode</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -7131,12 +7131,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>transit_alighting_stop_name</t>
+          <t>transit_boarding_latitude</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -7146,7 +7146,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Name of the stop where respondent got off the main transit mode</t>
+          <t>Latitude of the stop where respondent boarded the main transit mode</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -7158,12 +7158,12 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>transit_alighting_latitude</t>
+          <t>transit_boarding_longitude</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Latitude of the stop where respondent got off the main transit mode</t>
+          <t>Longitude of the stop where respondent boarded the main transit mode</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -7185,12 +7185,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>transit_alighting_longitude</t>
+          <t>transit_alighting_stop_name</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -7200,7 +7200,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Longitude of the stop where respondent got off the main transit mode</t>
+          <t>Name of the stop where respondent got off the main transit mode</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -7212,22 +7212,22 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>car_available</t>
+          <t>transit_alighting_latitude</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>CarAvailability</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Status of car availability for the trip to the airport</t>
+          <t>Latitude of the stop where respondent got off the main transit mode</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -7239,12 +7239,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>car_available_other</t>
+          <t>transit_alighting_longitude</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -7254,7 +7254,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Status of car availability (other than listed) for the trip to the airport</t>
+          <t>Longitude of the stop where respondent got off the main transit mode</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -7266,114 +7266,168 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
+          <t>car_available</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>CarAvailability</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Status of car availability for the trip to the airport</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>car_available_other</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Actual Value</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Status of car availability (other than listed) for the trip to the airport</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
           <t>non_airport_activity_type</t>
         </is>
       </c>
-      <c r="B254" t="inlineStr">
+      <c r="B256" t="inlineStr">
         <is>
           <t>Computed</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
+      <c r="C256" t="inlineStr">
         <is>
           <t>Computed Value</t>
         </is>
       </c>
-      <c r="D254" t="inlineStr">
+      <c r="D256" t="inlineStr">
         <is>
           <t xml:space="preserve">
         Activity type prior to traveling to the airport (for inbound) or activity traveling to do next (for outbound).
         </t>
         </is>
       </c>
-      <c r="E254" t="inlineStr">
+      <c r="E256" t="inlineStr">
         <is>
           <t>Trip</t>
         </is>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
+    <row r="257">
+      <c r="A257" t="inlineStr">
         <is>
           <t>parking_cost_numeric</t>
         </is>
       </c>
-      <c r="B255" t="inlineStr">
+      <c r="B257" t="inlineStr">
         <is>
           <t>Computed</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr">
+      <c r="C257" t="inlineStr">
         <is>
           <t>Computed Value</t>
         </is>
       </c>
-      <c r="D255" t="inlineStr">
+      <c r="D257" t="inlineStr">
         <is>
           <t xml:space="preserve">
         Numeric Value of parking cost
         </t>
         </is>
       </c>
-      <c r="E255" t="inlineStr">
+      <c r="E257" t="inlineStr">
         <is>
           <t>Trip</t>
         </is>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
+    <row r="258">
+      <c r="A258" t="inlineStr">
         <is>
           <t>taxi_fhv_fare_numeric</t>
         </is>
       </c>
-      <c r="B256" t="inlineStr">
+      <c r="B258" t="inlineStr">
         <is>
           <t>Computed</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
+      <c r="C258" t="inlineStr">
         <is>
           <t>Computed Value</t>
         </is>
       </c>
-      <c r="D256" t="inlineStr">
+      <c r="D258" t="inlineStr">
         <is>
           <t xml:space="preserve">
         Numeric Value of Taxi Fare
         </t>
         </is>
       </c>
-      <c r="E256" t="inlineStr">
+      <c r="E258" t="inlineStr">
         <is>
           <t>Trip</t>
         </is>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
+    <row r="259">
+      <c r="A259" t="inlineStr">
         <is>
           <t>taxi_fhv_wait_numeric</t>
         </is>
       </c>
-      <c r="B257" t="inlineStr">
+      <c r="B259" t="inlineStr">
         <is>
           <t>Computed</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr">
+      <c r="C259" t="inlineStr">
         <is>
           <t>Computed Value</t>
         </is>
       </c>
-      <c r="D257" t="inlineStr">
+      <c r="D259" t="inlineStr">
         <is>
           <t xml:space="preserve">
         Numeric Value of Taxi Wait Time
         </t>
         </is>
       </c>
-      <c r="E257" t="inlineStr">
+      <c r="E259" t="inlineStr">
         <is>
           <t>Trip</t>
         </is>
@@ -7390,7 +7444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C808"/>
+  <dimension ref="A1:C809"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18421,11 +18475,11 @@
         </is>
       </c>
       <c r="B770" t="n">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>SAN_DIEGO_AIRPORT</t>
         </is>
       </c>
     </row>
@@ -18436,26 +18490,26 @@
         </is>
       </c>
       <c r="B771" t="n">
+        <v>98</v>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>ActivityType</t>
+        </is>
+      </c>
+      <c r="B772" t="n">
         <v>99</v>
       </c>
-      <c r="C771" t="inlineStr">
+      <c r="C772" t="inlineStr">
         <is>
           <t>REFUSED</t>
-        </is>
-      </c>
-    </row>
-    <row r="773">
-      <c r="A773" t="inlineStr">
-        <is>
-          <t>NumTransfers</t>
-        </is>
-      </c>
-      <c r="B773" t="n">
-        <v>0</v>
-      </c>
-      <c r="C773" t="inlineStr">
-        <is>
-          <t>NONE</t>
         </is>
       </c>
     </row>
@@ -18466,11 +18520,11 @@
         </is>
       </c>
       <c r="B774" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>ONE</t>
+          <t>NONE</t>
         </is>
       </c>
     </row>
@@ -18481,11 +18535,11 @@
         </is>
       </c>
       <c r="B775" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C775" t="inlineStr">
         <is>
-          <t>TWO</t>
+          <t>ONE</t>
         </is>
       </c>
     </row>
@@ -18496,11 +18550,11 @@
         </is>
       </c>
       <c r="B776" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C776" t="inlineStr">
         <is>
-          <t>THREE</t>
+          <t>TWO</t>
         </is>
       </c>
     </row>
@@ -18511,11 +18565,11 @@
         </is>
       </c>
       <c r="B777" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>FOUR_OR_MORE</t>
+          <t>THREE</t>
         </is>
       </c>
     </row>
@@ -18526,11 +18580,11 @@
         </is>
       </c>
       <c r="B778" t="n">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="C778" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>FOUR_OR_MORE</t>
         </is>
       </c>
     </row>
@@ -18541,26 +18595,26 @@
         </is>
       </c>
       <c r="B779" t="n">
+        <v>98</v>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>NumTransfers</t>
+        </is>
+      </c>
+      <c r="B780" t="n">
         <v>99</v>
       </c>
-      <c r="C779" t="inlineStr">
+      <c r="C780" t="inlineStr">
         <is>
           <t>REFUSED</t>
-        </is>
-      </c>
-    </row>
-    <row r="781">
-      <c r="A781" t="inlineStr">
-        <is>
-          <t>ParkingLocation</t>
-        </is>
-      </c>
-      <c r="B781" t="n">
-        <v>1</v>
-      </c>
-      <c r="C781" t="inlineStr">
-        <is>
-          <t>TERM1_PARKING_PLAZA</t>
         </is>
       </c>
     </row>
@@ -18571,11 +18625,11 @@
         </is>
       </c>
       <c r="B782" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C782" t="inlineStr">
         <is>
-          <t>TERM2_PARKING_PLAZA</t>
+          <t>TERM1_PARKING_PLAZA</t>
         </is>
       </c>
     </row>
@@ -18586,11 +18640,11 @@
         </is>
       </c>
       <c r="B783" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>TERM1_CURBSIDE_VALET</t>
+          <t>TERM2_PARKING_PLAZA</t>
         </is>
       </c>
     </row>
@@ -18601,11 +18655,11 @@
         </is>
       </c>
       <c r="B784" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>TERM2_CURBSIDE_VALET</t>
+          <t>TERM1_CURBSIDE_VALET</t>
         </is>
       </c>
     </row>
@@ -18616,11 +18670,11 @@
         </is>
       </c>
       <c r="B785" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t>OFF_AIRPORT_PARKING</t>
+          <t>TERM2_CURBSIDE_VALET</t>
         </is>
       </c>
     </row>
@@ -18631,11 +18685,11 @@
         </is>
       </c>
       <c r="B786" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>EMPLOYEE_LOT_3665_ADMIRAL_BOLAND_WAY</t>
+          <t>OFF_AIRPORT_PARKING</t>
         </is>
       </c>
     </row>
@@ -18646,11 +18700,11 @@
         </is>
       </c>
       <c r="B787" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>ADMIN_BUILDING_LOT_2417_MCCAIN_ROAD</t>
+          <t>EMPLOYEE_LOT_3665_ADMIRAL_BOLAND_WAY</t>
         </is>
       </c>
     </row>
@@ -18661,11 +18715,11 @@
         </is>
       </c>
       <c r="B788" t="n">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="C788" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>ADMIN_BUILDING_LOT_2417_MCCAIN_ROAD</t>
         </is>
       </c>
     </row>
@@ -18676,26 +18730,26 @@
         </is>
       </c>
       <c r="B789" t="n">
+        <v>98</v>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>ParkingLocation</t>
+        </is>
+      </c>
+      <c r="B790" t="n">
         <v>99</v>
       </c>
-      <c r="C789" t="inlineStr">
+      <c r="C790" t="inlineStr">
         <is>
           <t>REFUSED</t>
-        </is>
-      </c>
-    </row>
-    <row r="791">
-      <c r="A791" t="inlineStr">
-        <is>
-          <t>ParkingCostFrequency</t>
-        </is>
-      </c>
-      <c r="B791" t="n">
-        <v>1</v>
-      </c>
-      <c r="C791" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
         </is>
       </c>
     </row>
@@ -18706,11 +18760,11 @@
         </is>
       </c>
       <c r="B792" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C792" t="inlineStr">
         <is>
-          <t>MONTHLY</t>
+          <t>TOTAL</t>
         </is>
       </c>
     </row>
@@ -18721,11 +18775,11 @@
         </is>
       </c>
       <c r="B793" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>DAILY</t>
+          <t>MONTHLY</t>
         </is>
       </c>
     </row>
@@ -18736,11 +18790,11 @@
         </is>
       </c>
       <c r="B794" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t>HOURLY</t>
+          <t>DAILY</t>
         </is>
       </c>
     </row>
@@ -18751,11 +18805,11 @@
         </is>
       </c>
       <c r="B795" t="n">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="C795" t="inlineStr">
         <is>
-          <t>OTHER_SEPCIFY</t>
+          <t>HOURLY</t>
         </is>
       </c>
     </row>
@@ -18766,26 +18820,26 @@
         </is>
       </c>
       <c r="B796" t="n">
+        <v>98</v>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>OTHER_SEPCIFY</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>ParkingCostFrequency</t>
+        </is>
+      </c>
+      <c r="B797" t="n">
         <v>99</v>
       </c>
-      <c r="C796" t="inlineStr">
+      <c r="C797" t="inlineStr">
         <is>
           <t>REFUSED</t>
-        </is>
-      </c>
-    </row>
-    <row r="798">
-      <c r="A798" t="inlineStr">
-        <is>
-          <t>ParkingReimbursement</t>
-        </is>
-      </c>
-      <c r="B798" t="n">
-        <v>1</v>
-      </c>
-      <c r="C798" t="inlineStr">
-        <is>
-          <t>REIMBURSED_EMPLOYER_CLIENT</t>
         </is>
       </c>
     </row>
@@ -18796,11 +18850,11 @@
         </is>
       </c>
       <c r="B799" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>REIMBURSED_OTHER_THIRD_PARTY</t>
+          <t>REIMBURSED_EMPLOYER_CLIENT</t>
         </is>
       </c>
     </row>
@@ -18811,11 +18865,11 @@
         </is>
       </c>
       <c r="B800" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>NOT_REIMBURSED</t>
+          <t>REIMBURSED_OTHER_THIRD_PARTY</t>
         </is>
       </c>
     </row>
@@ -18826,26 +18880,26 @@
         </is>
       </c>
       <c r="B801" t="n">
+        <v>3</v>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>NOT_REIMBURSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>ParkingReimbursement</t>
+        </is>
+      </c>
+      <c r="B802" t="n">
         <v>4</v>
       </c>
-      <c r="C801" t="inlineStr">
+      <c r="C802" t="inlineStr">
         <is>
           <t>DONT_KNOW</t>
-        </is>
-      </c>
-    </row>
-    <row r="803">
-      <c r="A803" t="inlineStr">
-        <is>
-          <t>CarAvailability</t>
-        </is>
-      </c>
-      <c r="B803" t="n">
-        <v>1</v>
-      </c>
-      <c r="C803" t="inlineStr">
-        <is>
-          <t>CAR_AVAILABLE</t>
         </is>
       </c>
     </row>
@@ -18856,11 +18910,11 @@
         </is>
       </c>
       <c r="B804" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C804" t="inlineStr">
         <is>
-          <t>DONT_HAVE_CAR</t>
+          <t>CAR_AVAILABLE</t>
         </is>
       </c>
     </row>
@@ -18871,11 +18925,11 @@
         </is>
       </c>
       <c r="B805" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C805" t="inlineStr">
         <is>
-          <t>CAR_UNAVAILABLE</t>
+          <t>DONT_HAVE_CAR</t>
         </is>
       </c>
     </row>
@@ -18886,11 +18940,11 @@
         </is>
       </c>
       <c r="B806" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>DONT_DRIVE</t>
+          <t>CAR_UNAVAILABLE</t>
         </is>
       </c>
     </row>
@@ -18901,11 +18955,11 @@
         </is>
       </c>
       <c r="B807" t="n">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="C807" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>DONT_DRIVE</t>
         </is>
       </c>
     </row>
@@ -18916,9 +18970,24 @@
         </is>
       </c>
       <c r="B808" t="n">
+        <v>98</v>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>CarAvailability</t>
+        </is>
+      </c>
+      <c r="B809" t="n">
         <v>99</v>
       </c>
-      <c r="C808" t="inlineStr">
+      <c r="C809" t="inlineStr">
         <is>
           <t>REFUSED</t>
         </is>

--- a/reports/data_dictionary.xlsx
+++ b/reports/data_dictionary.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E259"/>
+  <dimension ref="A1:E260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,7 +479,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>record_type_synthetic</t>
+          <t>is_completed</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -494,7 +494,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>True if the record is synthetically generated</t>
+          <t>True if the record is complete</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -506,7 +506,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>is_completed</t>
+          <t>record_type_synthetic</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>True if the record is complete</t>
+          <t>True if the record is synthetically generated</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1667,49 +1667,49 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>passenger_type</t>
+          <t>weight</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>float</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PassengerType</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Type of Passenger: Arriving, Departing or Connecting</t>
+          <t>Expansion Factor of the observation</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>AirPassenger</t>
+          <t>All Respondents</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>previous_or_next_airport</t>
+          <t>passenger_type</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>PassengerType</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Where is the respondent flying from/flying to</t>
+          <t>Type of Passenger: Arriving, Departing or Connecting</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1721,22 +1721,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>airline</t>
+          <t>previous_or_next_airport</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Airline of the respondent's flight</t>
+          <t>Where is the respondent flying from/flying to</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1748,22 +1748,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>airline_other</t>
+          <t>airline</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Other (not listed) airline of the respondent's flight</t>
+          <t>Airline of the respondent's flight</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1775,7 +1775,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>flight_number</t>
+          <t>airline_other</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Flight number of the respondent's flight</t>
+          <t>Other (not listed) airline of the respondent's flight</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1802,12 +1802,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>not_using_connecting</t>
+          <t>flight_number</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>True if the passenger did not use/is not using any connecting flights in their journey</t>
+          <t>Flight number of the respondent's flight</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1829,12 +1829,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>final_flight_destination</t>
+          <t>not_using_connecting</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Final destination of the flight for departing passengers</t>
+          <t>True if the passenger did not use/is not using any connecting flights in their journey</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1856,22 +1856,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>flight_departure_time</t>
+          <t>final_flight_destination</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>DepartTime</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Time of flight departure</t>
+          <t>Final destination of the flight for departing passengers</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1883,7 +1883,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>flight_arrival_time</t>
+          <t>flight_departure_time</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Time of flight arrival</t>
+          <t>Time of flight departure</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1910,22 +1910,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>original_flight_origin</t>
+          <t>flight_arrival_time</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>DepartTime</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Original origin for arriving passengers</t>
+          <t>Time of flight arrival</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1937,22 +1937,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>flight_purpose</t>
+          <t>original_flight_origin</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>FlightPurpose</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Purpose of the respondent's flight</t>
+          <t>Original origin for arriving passengers</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1964,22 +1964,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>flight_purpose_other</t>
+          <t>flight_purpose</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>FlightPurpose</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Other (not listed) purpose of the respondent's flight</t>
+          <t>Purpose of the respondent's flight</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1991,22 +1991,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>convention_center</t>
+          <t>flight_purpose_other</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>YesNoType</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Whether the visitor went/going to convention center</t>
+          <t>Other (not listed) purpose of the respondent's flight</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2018,7 +2018,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>convention_center_activity</t>
+          <t>convention_center</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2028,12 +2028,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ConventionCenterActivity</t>
+          <t>YesNoType</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Type of activity that the respondent conducted at the convention center</t>
+          <t>Whether the visitor went/going to convention center</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2045,22 +2045,22 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>convention_center_activity_other</t>
+          <t>convention_center_activity</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>ConventionCenterActivity</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Type of activity (not listed) that the respondent conducted at the convention center</t>
+          <t>Type of activity that the respondent conducted at the convention center</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2072,22 +2072,22 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>checked_bags</t>
+          <t>convention_center_activity_other</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CheckedBags</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Number of checked bags</t>
+          <t>Type of activity (not listed) that the respondent conducted at the convention center</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2099,7 +2099,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>carryon_bags</t>
+          <t>checked_bags</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2109,12 +2109,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CarryOns</t>
+          <t>CheckedBags</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Number of carry-on bags</t>
+          <t>Number of checked bags</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2126,7 +2126,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>nights_away</t>
+          <t>carryon_bags</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2136,12 +2136,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>TravelDuration</t>
+          <t>CarryOns</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Number of nights the departing air passengers will be away</t>
+          <t>Number of carry-on bags</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2153,7 +2153,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>nights_visited</t>
+          <t>nights_away</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Number of nights the arriving air passengers will be in the San Diego Region</t>
+          <t>Number of nights the departing air passengers will be away</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>party_size_flight</t>
+          <t>nights_visited</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2190,12 +2190,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>PartySize</t>
+          <t>TravelDuration</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Number of people flying with the respondent (count excludes the respondent)</t>
+          <t>Number of nights the arriving air passengers will be in the San Diego Region</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2207,22 +2207,22 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>party_size_ground_access_same</t>
+          <t>party_size_flight</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>PartySize</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Whether flying party all traveled to airport together</t>
+          <t>Number of people flying with the respondent (count excludes the respondent)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2234,22 +2234,22 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>party_size_ground_access</t>
+          <t>party_size_ground_access_same</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>PartySize</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Size of ground access travel party (count excludes the respondent)</t>
+          <t>Whether flying party all traveled to airport together</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2261,22 +2261,22 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>party_includes_child_aged00to05</t>
+          <t>party_size_ground_access</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>PartySize</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>True if the traveling party includes a child aged zero to two</t>
+          <t>Size of ground access travel party (count excludes the respondent)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2288,7 +2288,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>party_includes_child_aged06to17</t>
+          <t>party_includes_child_aged00to05</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>True if the traveling party includes a child aged three to nine</t>
+          <t>True if the traveling party includes a child aged zero to two</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2315,7 +2315,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>party_includes_coworker</t>
+          <t>party_includes_child_aged06to17</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2330,7 +2330,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>True if the traveling party includes a coworker</t>
+          <t>True if the traveling party includes a child aged three to nine</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2342,7 +2342,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>party_includes_friend_relative</t>
+          <t>party_includes_coworker</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>True if the traveling party includes a friend or relative</t>
+          <t>True if the traveling party includes a coworker</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2369,7 +2369,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>party_includes_mobility_impaired</t>
+          <t>party_includes_friend_relative</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2384,7 +2384,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>True if the traveling party includes a mobility impaired person</t>
+          <t>True if the traveling party includes a friend or relative</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2396,22 +2396,22 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>sdia_flight_frequency</t>
+          <t>party_includes_mobility_impaired</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SanFlightFrequency</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Respondent's number of flights from SDIA in the past 12 months</t>
+          <t>True if the traveling party includes a mobility impaired person</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2423,7 +2423,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>sdia_previous_accessmode</t>
+          <t>sdia_flight_frequency</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Number of times respondent used revealed access modes for other SDIA airport access trips in the past 12 months</t>
+          <t>Respondent's number of flights from SDIA in the past 12 months</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2450,22 +2450,22 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_taxi</t>
+          <t>sdia_previous_accessmode</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>SanFlightFrequency</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>True if the respondent used taxi as a mode for his trip to SDIA in the last 12 months</t>
+          <t>Number of times respondent used revealed access modes for other SDIA airport access trips in the past 12 months</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2477,7 +2477,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_uber_lyft</t>
+          <t>sdia_accessmode_split_taxi</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>True if the respondent used Uber or Lyft as a mode for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used taxi as a mode for his trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2504,7 +2504,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_car_black</t>
+          <t>sdia_accessmode_split_uber_lyft</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>True if the respondent used a black car or luxury service for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used Uber or Lyft as a mode for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2531,7 +2531,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_dropped_off_by_family_friend</t>
+          <t>sdia_accessmode_split_car_black</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>True if the respondent was dropped off by a family member or friend for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used a black car or luxury service for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2558,7 +2558,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_drove_alone_and_parked</t>
+          <t>sdia_accessmode_split_dropped_off_by_family_friend</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>True if the respondent drove alone and parked at SDIA in the last 12 months</t>
+          <t>True if the respondent was dropped off by a family member or friend for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2585,7 +2585,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_drove_with_others_and_parked</t>
+          <t>sdia_accessmode_split_drove_alone_and_parked</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>True if the respondent drove with others and parked at SDIA in the last 12 months</t>
+          <t>True if the respondent drove alone and parked at SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2612,7 +2612,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_rode_with_other_travelers_and_parked</t>
+          <t>sdia_accessmode_split_drove_with_others_and_parked</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>True if the respondent rode with other travelers and parked at SDIA in the last 12 months</t>
+          <t>True if the respondent drove with others and parked at SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2639,7 +2639,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_mts992</t>
+          <t>sdia_accessmode_split_rode_with_other_travelers_and_parked</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>True if the respondent used MTS992 for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent rode with other travelers and parked at SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2666,7 +2666,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_flyer_shuttle</t>
+          <t>sdia_accessmode_split_mts992</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>True if the respondent used the Flyer Shuttle for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used MTS992 for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2693,7 +2693,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_other_public_transit</t>
+          <t>sdia_accessmode_split_flyer_shuttle</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>True if the respondent used another form of public transit for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used the Flyer Shuttle for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2720,7 +2720,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_rental_car_dropped_off</t>
+          <t>sdia_accessmode_split_other_public_transit</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>True if the respondent used a rental car and was dropped off at SDIA in the last 12 months</t>
+          <t>True if the respondent used another form of public transit for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2747,7 +2747,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_rental_car_parked</t>
+          <t>sdia_accessmode_split_rental_car_dropped_off</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>True if the respondent parked a rental car at SDIA in the last 12 months</t>
+          <t>True if the respondent used a rental car and was dropped off at SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2774,7 +2774,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_chartered_tour_bus</t>
+          <t>sdia_accessmode_split_rental_car_parked</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>True if the respondent used a chartered tour bus for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent parked a rental car at SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2801,7 +2801,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_hotel_shuttle_van</t>
+          <t>sdia_accessmode_split_chartered_tour_bus</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2816,7 +2816,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>True if the respondent used a hotel shuttle van for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used a chartered tour bus for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2828,7 +2828,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_employee_shuttle</t>
+          <t>sdia_accessmode_split_hotel_shuttle_van</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>True if the respondent used an employee shuttle for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used a hotel shuttle van for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2855,7 +2855,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_other_shared_van</t>
+          <t>sdia_accessmode_split_employee_shuttle</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2870,7 +2870,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>True if the respondent used another type of shared van service for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used an employee shuttle for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2882,7 +2882,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_walk</t>
+          <t>sdia_accessmode_split_other_shared_van</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>True if the respondent walked to SDIA in the last 12 months</t>
+          <t>True if the respondent used another type of shared van service for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2909,7 +2909,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_wheelchair</t>
+          <t>sdia_accessmode_split_walk</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>True if the respondent used a wheelchair for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent walked to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2936,7 +2936,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_bicycle_electric_bikeshare</t>
+          <t>sdia_accessmode_split_wheelchair</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2951,7 +2951,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>True if the respondent used an electric bikeshare for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used a wheelchair for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2963,7 +2963,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_bicycle_non_electric_bikeshare</t>
+          <t>sdia_accessmode_split_bicycle_electric_bikeshare</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>True if the respondent used a non-electric bikeshare for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used an electric bikeshare for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2990,7 +2990,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_bicycle_personal_electric_bicycle</t>
+          <t>sdia_accessmode_split_bicycle_non_electric_bikeshare</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3005,7 +3005,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>True if the respondent used a personal electric bicycle for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used a non-electric bikeshare for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3017,7 +3017,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_bicycle_personal_non_electric_bicycle</t>
+          <t>sdia_accessmode_split_bicycle_personal_electric_bicycle</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3032,7 +3032,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>True if the respondent used a personal non-electric bicycle for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used a personal electric bicycle for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3044,7 +3044,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_e_scooter_shared</t>
+          <t>sdia_accessmode_split_bicycle_personal_non_electric_bicycle</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>True if the respondent used a shared electric scooter for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used a personal non-electric bicycle for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3071,7 +3071,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_e_scooter_personal</t>
+          <t>sdia_accessmode_split_e_scooter_shared</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>True if the respondent used a personal electric scooter for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used a shared electric scooter for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3098,22 +3098,22 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>sdia_accessmode_decision</t>
+          <t>sdia_accessmode_split_e_scooter_personal</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>ModeDecision</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Factor which affects mode choice, for respondents who do not always used the same mode</t>
+          <t>True if the respondent used a personal electric scooter for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3125,7 +3125,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>reverse_mode</t>
+          <t>sdia_accessmode_decision</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3135,12 +3135,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>TravelMode</t>
+          <t>ModeDecision</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Mode that was used in the reverse direction</t>
+          <t>Factor which affects mode choice, for respondents who do not always used the same mode</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3152,7 +3152,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>reverse_mode_predicted</t>
+          <t>reverse_mode</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Mode that will be used in the reverse direction</t>
+          <t>Mode that was used in the reverse direction</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3179,22 +3179,22 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>reverse_mode_predicted_other</t>
+          <t>reverse_mode_predicted</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>TravelMode</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Mode (not listed) which will be used in the reverse direction</t>
+          <t>Mode that will be used in the reverse direction</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3206,22 +3206,22 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>sdia_transit_awareness</t>
+          <t>reverse_mode_predicted_other</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>YesNoType</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Whether respondent is aware that buses are serving SDIA</t>
+          <t>Mode (not listed) which will be used in the reverse direction</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3233,22 +3233,22 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>reasons_no_transit_not_convenient</t>
+          <t>sdia_transit_awareness</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>YesNoType</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it is not convenient</t>
+          <t>Whether respondent is aware that buses are serving SDIA</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3260,7 +3260,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>reasons_no_transit_too_complicated</t>
+          <t>reasons_no_transit_not_convenient</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it too complicated</t>
+          <t>True if the respondent did not use transit because it is not convenient</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3287,7 +3287,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>reasons_no_transit_dont_know_how</t>
+          <t>reasons_no_transit_too_complicated</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because they don't know how</t>
+          <t>True if the respondent did not use transit because it too complicated</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3314,7 +3314,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>reasons_no_transit_no_good_options</t>
+          <t>reasons_no_transit_dont_know_how</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3329,7 +3329,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because there are no good options</t>
+          <t>True if the respondent did not use transit because they don't know how</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3341,7 +3341,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>reasons_no_transit_not_flexible</t>
+          <t>reasons_no_transit_no_good_options</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3356,7 +3356,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it is not flexible</t>
+          <t>True if the respondent did not use transit because there are no good options</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3368,7 +3368,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>reasons_no_transit_not_reliable</t>
+          <t>reasons_no_transit_not_flexible</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it is not reliable</t>
+          <t>True if the respondent did not use transit because it is not flexible</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3395,7 +3395,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>reasons_no_transit_not_safe</t>
+          <t>reasons_no_transit_not_reliable</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3410,7 +3410,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it is not safe</t>
+          <t>True if the respondent did not use transit because it is not reliable</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3422,7 +3422,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>reasons_no_transit_ride_too_long</t>
+          <t>reasons_no_transit_not_safe</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it takes too long</t>
+          <t>True if the respondent did not use transit because it is not safe</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3449,7 +3449,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>reasons_no_transit_wait_too_long</t>
+          <t>reasons_no_transit_ride_too_long</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3464,7 +3464,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because the wait time is too long</t>
+          <t>True if the respondent did not use transit because it takes too long</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3476,7 +3476,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>reasons_no_transit_does_not_run_when_needed</t>
+          <t>reasons_no_transit_wait_too_long</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because of it's schedule</t>
+          <t>True if the respondent did not use transit because the wait time is too long</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3503,7 +3503,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>reasons_no_transit_too_many_transfers</t>
+          <t>reasons_no_transit_does_not_run_when_needed</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it requries too many transfers</t>
+          <t>True if the respondent did not use transit because of it's schedule</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3530,7 +3530,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>reasons_no_transit_stop_too_far</t>
+          <t>reasons_no_transit_too_many_transfers</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because the stop is too far</t>
+          <t>True if the respondent did not use transit because it requries too many transfers</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3557,7 +3557,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>reasons_no_transit_not_economical</t>
+          <t>reasons_no_transit_stop_too_far</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3572,7 +3572,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it is not economical</t>
+          <t>True if the respondent did not use transit because the stop is too far</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3584,7 +3584,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>reasons_no_transit_dislike_crowded_trains_buses</t>
+          <t>reasons_no_transit_not_economical</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because they don't like crowded trains and buses</t>
+          <t>True if the respondent did not use transit because it is not economical</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -3611,7 +3611,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>reasons_no_transit_too_much_walking_stairs</t>
+          <t>reasons_no_transit_dislike_crowded_trains_buses</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3626,7 +3626,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it involves too much walking and/or stairs</t>
+          <t>True if the respondent did not use transit because they don't like crowded trains and buses</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3638,7 +3638,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>reasons_no_transit_dislike_public_transport</t>
+          <t>reasons_no_transit_too_much_walking_stairs</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because they don't like public transport</t>
+          <t>True if the respondent did not use transit because it involves too much walking and/or stairs</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -3665,7 +3665,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>reasons_no_transit_dislike_public_transport_with_luggage</t>
+          <t>reasons_no_transit_dislike_public_transport</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because they don't like public transport with luggage</t>
+          <t>True if the respondent did not use transit because they don't like public transport</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -3692,7 +3692,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>reasons_no_transit_prefer_other_mode</t>
+          <t>reasons_no_transit_dislike_public_transport_with_luggage</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3707,7 +3707,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because they prefer other modes(s)</t>
+          <t>True if the respondent did not use transit because they don't like public transport with luggage</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -3719,22 +3719,22 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>general_use_transit_resident</t>
+          <t>reasons_no_transit_prefer_other_mode</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>TransitUseFrequency</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>General transit use frequency by residents of San Diego region in San Diego region</t>
+          <t>True if the respondent did not use transit because they prefer other modes(s)</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -3746,7 +3746,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>general_use_transit_visitor_home</t>
+          <t>general_use_transit_resident</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3761,7 +3761,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>General transit use frequency by visitors of San Diego region when home</t>
+          <t>General transit use frequency by residents of San Diego region in San Diego region</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -3773,22 +3773,22 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_taxi</t>
+          <t>general_use_transit_visitor_home</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>TransitUseFrequency</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>True if the visitor used Taxi as a mode during their visit to the San Diego Region</t>
+          <t>General transit use frequency by visitors of San Diego region when home</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -3800,7 +3800,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_uber_lyft</t>
+          <t>general_modes_used_visitor_taxi</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3815,7 +3815,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>True if the visitor used Uber or Lyft as a mode during their visit to the San Diego Region</t>
+          <t>True if the visitor used Taxi as a mode during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -3827,7 +3827,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_car_black</t>
+          <t>general_modes_used_visitor_uber_lyft</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3842,7 +3842,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>True if the visitor used a black car service as a mode during their visit to the San Diego Region</t>
+          <t>True if the visitor used Uber or Lyft as a mode during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -3854,7 +3854,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_dropped_off_by_family_friend</t>
+          <t>general_modes_used_visitor_car_black</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3869,7 +3869,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>True if the visitor was dropped off by a family member or friend during their visit to the San Diego Region</t>
+          <t>True if the visitor used a black car service as a mode during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -3881,7 +3881,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_drove_alone_and_parked</t>
+          <t>general_modes_used_visitor_dropped_off_by_family_friend</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>True if the visitor drove alone and parked during their visit to the San Diego Region</t>
+          <t>True if the visitor was dropped off by a family member or friend during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -3908,7 +3908,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_drove_with_others_and_parked</t>
+          <t>general_modes_used_visitor_drove_alone_and_parked</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3923,7 +3923,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>True if the visitor drove with others and parked during their visit to the San Diego Region</t>
+          <t>True if the visitor drove alone and parked during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -3935,7 +3935,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_rode_with_other_travelers_and_parked</t>
+          <t>general_modes_used_visitor_drove_with_others_and_parked</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>True if the visitor rode with other travelers and parked during their visit to the San Diego Region</t>
+          <t>True if the visitor drove with others and parked during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -3962,7 +3962,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_coaster</t>
+          <t>general_modes_used_visitor_rode_with_other_travelers_and_parked</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>True if the visitor used the Coaster train during their visit to the San Diego Region</t>
+          <t>True if the visitor rode with other travelers and parked during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -3989,7 +3989,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_mts_red_trolley</t>
+          <t>general_modes_used_visitor_coaster</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>True if the visitor used the MTS Red Trolley during their visit to the San Diego Region</t>
+          <t>True if the visitor used the Coaster train during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -4016,7 +4016,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_other_public_bus</t>
+          <t>general_modes_used_visitor_mts_red_trolley</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>True if the visitor used other public bus services during their visit to the San Diego Region</t>
+          <t>True if the visitor used the MTS Red Trolley during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -4043,7 +4043,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_other_public_transit</t>
+          <t>general_modes_used_visitor_other_public_bus</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>True if the visitor used other public transit services during their visit to the San Diego Region</t>
+          <t>True if the visitor used other public bus services during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4070,7 +4070,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_rental_car_dropped_off</t>
+          <t>general_modes_used_visitor_other_public_transit</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4085,7 +4085,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>True if the visitor used a rental car and was dropped off during their visit to the San Diego Region</t>
+          <t>True if the visitor used other public transit services during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -4097,7 +4097,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_rental_car_parked</t>
+          <t>general_modes_used_visitor_rental_car_dropped_off</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4112,7 +4112,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>True if the visitor used a rental car and parked during their visit to the San Diego Region</t>
+          <t>True if the visitor used a rental car and was dropped off during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -4124,7 +4124,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_chartered_tour_bus</t>
+          <t>general_modes_used_visitor_rental_car_parked</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4139,7 +4139,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>True if the visitor used a chartered tour bus during their visit to the San Diego Region</t>
+          <t>True if the visitor used a rental car and parked during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4151,7 +4151,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_hotel_shuttle_van</t>
+          <t>general_modes_used_visitor_chartered_tour_bus</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>True if the visitor used a hotel shuttle or van during their visit to the San Diego Region</t>
+          <t>True if the visitor used a chartered tour bus during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -4178,7 +4178,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_employee_shuttle</t>
+          <t>general_modes_used_visitor_hotel_shuttle_van</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>True if the visitor used an employee shuttle during their visit to the San Diego Region</t>
+          <t>True if the visitor used a hotel shuttle or van during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -4205,7 +4205,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_other_shared_van</t>
+          <t>general_modes_used_visitor_employee_shuttle</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4220,7 +4220,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>True if the visitor used another type of shared van service during their visit to the San Diego Region</t>
+          <t>True if the visitor used an employee shuttle during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4232,7 +4232,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_walk</t>
+          <t>general_modes_used_visitor_other_shared_van</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4247,7 +4247,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>True if the visitor walked as a mode during their visit to the San Diego Region</t>
+          <t>True if the visitor used another type of shared van service during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4259,7 +4259,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_wheelchair</t>
+          <t>general_modes_used_visitor_walk</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4274,7 +4274,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>True if the visitor used a wheelchair during their visit to the San Diego Region</t>
+          <t>True if the visitor walked as a mode during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4286,7 +4286,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_bicycle_electric_bikeshare</t>
+          <t>general_modes_used_visitor_wheelchair</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>True if the visitor used an electric bicycle through a bikeshare service during their visit to the San Diego Region</t>
+          <t>True if the visitor used a wheelchair during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4313,7 +4313,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_bicycle_non_electric_bikeshare</t>
+          <t>general_modes_used_visitor_bicycle_electric_bikeshare</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>True if the visitor used a non-electric bicycle through a bikeshare service during their visit to the San Diego Region</t>
+          <t>True if the visitor used an electric bicycle through a bikeshare service during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4340,7 +4340,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_bicycle_personal_electric_bicycle</t>
+          <t>general_modes_used_visitor_bicycle_non_electric_bikeshare</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4355,7 +4355,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>True if the visitor used their personal electric bicycle during their visit to the San Diego Region</t>
+          <t>True if the visitor used a non-electric bicycle through a bikeshare service during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -4367,7 +4367,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_bicycle_personal_non_electric_bicycle</t>
+          <t>general_modes_used_visitor_bicycle_personal_electric_bicycle</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4382,7 +4382,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>True if the visitor used their personal non-electric bicycle during their visit to the San Diego Region</t>
+          <t>True if the visitor used their personal electric bicycle during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -4394,7 +4394,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_e_scooter_shared</t>
+          <t>general_modes_used_visitor_bicycle_personal_non_electric_bicycle</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4409,7 +4409,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>True if the visitor used a shared e-scooter during their visit to the San Diego Region</t>
+          <t>True if the visitor used their personal non-electric bicycle during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -4421,7 +4421,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_e_scooter_personal</t>
+          <t>general_modes_used_visitor_e_scooter_shared</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>True if the visitor used their personal e-scooter during their visit to the San Diego Region</t>
+          <t>True if the visitor used a shared e-scooter during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -4448,22 +4448,22 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>non_sdia_flight_frequency</t>
+          <t>general_modes_used_visitor_e_scooter_personal</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>OtherFlightAndTransitUseFrequency</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Respondent's number of flights from airport other than SDIA in the past 12 months</t>
+          <t>True if the visitor used their personal e-scooter during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -4475,7 +4475,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>other_airport_accessmode</t>
+          <t>non_sdia_flight_frequency</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -4485,12 +4485,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>TravelMode</t>
+          <t>OtherFlightAndTransitUseFrequency</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Travel mode used to access other airports</t>
+          <t>Respondent's number of flights from airport other than SDIA in the past 12 months</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -4502,7 +4502,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>airport_access_transit_use_elsewhere</t>
+          <t>other_airport_accessmode</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -4512,12 +4512,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>OtherFlightAndTransitUseFrequency</t>
+          <t>TravelMode</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Frequency of Transit use by respondent to access other airports</t>
+          <t>Travel mode used to access other airports</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -4529,22 +4529,22 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>airportaccesstransitname</t>
+          <t>airport_access_transit_use_elsewhere</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>OtherFlightAndTransitUseFrequency</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Names of airports accessed by transit</t>
+          <t>Frequency of Transit use by respondent to access other airports</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -4556,194 +4556,194 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
+          <t>airportaccesstransitname</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Actual Value</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Names of airports accessed by transit</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>AirPassenger</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
           <t>airport_terminal</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>Computed</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>Computed Value</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t xml:space="preserve">
         Airport Terminal for Air Passenger
         </t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>AirPassenger</t>
         </is>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
+    <row r="156">
+      <c r="A156" t="inlineStr">
         <is>
           <t>is_final_destination</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="B156" t="inlineStr">
         <is>
           <t>Computed</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="C156" t="inlineStr">
         <is>
           <t>Computed Value</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="D156" t="inlineStr">
         <is>
           <t xml:space="preserve">
         True if the next flight destination is final and not a layover
         </t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>AirPassenger</t>
         </is>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
+    <row r="157">
+      <c r="A157" t="inlineStr">
         <is>
           <t>is_original_origin</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
+      <c r="B157" t="inlineStr">
         <is>
           <t>Computed</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
+      <c r="C157" t="inlineStr">
         <is>
           <t>Computed Value</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="D157" t="inlineStr">
         <is>
           <t xml:space="preserve">
         True if the previous flight origin was original and not a layover
         </t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>AirPassenger</t>
         </is>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
+    <row r="158">
+      <c r="A158" t="inlineStr">
         <is>
           <t>next_flight_destination</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>Computed</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>Computed Value</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="D158" t="inlineStr">
         <is>
           <t xml:space="preserve">
         Next Flight Destination for a departing passenger
         </t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>AirPassenger</t>
         </is>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
+    <row r="159">
+      <c r="A159" t="inlineStr">
         <is>
           <t>previous_flight_origin</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B159" t="inlineStr">
         <is>
           <t>Computed</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t>Computed Value</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="D159" t="inlineStr">
         <is>
           <t xml:space="preserve">
         Previous flight origin for an arriving passenger
         </t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>AirPassenger</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>shift_start_airport_building</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>SanBuildings</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Name of building where employee starts their shift</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>Employee</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>shift_start_airport_building_other</t>
+          <t>shift_start_airport_building</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>SanBuildings</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Name of building (not listed) where employee starts their shift</t>
+          <t>Name of building where employee starts their shift</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -4755,22 +4755,22 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>employer</t>
+          <t>shift_start_airport_building_other</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Employers</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Name of respondent's employer</t>
+          <t>Name of building (not listed) where employee starts their shift</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -4782,22 +4782,22 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>employer_other</t>
+          <t>employer</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>Employers</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Name (not listed) of respondent's employer</t>
+          <t>Name of respondent's employer</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -4809,22 +4809,22 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>occupation</t>
+          <t>employer_other</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Occupations</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Occupation of the employee</t>
+          <t>Name (not listed) of respondent's employer</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -4836,22 +4836,22 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>occupation_other</t>
+          <t>occupation</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>Occupations</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Occupation (other, not listed) of the employee</t>
+          <t>Occupation of the employee</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -4863,22 +4863,22 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>number_hours_worked</t>
+          <t>occupation_other</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>HoursWorked</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Number of hours respondent worked in the past 7 days</t>
+          <t>Occupation (other, not listed) of the employee</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -4890,7 +4890,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>number_commute_days</t>
+          <t>number_hours_worked</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -4900,12 +4900,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>CommuteDays</t>
+          <t>HoursWorked</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Number of days respondent commuted to the airport in the past 7 days</t>
+          <t>Number of hours respondent worked in the past 7 days</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -4917,7 +4917,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>shift_start_time</t>
+          <t>number_commute_days</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4927,12 +4927,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>DepartTime</t>
+          <t>CommuteDays</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Time when the employee's shift starts</t>
+          <t>Number of days respondent commuted to the airport in the past 7 days</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -4944,7 +4944,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>shift_end_time</t>
+          <t>shift_start_time</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Time when the employee's shift ends</t>
+          <t>Time when the employee's shift starts</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -4971,7 +4971,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>reverse_commute_mode</t>
+          <t>shift_end_time</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4981,12 +4981,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>TravelMode</t>
+          <t>DepartTime</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Reverse commute mode for the employee</t>
+          <t>Time when the employee's shift ends</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -4998,22 +4998,22 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>reverse_commute_mode_other</t>
+          <t>reverse_commute_mode</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>TravelMode</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Reverse commute mode for the employee (other, not listed)</t>
+          <t>Reverse commute mode for the employee</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5025,22 +5025,22 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>same_commute_mode</t>
+          <t>reverse_commute_mode_other</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>YesNoType</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>True if the employee always used the same travel mode to commute in the last 30 days</t>
+          <t>Reverse commute mode for the employee (other, not listed)</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -5052,22 +5052,22 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>same_commute_mode_other</t>
+          <t>same_commute_mode</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>YesNoType</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Other Response to employee's travel mode to commute in the last 30 days</t>
+          <t>True if the employee always used the same travel mode to commute in the last 30 days</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -5079,12 +5079,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>alt_commute_mode_taxi</t>
+          <t>same_commute_mode_other</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -5094,7 +5094,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>True if the employee used Taxi as a mode to commute to the airport in the past 30 days</t>
+          <t>Other Response to employee's travel mode to commute in the last 30 days</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -5106,7 +5106,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>alt_commute_mode_uber_lyft</t>
+          <t>alt_commute_mode_taxi</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5121,7 +5121,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>True if the employee used Uber or Lyft as a mode to commute to the airport in the past 30 days</t>
+          <t>True if the employee used Taxi as a mode to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -5133,7 +5133,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>alt_commute_mode_car_black</t>
+          <t>alt_commute_mode_uber_lyft</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5148,7 +5148,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>True if the employee used a black car service as a mode to commute to the airport in the past 30 days</t>
+          <t>True if the employee used Uber or Lyft as a mode to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -5160,7 +5160,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>alt_commute_mode_picked_by_family_friend</t>
+          <t>alt_commute_mode_car_black</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>True if the employee was picked up by a family member or friend to commute to the airport in the past 30 days</t>
+          <t>True if the employee used a black car service as a mode to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -5187,7 +5187,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>alt_commute_mode_parked_vehicle_and_drive_alone</t>
+          <t>alt_commute_mode_picked_by_family_friend</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>True if the employee drove alone and parked their vehicle while commuting to the airport in the past 30 days</t>
+          <t>True if the employee was picked up by a family member or friend to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -5214,7 +5214,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>alt_commute_mode_parked_vehicle_and_drive_with_others</t>
+          <t>alt_commute_mode_parked_vehicle_and_drive_alone</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>True if the employee drove with others and parked their vehicle while commuting to the airport in the past 30 days</t>
+          <t>True if the employee drove alone and parked their vehicle while commuting to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -5241,7 +5241,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>alt_commute_mode_parked_vehicle_and_ride_with_other_travelers</t>
+          <t>alt_commute_mode_parked_vehicle_and_drive_with_others</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>True if the employee rode with other travelers and parked their vehicle while commuting to the airport in the past 30 days</t>
+          <t>True if the employee drove with others and parked their vehicle while commuting to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -5268,7 +5268,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>alt_commute_mode_mts_route_992</t>
+          <t>alt_commute_mode_parked_vehicle_and_ride_with_other_travelers</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -5283,7 +5283,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>True if the employee used MTS Route 992 to commute to the airport in the past 30 days</t>
+          <t>True if the employee rode with other travelers and parked their vehicle while commuting to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -5295,7 +5295,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>alt_commute_mode_airport_flyer_shuttle</t>
+          <t>alt_commute_mode_mts_route_992</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -5310,7 +5310,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>True if the employee used the Airport Flyer Shuttle to commute to the airport in the past 30 days</t>
+          <t>True if the employee used MTS Route 992 to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -5322,7 +5322,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>alt_commute_mode_other_public_transit</t>
+          <t>alt_commute_mode_airport_flyer_shuttle</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>True if the employee used other public transit services to commute to the airport in the past 30 days</t>
+          <t>True if the employee used the Airport Flyer Shuttle to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -5349,7 +5349,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>alt_commute_mode_other_shared_van</t>
+          <t>alt_commute_mode_other_public_transit</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>True if the employee used another type of shared van service to commute to the airport in the past 30 days</t>
+          <t>True if the employee used other public transit services to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -5376,7 +5376,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>alt_commute_mode_walk</t>
+          <t>alt_commute_mode_other_shared_van</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -5391,7 +5391,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>True if the employee walked as a mode to commute to the airport in the past 30 days</t>
+          <t>True if the employee used another type of shared van service to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -5403,7 +5403,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>alt_commute_mode_wheelchair</t>
+          <t>alt_commute_mode_walk</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>True if the employee used a wheelchair to commute to the airport in the past 30 days</t>
+          <t>True if the employee walked as a mode to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -5430,7 +5430,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>alt_commute_mode_bicycle_electric_bikeshare</t>
+          <t>alt_commute_mode_wheelchair</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>True if the employee used an electric bicycle through a bikeshare service to commute to the airport in the past 30 days</t>
+          <t>True if the employee used a wheelchair to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -5457,7 +5457,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>alt_commute_mode_bicycle_non_electric_bikeshare</t>
+          <t>alt_commute_mode_bicycle_electric_bikeshare</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -5472,7 +5472,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>True if the employee used a non-electric bicycle through a bikeshare service to commute to the airport in the past 30 days</t>
+          <t>True if the employee used an electric bicycle through a bikeshare service to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -5484,7 +5484,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>alt_commute_mode_bicycle_personal_electric_bicycle</t>
+          <t>alt_commute_mode_bicycle_non_electric_bikeshare</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -5499,7 +5499,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>True if the employee used their personal electric bicycle to commute to the airport in the past 30 days</t>
+          <t>True if the employee used a non-electric bicycle through a bikeshare service to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -5511,7 +5511,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>alt_commute_mode_bicycle_personal_non_electric_bicycle</t>
+          <t>alt_commute_mode_bicycle_personal_electric_bicycle</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -5526,7 +5526,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>True if the employee used their personal non-electric bicycle to commute to the airport in the past 30 days</t>
+          <t>True if the employee used their personal electric bicycle to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -5538,7 +5538,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>alt_commute_mode_e_scooter_shared</t>
+          <t>alt_commute_mode_bicycle_personal_non_electric_bicycle</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>True if the employee used a shared e-scooter to commute to the airport in the past 30 days</t>
+          <t>True if the employee used their personal non-electric bicycle to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -5565,7 +5565,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>alt_commute_mode_e_scooter_personal</t>
+          <t>alt_commute_mode_e_scooter_shared</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -5580,7 +5580,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>True if the employee used their personal e-scooter to commute to the airport in the past 30 days</t>
+          <t>True if the employee used a shared e-scooter to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -5592,22 +5592,22 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>commute_mode_decision</t>
+          <t>alt_commute_mode_e_scooter_personal</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>ModeDecision</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Factor affecting the Mode choice of the employee</t>
+          <t>True if the employee used their personal e-scooter to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -5619,22 +5619,22 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>commute_mode_decision_other</t>
+          <t>commute_mode_decision</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>ModeDecision</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>(Other) Factor affecting the Mode choice of the employee</t>
+          <t>Factor affecting the Mode choice of the employee</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -5646,12 +5646,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>employee_parking</t>
+          <t>commute_mode_decision_other</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Whether the respondent has access to employee parking</t>
+          <t>(Other) Factor affecting the Mode choice of the employee</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -5673,34 +5673,34 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>inbound_or_outbound</t>
+          <t>employee_parking</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>InboundOutbound</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Whether the trip is inbound to the airport or outbound from the airport</t>
+          <t>Whether the respondent has access to employee parking</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Employee</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>origin_activity_type</t>
+          <t>inbound_or_outbound</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -5710,12 +5710,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>ActivityType</t>
+          <t>InboundOutbound</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Activity type at the origin of the trip to the airport</t>
+          <t>Whether the trip is inbound to the airport or outbound from the airport</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -5727,17 +5727,17 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>origin_activity_type_other</t>
+          <t>origin_activity_type</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>ActivityType</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5754,7 +5754,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>origin_name</t>
+          <t>origin_activity_type_other</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -5769,7 +5769,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Place name of the origin of the trip to the airport</t>
+          <t>Activity type at the origin of the trip to the airport</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -5781,7 +5781,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>origin_city</t>
+          <t>origin_name</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>City of the origin address for the trip to the airport</t>
+          <t>Place name of the origin of the trip to the airport</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -5808,7 +5808,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>origin_state</t>
+          <t>origin_city</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>State of the origin address for the trip to the airport</t>
+          <t>City of the origin address for the trip to the airport</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -5835,7 +5835,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>origin_zip</t>
+          <t>origin_state</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -5850,7 +5850,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>ZIP code of the origin address for the trip to the airport</t>
+          <t>State of the origin address for the trip to the airport</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -5862,12 +5862,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>origin_latitude</t>
+          <t>origin_zip</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Latitude coordinate of the origin address for the trip to the airport</t>
+          <t>ZIP code of the origin address for the trip to the airport</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -5889,12 +5889,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>origin_longitude</t>
+          <t>origin_latitude</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -5904,7 +5904,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Longitude coordinate of the origin address for the trip to the airport</t>
+          <t>Latitude coordinate of the origin address for the trip to the airport</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -5916,22 +5916,22 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>destination_activity_type</t>
+          <t>origin_longitude</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>ActivityType</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Activity type at the destination of the trip from the airport</t>
+          <t>Longitude coordinate of the origin address for the trip to the airport</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -5943,22 +5943,22 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>destination_activity_type_other</t>
+          <t>destination_activity_type</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>ActivityType</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Activity type (other) at the destination of the trip from the airport</t>
+          <t>Activity type at the destination of the trip from the airport</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -5970,7 +5970,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>destination_name</t>
+          <t>destination_activity_type_other</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -5985,7 +5985,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Place name of the destination from the airport</t>
+          <t>Activity type (other) at the destination of the trip from the airport</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -5997,7 +5997,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>destination_city</t>
+          <t>destination_name</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -6012,7 +6012,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>City of the destination address from the airport</t>
+          <t>Place name of the destination from the airport</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -6024,7 +6024,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>destination_state</t>
+          <t>destination_city</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -6039,7 +6039,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>State of the destination address from the airport</t>
+          <t>City of the destination address from the airport</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -6051,7 +6051,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>destination_zip</t>
+          <t>destination_state</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -6066,7 +6066,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>ZIP code of the destination address from the airport</t>
+          <t>State of the destination address from the airport</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -6078,12 +6078,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>destination_latitude</t>
+          <t>destination_zip</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -6093,7 +6093,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Latitude coordinate of the destination address from the airport</t>
+          <t>ZIP code of the destination address from the airport</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -6105,12 +6105,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>destination_longitude</t>
+          <t>destination_latitude</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Longitude coordinate of the destination address from the airport</t>
+          <t>Latitude coordinate of the destination address from the airport</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -6132,22 +6132,22 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>main_transit_mode</t>
+          <t>destination_longitude</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>TravelMode</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Main Transit mode to/from airport</t>
+          <t>Longitude coordinate of the destination address from the airport</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -6159,7 +6159,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>main_mode</t>
+          <t>main_transit_mode</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -6174,7 +6174,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Main Mode to/from airport</t>
+          <t>Main Transit mode to/from airport</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -6186,22 +6186,22 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>main_mode_other</t>
+          <t>main_mode</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>TravelMode</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Name of the other Main Mode to/from airport</t>
+          <t>Main Mode to/from airport</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -6213,7 +6213,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>shared_van_other</t>
+          <t>main_mode_other</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Name of the other shared van service used by respondent</t>
+          <t>Name of the other Main Mode to/from airport</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -6240,22 +6240,22 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>trip_start_time</t>
+          <t>shared_van_other</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>DepartTime</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Start time of the trip</t>
+          <t>Name of the other shared van service used by respondent</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -6267,7 +6267,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>trip_arrival_time</t>
+          <t>trip_start_time</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -6282,7 +6282,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Arrival time of the trip</t>
+          <t>Start time of the trip</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -6294,7 +6294,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>number_transit_vehicles_to_airport</t>
+          <t>trip_arrival_time</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -6304,12 +6304,12 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>NumTransfers</t>
+          <t>DepartTime</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Number of transit transfers for the inbound trip to the airport</t>
+          <t>Arrival time of the trip</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -6321,22 +6321,22 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>to_airport_transit_route_1</t>
+          <t>number_transit_vehicles_to_airport</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>NumTransfers</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Name of the First Transit Route to the airport</t>
+          <t>Number of transit transfers for the inbound trip to the airport</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -6348,7 +6348,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>to_airport_transit_route_1_other</t>
+          <t>to_airport_transit_route_1</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -6363,7 +6363,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Other First Transit Route to the airport</t>
+          <t>Name of the First Transit Route to the airport</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -6375,7 +6375,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>to_airport_transit_route_2</t>
+          <t>to_airport_transit_route_1_other</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Name of the Second Transit Route to the airport</t>
+          <t>Other First Transit Route to the airport</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -6402,7 +6402,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>to_airport_transit_route_2_other</t>
+          <t>to_airport_transit_route_2</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -6417,7 +6417,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Other Second Transit Route to the airport</t>
+          <t>Name of the Second Transit Route to the airport</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -6429,7 +6429,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>to_airport_transit_route_3</t>
+          <t>to_airport_transit_route_2_other</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -6444,7 +6444,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Name of the Third Transit Route to the airport</t>
+          <t>Other Second Transit Route to the airport</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -6456,7 +6456,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>to_airport_transit_route_3_other</t>
+          <t>to_airport_transit_route_3</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -6471,7 +6471,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Other Third Transit Route to the airport</t>
+          <t>Name of the Third Transit Route to the airport</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -6483,7 +6483,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>to_airport_transit_route_4</t>
+          <t>to_airport_transit_route_3_other</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -6498,7 +6498,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Name of the Fourth Transit Route to the airport</t>
+          <t>Other Third Transit Route to the airport</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -6510,7 +6510,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>to_airport_transit_route_4_other</t>
+          <t>to_airport_transit_route_4</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -6525,7 +6525,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Other Fourth Transit Route to the airport</t>
+          <t>Name of the Fourth Transit Route to the airport</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -6537,22 +6537,22 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>access_mode</t>
+          <t>to_airport_transit_route_4_other</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>TravelMode</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Access mode to first transit vehicle for inbound trip to the airport</t>
+          <t>Other Fourth Transit Route to the airport</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -6564,22 +6564,22 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>access_mode_other</t>
+          <t>access_mode</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>TravelMode</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Other Access mode to first transit vehicle for inbound trip to the airport</t>
+          <t>Access mode to first transit vehicle for inbound trip to the airport</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -6591,7 +6591,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>taxi_fhv_fare</t>
+          <t>access_mode_other</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -6606,7 +6606,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Taxi or for-hire vehicle fare</t>
+          <t>Other Access mode to first transit vehicle for inbound trip to the airport</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -6618,7 +6618,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>taxi_fhv_wait</t>
+          <t>taxi_fhv_fare</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Wait time for taxi or for-hire vehicle</t>
+          <t>Taxi or for-hire vehicle fare</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -6645,22 +6645,22 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>parking_location</t>
+          <t>taxi_fhv_wait</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>ParkingLocation</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t xml:space="preserve">Name of respondent's parking location. </t>
+          <t>Wait time for taxi or for-hire vehicle</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -6672,22 +6672,22 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>parking_location_other</t>
+          <t>parking_location</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>ParkingLocation</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t xml:space="preserve">Name of respondent's (other) parking location. </t>
+          <t xml:space="preserve">Name of respondent's parking location. </t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -6699,7 +6699,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>parking_cost</t>
+          <t>parking_location_other</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -6714,7 +6714,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Amount respondent paid to park</t>
+          <t xml:space="preserve">Name of respondent's (other) parking location. </t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -6726,22 +6726,22 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>parking_cost_frequency</t>
+          <t>parking_cost</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>ParkingCostFrequency</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Frequency of reported parking cost (e.g., one-time, per hour, per day, per month)</t>
+          <t>Amount respondent paid to park</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -6753,22 +6753,22 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>parking_cost_frequency_other</t>
+          <t>parking_cost_frequency</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>ParkingCostFrequency</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Other frequency of reported parking cost</t>
+          <t>Frequency of reported parking cost (e.g., one-time, per hour, per day, per month)</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -6780,22 +6780,22 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>reimbursement</t>
+          <t>parking_cost_frequency_other</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>ParkingReimbursement</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Whether or not ground access cost will be reimbursed by employer or other non-household member</t>
+          <t>Other frequency of reported parking cost</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -6807,7 +6807,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>number_transit_vehicles_from_airport</t>
+          <t>reimbursement</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -6817,12 +6817,12 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>NumTransfers</t>
+          <t>ParkingReimbursement</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Number of transit transfers for the inbound trip</t>
+          <t>Whether or not ground access cost will be reimbursed by employer or other non-household member</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -6834,22 +6834,22 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>from_airport_transit_route_1</t>
+          <t>number_transit_vehicles_from_airport</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>NumTransfers</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Name of the First Transit Route from the airport</t>
+          <t>Number of transit transfers for the inbound trip</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -6861,7 +6861,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>from_airport_transit_route_1_other</t>
+          <t>from_airport_transit_route_1</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -6876,7 +6876,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Other First Transit Route from the airport</t>
+          <t>Name of the First Transit Route from the airport</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -6888,7 +6888,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>from_airport_transit_route_2</t>
+          <t>from_airport_transit_route_1_other</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -6903,7 +6903,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Name of the Second Transit Route from the airport</t>
+          <t>Other First Transit Route from the airport</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -6915,7 +6915,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>from_airport_transit_route_2_other</t>
+          <t>from_airport_transit_route_2</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -6930,7 +6930,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Other Second Transit Route from the airport</t>
+          <t>Name of the Second Transit Route from the airport</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -6942,7 +6942,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>from_airport_transit_route_3</t>
+          <t>from_airport_transit_route_2_other</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Name of the Third Transit Route from the airport</t>
+          <t>Other Second Transit Route from the airport</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -6969,7 +6969,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>from_airport_transit_route_3_other</t>
+          <t>from_airport_transit_route_3</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Other Third Transit Route from the airport</t>
+          <t>Name of the Third Transit Route from the airport</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -6996,7 +6996,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>from_airport_transit_route_4</t>
+          <t>from_airport_transit_route_3_other</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -7011,7 +7011,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Name of the Fourth Transit Route from the airport</t>
+          <t>Other Third Transit Route from the airport</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -7023,7 +7023,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>from_airport_transit_route_4_other</t>
+          <t>from_airport_transit_route_4</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Other Fourth Transit Route from the airport</t>
+          <t>Name of the Fourth Transit Route from the airport</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -7050,22 +7050,22 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>egress_mode</t>
+          <t>from_airport_transit_route_4_other</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>TravelMode</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Egress mode from last transit vehicle for outbound trip</t>
+          <t>Other Fourth Transit Route from the airport</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -7077,22 +7077,22 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>egress_mode_other</t>
+          <t>egress_mode</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>TravelMode</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Other Egress mode from last transit vehicle for outbound trip</t>
+          <t>Egress mode from last transit vehicle for outbound trip</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -7104,7 +7104,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>transit_boarding_stop_name</t>
+          <t>egress_mode_other</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -7119,7 +7119,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Name of the stop where respondent boarded the main transit mode</t>
+          <t>Other Egress mode from last transit vehicle for outbound trip</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -7131,12 +7131,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>transit_boarding_latitude</t>
+          <t>transit_boarding_stop_name</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -7146,7 +7146,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Latitude of the stop where respondent boarded the main transit mode</t>
+          <t>Name of the stop where respondent boarded the main transit mode</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -7158,12 +7158,12 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>transit_boarding_longitude</t>
+          <t>transit_boarding_latitude</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Longitude of the stop where respondent boarded the main transit mode</t>
+          <t>Latitude of the stop where respondent boarded the main transit mode</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -7185,12 +7185,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>transit_alighting_stop_name</t>
+          <t>transit_boarding_longitude</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -7200,7 +7200,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Name of the stop where respondent got off the main transit mode</t>
+          <t>Longitude of the stop where respondent boarded the main transit mode</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -7212,12 +7212,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>transit_alighting_latitude</t>
+          <t>transit_alighting_stop_name</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -7227,7 +7227,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Latitude of the stop where respondent got off the main transit mode</t>
+          <t>Name of the stop where respondent got off the main transit mode</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -7239,12 +7239,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>transit_alighting_longitude</t>
+          <t>transit_alighting_latitude</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -7254,7 +7254,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Longitude of the stop where respondent got off the main transit mode</t>
+          <t>Latitude of the stop where respondent got off the main transit mode</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -7266,22 +7266,22 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>car_available</t>
+          <t>transit_alighting_longitude</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>CarAvailability</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Status of car availability for the trip to the airport</t>
+          <t>Longitude of the stop where respondent got off the main transit mode</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -7293,22 +7293,22 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>car_available_other</t>
+          <t>car_available</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>CarAvailability</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Status of car availability (other than listed) for the trip to the airport</t>
+          <t>Status of car availability for the trip to the airport</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -7320,114 +7320,141 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
+          <t>car_available_other</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Actual Value</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Status of car availability (other than listed) for the trip to the airport</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
           <t>non_airport_activity_type</t>
         </is>
       </c>
-      <c r="B256" t="inlineStr">
+      <c r="B257" t="inlineStr">
         <is>
           <t>Computed</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
+      <c r="C257" t="inlineStr">
         <is>
           <t>Computed Value</t>
         </is>
       </c>
-      <c r="D256" t="inlineStr">
+      <c r="D257" t="inlineStr">
         <is>
           <t xml:space="preserve">
         Activity type prior to traveling to the airport (for inbound) or activity traveling to do next (for outbound).
         </t>
         </is>
       </c>
-      <c r="E256" t="inlineStr">
+      <c r="E257" t="inlineStr">
         <is>
           <t>Trip</t>
         </is>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
+    <row r="258">
+      <c r="A258" t="inlineStr">
         <is>
           <t>parking_cost_numeric</t>
         </is>
       </c>
-      <c r="B257" t="inlineStr">
+      <c r="B258" t="inlineStr">
         <is>
           <t>Computed</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr">
+      <c r="C258" t="inlineStr">
         <is>
           <t>Computed Value</t>
         </is>
       </c>
-      <c r="D257" t="inlineStr">
+      <c r="D258" t="inlineStr">
         <is>
           <t xml:space="preserve">
         Numeric Value of parking cost
         </t>
         </is>
       </c>
-      <c r="E257" t="inlineStr">
+      <c r="E258" t="inlineStr">
         <is>
           <t>Trip</t>
         </is>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
+    <row r="259">
+      <c r="A259" t="inlineStr">
         <is>
           <t>taxi_fhv_fare_numeric</t>
         </is>
       </c>
-      <c r="B258" t="inlineStr">
+      <c r="B259" t="inlineStr">
         <is>
           <t>Computed</t>
         </is>
       </c>
-      <c r="C258" t="inlineStr">
+      <c r="C259" t="inlineStr">
         <is>
           <t>Computed Value</t>
         </is>
       </c>
-      <c r="D258" t="inlineStr">
+      <c r="D259" t="inlineStr">
         <is>
           <t xml:space="preserve">
         Numeric Value of Taxi Fare
         </t>
         </is>
       </c>
-      <c r="E258" t="inlineStr">
+      <c r="E259" t="inlineStr">
         <is>
           <t>Trip</t>
         </is>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
+    <row r="260">
+      <c r="A260" t="inlineStr">
         <is>
           <t>taxi_fhv_wait_numeric</t>
         </is>
       </c>
-      <c r="B259" t="inlineStr">
+      <c r="B260" t="inlineStr">
         <is>
           <t>Computed</t>
         </is>
       </c>
-      <c r="C259" t="inlineStr">
+      <c r="C260" t="inlineStr">
         <is>
           <t>Computed Value</t>
         </is>
       </c>
-      <c r="D259" t="inlineStr">
+      <c r="D260" t="inlineStr">
         <is>
           <t xml:space="preserve">
         Numeric Value of Taxi Wait Time
         </t>
         </is>
       </c>
-      <c r="E259" t="inlineStr">
+      <c r="E260" t="inlineStr">
         <is>
           <t>Trip</t>
         </is>

--- a/reports/data_dictionary.xlsx
+++ b/reports/data_dictionary.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E260"/>
+  <dimension ref="A1:E261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>record_type_synthetic</t>
+          <t>is_pilot</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>True if the record is synthetically generated</t>
+          <t>True if the record was collected during the pilot survey</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -533,12 +533,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>date_completed</t>
+          <t>record_type_synthetic</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Date and time when respondent completed the survey</t>
+          <t>True if the record is synthetically generated</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -560,12 +560,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>submit</t>
+          <t>date_completed</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>True if the record is to be used for submittal</t>
+          <t>Date and time when respondent completed the survey</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,22 +587,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>interview_location</t>
+          <t>submit</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>InterviewLocation</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Location where respondent was intercepted</t>
+          <t>True if the record is to be used for submittal</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -614,22 +614,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>interview_location_other</t>
+          <t>interview_location</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>InterviewLocation</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Other Location where respondent was intercepted</t>
+          <t>Location where respondent was intercepted</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -641,22 +641,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>marketsegment</t>
+          <t>interview_location_other</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Type of respondent, either passenger, employee, or other</t>
+          <t>Other Location where respondent was intercepted</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -668,22 +668,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>is_qualified_age</t>
+          <t>marketsegment</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Whether the respondent is of a qualified age to participate in the survey</t>
+          <t>Type of respondent, either passenger, employee, or other</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -695,22 +695,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>resident_visitor_general</t>
+          <t>is_qualified_age</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ResidentVisitorGeneral</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Whether a resident or a visitor of the San deigo airport service area</t>
+          <t>Whether the respondent is of a qualified age to participate in the survey</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -722,7 +722,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>resident_visitor_followup</t>
+          <t>resident_visitor_general</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -732,12 +732,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ResidentVisitorFollowup</t>
+          <t>ResidentVisitorGeneral</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>If neither a resident or a visitor, whether the respondent is visiting San Diego</t>
+          <t>Whether a resident or a visitor of the San deigo airport service area</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -749,22 +749,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>resident_visitor_arriving</t>
+          <t>resident_visitor_followup</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>ResidentVisitorFollowup</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>True if respondent lives outside San Diego Region and is going home by ground transportation</t>
+          <t>If neither a resident or a visitor, whether the respondent is visiting San Diego</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -776,22 +776,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>resident_visitor</t>
+          <t>resident_visitor_arriving</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ResidentVisitor</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Where the respondent resides in the airport service area most of the year</t>
+          <t>True if respondent lives outside San Diego Region and is going home by ground transportation</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -803,7 +803,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>country_of_residence</t>
+          <t>resident_visitor</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -813,12 +813,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Country</t>
+          <t>ResidentVisitor</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Country of residence for international vistors</t>
+          <t>Where the respondent resides in the airport service area most of the year</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -830,7 +830,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>state_of_residence</t>
+          <t>country_of_residence</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -840,12 +840,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>State</t>
+          <t>Country</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>State of residence for US and Mexico residents</t>
+          <t>Country of residence for international vistors</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -857,22 +857,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>home_location_city</t>
+          <t>state_of_residence</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>State</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>City of the home location of the respondent</t>
+          <t>State of residence for US and Mexico residents</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -884,7 +884,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>home_location_state</t>
+          <t>home_location_city</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>State of the home location of the respondent</t>
+          <t>City of the home location of the respondent</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -911,7 +911,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>home_location_zip</t>
+          <t>home_location_state</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ZIP of the home location of the respondent</t>
+          <t>State of the home location of the respondent</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -938,12 +938,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>home_location_latitude</t>
+          <t>home_location_zip</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Latitude of the home location of the respondent</t>
+          <t>ZIP of the home location of the respondent</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -965,12 +965,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>home_location_longitude</t>
+          <t>home_location_latitude</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -980,7 +980,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Longitude of the home location of the respondent</t>
+          <t>Latitude of the home location of the respondent</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -992,22 +992,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>home_location_longitude</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Age category of the respondent</t>
+          <t>Longitude of the home location of the respondent</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1019,7 +1019,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>age</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1029,12 +1029,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Gender of the respondent</t>
+          <t>Age category of the respondent</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1046,22 +1046,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>gender_other</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Gender of the respondent (not listed)</t>
+          <t>Gender of the respondent</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1073,12 +1073,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>race_aian</t>
+          <t>gender_other</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Does the respondent identify as American Indian or Alaska Native?</t>
+          <t>Gender of the respondent (not listed)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1100,7 +1100,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>race_asian</t>
+          <t>race_aian</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Does the respondent identify as Asian?</t>
+          <t>Does the respondent identify as American Indian or Alaska Native?</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1127,7 +1127,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>race_black</t>
+          <t>race_asian</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Does the respondent identify as Black or African American?</t>
+          <t>Does the respondent identify as Asian?</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1154,7 +1154,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>race_hispanic</t>
+          <t>race_black</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Does the respondent identify as Hispanic or Latino?</t>
+          <t>Does the respondent identify as Black or African American?</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1181,7 +1181,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>race_middle_eastern</t>
+          <t>race_hispanic</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Does the respondent identify as Middle Eastern?</t>
+          <t>Does the respondent identify as Hispanic or Latino?</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1208,7 +1208,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>race_hp</t>
+          <t>race_middle_eastern</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Does the respondent identify as Native Hawaiian or Other Pacific Islander?</t>
+          <t>Does the respondent identify as Middle Eastern?</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1235,7 +1235,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>race_white</t>
+          <t>race_hp</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Does the respondent identify as White?</t>
+          <t>Does the respondent identify as Native Hawaiian or Other Pacific Islander?</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1262,7 +1262,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>race_unknown</t>
+          <t>race_white</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Does the respondent identify as an unknown</t>
+          <t>Does the respondent identify as White?</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1289,12 +1289,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>race_other</t>
+          <t>race_unknown</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>If the respondent enters a race/ethnicicy not listed above, this field will be populated</t>
+          <t>Does the respondent identify as an unknown</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1316,22 +1316,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>number_persons_in_household</t>
+          <t>race_other</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>HouseholdSize</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Number of persons in the respondent's household</t>
+          <t>If the respondent enters a race/ethnicicy not listed above, this field will be populated</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1343,7 +1343,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>number_vehicles</t>
+          <t>number_persons_in_household</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>HouseholdVehicles</t>
+          <t>HouseholdSize</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Number of vehicles in the respondent's household</t>
+          <t>Number of persons in the respondent's household</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1370,7 +1370,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>household_income</t>
+          <t>number_vehicles</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1380,12 +1380,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HouseholdIncome</t>
+          <t>HouseholdVehicles</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Income range of the respondent's household</t>
+          <t>Number of vehicles in the respondent's household</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1397,7 +1397,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>is_income_below_poverty</t>
+          <t>household_income</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1407,12 +1407,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>YesNoType</t>
+          <t>HouseholdIncome</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Is the respondent's household income below poverty?</t>
+          <t>Income range of the respondent's household</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1424,7 +1424,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>number_workers</t>
+          <t>is_income_below_poverty</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1434,12 +1434,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>HouseholdWorkers</t>
+          <t>YesNoType</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Number of workers in the respondent's household</t>
+          <t>Is the respondent's household income below poverty?</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1451,7 +1451,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>sp_invitation</t>
+          <t>number_workers</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1461,12 +1461,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>YesNoType</t>
+          <t>HouseholdWorkers</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Whether the respondent chose to participate in the SP Survey</t>
+          <t>Number of workers in the respondent's household</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1478,7 +1478,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>stay_informed</t>
+          <t>sp_invitation</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Whether the respondent chose to Stay Informed about the project</t>
+          <t>Whether the respondent chose to participate in the SP Survey</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1505,7 +1505,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>survey_language</t>
+          <t>stay_informed</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1515,12 +1515,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SurveyLanguage</t>
+          <t>YesNoType</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Language of the Survey</t>
+          <t>Whether the respondent chose to Stay Informed about the project</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1532,22 +1532,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>survey_language_other</t>
+          <t>survey_language</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>SurveyLanguage</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Other (not listed) language of the survey</t>
+          <t>Language of the Survey</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1559,12 +1559,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>trip</t>
+          <t>survey_language_other</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Details of the trip taken by the respondent</t>
+          <t>Other (not listed) language of the survey</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1586,12 +1586,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>valid_record</t>
+          <t>trip</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>Trip</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Indicates if the record is valid</t>
+          <t>Details of the trip taken by the respondent</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1613,12 +1613,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>validation_error</t>
+          <t>valid_record</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Holds validation error messages</t>
+          <t>Indicates if the record is valid</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1640,7 +1640,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>validation_severity</t>
+          <t>validation_error</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Holds the severity of the validation error</t>
+          <t>Holds validation error messages</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1667,12 +1667,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>weight</t>
+          <t>validation_severity</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>float</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Expansion Factor of the observation</t>
+          <t>Holds the severity of the validation error</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1694,49 +1694,49 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>passenger_type</t>
+          <t>weight</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>float</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PassengerType</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Type of Passenger: Arriving, Departing or Connecting</t>
+          <t>Expansion Factor of the observation</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>AirPassenger</t>
+          <t>All Respondents</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>previous_or_next_airport</t>
+          <t>passenger_type</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>PassengerType</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Where is the respondent flying from/flying to</t>
+          <t>Type of Passenger: Arriving, Departing or Connecting</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1748,22 +1748,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>airline</t>
+          <t>previous_or_next_airport</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Airline of the respondent's flight</t>
+          <t>Where is the respondent flying from/flying to</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1775,22 +1775,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>airline_other</t>
+          <t>airline</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Other (not listed) airline of the respondent's flight</t>
+          <t>Airline of the respondent's flight</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1802,7 +1802,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>flight_number</t>
+          <t>airline_other</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Flight number of the respondent's flight</t>
+          <t>Other (not listed) airline of the respondent's flight</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1829,12 +1829,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>not_using_connecting</t>
+          <t>flight_number</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>True if the passenger did not use/is not using any connecting flights in their journey</t>
+          <t>Flight number of the respondent's flight</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1856,12 +1856,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>final_flight_destination</t>
+          <t>not_using_connecting</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Final destination of the flight for departing passengers</t>
+          <t>True if the passenger did not use/is not using any connecting flights in their journey</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1883,22 +1883,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>flight_departure_time</t>
+          <t>final_flight_destination</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>DepartTime</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Time of flight departure</t>
+          <t>Final destination of the flight for departing passengers</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1910,7 +1910,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>flight_arrival_time</t>
+          <t>flight_departure_time</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Time of flight arrival</t>
+          <t>Time of flight departure</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1937,22 +1937,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>original_flight_origin</t>
+          <t>flight_arrival_time</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>DepartTime</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Original origin for arriving passengers</t>
+          <t>Time of flight arrival</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1964,22 +1964,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>flight_purpose</t>
+          <t>original_flight_origin</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>FlightPurpose</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Purpose of the respondent's flight</t>
+          <t>Original origin for arriving passengers</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1991,22 +1991,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>flight_purpose_other</t>
+          <t>flight_purpose</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>FlightPurpose</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Other (not listed) purpose of the respondent's flight</t>
+          <t>Purpose of the respondent's flight</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2018,22 +2018,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>convention_center</t>
+          <t>flight_purpose_other</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>YesNoType</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Whether the visitor went/going to convention center</t>
+          <t>Other (not listed) purpose of the respondent's flight</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2045,7 +2045,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>convention_center_activity</t>
+          <t>convention_center</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2055,12 +2055,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ConventionCenterActivity</t>
+          <t>YesNoType</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Type of activity that the respondent conducted at the convention center</t>
+          <t>Whether the visitor went/going to convention center</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2072,22 +2072,22 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>convention_center_activity_other</t>
+          <t>convention_center_activity</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>ConventionCenterActivity</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Type of activity (not listed) that the respondent conducted at the convention center</t>
+          <t>Type of activity that the respondent conducted at the convention center</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2099,22 +2099,22 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>checked_bags</t>
+          <t>convention_center_activity_other</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CheckedBags</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Number of checked bags</t>
+          <t>Type of activity (not listed) that the respondent conducted at the convention center</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2126,7 +2126,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>carryon_bags</t>
+          <t>checked_bags</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2136,12 +2136,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CarryOns</t>
+          <t>CheckedBags</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Number of carry-on bags</t>
+          <t>Number of checked bags</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2153,7 +2153,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>nights_away</t>
+          <t>carryon_bags</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2163,12 +2163,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>TravelDuration</t>
+          <t>CarryOns</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Number of nights the departing air passengers will be away</t>
+          <t>Number of carry-on bags</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>nights_visited</t>
+          <t>nights_away</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Number of nights the arriving air passengers will be in the San Diego Region</t>
+          <t>Number of nights the departing air passengers will be away</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2207,7 +2207,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>party_size_flight</t>
+          <t>nights_visited</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2217,12 +2217,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>PartySize</t>
+          <t>TravelDuration</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Number of people flying with the respondent (count excludes the respondent)</t>
+          <t>Number of nights the arriving air passengers will be in the San Diego Region</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2234,22 +2234,22 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>party_size_ground_access_same</t>
+          <t>party_size_flight</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>PartySize</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Whether flying party all traveled to airport together</t>
+          <t>Number of people flying with the respondent (count excludes the respondent)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2261,22 +2261,22 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>party_size_ground_access</t>
+          <t>party_size_ground_access_same</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>PartySize</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Size of ground access travel party (count excludes the respondent)</t>
+          <t>Whether flying party all traveled to airport together</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2288,22 +2288,22 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>party_includes_child_aged00to05</t>
+          <t>party_size_ground_access</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>PartySize</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>True if the traveling party includes a child aged zero to two</t>
+          <t>Size of ground access travel party (count excludes the respondent)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2315,7 +2315,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>party_includes_child_aged06to17</t>
+          <t>party_includes_child_aged00to05</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2330,7 +2330,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>True if the traveling party includes a child aged three to nine</t>
+          <t>True if the traveling party includes a child aged zero to two</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2342,7 +2342,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>party_includes_coworker</t>
+          <t>party_includes_child_aged06to17</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>True if the traveling party includes a coworker</t>
+          <t>True if the traveling party includes a child aged three to nine</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2369,7 +2369,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>party_includes_friend_relative</t>
+          <t>party_includes_coworker</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2384,7 +2384,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>True if the traveling party includes a friend or relative</t>
+          <t>True if the traveling party includes a coworker</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2396,7 +2396,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>party_includes_mobility_impaired</t>
+          <t>party_includes_friend_relative</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>True if the traveling party includes a mobility impaired person</t>
+          <t>True if the traveling party includes a friend or relative</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2423,22 +2423,22 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>sdia_flight_frequency</t>
+          <t>party_includes_mobility_impaired</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SanFlightFrequency</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Respondent's number of flights from SDIA in the past 12 months</t>
+          <t>True if the traveling party includes a mobility impaired person</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2450,7 +2450,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>sdia_previous_accessmode</t>
+          <t>sdia_flight_frequency</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Number of times respondent used revealed access modes for other SDIA airport access trips in the past 12 months</t>
+          <t>Respondent's number of flights from SDIA in the past 12 months</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2477,22 +2477,22 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_taxi</t>
+          <t>sdia_previous_accessmode</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>SanFlightFrequency</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>True if the respondent used taxi as a mode for his trip to SDIA in the last 12 months</t>
+          <t>Number of times respondent used revealed access modes for other SDIA airport access trips in the past 12 months</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2504,7 +2504,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_uber_lyft</t>
+          <t>sdia_accessmode_split_taxi</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>True if the respondent used Uber or Lyft as a mode for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used taxi as a mode for his trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2531,7 +2531,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_car_black</t>
+          <t>sdia_accessmode_split_uber_lyft</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>True if the respondent used a black car or luxury service for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used Uber or Lyft as a mode for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2558,7 +2558,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_dropped_off_by_family_friend</t>
+          <t>sdia_accessmode_split_car_black</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>True if the respondent was dropped off by a family member or friend for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used a black car or luxury service for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2585,7 +2585,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_drove_alone_and_parked</t>
+          <t>sdia_accessmode_split_dropped_off_by_family_friend</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>True if the respondent drove alone and parked at SDIA in the last 12 months</t>
+          <t>True if the respondent was dropped off by a family member or friend for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2612,7 +2612,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_drove_with_others_and_parked</t>
+          <t>sdia_accessmode_split_drove_alone_and_parked</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>True if the respondent drove with others and parked at SDIA in the last 12 months</t>
+          <t>True if the respondent drove alone and parked at SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2639,7 +2639,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_rode_with_other_travelers_and_parked</t>
+          <t>sdia_accessmode_split_drove_with_others_and_parked</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>True if the respondent rode with other travelers and parked at SDIA in the last 12 months</t>
+          <t>True if the respondent drove with others and parked at SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2666,7 +2666,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_mts992</t>
+          <t>sdia_accessmode_split_rode_with_other_travelers_and_parked</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>True if the respondent used MTS992 for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent rode with other travelers and parked at SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2693,7 +2693,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_flyer_shuttle</t>
+          <t>sdia_accessmode_split_mts992</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>True if the respondent used the Flyer Shuttle for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used MTS992 for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2720,7 +2720,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_other_public_transit</t>
+          <t>sdia_accessmode_split_flyer_shuttle</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>True if the respondent used another form of public transit for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used the Flyer Shuttle for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2747,7 +2747,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_rental_car_dropped_off</t>
+          <t>sdia_accessmode_split_other_public_transit</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>True if the respondent used a rental car and was dropped off at SDIA in the last 12 months</t>
+          <t>True if the respondent used another form of public transit for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2774,7 +2774,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_rental_car_parked</t>
+          <t>sdia_accessmode_split_rental_car_dropped_off</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>True if the respondent parked a rental car at SDIA in the last 12 months</t>
+          <t>True if the respondent used a rental car and was dropped off at SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2801,7 +2801,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_chartered_tour_bus</t>
+          <t>sdia_accessmode_split_rental_car_parked</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2816,7 +2816,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>True if the respondent used a chartered tour bus for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent parked a rental car at SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2828,7 +2828,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_hotel_shuttle_van</t>
+          <t>sdia_accessmode_split_chartered_tour_bus</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>True if the respondent used a hotel shuttle van for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used a chartered tour bus for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2855,7 +2855,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_employee_shuttle</t>
+          <t>sdia_accessmode_split_hotel_shuttle_van</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2870,7 +2870,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>True if the respondent used an employee shuttle for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used a hotel shuttle van for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2882,7 +2882,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_other_shared_van</t>
+          <t>sdia_accessmode_split_employee_shuttle</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>True if the respondent used another type of shared van service for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used an employee shuttle for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2909,7 +2909,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_walk</t>
+          <t>sdia_accessmode_split_other_shared_van</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>True if the respondent walked to SDIA in the last 12 months</t>
+          <t>True if the respondent used another type of shared van service for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2936,7 +2936,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_wheelchair</t>
+          <t>sdia_accessmode_split_walk</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2951,7 +2951,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>True if the respondent used a wheelchair for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent walked to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2963,7 +2963,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_bicycle_electric_bikeshare</t>
+          <t>sdia_accessmode_split_wheelchair</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>True if the respondent used an electric bikeshare for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used a wheelchair for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2990,7 +2990,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_bicycle_non_electric_bikeshare</t>
+          <t>sdia_accessmode_split_bicycle_electric_bikeshare</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3005,7 +3005,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>True if the respondent used a non-electric bikeshare for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used an electric bikeshare for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3017,7 +3017,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_bicycle_personal_electric_bicycle</t>
+          <t>sdia_accessmode_split_bicycle_non_electric_bikeshare</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3032,7 +3032,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>True if the respondent used a personal electric bicycle for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used a non-electric bikeshare for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3044,7 +3044,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_bicycle_personal_non_electric_bicycle</t>
+          <t>sdia_accessmode_split_bicycle_personal_electric_bicycle</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>True if the respondent used a personal non-electric bicycle for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used a personal electric bicycle for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3071,7 +3071,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_e_scooter_shared</t>
+          <t>sdia_accessmode_split_bicycle_personal_non_electric_bicycle</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>True if the respondent used a shared electric scooter for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used a personal non-electric bicycle for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3098,7 +3098,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>sdia_accessmode_split_e_scooter_personal</t>
+          <t>sdia_accessmode_split_e_scooter_shared</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>True if the respondent used a personal electric scooter for their trip to SDIA in the last 12 months</t>
+          <t>True if the respondent used a shared electric scooter for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3125,22 +3125,22 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>sdia_accessmode_decision</t>
+          <t>sdia_accessmode_split_e_scooter_personal</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ModeDecision</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Factor which affects mode choice, for respondents who do not always used the same mode</t>
+          <t>True if the respondent used a personal electric scooter for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3152,7 +3152,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>reverse_mode</t>
+          <t>sdia_accessmode_decision</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3162,12 +3162,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>TravelMode</t>
+          <t>ModeDecision</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Mode that was used in the reverse direction</t>
+          <t>Factor which affects mode choice, for respondents who do not always used the same mode</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3179,7 +3179,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>reverse_mode_predicted</t>
+          <t>reverse_mode</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Mode that will be used in the reverse direction</t>
+          <t>Mode that was used in the reverse direction</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3206,22 +3206,22 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>reverse_mode_predicted_other</t>
+          <t>reverse_mode_predicted</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>TravelMode</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Mode (not listed) which will be used in the reverse direction</t>
+          <t>Mode that will be used in the reverse direction</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3233,22 +3233,22 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>sdia_transit_awareness</t>
+          <t>reverse_mode_predicted_other</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>YesNoType</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Whether respondent is aware that buses are serving SDIA</t>
+          <t>Mode (not listed) which will be used in the reverse direction</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3260,22 +3260,22 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>reasons_no_transit_not_convenient</t>
+          <t>sdia_transit_awareness</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>YesNoType</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it is not convenient</t>
+          <t>Whether respondent is aware that buses are serving SDIA</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3287,7 +3287,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>reasons_no_transit_too_complicated</t>
+          <t>reasons_no_transit_not_convenient</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it too complicated</t>
+          <t>True if the respondent did not use transit because it is not convenient</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3314,7 +3314,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>reasons_no_transit_dont_know_how</t>
+          <t>reasons_no_transit_too_complicated</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3329,7 +3329,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because they don't know how</t>
+          <t>True if the respondent did not use transit because it too complicated</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3341,7 +3341,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>reasons_no_transit_no_good_options</t>
+          <t>reasons_no_transit_dont_know_how</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3356,7 +3356,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because there are no good options</t>
+          <t>True if the respondent did not use transit because they don't know how</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3368,7 +3368,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>reasons_no_transit_not_flexible</t>
+          <t>reasons_no_transit_no_good_options</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it is not flexible</t>
+          <t>True if the respondent did not use transit because there are no good options</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3395,7 +3395,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>reasons_no_transit_not_reliable</t>
+          <t>reasons_no_transit_not_flexible</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3410,7 +3410,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it is not reliable</t>
+          <t>True if the respondent did not use transit because it is not flexible</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3422,7 +3422,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>reasons_no_transit_not_safe</t>
+          <t>reasons_no_transit_not_reliable</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it is not safe</t>
+          <t>True if the respondent did not use transit because it is not reliable</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3449,7 +3449,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>reasons_no_transit_ride_too_long</t>
+          <t>reasons_no_transit_not_safe</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3464,7 +3464,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it takes too long</t>
+          <t>True if the respondent did not use transit because it is not safe</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3476,7 +3476,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>reasons_no_transit_wait_too_long</t>
+          <t>reasons_no_transit_ride_too_long</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because the wait time is too long</t>
+          <t>True if the respondent did not use transit because it takes too long</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3503,7 +3503,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>reasons_no_transit_does_not_run_when_needed</t>
+          <t>reasons_no_transit_wait_too_long</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because of it's schedule</t>
+          <t>True if the respondent did not use transit because the wait time is too long</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3530,7 +3530,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>reasons_no_transit_too_many_transfers</t>
+          <t>reasons_no_transit_does_not_run_when_needed</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it requries too many transfers</t>
+          <t>True if the respondent did not use transit because of it's schedule</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3557,7 +3557,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>reasons_no_transit_stop_too_far</t>
+          <t>reasons_no_transit_too_many_transfers</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3572,7 +3572,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because the stop is too far</t>
+          <t>True if the respondent did not use transit because it requries too many transfers</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3584,7 +3584,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>reasons_no_transit_not_economical</t>
+          <t>reasons_no_transit_stop_too_far</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it is not economical</t>
+          <t>True if the respondent did not use transit because the stop is too far</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -3611,7 +3611,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>reasons_no_transit_dislike_crowded_trains_buses</t>
+          <t>reasons_no_transit_not_economical</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3626,7 +3626,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because they don't like crowded trains and buses</t>
+          <t>True if the respondent did not use transit because it is not economical</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3638,7 +3638,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>reasons_no_transit_too_much_walking_stairs</t>
+          <t>reasons_no_transit_dislike_crowded_trains_buses</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it involves too much walking and/or stairs</t>
+          <t>True if the respondent did not use transit because they don't like crowded trains and buses</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -3665,7 +3665,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>reasons_no_transit_dislike_public_transport</t>
+          <t>reasons_no_transit_too_much_walking_stairs</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because they don't like public transport</t>
+          <t>True if the respondent did not use transit because it involves too much walking and/or stairs</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -3692,7 +3692,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>reasons_no_transit_dislike_public_transport_with_luggage</t>
+          <t>reasons_no_transit_dislike_public_transport</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3707,7 +3707,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because they don't like public transport with luggage</t>
+          <t>True if the respondent did not use transit because they don't like public transport</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -3719,7 +3719,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>reasons_no_transit_prefer_other_mode</t>
+          <t>reasons_no_transit_dislike_public_transport_with_luggage</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because they prefer other modes(s)</t>
+          <t>True if the respondent did not use transit because they don't like public transport with luggage</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -3746,22 +3746,22 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>general_use_transit_resident</t>
+          <t>reasons_no_transit_prefer_other_mode</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>TransitUseFrequency</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>General transit use frequency by residents of San Diego region in San Diego region</t>
+          <t>True if the respondent did not use transit because they prefer other modes(s)</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -3773,7 +3773,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>general_use_transit_visitor_home</t>
+          <t>general_use_transit_resident</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>General transit use frequency by visitors of San Diego region when home</t>
+          <t>General transit use frequency by residents of San Diego region in San Diego region</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -3800,22 +3800,22 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_taxi</t>
+          <t>general_use_transit_visitor_home</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>TransitUseFrequency</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>True if the visitor used Taxi as a mode during their visit to the San Diego Region</t>
+          <t>General transit use frequency by visitors of San Diego region when home</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -3827,7 +3827,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_uber_lyft</t>
+          <t>general_modes_used_visitor_taxi</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3842,7 +3842,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>True if the visitor used Uber or Lyft as a mode during their visit to the San Diego Region</t>
+          <t>True if the visitor used Taxi as a mode during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -3854,7 +3854,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_car_black</t>
+          <t>general_modes_used_visitor_uber_lyft</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3869,7 +3869,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>True if the visitor used a black car service as a mode during their visit to the San Diego Region</t>
+          <t>True if the visitor used Uber or Lyft as a mode during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -3881,7 +3881,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_dropped_off_by_family_friend</t>
+          <t>general_modes_used_visitor_car_black</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>True if the visitor was dropped off by a family member or friend during their visit to the San Diego Region</t>
+          <t>True if the visitor used a black car service as a mode during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -3908,7 +3908,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_drove_alone_and_parked</t>
+          <t>general_modes_used_visitor_dropped_off_by_family_friend</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3923,7 +3923,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>True if the visitor drove alone and parked during their visit to the San Diego Region</t>
+          <t>True if the visitor was dropped off by a family member or friend during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -3935,7 +3935,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_drove_with_others_and_parked</t>
+          <t>general_modes_used_visitor_drove_alone_and_parked</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>True if the visitor drove with others and parked during their visit to the San Diego Region</t>
+          <t>True if the visitor drove alone and parked during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -3962,7 +3962,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_rode_with_other_travelers_and_parked</t>
+          <t>general_modes_used_visitor_drove_with_others_and_parked</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>True if the visitor rode with other travelers and parked during their visit to the San Diego Region</t>
+          <t>True if the visitor drove with others and parked during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -3989,7 +3989,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_coaster</t>
+          <t>general_modes_used_visitor_rode_with_other_travelers_and_parked</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>True if the visitor used the Coaster train during their visit to the San Diego Region</t>
+          <t>True if the visitor rode with other travelers and parked during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -4016,7 +4016,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_mts_red_trolley</t>
+          <t>general_modes_used_visitor_coaster</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>True if the visitor used the MTS Red Trolley during their visit to the San Diego Region</t>
+          <t>True if the visitor used the Coaster train during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -4043,7 +4043,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_other_public_bus</t>
+          <t>general_modes_used_visitor_mts_red_trolley</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>True if the visitor used other public bus services during their visit to the San Diego Region</t>
+          <t>True if the visitor used the MTS Red Trolley during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4070,7 +4070,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_other_public_transit</t>
+          <t>general_modes_used_visitor_other_public_bus</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4085,7 +4085,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>True if the visitor used other public transit services during their visit to the San Diego Region</t>
+          <t>True if the visitor used other public bus services during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -4097,7 +4097,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_rental_car_dropped_off</t>
+          <t>general_modes_used_visitor_other_public_transit</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4112,7 +4112,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>True if the visitor used a rental car and was dropped off during their visit to the San Diego Region</t>
+          <t>True if the visitor used other public transit services during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -4124,7 +4124,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_rental_car_parked</t>
+          <t>general_modes_used_visitor_rental_car_dropped_off</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4139,7 +4139,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>True if the visitor used a rental car and parked during their visit to the San Diego Region</t>
+          <t>True if the visitor used a rental car and was dropped off during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4151,7 +4151,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_chartered_tour_bus</t>
+          <t>general_modes_used_visitor_rental_car_parked</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>True if the visitor used a chartered tour bus during their visit to the San Diego Region</t>
+          <t>True if the visitor used a rental car and parked during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -4178,7 +4178,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_hotel_shuttle_van</t>
+          <t>general_modes_used_visitor_chartered_tour_bus</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>True if the visitor used a hotel shuttle or van during their visit to the San Diego Region</t>
+          <t>True if the visitor used a chartered tour bus during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -4205,7 +4205,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_employee_shuttle</t>
+          <t>general_modes_used_visitor_hotel_shuttle_van</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4220,7 +4220,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>True if the visitor used an employee shuttle during their visit to the San Diego Region</t>
+          <t>True if the visitor used a hotel shuttle or van during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4232,7 +4232,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_other_shared_van</t>
+          <t>general_modes_used_visitor_employee_shuttle</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4247,7 +4247,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>True if the visitor used another type of shared van service during their visit to the San Diego Region</t>
+          <t>True if the visitor used an employee shuttle during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4259,7 +4259,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_walk</t>
+          <t>general_modes_used_visitor_other_shared_van</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4274,7 +4274,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>True if the visitor walked as a mode during their visit to the San Diego Region</t>
+          <t>True if the visitor used another type of shared van service during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4286,7 +4286,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_wheelchair</t>
+          <t>general_modes_used_visitor_walk</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>True if the visitor used a wheelchair during their visit to the San Diego Region</t>
+          <t>True if the visitor walked as a mode during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4313,7 +4313,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_bicycle_electric_bikeshare</t>
+          <t>general_modes_used_visitor_wheelchair</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>True if the visitor used an electric bicycle through a bikeshare service during their visit to the San Diego Region</t>
+          <t>True if the visitor used a wheelchair during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4340,7 +4340,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_bicycle_non_electric_bikeshare</t>
+          <t>general_modes_used_visitor_bicycle_electric_bikeshare</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4355,7 +4355,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>True if the visitor used a non-electric bicycle through a bikeshare service during their visit to the San Diego Region</t>
+          <t>True if the visitor used an electric bicycle through a bikeshare service during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -4367,7 +4367,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_bicycle_personal_electric_bicycle</t>
+          <t>general_modes_used_visitor_bicycle_non_electric_bikeshare</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4382,7 +4382,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>True if the visitor used their personal electric bicycle during their visit to the San Diego Region</t>
+          <t>True if the visitor used a non-electric bicycle through a bikeshare service during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -4394,7 +4394,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_bicycle_personal_non_electric_bicycle</t>
+          <t>general_modes_used_visitor_bicycle_personal_electric_bicycle</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4409,7 +4409,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>True if the visitor used their personal non-electric bicycle during their visit to the San Diego Region</t>
+          <t>True if the visitor used their personal electric bicycle during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -4421,7 +4421,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_e_scooter_shared</t>
+          <t>general_modes_used_visitor_bicycle_personal_non_electric_bicycle</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>True if the visitor used a shared e-scooter during their visit to the San Diego Region</t>
+          <t>True if the visitor used their personal non-electric bicycle during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -4448,7 +4448,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_e_scooter_personal</t>
+          <t>general_modes_used_visitor_e_scooter_shared</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -4463,7 +4463,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>True if the visitor used their personal e-scooter during their visit to the San Diego Region</t>
+          <t>True if the visitor used a shared e-scooter during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -4475,22 +4475,22 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>non_sdia_flight_frequency</t>
+          <t>general_modes_used_visitor_e_scooter_personal</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>OtherFlightAndTransitUseFrequency</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Respondent's number of flights from airport other than SDIA in the past 12 months</t>
+          <t>True if the visitor used their personal e-scooter during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -4502,7 +4502,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>other_airport_accessmode</t>
+          <t>non_sdia_flight_frequency</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -4512,12 +4512,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>TravelMode</t>
+          <t>OtherFlightAndTransitUseFrequency</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Travel mode used to access other airports</t>
+          <t>Respondent's number of flights from airport other than SDIA in the past 12 months</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -4529,7 +4529,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>airport_access_transit_use_elsewhere</t>
+          <t>other_airport_accessmode</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -4539,12 +4539,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>OtherFlightAndTransitUseFrequency</t>
+          <t>TravelMode</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Frequency of Transit use by respondent to access other airports</t>
+          <t>Travel mode used to access other airports</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -4556,22 +4556,22 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>airportaccesstransitname</t>
+          <t>airport_access_transit_use_elsewhere</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>OtherFlightAndTransitUseFrequency</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Names of airports accessed by transit</t>
+          <t>Frequency of Transit use by respondent to access other airports</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -4583,194 +4583,194 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
+          <t>airportaccesstransitname</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Actual Value</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Names of airports accessed by transit</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>AirPassenger</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
           <t>airport_terminal</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="B156" t="inlineStr">
         <is>
           <t>Computed</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="C156" t="inlineStr">
         <is>
           <t>Computed Value</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="D156" t="inlineStr">
         <is>
           <t xml:space="preserve">
         Airport Terminal for Air Passenger
         </t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>AirPassenger</t>
         </is>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
+    <row r="157">
+      <c r="A157" t="inlineStr">
         <is>
           <t>is_final_destination</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
+      <c r="B157" t="inlineStr">
         <is>
           <t>Computed</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
+      <c r="C157" t="inlineStr">
         <is>
           <t>Computed Value</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="D157" t="inlineStr">
         <is>
           <t xml:space="preserve">
         True if the next flight destination is final and not a layover
         </t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>AirPassenger</t>
         </is>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
+    <row r="158">
+      <c r="A158" t="inlineStr">
         <is>
           <t>is_original_origin</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>Computed</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>Computed Value</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="D158" t="inlineStr">
         <is>
           <t xml:space="preserve">
         True if the previous flight origin was original and not a layover
         </t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>AirPassenger</t>
         </is>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
+    <row r="159">
+      <c r="A159" t="inlineStr">
         <is>
           <t>next_flight_destination</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B159" t="inlineStr">
         <is>
           <t>Computed</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t>Computed Value</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="D159" t="inlineStr">
         <is>
           <t xml:space="preserve">
         Next Flight Destination for a departing passenger
         </t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>AirPassenger</t>
         </is>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
+    <row r="160">
+      <c r="A160" t="inlineStr">
         <is>
           <t>previous_flight_origin</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="B160" t="inlineStr">
         <is>
           <t>Computed</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="C160" t="inlineStr">
         <is>
           <t>Computed Value</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="D160" t="inlineStr">
         <is>
           <t xml:space="preserve">
         Previous flight origin for an arriving passenger
         </t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>AirPassenger</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>shift_start_airport_building</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>SanBuildings</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Name of building where employee starts their shift</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>Employee</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>shift_start_airport_building_other</t>
+          <t>shift_start_airport_building</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>SanBuildings</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Name of building (not listed) where employee starts their shift</t>
+          <t>Name of building where employee starts their shift</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -4782,22 +4782,22 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>employer</t>
+          <t>shift_start_airport_building_other</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Employers</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Name of respondent's employer</t>
+          <t>Name of building (not listed) where employee starts their shift</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -4809,22 +4809,22 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>employer_other</t>
+          <t>employer</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>Employers</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Name (not listed) of respondent's employer</t>
+          <t>Name of respondent's employer</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -4836,22 +4836,22 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>occupation</t>
+          <t>employer_other</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Occupations</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Occupation of the employee</t>
+          <t>Name (not listed) of respondent's employer</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -4863,22 +4863,22 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>occupation_other</t>
+          <t>occupation</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>Occupations</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Occupation (other, not listed) of the employee</t>
+          <t>Occupation of the employee</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -4890,22 +4890,22 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>number_hours_worked</t>
+          <t>occupation_other</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>HoursWorked</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Number of hours respondent worked in the past 7 days</t>
+          <t>Occupation (other, not listed) of the employee</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -4917,7 +4917,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>number_commute_days</t>
+          <t>number_hours_worked</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4927,12 +4927,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>CommuteDays</t>
+          <t>HoursWorked</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Number of days respondent commuted to the airport in the past 7 days</t>
+          <t>Number of hours respondent worked in the past 7 days</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -4944,7 +4944,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>shift_start_time</t>
+          <t>number_commute_days</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4954,12 +4954,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>DepartTime</t>
+          <t>CommuteDays</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Time when the employee's shift starts</t>
+          <t>Number of days respondent commuted to the airport in the past 7 days</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -4971,7 +4971,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>shift_end_time</t>
+          <t>shift_start_time</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4986,7 +4986,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Time when the employee's shift ends</t>
+          <t>Time when the employee's shift starts</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -4998,7 +4998,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>reverse_commute_mode</t>
+          <t>shift_end_time</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5008,12 +5008,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>TravelMode</t>
+          <t>DepartTime</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Reverse commute mode for the employee</t>
+          <t>Time when the employee's shift ends</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5025,22 +5025,22 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>reverse_commute_mode_other</t>
+          <t>reverse_commute_mode</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>TravelMode</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Reverse commute mode for the employee (other, not listed)</t>
+          <t>Reverse commute mode for the employee</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -5052,22 +5052,22 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>same_commute_mode</t>
+          <t>reverse_commute_mode_other</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>YesNoType</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>True if the employee always used the same travel mode to commute in the last 30 days</t>
+          <t>Reverse commute mode for the employee (other, not listed)</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -5079,22 +5079,22 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>same_commute_mode_other</t>
+          <t>same_commute_mode</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>YesNoType</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Other Response to employee's travel mode to commute in the last 30 days</t>
+          <t>True if the employee always used the same travel mode to commute in the last 30 days</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -5106,12 +5106,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>alt_commute_mode_taxi</t>
+          <t>same_commute_mode_other</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -5121,7 +5121,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>True if the employee used Taxi as a mode to commute to the airport in the past 30 days</t>
+          <t>Other Response to employee's travel mode to commute in the last 30 days</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -5133,7 +5133,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>alt_commute_mode_uber_lyft</t>
+          <t>alt_commute_mode_taxi</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5148,7 +5148,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>True if the employee used Uber or Lyft as a mode to commute to the airport in the past 30 days</t>
+          <t>True if the employee used Taxi as a mode to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -5160,7 +5160,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>alt_commute_mode_car_black</t>
+          <t>alt_commute_mode_uber_lyft</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>True if the employee used a black car service as a mode to commute to the airport in the past 30 days</t>
+          <t>True if the employee used Uber or Lyft as a mode to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -5187,7 +5187,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>alt_commute_mode_picked_by_family_friend</t>
+          <t>alt_commute_mode_car_black</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>True if the employee was picked up by a family member or friend to commute to the airport in the past 30 days</t>
+          <t>True if the employee used a black car service as a mode to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -5214,7 +5214,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>alt_commute_mode_parked_vehicle_and_drive_alone</t>
+          <t>alt_commute_mode_picked_by_family_friend</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>True if the employee drove alone and parked their vehicle while commuting to the airport in the past 30 days</t>
+          <t>True if the employee was picked up by a family member or friend to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -5241,7 +5241,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>alt_commute_mode_parked_vehicle_and_drive_with_others</t>
+          <t>alt_commute_mode_parked_vehicle_and_drive_alone</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>True if the employee drove with others and parked their vehicle while commuting to the airport in the past 30 days</t>
+          <t>True if the employee drove alone and parked their vehicle while commuting to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -5268,7 +5268,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>alt_commute_mode_parked_vehicle_and_ride_with_other_travelers</t>
+          <t>alt_commute_mode_parked_vehicle_and_drive_with_others</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -5283,7 +5283,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>True if the employee rode with other travelers and parked their vehicle while commuting to the airport in the past 30 days</t>
+          <t>True if the employee drove with others and parked their vehicle while commuting to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -5295,7 +5295,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>alt_commute_mode_mts_route_992</t>
+          <t>alt_commute_mode_parked_vehicle_and_ride_with_other_travelers</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -5310,7 +5310,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>True if the employee used MTS Route 992 to commute to the airport in the past 30 days</t>
+          <t>True if the employee rode with other travelers and parked their vehicle while commuting to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -5322,7 +5322,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>alt_commute_mode_airport_flyer_shuttle</t>
+          <t>alt_commute_mode_mts_route_992</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>True if the employee used the Airport Flyer Shuttle to commute to the airport in the past 30 days</t>
+          <t>True if the employee used MTS Route 992 to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -5349,7 +5349,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>alt_commute_mode_other_public_transit</t>
+          <t>alt_commute_mode_airport_flyer_shuttle</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>True if the employee used other public transit services to commute to the airport in the past 30 days</t>
+          <t>True if the employee used the Airport Flyer Shuttle to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -5376,7 +5376,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>alt_commute_mode_other_shared_van</t>
+          <t>alt_commute_mode_other_public_transit</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -5391,7 +5391,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>True if the employee used another type of shared van service to commute to the airport in the past 30 days</t>
+          <t>True if the employee used other public transit services to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -5403,7 +5403,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>alt_commute_mode_walk</t>
+          <t>alt_commute_mode_other_shared_van</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>True if the employee walked as a mode to commute to the airport in the past 30 days</t>
+          <t>True if the employee used another type of shared van service to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -5430,7 +5430,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>alt_commute_mode_wheelchair</t>
+          <t>alt_commute_mode_walk</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>True if the employee used a wheelchair to commute to the airport in the past 30 days</t>
+          <t>True if the employee walked as a mode to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -5457,7 +5457,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>alt_commute_mode_bicycle_electric_bikeshare</t>
+          <t>alt_commute_mode_wheelchair</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -5472,7 +5472,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>True if the employee used an electric bicycle through a bikeshare service to commute to the airport in the past 30 days</t>
+          <t>True if the employee used a wheelchair to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -5484,7 +5484,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>alt_commute_mode_bicycle_non_electric_bikeshare</t>
+          <t>alt_commute_mode_bicycle_electric_bikeshare</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -5499,7 +5499,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>True if the employee used a non-electric bicycle through a bikeshare service to commute to the airport in the past 30 days</t>
+          <t>True if the employee used an electric bicycle through a bikeshare service to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -5511,7 +5511,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>alt_commute_mode_bicycle_personal_electric_bicycle</t>
+          <t>alt_commute_mode_bicycle_non_electric_bikeshare</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -5526,7 +5526,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>True if the employee used their personal electric bicycle to commute to the airport in the past 30 days</t>
+          <t>True if the employee used a non-electric bicycle through a bikeshare service to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -5538,7 +5538,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>alt_commute_mode_bicycle_personal_non_electric_bicycle</t>
+          <t>alt_commute_mode_bicycle_personal_electric_bicycle</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>True if the employee used their personal non-electric bicycle to commute to the airport in the past 30 days</t>
+          <t>True if the employee used their personal electric bicycle to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -5565,7 +5565,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>alt_commute_mode_e_scooter_shared</t>
+          <t>alt_commute_mode_bicycle_personal_non_electric_bicycle</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -5580,7 +5580,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>True if the employee used a shared e-scooter to commute to the airport in the past 30 days</t>
+          <t>True if the employee used their personal non-electric bicycle to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -5592,7 +5592,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>alt_commute_mode_e_scooter_personal</t>
+          <t>alt_commute_mode_e_scooter_shared</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -5607,7 +5607,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>True if the employee used their personal e-scooter to commute to the airport in the past 30 days</t>
+          <t>True if the employee used a shared e-scooter to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -5619,22 +5619,22 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>commute_mode_decision</t>
+          <t>alt_commute_mode_e_scooter_personal</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>ModeDecision</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Factor affecting the Mode choice of the employee</t>
+          <t>True if the employee used their personal e-scooter to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -5646,22 +5646,22 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>commute_mode_decision_other</t>
+          <t>commute_mode_decision</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>ModeDecision</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>(Other) Factor affecting the Mode choice of the employee</t>
+          <t>Factor affecting the Mode choice of the employee</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -5673,12 +5673,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>employee_parking</t>
+          <t>commute_mode_decision_other</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -5688,7 +5688,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Whether the respondent has access to employee parking</t>
+          <t>(Other) Factor affecting the Mode choice of the employee</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -5700,34 +5700,34 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>inbound_or_outbound</t>
+          <t>employee_parking</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>InboundOutbound</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Whether the trip is inbound to the airport or outbound from the airport</t>
+          <t>Whether the respondent has access to employee parking</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Employee</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>origin_activity_type</t>
+          <t>inbound_or_outbound</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -5737,12 +5737,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>ActivityType</t>
+          <t>InboundOutbound</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Activity type at the origin of the trip to the airport</t>
+          <t>Whether the trip is inbound to the airport or outbound from the airport</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -5754,17 +5754,17 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>origin_activity_type_other</t>
+          <t>origin_activity_type</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>ActivityType</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5781,7 +5781,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>origin_name</t>
+          <t>origin_activity_type_other</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Place name of the origin of the trip to the airport</t>
+          <t>Activity type at the origin of the trip to the airport</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -5808,7 +5808,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>origin_city</t>
+          <t>origin_name</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>City of the origin address for the trip to the airport</t>
+          <t>Place name of the origin of the trip to the airport</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -5835,7 +5835,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>origin_state</t>
+          <t>origin_city</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -5850,7 +5850,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>State of the origin address for the trip to the airport</t>
+          <t>City of the origin address for the trip to the airport</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -5862,7 +5862,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>origin_zip</t>
+          <t>origin_state</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>ZIP code of the origin address for the trip to the airport</t>
+          <t>State of the origin address for the trip to the airport</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -5889,12 +5889,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>origin_latitude</t>
+          <t>origin_zip</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -5904,7 +5904,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Latitude coordinate of the origin address for the trip to the airport</t>
+          <t>ZIP code of the origin address for the trip to the airport</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -5916,12 +5916,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>origin_longitude</t>
+          <t>origin_latitude</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -5931,7 +5931,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Longitude coordinate of the origin address for the trip to the airport</t>
+          <t>Latitude coordinate of the origin address for the trip to the airport</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -5943,22 +5943,22 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>destination_activity_type</t>
+          <t>origin_longitude</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>ActivityType</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Activity type at the destination of the trip from the airport</t>
+          <t>Longitude coordinate of the origin address for the trip to the airport</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -5970,22 +5970,22 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>destination_activity_type_other</t>
+          <t>destination_activity_type</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>ActivityType</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Activity type (other) at the destination of the trip from the airport</t>
+          <t>Activity type at the destination of the trip from the airport</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -5997,7 +5997,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>destination_name</t>
+          <t>destination_activity_type_other</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -6012,7 +6012,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Place name of the destination from the airport</t>
+          <t>Activity type (other) at the destination of the trip from the airport</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -6024,7 +6024,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>destination_city</t>
+          <t>destination_name</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -6039,7 +6039,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>City of the destination address from the airport</t>
+          <t>Place name of the destination from the airport</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -6051,7 +6051,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>destination_state</t>
+          <t>destination_city</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -6066,7 +6066,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>State of the destination address from the airport</t>
+          <t>City of the destination address from the airport</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -6078,7 +6078,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>destination_zip</t>
+          <t>destination_state</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -6093,7 +6093,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>ZIP code of the destination address from the airport</t>
+          <t>State of the destination address from the airport</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -6105,12 +6105,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>destination_latitude</t>
+          <t>destination_zip</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Latitude coordinate of the destination address from the airport</t>
+          <t>ZIP code of the destination address from the airport</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -6132,12 +6132,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>destination_longitude</t>
+          <t>destination_latitude</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -6147,7 +6147,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Longitude coordinate of the destination address from the airport</t>
+          <t>Latitude coordinate of the destination address from the airport</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -6159,22 +6159,22 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>main_transit_mode</t>
+          <t>destination_longitude</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>TravelMode</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Main Transit mode to/from airport</t>
+          <t>Longitude coordinate of the destination address from the airport</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -6186,7 +6186,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>main_mode</t>
+          <t>main_transit_mode</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -6201,7 +6201,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Main Mode to/from airport</t>
+          <t>Main Transit mode to/from airport</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -6213,22 +6213,22 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>main_mode_other</t>
+          <t>main_mode</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>TravelMode</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Name of the other Main Mode to/from airport</t>
+          <t>Main Mode to/from airport</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -6240,7 +6240,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>shared_van_other</t>
+          <t>main_mode_other</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Name of the other shared van service used by respondent</t>
+          <t>Name of the other Main Mode to/from airport</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -6267,22 +6267,22 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>trip_start_time</t>
+          <t>shared_van_other</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>DepartTime</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Start time of the trip</t>
+          <t>Name of the other shared van service used by respondent</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -6294,7 +6294,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>trip_arrival_time</t>
+          <t>trip_start_time</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Arrival time of the trip</t>
+          <t>Start time of the trip</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -6321,7 +6321,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>number_transit_vehicles_to_airport</t>
+          <t>trip_arrival_time</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -6331,12 +6331,12 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>NumTransfers</t>
+          <t>DepartTime</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Number of transit transfers for the inbound trip to the airport</t>
+          <t>Arrival time of the trip</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -6348,22 +6348,22 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>to_airport_transit_route_1</t>
+          <t>number_transit_vehicles_to_airport</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>NumTransfers</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Name of the First Transit Route to the airport</t>
+          <t>Number of transit transfers for the inbound trip to the airport</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -6375,7 +6375,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>to_airport_transit_route_1_other</t>
+          <t>to_airport_transit_route_1</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Other First Transit Route to the airport</t>
+          <t>Name of the First Transit Route to the airport</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -6402,7 +6402,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>to_airport_transit_route_2</t>
+          <t>to_airport_transit_route_1_other</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -6417,7 +6417,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Name of the Second Transit Route to the airport</t>
+          <t>Other First Transit Route to the airport</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -6429,7 +6429,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>to_airport_transit_route_2_other</t>
+          <t>to_airport_transit_route_2</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -6444,7 +6444,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Other Second Transit Route to the airport</t>
+          <t>Name of the Second Transit Route to the airport</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -6456,7 +6456,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>to_airport_transit_route_3</t>
+          <t>to_airport_transit_route_2_other</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -6471,7 +6471,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Name of the Third Transit Route to the airport</t>
+          <t>Other Second Transit Route to the airport</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -6483,7 +6483,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>to_airport_transit_route_3_other</t>
+          <t>to_airport_transit_route_3</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -6498,7 +6498,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Other Third Transit Route to the airport</t>
+          <t>Name of the Third Transit Route to the airport</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -6510,7 +6510,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>to_airport_transit_route_4</t>
+          <t>to_airport_transit_route_3_other</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -6525,7 +6525,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Name of the Fourth Transit Route to the airport</t>
+          <t>Other Third Transit Route to the airport</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -6537,7 +6537,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>to_airport_transit_route_4_other</t>
+          <t>to_airport_transit_route_4</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -6552,7 +6552,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Other Fourth Transit Route to the airport</t>
+          <t>Name of the Fourth Transit Route to the airport</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -6564,22 +6564,22 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>access_mode</t>
+          <t>to_airport_transit_route_4_other</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>TravelMode</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Access mode to first transit vehicle for inbound trip to the airport</t>
+          <t>Other Fourth Transit Route to the airport</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -6591,22 +6591,22 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>access_mode_other</t>
+          <t>access_mode</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>TravelMode</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Other Access mode to first transit vehicle for inbound trip to the airport</t>
+          <t>Access mode to first transit vehicle for inbound trip to the airport</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -6618,7 +6618,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>taxi_fhv_fare</t>
+          <t>access_mode_other</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Taxi or for-hire vehicle fare</t>
+          <t>Other Access mode to first transit vehicle for inbound trip to the airport</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -6645,7 +6645,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>taxi_fhv_wait</t>
+          <t>taxi_fhv_fare</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Wait time for taxi or for-hire vehicle</t>
+          <t>Taxi or for-hire vehicle fare</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -6672,22 +6672,22 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>parking_location</t>
+          <t>taxi_fhv_wait</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>ParkingLocation</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t xml:space="preserve">Name of respondent's parking location. </t>
+          <t>Wait time for taxi or for-hire vehicle</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -6699,22 +6699,22 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>parking_location_other</t>
+          <t>parking_location</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>ParkingLocation</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t xml:space="preserve">Name of respondent's (other) parking location. </t>
+          <t xml:space="preserve">Name of respondent's parking location. </t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -6726,7 +6726,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>parking_cost</t>
+          <t>parking_location_other</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -6741,7 +6741,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Amount respondent paid to park</t>
+          <t xml:space="preserve">Name of respondent's (other) parking location. </t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -6753,22 +6753,22 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>parking_cost_frequency</t>
+          <t>parking_cost</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>ParkingCostFrequency</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Frequency of reported parking cost (e.g., one-time, per hour, per day, per month)</t>
+          <t>Amount respondent paid to park</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -6780,22 +6780,22 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>parking_cost_frequency_other</t>
+          <t>parking_cost_frequency</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>ParkingCostFrequency</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Other frequency of reported parking cost</t>
+          <t>Frequency of reported parking cost (e.g., one-time, per hour, per day, per month)</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -6807,22 +6807,22 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>reimbursement</t>
+          <t>parking_cost_frequency_other</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>ParkingReimbursement</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Whether or not ground access cost will be reimbursed by employer or other non-household member</t>
+          <t>Other frequency of reported parking cost</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -6834,7 +6834,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>number_transit_vehicles_from_airport</t>
+          <t>reimbursement</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -6844,12 +6844,12 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>NumTransfers</t>
+          <t>ParkingReimbursement</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Number of transit transfers for the inbound trip</t>
+          <t>Whether or not ground access cost will be reimbursed by employer or other non-household member</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -6861,22 +6861,22 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>from_airport_transit_route_1</t>
+          <t>number_transit_vehicles_from_airport</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>NumTransfers</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Name of the First Transit Route from the airport</t>
+          <t>Number of transit transfers for the inbound trip</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -6888,7 +6888,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>from_airport_transit_route_1_other</t>
+          <t>from_airport_transit_route_1</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -6903,7 +6903,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Other First Transit Route from the airport</t>
+          <t>Name of the First Transit Route from the airport</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -6915,7 +6915,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>from_airport_transit_route_2</t>
+          <t>from_airport_transit_route_1_other</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -6930,7 +6930,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Name of the Second Transit Route from the airport</t>
+          <t>Other First Transit Route from the airport</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -6942,7 +6942,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>from_airport_transit_route_2_other</t>
+          <t>from_airport_transit_route_2</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Other Second Transit Route from the airport</t>
+          <t>Name of the Second Transit Route from the airport</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -6969,7 +6969,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>from_airport_transit_route_3</t>
+          <t>from_airport_transit_route_2_other</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Name of the Third Transit Route from the airport</t>
+          <t>Other Second Transit Route from the airport</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -6996,7 +6996,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>from_airport_transit_route_3_other</t>
+          <t>from_airport_transit_route_3</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -7011,7 +7011,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Other Third Transit Route from the airport</t>
+          <t>Name of the Third Transit Route from the airport</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -7023,7 +7023,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>from_airport_transit_route_4</t>
+          <t>from_airport_transit_route_3_other</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Name of the Fourth Transit Route from the airport</t>
+          <t>Other Third Transit Route from the airport</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -7050,7 +7050,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>from_airport_transit_route_4_other</t>
+          <t>from_airport_transit_route_4</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -7065,7 +7065,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Other Fourth Transit Route from the airport</t>
+          <t>Name of the Fourth Transit Route from the airport</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -7077,22 +7077,22 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>egress_mode</t>
+          <t>from_airport_transit_route_4_other</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>TravelMode</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Egress mode from last transit vehicle for outbound trip</t>
+          <t>Other Fourth Transit Route from the airport</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -7104,22 +7104,22 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>egress_mode_other</t>
+          <t>egress_mode</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>TravelMode</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Other Egress mode from last transit vehicle for outbound trip</t>
+          <t>Egress mode from last transit vehicle for outbound trip</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -7131,7 +7131,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>transit_boarding_stop_name</t>
+          <t>egress_mode_other</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -7146,7 +7146,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Name of the stop where respondent boarded the main transit mode</t>
+          <t>Other Egress mode from last transit vehicle for outbound trip</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -7158,12 +7158,12 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>transit_boarding_latitude</t>
+          <t>transit_boarding_stop_name</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Latitude of the stop where respondent boarded the main transit mode</t>
+          <t>Name of the stop where respondent boarded the main transit mode</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -7185,12 +7185,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>transit_boarding_longitude</t>
+          <t>transit_boarding_latitude</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -7200,7 +7200,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Longitude of the stop where respondent boarded the main transit mode</t>
+          <t>Latitude of the stop where respondent boarded the main transit mode</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -7212,12 +7212,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>transit_alighting_stop_name</t>
+          <t>transit_boarding_longitude</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -7227,7 +7227,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Name of the stop where respondent got off the main transit mode</t>
+          <t>Longitude of the stop where respondent boarded the main transit mode</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -7239,12 +7239,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>transit_alighting_latitude</t>
+          <t>transit_alighting_stop_name</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -7254,7 +7254,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Latitude of the stop where respondent got off the main transit mode</t>
+          <t>Name of the stop where respondent got off the main transit mode</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -7266,12 +7266,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>transit_alighting_longitude</t>
+          <t>transit_alighting_latitude</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -7281,7 +7281,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Longitude of the stop where respondent got off the main transit mode</t>
+          <t>Latitude of the stop where respondent got off the main transit mode</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -7293,22 +7293,22 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>car_available</t>
+          <t>transit_alighting_longitude</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>CarAvailability</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Status of car availability for the trip to the airport</t>
+          <t>Longitude of the stop where respondent got off the main transit mode</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -7320,22 +7320,22 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>car_available_other</t>
+          <t>car_available</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>CarAvailability</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Status of car availability (other than listed) for the trip to the airport</t>
+          <t>Status of car availability for the trip to the airport</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -7347,114 +7347,141 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
+          <t>car_available_other</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Actual Value</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Status of car availability (other than listed) for the trip to the airport</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
           <t>non_airport_activity_type</t>
         </is>
       </c>
-      <c r="B257" t="inlineStr">
+      <c r="B258" t="inlineStr">
         <is>
           <t>Computed</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr">
+      <c r="C258" t="inlineStr">
         <is>
           <t>Computed Value</t>
         </is>
       </c>
-      <c r="D257" t="inlineStr">
+      <c r="D258" t="inlineStr">
         <is>
           <t xml:space="preserve">
         Activity type prior to traveling to the airport (for inbound) or activity traveling to do next (for outbound).
         </t>
         </is>
       </c>
-      <c r="E257" t="inlineStr">
+      <c r="E258" t="inlineStr">
         <is>
           <t>Trip</t>
         </is>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
+    <row r="259">
+      <c r="A259" t="inlineStr">
         <is>
           <t>parking_cost_numeric</t>
         </is>
       </c>
-      <c r="B258" t="inlineStr">
+      <c r="B259" t="inlineStr">
         <is>
           <t>Computed</t>
         </is>
       </c>
-      <c r="C258" t="inlineStr">
+      <c r="C259" t="inlineStr">
         <is>
           <t>Computed Value</t>
         </is>
       </c>
-      <c r="D258" t="inlineStr">
+      <c r="D259" t="inlineStr">
         <is>
           <t xml:space="preserve">
         Numeric Value of parking cost
         </t>
         </is>
       </c>
-      <c r="E258" t="inlineStr">
+      <c r="E259" t="inlineStr">
         <is>
           <t>Trip</t>
         </is>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
+    <row r="260">
+      <c r="A260" t="inlineStr">
         <is>
           <t>taxi_fhv_fare_numeric</t>
         </is>
       </c>
-      <c r="B259" t="inlineStr">
+      <c r="B260" t="inlineStr">
         <is>
           <t>Computed</t>
         </is>
       </c>
-      <c r="C259" t="inlineStr">
+      <c r="C260" t="inlineStr">
         <is>
           <t>Computed Value</t>
         </is>
       </c>
-      <c r="D259" t="inlineStr">
+      <c r="D260" t="inlineStr">
         <is>
           <t xml:space="preserve">
         Numeric Value of Taxi Fare
         </t>
         </is>
       </c>
-      <c r="E259" t="inlineStr">
+      <c r="E260" t="inlineStr">
         <is>
           <t>Trip</t>
         </is>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
+    <row r="261">
+      <c r="A261" t="inlineStr">
         <is>
           <t>taxi_fhv_wait_numeric</t>
         </is>
       </c>
-      <c r="B260" t="inlineStr">
+      <c r="B261" t="inlineStr">
         <is>
           <t>Computed</t>
         </is>
       </c>
-      <c r="C260" t="inlineStr">
+      <c r="C261" t="inlineStr">
         <is>
           <t>Computed Value</t>
         </is>
       </c>
-      <c r="D260" t="inlineStr">
+      <c r="D261" t="inlineStr">
         <is>
           <t xml:space="preserve">
         Numeric Value of Taxi Wait Time
         </t>
         </is>
       </c>
-      <c r="E260" t="inlineStr">
+      <c r="E261" t="inlineStr">
         <is>
           <t>Trip</t>
         </is>

--- a/reports/data_dictionary.xlsx
+++ b/reports/data_dictionary.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E261"/>
+  <dimension ref="A1:E265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4915,22 +4915,22 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>sdia_accessmode_decision</t>
+          <t>sdia_accessmode_split_other</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>ModeDecision</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Factor which affects mode choice, for respondents who do not always used the same mode</t>
+          <t>Other mode the respondent used for their trip to SDIA in the last 12 months</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -4942,7 +4942,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>reverse_mode</t>
+          <t>sdia_accessmode_decision</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4952,12 +4952,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>TravelMode</t>
+          <t>ModeDecision</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Mode that was used in the reverse direction</t>
+          <t>Factor which affects mode choice, for respondents who do not always used the same mode</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -4969,7 +4969,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>reverse_mode_predicted</t>
+          <t>reverse_mode</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Mode that will be used in the reverse direction</t>
+          <t>Mode that was used in the reverse direction</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -4996,22 +4996,22 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>reverse_mode_predicted_other</t>
+          <t>reverse_mode_predicted</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>TravelMode</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Mode (not listed) which will be used in the reverse direction</t>
+          <t>Mode that will be used in the reverse direction</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5023,22 +5023,22 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>sdia_transit_awareness</t>
+          <t>reverse_mode_predicted_other</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>YesNoType</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Whether respondent is aware that buses are serving SDIA</t>
+          <t>Mode (not listed) which will be used in the reverse direction</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -5050,22 +5050,22 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>reasons_no_transit_not_convenient</t>
+          <t>sdia_transit_awareness</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>YesNoType</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it is not convenient</t>
+          <t>Whether respondent is aware that buses are serving SDIA</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -5077,7 +5077,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>reasons_no_transit_too_complicated</t>
+          <t>reasons_no_transit_not_convenient</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5092,7 +5092,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it too complicated</t>
+          <t>True if the respondent did not use transit because it is not convenient</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -5104,7 +5104,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>reasons_no_transit_dont_know_how</t>
+          <t>reasons_no_transit_too_complicated</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because they don't know how</t>
+          <t>True if the respondent did not use transit because it too complicated</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -5131,7 +5131,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>reasons_no_transit_no_good_options</t>
+          <t>reasons_no_transit_dont_know_how</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5146,7 +5146,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because there are no good options</t>
+          <t>True if the respondent did not use transit because they don't know how</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -5158,7 +5158,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>reasons_no_transit_not_flexible</t>
+          <t>reasons_no_transit_no_good_options</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5173,7 +5173,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it is not flexible</t>
+          <t>True if the respondent did not use transit because there are no good options</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -5185,7 +5185,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>reasons_no_transit_not_reliable</t>
+          <t>reasons_no_transit_not_flexible</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it is not reliable</t>
+          <t>True if the respondent did not use transit because it is not flexible</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -5212,7 +5212,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>reasons_no_transit_not_safe</t>
+          <t>reasons_no_transit_not_reliable</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -5227,7 +5227,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it is not safe</t>
+          <t>True if the respondent did not use transit because it is not reliable</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -5239,7 +5239,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>reasons_no_transit_ride_too_long</t>
+          <t>reasons_no_transit_not_safe</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -5254,7 +5254,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it takes too long</t>
+          <t>True if the respondent did not use transit because it is not safe</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -5266,7 +5266,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>reasons_no_transit_wait_too_long</t>
+          <t>reasons_no_transit_ride_too_long</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because the wait time is too long</t>
+          <t>True if the respondent did not use transit because it takes too long</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -5293,7 +5293,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>reasons_no_transit_does_not_run_when_needed</t>
+          <t>reasons_no_transit_wait_too_long</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because of it's schedule</t>
+          <t>True if the respondent did not use transit because the wait time is too long</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -5320,7 +5320,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>reasons_no_transit_too_many_transfers</t>
+          <t>reasons_no_transit_does_not_run_when_needed</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it requries too many transfers</t>
+          <t>True if the respondent did not use transit because of it's schedule</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -5347,7 +5347,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>reasons_no_transit_stop_too_far</t>
+          <t>reasons_no_transit_too_many_transfers</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -5362,7 +5362,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because the stop is too far</t>
+          <t>True if the respondent did not use transit because it requries too many transfers</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -5374,7 +5374,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>reasons_no_transit_not_economical</t>
+          <t>reasons_no_transit_stop_too_far</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -5389,7 +5389,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it is not economical</t>
+          <t>True if the respondent did not use transit because the stop is too far</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -5401,7 +5401,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>reasons_no_transit_dislike_crowded_trains_buses</t>
+          <t>reasons_no_transit_not_economical</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because they don't like crowded trains and buses</t>
+          <t>True if the respondent did not use transit because it is not economical</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -5428,7 +5428,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>reasons_no_transit_too_much_walking_stairs</t>
+          <t>reasons_no_transit_dislike_crowded_trains_buses</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -5443,7 +5443,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because it involves too much walking and/or stairs</t>
+          <t>True if the respondent did not use transit because they don't like crowded trains and buses</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -5455,7 +5455,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>reasons_no_transit_dislike_public_transport</t>
+          <t>reasons_no_transit_too_much_walking_stairs</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -5470,7 +5470,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because they don't like public transport</t>
+          <t>True if the respondent did not use transit because it involves too much walking and/or stairs</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -5482,7 +5482,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>reasons_no_transit_dislike_public_transport_with_luggage</t>
+          <t>reasons_no_transit_dislike_public_transport</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because they don't like public transport with luggage</t>
+          <t>True if the respondent did not use transit because they don't like public transport</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -5509,7 +5509,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>reasons_no_transit_prefer_other_mode</t>
+          <t>reasons_no_transit_dislike_public_transport_with_luggage</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -5524,7 +5524,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>True if the respondent did not use transit because they prefer other modes(s)</t>
+          <t>True if the respondent did not use transit because they don't like public transport with luggage</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -5536,22 +5536,22 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>general_use_transit_resident</t>
+          <t>reasons_no_transit_prefer_other_mode</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>TransitUseFrequency</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>General transit use frequency by residents of San Diego region in San Diego region</t>
+          <t>True if the respondent did not use transit because they prefer other modes(s)</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -5563,22 +5563,22 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>general_use_transit_visitor_home</t>
+          <t>reasons_no_transit_other</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>TransitUseFrequency</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>General transit use frequency by visitors of San Diego region when home</t>
+          <t>Other reason why the respondent did not use transit</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -5590,22 +5590,22 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_taxi</t>
+          <t>general_use_transit_resident</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>TransitUseFrequency</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>True if the visitor used Taxi as a mode during their visit to the San Diego Region</t>
+          <t>General transit use frequency by residents of San Diego region in San Diego region</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -5617,22 +5617,22 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_uber_lyft</t>
+          <t>general_use_transit_visitor_home</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>TransitUseFrequency</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>True if the visitor used Uber or Lyft as a mode during their visit to the San Diego Region</t>
+          <t>General transit use frequency by visitors of San Diego region when home</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -5644,7 +5644,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_car_black</t>
+          <t>general_modes_used_visitor_taxi</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -5659,7 +5659,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>True if the visitor used a black car service as a mode during their visit to the San Diego Region</t>
+          <t>True if the visitor used Taxi as a mode during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -5671,7 +5671,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_dropped_off_by_family_friend</t>
+          <t>general_modes_used_visitor_uber_lyft</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>True if the visitor was dropped off by a family member or friend during their visit to the San Diego Region</t>
+          <t>True if the visitor used Uber or Lyft as a mode during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -5698,7 +5698,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_drove_alone_and_parked</t>
+          <t>general_modes_used_visitor_car_black</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -5713,7 +5713,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>True if the visitor drove alone and parked during their visit to the San Diego Region</t>
+          <t>True if the visitor used a black car service as a mode during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -5725,7 +5725,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_drove_with_others_and_parked</t>
+          <t>general_modes_used_visitor_dropped_off_by_family_friend</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>True if the visitor drove with others and parked during their visit to the San Diego Region</t>
+          <t>True if the visitor was dropped off by a family member or friend during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -5752,7 +5752,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_rode_with_other_travelers_and_parked</t>
+          <t>general_modes_used_visitor_drove_alone_and_parked</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>True if the visitor rode with other travelers and parked during their visit to the San Diego Region</t>
+          <t>True if the visitor drove alone and parked during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -5779,7 +5779,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_coaster</t>
+          <t>general_modes_used_visitor_drove_with_others_and_parked</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -5794,7 +5794,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>True if the visitor used the Coaster train during their visit to the San Diego Region</t>
+          <t>True if the visitor drove with others and parked during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -5806,7 +5806,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_mts_red_trolley</t>
+          <t>general_modes_used_visitor_rode_with_other_travelers_and_parked</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -5821,7 +5821,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>True if the visitor used the MTS Red Trolley during their visit to the San Diego Region</t>
+          <t>True if the visitor rode with other travelers and parked during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -5833,7 +5833,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_other_public_bus</t>
+          <t>general_modes_used_visitor_coaster</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>True if the visitor used other public bus services during their visit to the San Diego Region</t>
+          <t>True if the visitor used the Coaster train during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -5860,7 +5860,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_other_public_transit</t>
+          <t>general_modes_used_visitor_mts_red_trolley</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -5875,7 +5875,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>True if the visitor used other public transit services during their visit to the San Diego Region</t>
+          <t>True if the visitor used the MTS Red Trolley during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -5887,7 +5887,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_rental_car_dropped_off</t>
+          <t>general_modes_used_visitor_other_public_bus</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -5902,7 +5902,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>True if the visitor used a rental car and was dropped off during their visit to the San Diego Region</t>
+          <t>True if the visitor used other public bus services during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -5914,7 +5914,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_rental_car_parked</t>
+          <t>general_modes_used_visitor_other_public_transit</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>True if the visitor used a rental car and parked during their visit to the San Diego Region</t>
+          <t>True if the visitor used other public transit services during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -5941,7 +5941,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_chartered_tour_bus</t>
+          <t>general_modes_used_visitor_rental_car_dropped_off</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -5956,7 +5956,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>True if the visitor used a chartered tour bus during their visit to the San Diego Region</t>
+          <t>True if the visitor used a rental car and was dropped off during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -5968,7 +5968,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_hotel_shuttle_van</t>
+          <t>general_modes_used_visitor_rental_car_parked</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -5983,7 +5983,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>True if the visitor used a hotel shuttle or van during their visit to the San Diego Region</t>
+          <t>True if the visitor used a rental car and parked during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -5995,7 +5995,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_employee_shuttle</t>
+          <t>general_modes_used_visitor_chartered_tour_bus</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -6010,7 +6010,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>True if the visitor used an employee shuttle during their visit to the San Diego Region</t>
+          <t>True if the visitor used a chartered tour bus during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -6022,7 +6022,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_other_shared_van</t>
+          <t>general_modes_used_visitor_hotel_shuttle_van</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>True if the visitor used another type of shared van service during their visit to the San Diego Region</t>
+          <t>True if the visitor used a hotel shuttle or van during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -6049,7 +6049,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_walk</t>
+          <t>general_modes_used_visitor_employee_shuttle</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -6064,7 +6064,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>True if the visitor walked as a mode during their visit to the San Diego Region</t>
+          <t>True if the visitor used an employee shuttle during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -6076,7 +6076,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_wheelchair</t>
+          <t>general_modes_used_visitor_other_shared_van</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>True if the visitor used a wheelchair during their visit to the San Diego Region</t>
+          <t>True if the visitor used another type of shared van service during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -6103,7 +6103,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_bicycle_electric_bikeshare</t>
+          <t>general_modes_used_visitor_walk</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>True if the visitor used an electric bicycle through a bikeshare service during their visit to the San Diego Region</t>
+          <t>True if the visitor walked as a mode during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -6130,7 +6130,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_bicycle_non_electric_bikeshare</t>
+          <t>general_modes_used_visitor_wheelchair</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -6145,7 +6145,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>True if the visitor used a non-electric bicycle through a bikeshare service during their visit to the San Diego Region</t>
+          <t>True if the visitor used a wheelchair during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -6157,7 +6157,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_bicycle_personal_electric_bicycle</t>
+          <t>general_modes_used_visitor_bicycle_electric_bikeshare</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>True if the visitor used their personal electric bicycle during their visit to the San Diego Region</t>
+          <t>True if the visitor used an electric bicycle through a bikeshare service during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -6184,7 +6184,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_bicycle_personal_non_electric_bicycle</t>
+          <t>general_modes_used_visitor_bicycle_non_electric_bikeshare</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>True if the visitor used their personal non-electric bicycle during their visit to the San Diego Region</t>
+          <t>True if the visitor used a non-electric bicycle through a bikeshare service during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -6211,7 +6211,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_e_scooter_shared</t>
+          <t>general_modes_used_visitor_bicycle_personal_electric_bicycle</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -6226,7 +6226,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>True if the visitor used a shared e-scooter during their visit to the San Diego Region</t>
+          <t>True if the visitor used their personal electric bicycle during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -6238,7 +6238,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>general_modes_used_visitor_e_scooter_personal</t>
+          <t>general_modes_used_visitor_bicycle_personal_non_electric_bicycle</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -6253,7 +6253,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>True if the visitor used their personal e-scooter during their visit to the San Diego Region</t>
+          <t>True if the visitor used their personal non-electric bicycle during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -6265,22 +6265,22 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>non_sdia_flight_frequency</t>
+          <t>general_modes_used_visitor_e_scooter_shared</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>OtherFlightAndTransitUseFrequency</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Respondent's number of flights from airport other than SDIA in the past 12 months</t>
+          <t>True if the visitor used a shared e-scooter during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -6292,22 +6292,22 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>other_airport_accessmode</t>
+          <t>general_modes_used_visitor_e_scooter_personal</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>TravelMode</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Travel mode used to access other airports</t>
+          <t>True if the visitor used their personal e-scooter during their visit to the San Diego Region</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -6319,22 +6319,22 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>airport_access_transit_use_elsewhere</t>
+          <t>general_modes_used_visitor_other</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>OtherFlightAndTransitUseFrequency</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Frequency of Transit use by respondent to access other airports</t>
+          <t>Other mode used by the visitor during their visit to the San Diego Region.</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -6346,22 +6346,22 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>airportaccesstransitname</t>
+          <t>non_sdia_flight_frequency</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>OtherFlightAndTransitUseFrequency</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Names of airports accessed by transit</t>
+          <t>Respondent's number of flights from airport other than SDIA in the past 12 months</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -6373,248 +6373,248 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
+          <t>other_airport_accessmode</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>TravelMode</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Travel mode used to access other airports</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>AirPassenger</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>airport_access_transit_use_elsewhere</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>OtherFlightAndTransitUseFrequency</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Frequency of Transit use by respondent to access other airports</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>AirPassenger</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>airportaccesstransitname</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Actual Value</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Names of airports accessed by transit</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>AirPassenger</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
           <t>airport_terminal</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B224" t="inlineStr">
         <is>
           <t>int</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="C224" t="inlineStr">
         <is>
           <t>Computed Value</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr">
+      <c r="D224" t="inlineStr">
         <is>
           <t xml:space="preserve">
         Airport Terminal for Air Passenger
         </t>
         </is>
       </c>
-      <c r="E221" t="inlineStr">
+      <c r="E224" t="inlineStr">
         <is>
           <t>AirPassenger</t>
         </is>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
+    <row r="225">
+      <c r="A225" t="inlineStr">
         <is>
           <t>is_final_destination</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B225" t="inlineStr">
         <is>
           <t>int</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
+      <c r="C225" t="inlineStr">
         <is>
           <t>Computed Value</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr">
+      <c r="D225" t="inlineStr">
         <is>
           <t xml:space="preserve">
         True if the next flight destination is final and not a layover
         </t>
         </is>
       </c>
-      <c r="E222" t="inlineStr">
+      <c r="E225" t="inlineStr">
         <is>
           <t>AirPassenger</t>
         </is>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
+    <row r="226">
+      <c r="A226" t="inlineStr">
         <is>
           <t>is_original_origin</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr">
+      <c r="B226" t="inlineStr">
         <is>
           <t>int</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
+      <c r="C226" t="inlineStr">
         <is>
           <t>Computed Value</t>
         </is>
       </c>
-      <c r="D223" t="inlineStr">
+      <c r="D226" t="inlineStr">
         <is>
           <t xml:space="preserve">
         True if the previous flight origin was original and not a layover
         </t>
         </is>
       </c>
-      <c r="E223" t="inlineStr">
+      <c r="E226" t="inlineStr">
         <is>
           <t>AirPassenger</t>
         </is>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
+    <row r="227">
+      <c r="A227" t="inlineStr">
         <is>
           <t>next_flight_destination</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr">
+      <c r="B227" t="inlineStr">
         <is>
           <t>int</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
+      <c r="C227" t="inlineStr">
         <is>
           <t>Computed Value</t>
         </is>
       </c>
-      <c r="D224" t="inlineStr">
+      <c r="D227" t="inlineStr">
         <is>
           <t xml:space="preserve">
         Next Flight Destination for a departing passenger
         </t>
         </is>
       </c>
-      <c r="E224" t="inlineStr">
+      <c r="E227" t="inlineStr">
         <is>
           <t>AirPassenger</t>
         </is>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
+    <row r="228">
+      <c r="A228" t="inlineStr">
         <is>
           <t>previous_flight_origin</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr">
+      <c r="B228" t="inlineStr">
         <is>
           <t>int</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr">
+      <c r="C228" t="inlineStr">
         <is>
           <t>Computed Value</t>
         </is>
       </c>
-      <c r="D225" t="inlineStr">
+      <c r="D228" t="inlineStr">
         <is>
           <t xml:space="preserve">
         Previous flight origin for an arriving passenger
         </t>
         </is>
       </c>
-      <c r="E225" t="inlineStr">
+      <c r="E228" t="inlineStr">
         <is>
           <t>AirPassenger</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>shift_start_airport_building</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>SanBuildings</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>Name of building where employee starts their shift</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>Employee</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>shift_start_airport_building_other</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>Actual Value</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>Name of building (not listed) where employee starts their shift</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>Employee</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>employer</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>Employers</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>Name of respondent's employer</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>Employee</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>employer_other</t>
+          <t>shift_start_airport_building</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>SanBuildings</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Name (not listed) of respondent's employer</t>
+          <t>Name of building where employee starts their shift</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -6626,22 +6626,22 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>occupation</t>
+          <t>shift_start_airport_building_other</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Occupations</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Occupation of the employee</t>
+          <t>Name of building (not listed) where employee starts their shift</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -6653,22 +6653,22 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>occupation_other</t>
+          <t>employer</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>Employers</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Occupation (other, not listed) of the employee</t>
+          <t>Name of respondent's employer</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -6680,22 +6680,22 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>number_hours_worked</t>
+          <t>employer_other</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>HoursWorked</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Number of hours respondent worked in the past 7 days</t>
+          <t>Name (not listed) of respondent's employer</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -6707,7 +6707,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>number_commute_days</t>
+          <t>occupation</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -6717,12 +6717,12 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>CommuteDays</t>
+          <t>Occupations</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Number of days respondent commuted to the airport in the past 7 days</t>
+          <t>Occupation of the employee</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -6734,22 +6734,22 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>shift_start_time</t>
+          <t>occupation_other</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>DepartTime</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Time when the employee's shift starts</t>
+          <t>Occupation (other, not listed) of the employee</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -6761,7 +6761,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>shift_end_time</t>
+          <t>number_hours_worked</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -6771,12 +6771,12 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>DepartTime</t>
+          <t>HoursWorked</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Time when the employee's shift ends</t>
+          <t>Number of hours respondent worked in the past 7 days</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -6788,7 +6788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>reverse_commute_mode</t>
+          <t>number_commute_days</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -6798,12 +6798,12 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>TravelMode</t>
+          <t>CommuteDays</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Reverse commute mode for the employee</t>
+          <t>Number of days respondent commuted to the airport in the past 7 days</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -6815,22 +6815,22 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>reverse_commute_mode_other</t>
+          <t>shift_start_time</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>DepartTime</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Reverse commute mode for the employee (other, not listed)</t>
+          <t>Time when the employee's shift starts</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -6842,7 +6842,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>same_commute_mode</t>
+          <t>shift_end_time</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -6852,12 +6852,12 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>YesNoType</t>
+          <t>DepartTime</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>True if the employee always used the same travel mode to commute in the last 30 days</t>
+          <t>Time when the employee's shift ends</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -6869,22 +6869,22 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>same_commute_mode_other</t>
+          <t>reverse_commute_mode</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>TravelMode</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Other Response to employee's travel mode to commute in the last 30 days</t>
+          <t>Reverse commute mode for the employee</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -6896,12 +6896,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>alt_commute_mode_taxi</t>
+          <t>reverse_commute_mode_other</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -6911,7 +6911,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>True if the employee used Taxi as a mode to commute to the airport in the past 30 days</t>
+          <t>Reverse commute mode for the employee (other, not listed)</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -6923,22 +6923,22 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>alt_commute_mode_uber_lyft</t>
+          <t>same_commute_mode</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Actual Value</t>
+          <t>YesNoType</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>True if the employee used Uber or Lyft as a mode to commute to the airport in the past 30 days</t>
+          <t>True if the employee always used the same travel mode to commute in the last 30 days</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -6950,12 +6950,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>alt_commute_mode_car_black</t>
+          <t>same_commute_mode_other</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>str</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -6965,7 +6965,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>True if the employee used a black car service as a mode to commute to the airport in the past 30 days</t>
+          <t>Other Response to employee's travel mode to commute in the last 30 days</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -6977,7 +6977,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>alt_commute_mode_picked_by_family_friend</t>
+          <t>alt_commute_mode_taxi</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>True if the employee was picked up by a family member or friend to commute to the airport in the past 30 days</t>
+          <t>True if the employee used Taxi as a mode to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -7004,7 +7004,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>alt_commute_mode_parked_vehicle_and_drive_alone</t>
+          <t>alt_commute_mode_uber_lyft</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -7019,7 +7019,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>True if the employee drove alone and parked their vehicle while commuting to the airport in the past 30 days</t>
+          <t>True if the employee used Uber or Lyft as a mode to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -7031,7 +7031,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>alt_commute_mode_parked_vehicle_and_drive_with_others</t>
+          <t>alt_commute_mode_car_black</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -7046,7 +7046,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>True if the employee drove with others and parked their vehicle while commuting to the airport in the past 30 days</t>
+          <t>True if the employee used a black car service as a mode to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -7058,7 +7058,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>alt_commute_mode_parked_vehicle_and_ride_with_other_travelers</t>
+          <t>alt_commute_mode_picked_by_family_friend</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -7073,7 +7073,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>True if the employee rode with other travelers and parked their vehicle while commuting to the airport in the past 30 days</t>
+          <t>True if the employee was picked up by a family member or friend to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -7085,7 +7085,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>alt_commute_mode_mts_route_992</t>
+          <t>alt_commute_mode_parked_vehicle_and_drive_alone</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -7100,7 +7100,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>True if the employee used MTS Route 992 to commute to the airport in the past 30 days</t>
+          <t>True if the employee drove alone and parked their vehicle while commuting to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -7112,7 +7112,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>alt_commute_mode_airport_flyer_shuttle</t>
+          <t>alt_commute_mode_parked_vehicle_and_drive_with_others</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -7127,7 +7127,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>True if the employee used the Airport Flyer Shuttle to commute to the airport in the past 30 days</t>
+          <t>True if the employee drove with others and parked their vehicle while commuting to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -7139,7 +7139,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>alt_commute_mode_other_public_transit</t>
+          <t>alt_commute_mode_parked_vehicle_and_ride_with_other_travelers</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -7154,7 +7154,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>True if the employee used other public transit services to commute to the airport in the past 30 days</t>
+          <t>True if the employee rode with other travelers and parked their vehicle while commuting to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -7166,7 +7166,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>alt_commute_mode_other_shared_van</t>
+          <t>alt_commute_mode_mts_route_992</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -7181,7 +7181,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>True if the employee used another type of shared van service to commute to the airport in the past 30 days</t>
+          <t>True if the employee used MTS Route 992 to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -7193,7 +7193,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>alt_commute_mode_walk</t>
+          <t>alt_commute_mode_airport_flyer_shuttle</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -7208,7 +7208,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>True if the employee walked as a mode to commute to the airport in the past 30 days</t>
+          <t>True if the employee used the Airport Flyer Shuttle to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -7220,7 +7220,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>alt_commute_mode_wheelchair</t>
+          <t>alt_commute_mode_other_public_transit</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -7235,7 +7235,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>True if the employee used a wheelchair to commute to the airport in the past 30 days</t>
+          <t>True if the employee used other public transit services to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -7247,7 +7247,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>alt_commute_mode_bicycle_electric_bikeshare</t>
+          <t>alt_commute_mode_other_shared_van</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -7262,7 +7262,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>True if the employee used an electric bicycle through a bikeshare service to commute to the airport in the past 30 days</t>
+          <t>True if the employee used another type of shared van service to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -7274,7 +7274,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>alt_commute_mode_bicycle_non_electric_bikeshare</t>
+          <t>alt_commute_mode_walk</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -7289,7 +7289,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>True if the employee used a non-electric bicycle through a bikeshare service to commute to the airport in the past 30 days</t>
+          <t>True if the employee walked as a mode to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -7301,7 +7301,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>alt_commute_mode_bicycle_personal_electric_bicycle</t>
+          <t>alt_commute_mode_wheelchair</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -7316,7 +7316,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>True if the employee used their personal electric bicycle to commute to the airport in the past 30 days</t>
+          <t>True if the employee used a wheelchair to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -7328,7 +7328,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>alt_commute_mode_bicycle_personal_non_electric_bicycle</t>
+          <t>alt_commute_mode_bicycle_electric_bikeshare</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -7343,7 +7343,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>True if the employee used their personal non-electric bicycle to commute to the airport in the past 30 days</t>
+          <t>True if the employee used an electric bicycle through a bikeshare service to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -7355,7 +7355,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>alt_commute_mode_e_scooter_shared</t>
+          <t>alt_commute_mode_bicycle_non_electric_bikeshare</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -7370,7 +7370,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>True if the employee used a shared e-scooter to commute to the airport in the past 30 days</t>
+          <t>True if the employee used a non-electric bicycle through a bikeshare service to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -7382,7 +7382,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>alt_commute_mode_e_scooter_personal</t>
+          <t>alt_commute_mode_bicycle_personal_electric_bicycle</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -7397,7 +7397,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>True if the employee used their personal e-scooter to commute to the airport in the past 30 days</t>
+          <t>True if the employee used their personal electric bicycle to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -7409,22 +7409,22 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>commute_mode_decision</t>
+          <t>alt_commute_mode_bicycle_personal_non_electric_bicycle</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>ModeDecision</t>
+          <t>Actual Value</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Factor affecting the Mode choice of the employee</t>
+          <t>True if the employee used their personal non-electric bicycle to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -7436,12 +7436,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>commute_mode_decision_other</t>
+          <t>alt_commute_mode_e_scooter_shared</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -7451,7 +7451,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>(Other) Factor affecting the Mode choice of the employee</t>
+          <t>True if the employee used a shared e-scooter to commute to the airport in the past 30 days</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -7463,25 +7463,133 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
+          <t>alt_commute_mode_e_scooter_personal</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>bool</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Actual Value</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>True if the employee used their personal e-scooter to commute to the airport in the past 30 days</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>commute_mode_decision</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>ModeDecision</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Factor affecting the Mode choice of the employee</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>alt_commute_mode_other</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Actual Value</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Other mode used by the employee to commute to the airport in the past 30 days.</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>commute_mode_decision_other</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Actual Value</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>(Other) Factor affecting the Mode choice of the employee</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
           <t>employee_parking</t>
         </is>
       </c>
-      <c r="B261" t="inlineStr">
+      <c r="B265" t="inlineStr">
         <is>
           <t>bool</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr">
+      <c r="C265" t="inlineStr">
         <is>
           <t>Actual Value</t>
         </is>
       </c>
-      <c r="D261" t="inlineStr">
+      <c r="D265" t="inlineStr">
         <is>
           <t>Whether the respondent has access to employee parking</t>
         </is>
       </c>
-      <c r="E261" t="inlineStr">
+      <c r="E265" t="inlineStr">
         <is>
           <t>Employee</t>
         </is>
@@ -7714,7 +7822,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>UNNKNOWN</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
     </row>
